--- a/Output/Excel/df_month.xlsx
+++ b/Output/Excel/df_month.xlsx
@@ -537,17 +537,17 @@
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>STOCK_OIL</t>
+          <t>INTERNAL_DEMAND</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>INTERNAL_DEMAND</t>
+          <t>EXTERNAL_DEMAND</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>EXTERNAL_DEMAND</t>
+          <t>TOTAL_DEMAND</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
@@ -768,13 +768,13 @@
         <v>1</v>
       </c>
       <c r="T2" t="n">
-        <v>1006.9</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="U2" t="n">
-        <v>96.59999999999999</v>
+        <v>154.5</v>
       </c>
       <c r="V2" t="n">
-        <v>154.5</v>
+        <v>155.3</v>
       </c>
       <c r="W2" t="n">
         <v>37.6</v>
@@ -916,13 +916,13 @@
         <v>1</v>
       </c>
       <c r="T3" t="n">
-        <v>1148.1</v>
+        <v>63</v>
       </c>
       <c r="U3" t="n">
-        <v>63</v>
+        <v>119.6</v>
       </c>
       <c r="V3" t="n">
-        <v>119.6</v>
+        <v>120.4</v>
       </c>
       <c r="W3" t="n">
         <v>37.6</v>
@@ -1064,13 +1064,13 @@
         <v>1</v>
       </c>
       <c r="T4" t="n">
-        <v>1095.9</v>
+        <v>36.7</v>
       </c>
       <c r="U4" t="n">
-        <v>36.7</v>
+        <v>104.5</v>
       </c>
       <c r="V4" t="n">
-        <v>104.5</v>
+        <v>105.8</v>
       </c>
       <c r="W4" t="n">
         <v>37.6</v>
@@ -1212,13 +1212,13 @@
         <v>1</v>
       </c>
       <c r="T5" t="n">
-        <v>1019.2</v>
+        <v>61.5</v>
       </c>
       <c r="U5" t="n">
-        <v>61.5</v>
+        <v>108.4</v>
       </c>
       <c r="V5" t="n">
-        <v>108.4</v>
+        <v>108.8</v>
       </c>
       <c r="W5" t="n">
         <v>37.6</v>
@@ -1360,13 +1360,13 @@
         <v>1</v>
       </c>
       <c r="T6" t="n">
-        <v>919.7</v>
+        <v>61.09999999999999</v>
       </c>
       <c r="U6" t="n">
-        <v>61.09999999999999</v>
+        <v>107.2</v>
       </c>
       <c r="V6" t="n">
-        <v>107.2</v>
+        <v>107.5</v>
       </c>
       <c r="W6" t="n">
         <v>37.6</v>
@@ -1508,13 +1508,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>812.8</v>
+        <v>41.59999999999999</v>
       </c>
       <c r="U7" t="n">
-        <v>41.59999999999999</v>
+        <v>92.3</v>
       </c>
       <c r="V7" t="n">
-        <v>92.3</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="W7" t="n">
         <v>37.6</v>
@@ -1656,13 +1656,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>720.8</v>
+        <v>49.7</v>
       </c>
       <c r="U8" t="n">
-        <v>49.7</v>
+        <v>115.9</v>
       </c>
       <c r="V8" t="n">
-        <v>115.9</v>
+        <v>116.2</v>
       </c>
       <c r="W8" t="n">
         <v>37.6</v>
@@ -1804,13 +1804,13 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>605.2</v>
+        <v>41.2</v>
       </c>
       <c r="U9" t="n">
-        <v>41.2</v>
+        <v>81.5</v>
       </c>
       <c r="V9" t="n">
-        <v>81.5</v>
+        <v>81.7</v>
       </c>
       <c r="W9" t="n">
         <v>37.6</v>
@@ -1952,13 +1952,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>523.9</v>
+        <v>44.7</v>
       </c>
       <c r="U10" t="n">
-        <v>44.7</v>
+        <v>94.30000000000001</v>
       </c>
       <c r="V10" t="n">
-        <v>94.30000000000001</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="W10" t="n">
         <v>37.6</v>
@@ -2100,13 +2100,13 @@
         <v>1</v>
       </c>
       <c r="T11" t="n">
-        <v>430.2</v>
+        <v>58.5</v>
       </c>
       <c r="U11" t="n">
-        <v>58.5</v>
+        <v>106.5</v>
       </c>
       <c r="V11" t="n">
-        <v>106.5</v>
+        <v>107.2</v>
       </c>
       <c r="W11" t="n">
         <v>37.6</v>
@@ -2248,13 +2248,13 @@
         <v>1</v>
       </c>
       <c r="T12" t="n">
-        <v>379.1</v>
+        <v>42.8</v>
       </c>
       <c r="U12" t="n">
-        <v>42.8</v>
+        <v>88.5</v>
       </c>
       <c r="V12" t="n">
-        <v>88.5</v>
+        <v>90</v>
       </c>
       <c r="W12" t="n">
         <v>37.6</v>
@@ -2396,13 +2396,13 @@
         <v>1</v>
       </c>
       <c r="T13" t="n">
-        <v>573.6</v>
+        <v>49.8</v>
       </c>
       <c r="U13" t="n">
-        <v>49.8</v>
+        <v>90.69999999999999</v>
       </c>
       <c r="V13" t="n">
-        <v>90.69999999999999</v>
+        <v>94.19999999999999</v>
       </c>
       <c r="W13" t="n">
         <v>37.6</v>
@@ -2544,13 +2544,13 @@
         <v>1</v>
       </c>
       <c r="T14" t="n">
-        <v>810.4</v>
+        <v>70.8</v>
       </c>
       <c r="U14" t="n">
-        <v>70.8</v>
+        <v>108.3</v>
       </c>
       <c r="V14" t="n">
-        <v>108.3</v>
+        <v>109.6</v>
       </c>
       <c r="W14" t="n">
         <v>44.2</v>
@@ -2692,13 +2692,13 @@
         <v>1</v>
       </c>
       <c r="T15" t="n">
-        <v>847.7</v>
+        <v>43.5</v>
       </c>
       <c r="U15" t="n">
-        <v>43.5</v>
+        <v>83.8</v>
       </c>
       <c r="V15" t="n">
-        <v>83.8</v>
+        <v>87.5</v>
       </c>
       <c r="W15" t="n">
         <v>44.2</v>
@@ -2840,13 +2840,13 @@
         <v>1</v>
       </c>
       <c r="T16" t="n">
-        <v>815.9</v>
+        <v>53.8</v>
       </c>
       <c r="U16" t="n">
-        <v>53.8</v>
+        <v>97.8</v>
       </c>
       <c r="V16" t="n">
-        <v>97.8</v>
+        <v>103.8</v>
       </c>
       <c r="W16" t="n">
         <v>44.2</v>
@@ -2988,13 +2988,13 @@
         <v>1</v>
       </c>
       <c r="T17" t="n">
-        <v>729.1</v>
+        <v>76.8</v>
       </c>
       <c r="U17" t="n">
-        <v>76.8</v>
+        <v>112</v>
       </c>
       <c r="V17" t="n">
-        <v>112</v>
+        <v>118.6</v>
       </c>
       <c r="W17" t="n">
         <v>44.2</v>
@@ -3136,13 +3136,13 @@
         <v>1</v>
       </c>
       <c r="T18" t="n">
-        <v>627</v>
+        <v>63.4</v>
       </c>
       <c r="U18" t="n">
-        <v>63.4</v>
+        <v>110.4</v>
       </c>
       <c r="V18" t="n">
-        <v>110.4</v>
+        <v>114</v>
       </c>
       <c r="W18" t="n">
         <v>44.2</v>
@@ -3284,13 +3284,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>520.2</v>
+        <v>56.1</v>
       </c>
       <c r="U19" t="n">
-        <v>56.1</v>
+        <v>107.5</v>
       </c>
       <c r="V19" t="n">
-        <v>107.5</v>
+        <v>112.7</v>
       </c>
       <c r="W19" t="n">
         <v>44.2</v>
@@ -3432,13 +3432,13 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>417.9</v>
+        <v>50.09999999999999</v>
       </c>
       <c r="U20" t="n">
-        <v>50.09999999999999</v>
+        <v>98.3</v>
       </c>
       <c r="V20" t="n">
-        <v>98.3</v>
+        <v>101.6</v>
       </c>
       <c r="W20" t="n">
         <v>44.2</v>
@@ -3580,13 +3580,13 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>322.9</v>
+        <v>55.5</v>
       </c>
       <c r="U21" t="n">
-        <v>55.5</v>
+        <v>84.8</v>
       </c>
       <c r="V21" t="n">
-        <v>84.8</v>
+        <v>85.3</v>
       </c>
       <c r="W21" t="n">
         <v>44.2</v>
@@ -3728,13 +3728,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>238.6</v>
+        <v>27.4</v>
       </c>
       <c r="U22" t="n">
-        <v>27.4</v>
+        <v>71.90000000000001</v>
       </c>
       <c r="V22" t="n">
-        <v>71.90000000000001</v>
+        <v>73.5</v>
       </c>
       <c r="W22" t="n">
         <v>44.2</v>
@@ -3876,13 +3876,13 @@
         <v>1</v>
       </c>
       <c r="T23" t="n">
-        <v>168.3</v>
+        <v>40.4</v>
       </c>
       <c r="U23" t="n">
-        <v>40.4</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="V23" t="n">
-        <v>74.90000000000001</v>
+        <v>77.2</v>
       </c>
       <c r="W23" t="n">
         <v>44.2</v>
@@ -4024,13 +4024,13 @@
         <v>1</v>
       </c>
       <c r="T24" t="n">
-        <v>184.9</v>
+        <v>27.9</v>
       </c>
       <c r="U24" t="n">
-        <v>27.9</v>
+        <v>57.7</v>
       </c>
       <c r="V24" t="n">
-        <v>57.7</v>
+        <v>59.6</v>
       </c>
       <c r="W24" t="n">
         <v>44.2</v>
@@ -4172,13 +4172,13 @@
         <v>1</v>
       </c>
       <c r="T25" t="n">
-        <v>558.9</v>
+        <v>67.3</v>
       </c>
       <c r="U25" t="n">
-        <v>67.3</v>
+        <v>116.7</v>
       </c>
       <c r="V25" t="n">
-        <v>116.7</v>
+        <v>118.7</v>
       </c>
       <c r="W25" t="n">
         <v>44.2</v>
@@ -4320,13 +4320,13 @@
         <v>1</v>
       </c>
       <c r="T26" t="n">
-        <v>1012.1</v>
+        <v>97.3</v>
       </c>
       <c r="U26" t="n">
-        <v>97.3</v>
+        <v>148.9</v>
       </c>
       <c r="V26" t="n">
-        <v>148.9</v>
+        <v>153.7</v>
       </c>
       <c r="W26" t="n">
         <v>49.5</v>
@@ -4468,13 +4468,13 @@
         <v>1</v>
       </c>
       <c r="T27" t="n">
-        <v>1107.7</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="U27" t="n">
-        <v>66.09999999999999</v>
+        <v>142.6</v>
       </c>
       <c r="V27" t="n">
-        <v>142.6</v>
+        <v>146.2</v>
       </c>
       <c r="W27" t="n">
         <v>49.5</v>
@@ -4616,13 +4616,13 @@
         <v>1</v>
       </c>
       <c r="T28" t="n">
-        <v>1040.3</v>
+        <v>72.3</v>
       </c>
       <c r="U28" t="n">
-        <v>72.3</v>
+        <v>134.1</v>
       </c>
       <c r="V28" t="n">
-        <v>134.1</v>
+        <v>144.7</v>
       </c>
       <c r="W28" t="n">
         <v>49.5</v>
@@ -4764,13 +4764,13 @@
         <v>1</v>
       </c>
       <c r="T29" t="n">
-        <v>932.5</v>
+        <v>57.6</v>
       </c>
       <c r="U29" t="n">
-        <v>57.6</v>
+        <v>113.7</v>
       </c>
       <c r="V29" t="n">
-        <v>113.7</v>
+        <v>122.7</v>
       </c>
       <c r="W29" t="n">
         <v>49.5</v>
@@ -4912,13 +4912,13 @@
         <v>1</v>
       </c>
       <c r="T30" t="n">
-        <v>830.5</v>
+        <v>61.9</v>
       </c>
       <c r="U30" t="n">
-        <v>61.9</v>
+        <v>102.8</v>
       </c>
       <c r="V30" t="n">
-        <v>102.8</v>
+        <v>110.7</v>
       </c>
       <c r="W30" t="n">
         <v>49.5</v>
@@ -5060,13 +5060,13 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>735.6</v>
+        <v>41</v>
       </c>
       <c r="U31" t="n">
-        <v>41</v>
+        <v>88.5</v>
       </c>
       <c r="V31" t="n">
-        <v>88.5</v>
+        <v>94</v>
       </c>
       <c r="W31" t="n">
         <v>49.5</v>
@@ -5208,13 +5208,13 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>652.6</v>
+        <v>66.2</v>
       </c>
       <c r="U32" t="n">
-        <v>66.2</v>
+        <v>111.3</v>
       </c>
       <c r="V32" t="n">
-        <v>111.3</v>
+        <v>119.5</v>
       </c>
       <c r="W32" t="n">
         <v>49.5</v>
@@ -5356,13 +5356,13 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>549.5</v>
+        <v>37.7</v>
       </c>
       <c r="U33" t="n">
-        <v>37.7</v>
+        <v>65.69999999999999</v>
       </c>
       <c r="V33" t="n">
-        <v>65.69999999999999</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="W33" t="n">
         <v>49.5</v>
@@ -5504,13 +5504,13 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>485.7</v>
+        <v>51.09999999999999</v>
       </c>
       <c r="U34" t="n">
-        <v>51.09999999999999</v>
+        <v>93</v>
       </c>
       <c r="V34" t="n">
-        <v>93</v>
+        <v>97.3</v>
       </c>
       <c r="W34" t="n">
         <v>49.5</v>
@@ -5652,13 +5652,13 @@
         <v>1</v>
       </c>
       <c r="T35" t="n">
-        <v>397</v>
+        <v>41.40000000000001</v>
       </c>
       <c r="U35" t="n">
-        <v>41.40000000000001</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="V35" t="n">
-        <v>83.90000000000001</v>
+        <v>86.10000000000001</v>
       </c>
       <c r="W35" t="n">
         <v>49.5</v>
@@ -5800,13 +5800,13 @@
         <v>1</v>
       </c>
       <c r="T36" t="n">
-        <v>385.6</v>
+        <v>50</v>
       </c>
       <c r="U36" t="n">
-        <v>50</v>
+        <v>92.80000000000001</v>
       </c>
       <c r="V36" t="n">
-        <v>92.80000000000001</v>
+        <v>97.20000000000002</v>
       </c>
       <c r="W36" t="n">
         <v>49.5</v>
@@ -5948,13 +5948,13 @@
         <v>1</v>
       </c>
       <c r="T37" t="n">
-        <v>614</v>
+        <v>57.1</v>
       </c>
       <c r="U37" t="n">
-        <v>57.1</v>
+        <v>88.90000000000001</v>
       </c>
       <c r="V37" t="n">
-        <v>88.90000000000001</v>
+        <v>97.5</v>
       </c>
       <c r="W37" t="n">
         <v>49.5</v>
@@ -6096,13 +6096,13 @@
         <v>1</v>
       </c>
       <c r="T38" t="n">
-        <v>957.3000000000001</v>
+        <v>81.2</v>
       </c>
       <c r="U38" t="n">
-        <v>81.2</v>
+        <v>116.6</v>
       </c>
       <c r="V38" t="n">
-        <v>116.6</v>
+        <v>123.6</v>
       </c>
       <c r="W38" t="n">
         <v>53.09999999999999</v>
@@ -6244,13 +6244,13 @@
         <v>1</v>
       </c>
       <c r="T39" t="n">
-        <v>993.5</v>
+        <v>72</v>
       </c>
       <c r="U39" t="n">
-        <v>72</v>
+        <v>104.3</v>
       </c>
       <c r="V39" t="n">
-        <v>104.3</v>
+        <v>116.5</v>
       </c>
       <c r="W39" t="n">
         <v>53.09999999999999</v>
@@ -6392,13 +6392,13 @@
         <v>1</v>
       </c>
       <c r="T40" t="n">
-        <v>927.5</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="U40" t="n">
-        <v>68.59999999999999</v>
+        <v>106.7</v>
       </c>
       <c r="V40" t="n">
-        <v>106.7</v>
+        <v>118.8</v>
       </c>
       <c r="W40" t="n">
         <v>53.09999999999999</v>
@@ -6540,13 +6540,13 @@
         <v>1</v>
       </c>
       <c r="T41" t="n">
-        <v>837.5</v>
+        <v>49</v>
       </c>
       <c r="U41" t="n">
-        <v>49</v>
+        <v>82.80000000000001</v>
       </c>
       <c r="V41" t="n">
-        <v>82.80000000000001</v>
+        <v>90.20000000000002</v>
       </c>
       <c r="W41" t="n">
         <v>53.09999999999999</v>
@@ -6688,13 +6688,13 @@
         <v>1</v>
       </c>
       <c r="T42" t="n">
-        <v>764.7</v>
+        <v>64.2</v>
       </c>
       <c r="U42" t="n">
-        <v>64.2</v>
+        <v>100.2</v>
       </c>
       <c r="V42" t="n">
-        <v>100.2</v>
+        <v>106.9</v>
       </c>
       <c r="W42" t="n">
         <v>53.09999999999999</v>
@@ -6836,13 +6836,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>671.2</v>
+        <v>52.2</v>
       </c>
       <c r="U43" t="n">
-        <v>52.2</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="V43" t="n">
-        <v>96.59999999999999</v>
+        <v>102.2</v>
       </c>
       <c r="W43" t="n">
         <v>53.09999999999999</v>
@@ -6984,13 +6984,13 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>580.2</v>
+        <v>53</v>
       </c>
       <c r="U44" t="n">
-        <v>53</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="V44" t="n">
-        <v>97.40000000000001</v>
+        <v>102.3</v>
       </c>
       <c r="W44" t="n">
         <v>53.09999999999999</v>
@@ -7132,13 +7132,13 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>487.7</v>
+        <v>53.3</v>
       </c>
       <c r="U45" t="n">
-        <v>53.3</v>
+        <v>89.7</v>
       </c>
       <c r="V45" t="n">
-        <v>89.7</v>
+        <v>91.8</v>
       </c>
       <c r="W45" t="n">
         <v>53.09999999999999</v>
@@ -7280,13 +7280,13 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>400.1</v>
+        <v>45.5</v>
       </c>
       <c r="U46" t="n">
-        <v>45.5</v>
+        <v>101.7</v>
       </c>
       <c r="V46" t="n">
-        <v>101.7</v>
+        <v>104.1</v>
       </c>
       <c r="W46" t="n">
         <v>53.09999999999999</v>
@@ -7428,13 +7428,13 @@
         <v>1</v>
       </c>
       <c r="T47" t="n">
-        <v>300.8</v>
+        <v>43.3</v>
       </c>
       <c r="U47" t="n">
-        <v>43.3</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="V47" t="n">
-        <v>77.40000000000001</v>
+        <v>83.80000000000001</v>
       </c>
       <c r="W47" t="n">
         <v>53.09999999999999</v>
@@ -7576,13 +7576,13 @@
         <v>1</v>
       </c>
       <c r="T48" t="n">
-        <v>303.9</v>
+        <v>40.2</v>
       </c>
       <c r="U48" t="n">
-        <v>40.2</v>
+        <v>61.8</v>
       </c>
       <c r="V48" t="n">
-        <v>61.8</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="W48" t="n">
         <v>53.09999999999999</v>
@@ -7724,13 +7724,13 @@
         <v>1</v>
       </c>
       <c r="T49" t="n">
-        <v>536.5</v>
+        <v>55.3</v>
       </c>
       <c r="U49" t="n">
-        <v>55.3</v>
+        <v>70.09999999999999</v>
       </c>
       <c r="V49" t="n">
-        <v>70.09999999999999</v>
+        <v>80.8</v>
       </c>
       <c r="W49" t="n">
         <v>53.09999999999999</v>
@@ -7872,13 +7872,13 @@
         <v>1</v>
       </c>
       <c r="T50" t="n">
-        <v>764</v>
+        <v>55.2</v>
       </c>
       <c r="U50" t="n">
-        <v>55.2</v>
+        <v>73.2</v>
       </c>
       <c r="V50" t="n">
-        <v>73.2</v>
+        <v>83.2</v>
       </c>
       <c r="W50" t="n">
         <v>36.6</v>
@@ -8020,13 +8020,13 @@
         <v>1</v>
       </c>
       <c r="T51" t="n">
-        <v>826.1999999999999</v>
+        <v>39.6</v>
       </c>
       <c r="U51" t="n">
-        <v>39.6</v>
+        <v>58.9</v>
       </c>
       <c r="V51" t="n">
-        <v>58.9</v>
+        <v>66</v>
       </c>
       <c r="W51" t="n">
         <v>36.6</v>
@@ -8168,13 +8168,13 @@
         <v>1</v>
       </c>
       <c r="T52" t="n">
-        <v>817.3</v>
+        <v>68</v>
       </c>
       <c r="U52" t="n">
-        <v>68</v>
+        <v>87.2</v>
       </c>
       <c r="V52" t="n">
-        <v>87.2</v>
+        <v>98.7</v>
       </c>
       <c r="W52" t="n">
         <v>36.6</v>
@@ -8316,13 +8316,13 @@
         <v>1</v>
       </c>
       <c r="T53" t="n">
-        <v>749.7</v>
+        <v>41.6</v>
       </c>
       <c r="U53" t="n">
-        <v>41.6</v>
+        <v>67.7</v>
       </c>
       <c r="V53" t="n">
-        <v>67.7</v>
+        <v>73.3</v>
       </c>
       <c r="W53" t="n">
         <v>36.6</v>
@@ -8464,13 +8464,13 @@
         <v>1</v>
       </c>
       <c r="T54" t="n">
-        <v>692</v>
+        <v>55.6</v>
       </c>
       <c r="U54" t="n">
-        <v>55.6</v>
+        <v>91</v>
       </c>
       <c r="V54" t="n">
-        <v>91</v>
+        <v>97.2</v>
       </c>
       <c r="W54" t="n">
         <v>36.6</v>
@@ -8612,13 +8612,13 @@
         <v>0</v>
       </c>
       <c r="T55" t="n">
-        <v>607.2</v>
+        <v>40.9</v>
       </c>
       <c r="U55" t="n">
-        <v>40.9</v>
+        <v>89.40000000000001</v>
       </c>
       <c r="V55" t="n">
-        <v>89.40000000000001</v>
+        <v>92.7</v>
       </c>
       <c r="W55" t="n">
         <v>36.6</v>
@@ -8760,13 +8760,13 @@
         <v>0</v>
       </c>
       <c r="T56" t="n">
-        <v>521.1</v>
+        <v>40.8</v>
       </c>
       <c r="U56" t="n">
-        <v>40.8</v>
+        <v>92</v>
       </c>
       <c r="V56" t="n">
-        <v>92</v>
+        <v>96.3</v>
       </c>
       <c r="W56" t="n">
         <v>36.6</v>
@@ -8908,13 +8908,13 @@
         <v>0</v>
       </c>
       <c r="T57" t="n">
-        <v>433.4</v>
+        <v>35.2</v>
       </c>
       <c r="U57" t="n">
-        <v>35.2</v>
+        <v>71.5</v>
       </c>
       <c r="V57" t="n">
-        <v>71.5</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="W57" t="n">
         <v>36.6</v>
@@ -9056,13 +9056,13 @@
         <v>0</v>
       </c>
       <c r="T58" t="n">
-        <v>364</v>
+        <v>48</v>
       </c>
       <c r="U58" t="n">
-        <v>48</v>
+        <v>85.2</v>
       </c>
       <c r="V58" t="n">
-        <v>85.2</v>
+        <v>94.60000000000001</v>
       </c>
       <c r="W58" t="n">
         <v>36.6</v>
@@ -9204,13 +9204,13 @@
         <v>1</v>
       </c>
       <c r="T59" t="n">
-        <v>287.4</v>
+        <v>42.8</v>
       </c>
       <c r="U59" t="n">
-        <v>42.8</v>
+        <v>83.3</v>
       </c>
       <c r="V59" t="n">
-        <v>83.3</v>
+        <v>89.3</v>
       </c>
       <c r="W59" t="n">
         <v>36.6</v>
@@ -9352,13 +9352,13 @@
         <v>1</v>
       </c>
       <c r="T60" t="n">
-        <v>273.9</v>
+        <v>73.7</v>
       </c>
       <c r="U60" t="n">
-        <v>73.7</v>
+        <v>100.9</v>
       </c>
       <c r="V60" t="n">
-        <v>100.9</v>
+        <v>119.6</v>
       </c>
       <c r="W60" t="n">
         <v>36.6</v>
@@ -9500,13 +9500,13 @@
         <v>1</v>
       </c>
       <c r="T61" t="n">
-        <v>551.3</v>
+        <v>57.5</v>
       </c>
       <c r="U61" t="n">
-        <v>57.5</v>
+        <v>90.8</v>
       </c>
       <c r="V61" t="n">
-        <v>90.8</v>
+        <v>99</v>
       </c>
       <c r="W61" t="n">
         <v>36.6</v>
@@ -9648,13 +9648,13 @@
         <v>1</v>
       </c>
       <c r="T62" t="n">
-        <v>882.7</v>
+        <v>64.8</v>
       </c>
       <c r="U62" t="n">
-        <v>64.8</v>
+        <v>103.1</v>
       </c>
       <c r="V62" t="n">
-        <v>103.1</v>
+        <v>109.7</v>
       </c>
       <c r="W62" t="n">
         <v>25.7</v>
@@ -9796,13 +9796,13 @@
         <v>1</v>
       </c>
       <c r="T63" t="n">
-        <v>958.5</v>
+        <v>60.8</v>
       </c>
       <c r="U63" t="n">
-        <v>60.8</v>
+        <v>100.2</v>
       </c>
       <c r="V63" t="n">
-        <v>100.2</v>
+        <v>107.9</v>
       </c>
       <c r="W63" t="n">
         <v>25.7</v>
@@ -9944,13 +9944,13 @@
         <v>1</v>
       </c>
       <c r="T64" t="n">
-        <v>955.3</v>
+        <v>56.7</v>
       </c>
       <c r="U64" t="n">
-        <v>56.7</v>
+        <v>110.8</v>
       </c>
       <c r="V64" t="n">
-        <v>110.8</v>
+        <v>119.5</v>
       </c>
       <c r="W64" t="n">
         <v>25.7</v>
@@ -10092,13 +10092,13 @@
         <v>1</v>
       </c>
       <c r="T65" t="n">
-        <v>861.8000000000001</v>
+        <v>51</v>
       </c>
       <c r="U65" t="n">
-        <v>51</v>
+        <v>88.30000000000001</v>
       </c>
       <c r="V65" t="n">
-        <v>88.30000000000001</v>
+        <v>97.10000000000001</v>
       </c>
       <c r="W65" t="n">
         <v>25.7</v>
@@ -10240,13 +10240,13 @@
         <v>1</v>
       </c>
       <c r="T66" t="n">
-        <v>786.4</v>
+        <v>56.7</v>
       </c>
       <c r="U66" t="n">
-        <v>56.7</v>
+        <v>101.5</v>
       </c>
       <c r="V66" t="n">
-        <v>101.5</v>
+        <v>108.1</v>
       </c>
       <c r="W66" t="n">
         <v>25.7</v>
@@ -10388,13 +10388,13 @@
         <v>0</v>
       </c>
       <c r="T67" t="n">
-        <v>691.5</v>
+        <v>42.2</v>
       </c>
       <c r="U67" t="n">
-        <v>42.2</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="V67" t="n">
-        <v>89.59999999999999</v>
+        <v>94.89999999999999</v>
       </c>
       <c r="W67" t="n">
         <v>25.7</v>
@@ -10536,13 +10536,13 @@
         <v>0</v>
       </c>
       <c r="T68" t="n">
-        <v>607.2</v>
+        <v>48.8</v>
       </c>
       <c r="U68" t="n">
-        <v>48.8</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="V68" t="n">
-        <v>95.09999999999999</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="W68" t="n">
         <v>25.7</v>
@@ -10684,13 +10684,13 @@
         <v>0</v>
       </c>
       <c r="T69" t="n">
-        <v>515.1</v>
+        <v>44.7</v>
       </c>
       <c r="U69" t="n">
-        <v>44.7</v>
+        <v>87.2</v>
       </c>
       <c r="V69" t="n">
-        <v>87.2</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="W69" t="n">
         <v>25.7</v>
@@ -10832,13 +10832,13 @@
         <v>0</v>
       </c>
       <c r="T70" t="n">
-        <v>429.1</v>
+        <v>43</v>
       </c>
       <c r="U70" t="n">
-        <v>43</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="V70" t="n">
-        <v>99.90000000000001</v>
+        <v>102.5</v>
       </c>
       <c r="W70" t="n">
         <v>25.7</v>
@@ -10980,13 +10980,13 @@
         <v>1</v>
       </c>
       <c r="T71" t="n">
-        <v>331.8</v>
+        <v>47.2</v>
       </c>
       <c r="U71" t="n">
-        <v>47.2</v>
+        <v>111.3</v>
       </c>
       <c r="V71" t="n">
-        <v>111.3</v>
+        <v>114.4</v>
       </c>
       <c r="W71" t="n">
         <v>25.7</v>
@@ -11128,13 +11128,13 @@
         <v>1</v>
       </c>
       <c r="T72" t="n">
-        <v>312.5</v>
+        <v>48.2</v>
       </c>
       <c r="U72" t="n">
-        <v>48.2</v>
+        <v>108.9</v>
       </c>
       <c r="V72" t="n">
-        <v>108.9</v>
+        <v>110.2</v>
       </c>
       <c r="W72" t="n">
         <v>25.7</v>
@@ -11276,13 +11276,13 @@
         <v>1</v>
       </c>
       <c r="T73" t="n">
-        <v>619.6</v>
+        <v>48.7</v>
       </c>
       <c r="U73" t="n">
-        <v>48.7</v>
+        <v>92.09999999999999</v>
       </c>
       <c r="V73" t="n">
-        <v>92.09999999999999</v>
+        <v>96.8</v>
       </c>
       <c r="W73" t="n">
         <v>25.7</v>
@@ -11424,13 +11424,13 @@
         <v>1</v>
       </c>
       <c r="T74" t="n">
-        <v>990.3000000000001</v>
+        <v>69.3</v>
       </c>
       <c r="U74" t="n">
-        <v>69.3</v>
+        <v>112.6</v>
       </c>
       <c r="V74" t="n">
-        <v>112.6</v>
+        <v>120.8</v>
       </c>
       <c r="W74" t="n">
         <v>21.2</v>
@@ -11572,13 +11572,13 @@
         <v>1</v>
       </c>
       <c r="T75" t="n">
-        <v>1094.5</v>
+        <v>57.1</v>
       </c>
       <c r="U75" t="n">
-        <v>57.1</v>
+        <v>104.5</v>
       </c>
       <c r="V75" t="n">
-        <v>104.5</v>
+        <v>110.9</v>
       </c>
       <c r="W75" t="n">
         <v>21.2</v>
@@ -11720,13 +11720,13 @@
         <v>1</v>
       </c>
       <c r="T76" t="n">
-        <v>1052.1</v>
+        <v>57.8</v>
       </c>
       <c r="U76" t="n">
-        <v>57.8</v>
+        <v>93.7</v>
       </c>
       <c r="V76" t="n">
-        <v>93.7</v>
+        <v>105.3</v>
       </c>
       <c r="W76" t="n">
         <v>21.2</v>
@@ -11868,13 +11868,13 @@
         <v>1</v>
       </c>
       <c r="T77" t="n">
-        <v>976.9</v>
+        <v>53.3</v>
       </c>
       <c r="U77" t="n">
-        <v>53.3</v>
+        <v>96.7</v>
       </c>
       <c r="V77" t="n">
-        <v>96.7</v>
+        <v>102</v>
       </c>
       <c r="W77" t="n">
         <v>21.2</v>
@@ -12016,13 +12016,13 @@
         <v>1</v>
       </c>
       <c r="T78" t="n">
-        <v>888.7</v>
+        <v>46.4</v>
       </c>
       <c r="U78" t="n">
-        <v>46.4</v>
+        <v>91.8</v>
       </c>
       <c r="V78" t="n">
-        <v>91.8</v>
+        <v>99.2</v>
       </c>
       <c r="W78" t="n">
         <v>21.2</v>
@@ -12164,13 +12164,13 @@
         <v>0</v>
       </c>
       <c r="T79" t="n">
-        <v>804.3</v>
+        <v>43.5</v>
       </c>
       <c r="U79" t="n">
-        <v>43.5</v>
+        <v>89.90000000000001</v>
       </c>
       <c r="V79" t="n">
-        <v>89.90000000000001</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="W79" t="n">
         <v>21.2</v>
@@ -12312,13 +12312,13 @@
         <v>0</v>
       </c>
       <c r="T80" t="n">
-        <v>717.4</v>
+        <v>46.5</v>
       </c>
       <c r="U80" t="n">
-        <v>46.5</v>
+        <v>106.7</v>
       </c>
       <c r="V80" t="n">
-        <v>106.7</v>
+        <v>112.7</v>
       </c>
       <c r="W80" t="n">
         <v>21.2</v>
@@ -12460,13 +12460,13 @@
         <v>0</v>
       </c>
       <c r="T81" t="n">
-        <v>616.7</v>
+        <v>36.8</v>
       </c>
       <c r="U81" t="n">
-        <v>36.8</v>
+        <v>91.19999999999999</v>
       </c>
       <c r="V81" t="n">
-        <v>91.19999999999999</v>
+        <v>93.19999999999999</v>
       </c>
       <c r="W81" t="n">
         <v>21.2</v>
@@ -12608,13 +12608,13 @@
         <v>0</v>
       </c>
       <c r="T82" t="n">
-        <v>527.5</v>
+        <v>44.1</v>
       </c>
       <c r="U82" t="n">
-        <v>44.1</v>
+        <v>104.2</v>
       </c>
       <c r="V82" t="n">
-        <v>104.2</v>
+        <v>106.6</v>
       </c>
       <c r="W82" t="n">
         <v>21.2</v>
@@ -12756,13 +12756,13 @@
         <v>1</v>
       </c>
       <c r="T83" t="n">
-        <v>425.7</v>
+        <v>37.8</v>
       </c>
       <c r="U83" t="n">
-        <v>37.8</v>
+        <v>102.6</v>
       </c>
       <c r="V83" t="n">
-        <v>102.6</v>
+        <v>104</v>
       </c>
       <c r="W83" t="n">
         <v>21.2</v>
@@ -12904,13 +12904,13 @@
         <v>1</v>
       </c>
       <c r="T84" t="n">
-        <v>428.9</v>
+        <v>34.2</v>
       </c>
       <c r="U84" t="n">
-        <v>34.2</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="V84" t="n">
-        <v>83.90000000000001</v>
+        <v>85.40000000000001</v>
       </c>
       <c r="W84" t="n">
         <v>21.2</v>
@@ -13052,13 +13052,13 @@
         <v>1</v>
       </c>
       <c r="T85" t="n">
-        <v>665.6</v>
+        <v>45.59999999999999</v>
       </c>
       <c r="U85" t="n">
-        <v>45.59999999999999</v>
+        <v>90</v>
       </c>
       <c r="V85" t="n">
-        <v>90</v>
+        <v>91.8</v>
       </c>
       <c r="W85" t="n">
         <v>21.2</v>
@@ -13200,13 +13200,13 @@
         <v>1</v>
       </c>
       <c r="T86" t="n">
-        <v>879.5999999999999</v>
+        <v>68.7</v>
       </c>
       <c r="U86" t="n">
-        <v>68.7</v>
+        <v>103.3</v>
       </c>
       <c r="V86" t="n">
-        <v>103.3</v>
+        <v>110.5</v>
       </c>
       <c r="W86" t="n">
         <v>18.7</v>
@@ -13348,13 +13348,13 @@
         <v>1</v>
       </c>
       <c r="T87" t="n">
-        <v>1013</v>
+        <v>53.2</v>
       </c>
       <c r="U87" t="n">
-        <v>53.2</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="V87" t="n">
-        <v>93.59999999999999</v>
+        <v>99.19999999999999</v>
       </c>
       <c r="W87" t="n">
         <v>18.7</v>
@@ -13496,13 +13496,13 @@
         <v>1</v>
       </c>
       <c r="T88" t="n">
-        <v>990.7</v>
+        <v>43</v>
       </c>
       <c r="U88" t="n">
-        <v>43</v>
+        <v>97.5</v>
       </c>
       <c r="V88" t="n">
-        <v>97.5</v>
+        <v>100.6</v>
       </c>
       <c r="W88" t="n">
         <v>18.7</v>
@@ -13644,13 +13644,13 @@
         <v>1</v>
       </c>
       <c r="T89" t="n">
-        <v>901</v>
+        <v>48.40000000000001</v>
       </c>
       <c r="U89" t="n">
-        <v>48.40000000000001</v>
+        <v>98.7</v>
       </c>
       <c r="V89" t="n">
-        <v>98.7</v>
+        <v>101.4</v>
       </c>
       <c r="W89" t="n">
         <v>18.7</v>
@@ -13792,13 +13792,13 @@
         <v>1</v>
       </c>
       <c r="T90" t="n">
-        <v>809.4</v>
+        <v>54.3</v>
       </c>
       <c r="U90" t="n">
-        <v>54.3</v>
+        <v>105</v>
       </c>
       <c r="V90" t="n">
-        <v>105</v>
+        <v>108.5</v>
       </c>
       <c r="W90" t="n">
         <v>18.7</v>
@@ -13940,13 +13940,13 @@
         <v>0</v>
       </c>
       <c r="T91" t="n">
-        <v>707.9</v>
+        <v>48.09999999999999</v>
       </c>
       <c r="U91" t="n">
-        <v>48.09999999999999</v>
+        <v>120.1</v>
       </c>
       <c r="V91" t="n">
-        <v>120.1</v>
+        <v>122.9</v>
       </c>
       <c r="W91" t="n">
         <v>18.7</v>
@@ -14088,13 +14088,13 @@
         <v>0</v>
       </c>
       <c r="T92" t="n">
-        <v>590.6</v>
+        <v>55.5</v>
       </c>
       <c r="U92" t="n">
-        <v>55.5</v>
+        <v>121.7</v>
       </c>
       <c r="V92" t="n">
-        <v>121.7</v>
+        <v>123.9</v>
       </c>
       <c r="W92" t="n">
         <v>18.7</v>
@@ -14236,13 +14236,13 @@
         <v>0</v>
       </c>
       <c r="T93" t="n">
-        <v>471.1</v>
+        <v>40.6</v>
       </c>
       <c r="U93" t="n">
-        <v>40.6</v>
+        <v>87.7</v>
       </c>
       <c r="V93" t="n">
-        <v>87.7</v>
+        <v>90.2</v>
       </c>
       <c r="W93" t="n">
         <v>18.7</v>
@@ -14384,13 +14384,13 @@
         <v>0</v>
       </c>
       <c r="T94" t="n">
-        <v>385.9</v>
+        <v>43.1</v>
       </c>
       <c r="U94" t="n">
-        <v>43.1</v>
+        <v>104.8</v>
       </c>
       <c r="V94" t="n">
-        <v>104.8</v>
+        <v>109.4</v>
       </c>
       <c r="W94" t="n">
         <v>18.7</v>
@@ -14532,13 +14532,13 @@
         <v>1</v>
       </c>
       <c r="T95" t="n">
-        <v>285.7</v>
+        <v>36.8</v>
       </c>
       <c r="U95" t="n">
-        <v>36.8</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="V95" t="n">
-        <v>83.59999999999999</v>
+        <v>86.69999999999999</v>
       </c>
       <c r="W95" t="n">
         <v>18.7</v>
@@ -14680,13 +14680,13 @@
         <v>1</v>
       </c>
       <c r="T96" t="n">
-        <v>338.3</v>
+        <v>44.3</v>
       </c>
       <c r="U96" t="n">
-        <v>44.3</v>
+        <v>92.7</v>
       </c>
       <c r="V96" t="n">
-        <v>92.7</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="W96" t="n">
         <v>18.7</v>
@@ -14828,13 +14828,13 @@
         <v>1</v>
       </c>
       <c r="T97" t="n">
-        <v>521.6</v>
+        <v>55.3</v>
       </c>
       <c r="U97" t="n">
-        <v>55.3</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="V97" t="n">
-        <v>95.09999999999999</v>
+        <v>103.3</v>
       </c>
       <c r="W97" t="n">
         <v>18.7</v>
@@ -14976,13 +14976,13 @@
         <v>1</v>
       </c>
       <c r="T98" t="n">
-        <v>891.9</v>
+        <v>47.40000000000001</v>
       </c>
       <c r="U98" t="n">
-        <v>47.40000000000001</v>
+        <v>101</v>
       </c>
       <c r="V98" t="n">
-        <v>101</v>
+        <v>106.2</v>
       </c>
       <c r="W98" t="n">
         <v>24.68</v>
@@ -15134,13 +15134,13 @@
         <v>1</v>
       </c>
       <c r="T99" t="n">
-        <v>1020.4</v>
+        <v>52.3</v>
       </c>
       <c r="U99" t="n">
-        <v>52.3</v>
+        <v>112</v>
       </c>
       <c r="V99" t="n">
-        <v>112</v>
+        <v>117.6</v>
       </c>
       <c r="W99" t="n">
         <v>24.68</v>
@@ -15292,13 +15292,13 @@
         <v>1</v>
       </c>
       <c r="T100" t="n">
-        <v>1178.5</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="U100" t="n">
-        <v>66.09999999999999</v>
+        <v>129.5</v>
       </c>
       <c r="V100" t="n">
-        <v>129.5</v>
+        <v>135.2</v>
       </c>
       <c r="W100" t="n">
         <v>24.68</v>
@@ -15450,13 +15450,13 @@
         <v>1</v>
       </c>
       <c r="T101" t="n">
-        <v>1096.7</v>
+        <v>52.1</v>
       </c>
       <c r="U101" t="n">
-        <v>52.1</v>
+        <v>116.7</v>
       </c>
       <c r="V101" t="n">
-        <v>116.7</v>
+        <v>120.2</v>
       </c>
       <c r="W101" t="n">
         <v>24.68</v>
@@ -15608,13 +15608,13 @@
         <v>1</v>
       </c>
       <c r="T102" t="n">
-        <v>990.6</v>
+        <v>52.5</v>
       </c>
       <c r="U102" t="n">
-        <v>52.5</v>
+        <v>117.3</v>
       </c>
       <c r="V102" t="n">
-        <v>117.3</v>
+        <v>119.6</v>
       </c>
       <c r="W102" t="n">
         <v>24.68</v>
@@ -15766,13 +15766,13 @@
         <v>0</v>
       </c>
       <c r="T103" t="n">
-        <v>875.6</v>
+        <v>42.9</v>
       </c>
       <c r="U103" t="n">
-        <v>42.9</v>
+        <v>114.2</v>
       </c>
       <c r="V103" t="n">
-        <v>114.2</v>
+        <v>117.5</v>
       </c>
       <c r="W103" t="n">
         <v>24.68</v>
@@ -15924,13 +15924,13 @@
         <v>0</v>
       </c>
       <c r="T104" t="n">
-        <v>764.7</v>
+        <v>47.1</v>
       </c>
       <c r="U104" t="n">
-        <v>47.1</v>
+        <v>126.6</v>
       </c>
       <c r="V104" t="n">
-        <v>126.6</v>
+        <v>129.3</v>
       </c>
       <c r="W104" t="n">
         <v>24.68</v>
@@ -16082,13 +16082,13 @@
         <v>0</v>
       </c>
       <c r="T105" t="n">
-        <v>640.8</v>
+        <v>40.6</v>
       </c>
       <c r="U105" t="n">
-        <v>40.6</v>
+        <v>106.2</v>
       </c>
       <c r="V105" t="n">
-        <v>106.2</v>
+        <v>108.1</v>
       </c>
       <c r="W105" t="n">
         <v>24.68</v>
@@ -16240,13 +16240,13 @@
         <v>0</v>
       </c>
       <c r="T106" t="n">
-        <v>536.5</v>
+        <v>43</v>
       </c>
       <c r="U106" t="n">
-        <v>43</v>
+        <v>118.6</v>
       </c>
       <c r="V106" t="n">
-        <v>118.6</v>
+        <v>121.4</v>
       </c>
       <c r="W106" t="n">
         <v>24.68</v>
@@ -16398,13 +16398,13 @@
         <v>1</v>
       </c>
       <c r="T107" t="n">
-        <v>427</v>
+        <v>41.1</v>
       </c>
       <c r="U107" t="n">
-        <v>41.1</v>
+        <v>119.7</v>
       </c>
       <c r="V107" t="n">
-        <v>119.7</v>
+        <v>120.4</v>
       </c>
       <c r="W107" t="n">
         <v>24.68</v>
@@ -16556,13 +16556,13 @@
         <v>1</v>
       </c>
       <c r="T108" t="n">
-        <v>405.8</v>
+        <v>43.7</v>
       </c>
       <c r="U108" t="n">
-        <v>43.7</v>
+        <v>115.4</v>
       </c>
       <c r="V108" t="n">
-        <v>115.4</v>
+        <v>118.8</v>
       </c>
       <c r="W108" t="n">
         <v>24.68</v>
@@ -16714,13 +16714,13 @@
         <v>1</v>
       </c>
       <c r="T109" t="n">
-        <v>725.1</v>
+        <v>57.7</v>
       </c>
       <c r="U109" t="n">
-        <v>57.7</v>
+        <v>112.9</v>
       </c>
       <c r="V109" t="n">
-        <v>112.9</v>
+        <v>118.6</v>
       </c>
       <c r="W109" t="n">
         <v>24.68</v>
@@ -16872,13 +16872,13 @@
         <v>1</v>
       </c>
       <c r="T110" t="n">
-        <v>1166.3</v>
+        <v>63.5</v>
       </c>
       <c r="U110" t="n">
-        <v>63.5</v>
+        <v>116.7</v>
       </c>
       <c r="V110" t="n">
-        <v>116.7</v>
+        <v>120.4</v>
       </c>
       <c r="W110" t="n">
         <v>27.96</v>
@@ -17030,13 +17030,13 @@
         <v>1</v>
       </c>
       <c r="T111" t="n">
-        <v>1309.1</v>
+        <v>50.8</v>
       </c>
       <c r="U111" t="n">
-        <v>50.8</v>
+        <v>110.1</v>
       </c>
       <c r="V111" t="n">
-        <v>110.1</v>
+        <v>113.9</v>
       </c>
       <c r="W111" t="n">
         <v>27.96</v>
@@ -17188,13 +17188,13 @@
         <v>1</v>
       </c>
       <c r="T112" t="n">
-        <v>1246.8</v>
+        <v>50.8</v>
       </c>
       <c r="U112" t="n">
-        <v>50.8</v>
+        <v>116.8</v>
       </c>
       <c r="V112" t="n">
-        <v>116.8</v>
+        <v>119.8</v>
       </c>
       <c r="W112" t="n">
         <v>27.96</v>
@@ -17346,13 +17346,13 @@
         <v>1</v>
       </c>
       <c r="T113" t="n">
-        <v>1136.6</v>
+        <v>58.7</v>
       </c>
       <c r="U113" t="n">
-        <v>58.7</v>
+        <v>112.6</v>
       </c>
       <c r="V113" t="n">
-        <v>112.6</v>
+        <v>119</v>
       </c>
       <c r="W113" t="n">
         <v>27.96</v>
@@ -17504,13 +17504,13 @@
         <v>1</v>
       </c>
       <c r="T114" t="n">
-        <v>1034.3</v>
+        <v>46.3</v>
       </c>
       <c r="U114" t="n">
-        <v>46.3</v>
+        <v>120.6</v>
       </c>
       <c r="V114" t="n">
-        <v>120.6</v>
+        <v>123.1</v>
       </c>
       <c r="W114" t="n">
         <v>27.96</v>
@@ -17662,13 +17662,13 @@
         <v>0</v>
       </c>
       <c r="T115" t="n">
-        <v>916.2</v>
+        <v>48.7</v>
       </c>
       <c r="U115" t="n">
-        <v>48.7</v>
+        <v>112.9</v>
       </c>
       <c r="V115" t="n">
-        <v>112.9</v>
+        <v>115.4</v>
       </c>
       <c r="W115" t="n">
         <v>27.96</v>
@@ -17820,13 +17820,13 @@
         <v>0</v>
       </c>
       <c r="T116" t="n">
-        <v>805.8</v>
+        <v>51.1</v>
       </c>
       <c r="U116" t="n">
-        <v>51.1</v>
+        <v>118.9</v>
       </c>
       <c r="V116" t="n">
-        <v>118.9</v>
+        <v>122.8</v>
       </c>
       <c r="W116" t="n">
         <v>27.96</v>
@@ -17978,13 +17978,13 @@
         <v>0</v>
       </c>
       <c r="T117" t="n">
-        <v>690.8</v>
+        <v>41.90000000000001</v>
       </c>
       <c r="U117" t="n">
-        <v>41.90000000000001</v>
+        <v>106</v>
       </c>
       <c r="V117" t="n">
-        <v>106</v>
+        <v>111.2</v>
       </c>
       <c r="W117" t="n">
         <v>27.96</v>
@@ -18136,13 +18136,13 @@
         <v>0</v>
       </c>
       <c r="T118" t="n">
-        <v>590</v>
+        <v>42.5</v>
       </c>
       <c r="U118" t="n">
-        <v>42.5</v>
+        <v>118.6</v>
       </c>
       <c r="V118" t="n">
-        <v>118.6</v>
+        <v>121.3</v>
       </c>
       <c r="W118" t="n">
         <v>27.96</v>
@@ -18294,13 +18294,13 @@
         <v>1</v>
       </c>
       <c r="T119" t="n">
-        <v>492.7</v>
+        <v>38.4</v>
       </c>
       <c r="U119" t="n">
-        <v>38.4</v>
+        <v>118.9</v>
       </c>
       <c r="V119" t="n">
-        <v>118.9</v>
+        <v>121.2</v>
       </c>
       <c r="W119" t="n">
         <v>27.96</v>
@@ -18452,13 +18452,13 @@
         <v>1</v>
       </c>
       <c r="T120" t="n">
-        <v>546.3</v>
+        <v>47.40000000000001</v>
       </c>
       <c r="U120" t="n">
-        <v>47.40000000000001</v>
+        <v>121</v>
       </c>
       <c r="V120" t="n">
-        <v>121</v>
+        <v>124.7</v>
       </c>
       <c r="W120" t="n">
         <v>27.96</v>
@@ -18610,13 +18610,13 @@
         <v>1</v>
       </c>
       <c r="T121" t="n">
-        <v>1084.4</v>
+        <v>59.5</v>
       </c>
       <c r="U121" t="n">
-        <v>59.5</v>
+        <v>121.8</v>
       </c>
       <c r="V121" t="n">
-        <v>121.8</v>
+        <v>128.1</v>
       </c>
       <c r="W121" t="n">
         <v>27.96</v>
@@ -18768,13 +18768,13 @@
         <v>1</v>
       </c>
       <c r="T122" t="n">
-        <v>1546.7</v>
+        <v>64.7</v>
       </c>
       <c r="U122" t="n">
-        <v>64.7</v>
+        <v>117.5</v>
       </c>
       <c r="V122" t="n">
-        <v>117.5</v>
+        <v>124</v>
       </c>
       <c r="W122" t="n">
         <v>24.56</v>
@@ -18926,13 +18926,13 @@
         <v>1</v>
       </c>
       <c r="T123" t="n">
-        <v>1585.1</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="U123" t="n">
-        <v>64.40000000000001</v>
+        <v>120.3</v>
       </c>
       <c r="V123" t="n">
-        <v>120.3</v>
+        <v>127.5</v>
       </c>
       <c r="W123" t="n">
         <v>24.56</v>
@@ -19084,13 +19084,13 @@
         <v>1</v>
       </c>
       <c r="T124" t="n">
-        <v>1505.9</v>
+        <v>53.7</v>
       </c>
       <c r="U124" t="n">
-        <v>53.7</v>
+        <v>122.7</v>
       </c>
       <c r="V124" t="n">
-        <v>122.7</v>
+        <v>128.2</v>
       </c>
       <c r="W124" t="n">
         <v>24.56</v>
@@ -19242,13 +19242,13 @@
         <v>1</v>
       </c>
       <c r="T125" t="n">
-        <v>1393.1</v>
+        <v>51</v>
       </c>
       <c r="U125" t="n">
-        <v>51</v>
+        <v>106.2</v>
       </c>
       <c r="V125" t="n">
-        <v>106.2</v>
+        <v>110.5</v>
       </c>
       <c r="W125" t="n">
         <v>24.56</v>
@@ -19400,13 +19400,13 @@
         <v>1</v>
       </c>
       <c r="T126" t="n">
-        <v>1296.5</v>
+        <v>59</v>
       </c>
       <c r="U126" t="n">
-        <v>59</v>
+        <v>129.5</v>
       </c>
       <c r="V126" t="n">
-        <v>129.5</v>
+        <v>139.5</v>
       </c>
       <c r="W126" t="n">
         <v>24.56</v>
@@ -19558,13 +19558,13 @@
         <v>0</v>
       </c>
       <c r="T127" t="n">
-        <v>1177</v>
+        <v>45.9</v>
       </c>
       <c r="U127" t="n">
-        <v>45.9</v>
+        <v>117.3</v>
       </c>
       <c r="V127" t="n">
-        <v>117.3</v>
+        <v>120.9</v>
       </c>
       <c r="W127" t="n">
         <v>24.56</v>
@@ -19716,13 +19716,13 @@
         <v>0</v>
       </c>
       <c r="T128" t="n">
-        <v>1063.3</v>
+        <v>49.4</v>
       </c>
       <c r="U128" t="n">
-        <v>49.4</v>
+        <v>126.6</v>
       </c>
       <c r="V128" t="n">
-        <v>126.6</v>
+        <v>129.4</v>
       </c>
       <c r="W128" t="n">
         <v>24.56</v>
@@ -19874,13 +19874,13 @@
         <v>0</v>
       </c>
       <c r="T129" t="n">
-        <v>939.5</v>
+        <v>52.7</v>
       </c>
       <c r="U129" t="n">
-        <v>52.7</v>
+        <v>123.9</v>
       </c>
       <c r="V129" t="n">
-        <v>123.9</v>
+        <v>128</v>
       </c>
       <c r="W129" t="n">
         <v>24.56</v>
@@ -20032,13 +20032,13 @@
         <v>0</v>
       </c>
       <c r="T130" t="n">
-        <v>819.7</v>
+        <v>54.6</v>
       </c>
       <c r="U130" t="n">
-        <v>54.6</v>
+        <v>130.7</v>
       </c>
       <c r="V130" t="n">
-        <v>130.7</v>
+        <v>134.2</v>
       </c>
       <c r="W130" t="n">
         <v>24.56</v>
@@ -20190,13 +20190,13 @@
         <v>1</v>
       </c>
       <c r="T131" t="n">
-        <v>699.1</v>
+        <v>45.8</v>
       </c>
       <c r="U131" t="n">
-        <v>45.8</v>
+        <v>107.7</v>
       </c>
       <c r="V131" t="n">
-        <v>107.7</v>
+        <v>114.4</v>
       </c>
       <c r="W131" t="n">
         <v>24.56</v>
@@ -20348,13 +20348,13 @@
         <v>1</v>
       </c>
       <c r="T132" t="n">
-        <v>685.8000000000001</v>
+        <v>44.6</v>
       </c>
       <c r="U132" t="n">
-        <v>44.6</v>
+        <v>100.8</v>
       </c>
       <c r="V132" t="n">
-        <v>100.8</v>
+        <v>106.9</v>
       </c>
       <c r="W132" t="n">
         <v>24.56</v>
@@ -20506,13 +20506,13 @@
         <v>1</v>
       </c>
       <c r="T133" t="n">
-        <v>887.4000000000001</v>
+        <v>52.8</v>
       </c>
       <c r="U133" t="n">
-        <v>52.8</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="V133" t="n">
-        <v>90.09999999999999</v>
+        <v>100.2</v>
       </c>
       <c r="W133" t="n">
         <v>24.56</v>
@@ -20664,13 +20664,13 @@
         <v>1</v>
       </c>
       <c r="T134" t="n">
-        <v>966.3</v>
+        <v>51.5</v>
       </c>
       <c r="U134" t="n">
-        <v>51.5</v>
+        <v>86.59999999999999</v>
       </c>
       <c r="V134" t="n">
-        <v>86.59999999999999</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="W134" t="n">
         <v>17.54</v>
@@ -20822,13 +20822,13 @@
         <v>1</v>
       </c>
       <c r="T135" t="n">
-        <v>937.3000000000001</v>
+        <v>59.7</v>
       </c>
       <c r="U135" t="n">
-        <v>59.7</v>
+        <v>84.40000000000001</v>
       </c>
       <c r="V135" t="n">
-        <v>84.40000000000001</v>
+        <v>98.30000000000001</v>
       </c>
       <c r="W135" t="n">
         <v>17.54</v>
@@ -20980,13 +20980,13 @@
         <v>1</v>
       </c>
       <c r="T136" t="n">
-        <v>877.0999999999999</v>
+        <v>42.40000000000001</v>
       </c>
       <c r="U136" t="n">
-        <v>42.40000000000001</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="V136" t="n">
-        <v>65.59999999999999</v>
+        <v>80.39999999999999</v>
       </c>
       <c r="W136" t="n">
         <v>17.54</v>
@@ -21138,13 +21138,13 @@
         <v>1</v>
       </c>
       <c r="T137" t="n">
-        <v>831.4</v>
+        <v>56.7</v>
       </c>
       <c r="U137" t="n">
-        <v>56.7</v>
+        <v>85.40000000000001</v>
       </c>
       <c r="V137" t="n">
-        <v>85.40000000000001</v>
+        <v>97.7</v>
       </c>
       <c r="W137" t="n">
         <v>17.54</v>
@@ -21296,13 +21296,13 @@
         <v>1</v>
       </c>
       <c r="T138" t="n">
-        <v>762.5</v>
+        <v>53.8</v>
       </c>
       <c r="U138" t="n">
-        <v>53.8</v>
+        <v>89.3</v>
       </c>
       <c r="V138" t="n">
-        <v>89.3</v>
+        <v>97.7</v>
       </c>
       <c r="W138" t="n">
         <v>17.54</v>
@@ -21454,13 +21454,13 @@
         <v>0</v>
       </c>
       <c r="T139" t="n">
-        <v>681.6</v>
+        <v>60.7</v>
       </c>
       <c r="U139" t="n">
-        <v>60.7</v>
+        <v>97.2</v>
       </c>
       <c r="V139" t="n">
-        <v>97.2</v>
+        <v>112.7</v>
       </c>
       <c r="W139" t="n">
         <v>17.54</v>
@@ -21612,13 +21612,13 @@
         <v>0</v>
       </c>
       <c r="T140" t="n">
-        <v>599.9</v>
+        <v>64</v>
       </c>
       <c r="U140" t="n">
-        <v>64</v>
+        <v>115.5</v>
       </c>
       <c r="V140" t="n">
-        <v>115.5</v>
+        <v>123.6</v>
       </c>
       <c r="W140" t="n">
         <v>17.54</v>
@@ -21770,13 +21770,13 @@
         <v>0</v>
       </c>
       <c r="T141" t="n">
-        <v>492.5</v>
+        <v>44.1</v>
       </c>
       <c r="U141" t="n">
-        <v>44.1</v>
+        <v>101.7</v>
       </c>
       <c r="V141" t="n">
-        <v>101.7</v>
+        <v>108.2</v>
       </c>
       <c r="W141" t="n">
         <v>17.54</v>
@@ -21928,13 +21928,13 @@
         <v>0</v>
       </c>
       <c r="T142" t="n">
-        <v>397.3</v>
+        <v>42.3</v>
       </c>
       <c r="U142" t="n">
-        <v>42.3</v>
+        <v>104.9</v>
       </c>
       <c r="V142" t="n">
-        <v>104.9</v>
+        <v>113.2</v>
       </c>
       <c r="W142" t="n">
         <v>17.54</v>
@@ -22086,13 +22086,13 @@
         <v>1</v>
       </c>
       <c r="T143" t="n">
-        <v>309.5</v>
+        <v>52</v>
       </c>
       <c r="U143" t="n">
-        <v>52</v>
+        <v>121.4</v>
       </c>
       <c r="V143" t="n">
-        <v>121.4</v>
+        <v>130.5</v>
       </c>
       <c r="W143" t="n">
         <v>17.54</v>
@@ -22244,13 +22244,13 @@
         <v>1</v>
       </c>
       <c r="T144" t="n">
-        <v>366.7</v>
+        <v>38.3</v>
       </c>
       <c r="U144" t="n">
-        <v>38.3</v>
+        <v>112</v>
       </c>
       <c r="V144" t="n">
-        <v>112</v>
+        <v>116.9</v>
       </c>
       <c r="W144" t="n">
         <v>17.54</v>
@@ -22402,13 +22402,13 @@
         <v>1</v>
       </c>
       <c r="T145" t="n">
-        <v>851.7</v>
+        <v>61.2</v>
       </c>
       <c r="U145" t="n">
-        <v>61.2</v>
+        <v>133</v>
       </c>
       <c r="V145" t="n">
-        <v>133</v>
+        <v>139.9</v>
       </c>
       <c r="W145" t="n">
         <v>17.54</v>
@@ -22560,13 +22560,13 @@
         <v>1</v>
       </c>
       <c r="T146" t="n">
-        <v>1208.7</v>
+        <v>75.7</v>
       </c>
       <c r="U146" t="n">
-        <v>75.7</v>
+        <v>156.5</v>
       </c>
       <c r="V146" t="n">
-        <v>156.5</v>
+        <v>161.3</v>
       </c>
       <c r="W146" t="n">
         <v>23.16</v>
@@ -22718,13 +22718,13 @@
         <v>1</v>
       </c>
       <c r="T147" t="n">
-        <v>1357.3</v>
+        <v>49.7</v>
       </c>
       <c r="U147" t="n">
-        <v>49.7</v>
+        <v>151.3</v>
       </c>
       <c r="V147" t="n">
-        <v>151.3</v>
+        <v>153.1</v>
       </c>
       <c r="W147" t="n">
         <v>23.16</v>
@@ -22876,13 +22876,13 @@
         <v>1</v>
       </c>
       <c r="T148" t="n">
-        <v>1415.8</v>
+        <v>48.5</v>
       </c>
       <c r="U148" t="n">
-        <v>48.5</v>
+        <v>146</v>
       </c>
       <c r="V148" t="n">
-        <v>146</v>
+        <v>147.9</v>
       </c>
       <c r="W148" t="n">
         <v>23.16</v>
@@ -23034,13 +23034,13 @@
         <v>1</v>
       </c>
       <c r="T149" t="n">
-        <v>1286.1</v>
+        <v>50</v>
       </c>
       <c r="U149" t="n">
-        <v>50</v>
+        <v>134.8</v>
       </c>
       <c r="V149" t="n">
-        <v>134.8</v>
+        <v>136.6</v>
       </c>
       <c r="W149" t="n">
         <v>23.16</v>
@@ -23192,13 +23192,13 @@
         <v>1</v>
       </c>
       <c r="T150" t="n">
-        <v>1157.7</v>
+        <v>54</v>
       </c>
       <c r="U150" t="n">
-        <v>54</v>
+        <v>151.3</v>
       </c>
       <c r="V150" t="n">
-        <v>151.3</v>
+        <v>158.5</v>
       </c>
       <c r="W150" t="n">
         <v>23.16</v>
@@ -23350,13 +23350,13 @@
         <v>0</v>
       </c>
       <c r="T151" t="n">
-        <v>1014.3</v>
+        <v>42.5</v>
       </c>
       <c r="U151" t="n">
-        <v>42.5</v>
+        <v>140.1</v>
       </c>
       <c r="V151" t="n">
-        <v>140.1</v>
+        <v>145.9</v>
       </c>
       <c r="W151" t="n">
         <v>23.16</v>
@@ -23508,13 +23508,13 @@
         <v>0</v>
       </c>
       <c r="T152" t="n">
-        <v>880</v>
+        <v>43.1</v>
       </c>
       <c r="U152" t="n">
-        <v>43.1</v>
+        <v>154.6</v>
       </c>
       <c r="V152" t="n">
-        <v>154.6</v>
+        <v>159.6</v>
       </c>
       <c r="W152" t="n">
         <v>23.16</v>
@@ -23666,13 +23666,13 @@
         <v>0</v>
       </c>
       <c r="T153" t="n">
-        <v>730.4</v>
+        <v>37.7</v>
       </c>
       <c r="U153" t="n">
-        <v>37.7</v>
+        <v>119.3</v>
       </c>
       <c r="V153" t="n">
-        <v>119.3</v>
+        <v>123.3</v>
       </c>
       <c r="W153" t="n">
         <v>23.16</v>
@@ -23824,13 +23824,13 @@
         <v>0</v>
       </c>
       <c r="T154" t="n">
-        <v>615.1</v>
+        <v>41.4</v>
       </c>
       <c r="U154" t="n">
-        <v>41.4</v>
+        <v>119.1</v>
       </c>
       <c r="V154" t="n">
-        <v>119.1</v>
+        <v>123.5</v>
       </c>
       <c r="W154" t="n">
         <v>23.16</v>
@@ -23982,13 +23982,13 @@
         <v>1</v>
       </c>
       <c r="T155" t="n">
-        <v>530.9</v>
+        <v>44</v>
       </c>
       <c r="U155" t="n">
-        <v>44</v>
+        <v>117.1</v>
       </c>
       <c r="V155" t="n">
-        <v>117.1</v>
+        <v>122</v>
       </c>
       <c r="W155" t="n">
         <v>23.16</v>
@@ -24140,13 +24140,13 @@
         <v>1</v>
       </c>
       <c r="T156" t="n">
-        <v>576.3</v>
+        <v>48.9</v>
       </c>
       <c r="U156" t="n">
-        <v>48.9</v>
+        <v>135.3</v>
       </c>
       <c r="V156" t="n">
-        <v>135.3</v>
+        <v>141.9</v>
       </c>
       <c r="W156" t="n">
         <v>23.16</v>
@@ -24298,13 +24298,13 @@
         <v>1</v>
       </c>
       <c r="T157" t="n">
-        <v>875.2</v>
+        <v>56.59999999999999</v>
       </c>
       <c r="U157" t="n">
-        <v>56.59999999999999</v>
+        <v>122.5</v>
       </c>
       <c r="V157" t="n">
-        <v>122.5</v>
+        <v>130.7</v>
       </c>
       <c r="W157" t="n">
         <v>23.16</v>
@@ -24456,13 +24456,13 @@
         <v>1</v>
       </c>
       <c r="T158" t="n">
-        <v>921.0999999999999</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="U158" t="n">
-        <v>67.09999999999999</v>
+        <v>116.1</v>
       </c>
       <c r="V158" t="n">
-        <v>116.1</v>
+        <v>130.4</v>
       </c>
       <c r="W158" t="n">
         <v>50.07000000000001</v>
@@ -24614,13 +24614,13 @@
         <v>1</v>
       </c>
       <c r="T159" t="n">
-        <v>857.0999999999999</v>
+        <v>40.7</v>
       </c>
       <c r="U159" t="n">
-        <v>40.7</v>
+        <v>99.69999999999999</v>
       </c>
       <c r="V159" t="n">
-        <v>99.69999999999999</v>
+        <v>110</v>
       </c>
       <c r="W159" t="n">
         <v>50.07000000000001</v>
@@ -24772,13 +24772,13 @@
         <v>1</v>
       </c>
       <c r="T160" t="n">
-        <v>787.2</v>
+        <v>57</v>
       </c>
       <c r="U160" t="n">
-        <v>57</v>
+        <v>116.5</v>
       </c>
       <c r="V160" t="n">
-        <v>116.5</v>
+        <v>136</v>
       </c>
       <c r="W160" t="n">
         <v>50.07000000000001</v>
@@ -24930,13 +24930,13 @@
         <v>1</v>
       </c>
       <c r="T161" t="n">
-        <v>693.4000000000001</v>
+        <v>69.5</v>
       </c>
       <c r="U161" t="n">
-        <v>69.5</v>
+        <v>106.9</v>
       </c>
       <c r="V161" t="n">
-        <v>106.9</v>
+        <v>130.6</v>
       </c>
       <c r="W161" t="n">
         <v>50.07000000000001</v>
@@ -25088,13 +25088,13 @@
         <v>1</v>
       </c>
       <c r="T162" t="n">
-        <v>616.1</v>
+        <v>69.3</v>
       </c>
       <c r="U162" t="n">
-        <v>69.3</v>
+        <v>117.4</v>
       </c>
       <c r="V162" t="n">
-        <v>117.4</v>
+        <v>135.7</v>
       </c>
       <c r="W162" t="n">
         <v>50.07000000000001</v>
@@ -25246,13 +25246,13 @@
         <v>0</v>
       </c>
       <c r="T163" t="n">
-        <v>517</v>
+        <v>58.5</v>
       </c>
       <c r="U163" t="n">
-        <v>58.5</v>
+        <v>105.5</v>
       </c>
       <c r="V163" t="n">
-        <v>105.5</v>
+        <v>121.4</v>
       </c>
       <c r="W163" t="n">
         <v>50.07000000000001</v>
@@ -25404,13 +25404,13 @@
         <v>0</v>
       </c>
       <c r="T164" t="n">
-        <v>427.4</v>
+        <v>42.8</v>
       </c>
       <c r="U164" t="n">
-        <v>42.8</v>
+        <v>106.8</v>
       </c>
       <c r="V164" t="n">
-        <v>106.8</v>
+        <v>117.6</v>
       </c>
       <c r="W164" t="n">
         <v>50.07000000000001</v>
@@ -25562,13 +25562,13 @@
         <v>0</v>
       </c>
       <c r="T165" t="n">
-        <v>331.4</v>
+        <v>54.3</v>
       </c>
       <c r="U165" t="n">
-        <v>54.3</v>
+        <v>86.59999999999999</v>
       </c>
       <c r="V165" t="n">
-        <v>86.59999999999999</v>
+        <v>103.1</v>
       </c>
       <c r="W165" t="n">
         <v>50.07000000000001</v>
@@ -25720,13 +25720,13 @@
         <v>0</v>
       </c>
       <c r="T166" t="n">
-        <v>261.3</v>
+        <v>45</v>
       </c>
       <c r="U166" t="n">
-        <v>45</v>
+        <v>90.59999999999999</v>
       </c>
       <c r="V166" t="n">
-        <v>90.59999999999999</v>
+        <v>100.7</v>
       </c>
       <c r="W166" t="n">
         <v>50.07000000000001</v>
@@ -25878,13 +25878,13 @@
         <v>1</v>
       </c>
       <c r="T167" t="n">
-        <v>203.5</v>
+        <v>49</v>
       </c>
       <c r="U167" t="n">
-        <v>49</v>
+        <v>78.3</v>
       </c>
       <c r="V167" t="n">
-        <v>78.3</v>
+        <v>96</v>
       </c>
       <c r="W167" t="n">
         <v>50.07000000000001</v>
@@ -26036,13 +26036,13 @@
         <v>1</v>
       </c>
       <c r="T168" t="n">
-        <v>403.4</v>
+        <v>57.8</v>
       </c>
       <c r="U168" t="n">
-        <v>57.8</v>
+        <v>99.5</v>
       </c>
       <c r="V168" t="n">
-        <v>99.5</v>
+        <v>113.7</v>
       </c>
       <c r="W168" t="n">
         <v>50.07000000000001</v>
@@ -26194,13 +26194,13 @@
         <v>1</v>
       </c>
       <c r="T169" t="n">
-        <v>924.6</v>
+        <v>74.80000000000001</v>
       </c>
       <c r="U169" t="n">
-        <v>74.80000000000001</v>
+        <v>128.1</v>
       </c>
       <c r="V169" t="n">
-        <v>128.1</v>
+        <v>144.7</v>
       </c>
       <c r="W169" t="n">
         <v>50.07000000000001</v>
@@ -26354,13 +26354,13 @@
         <v>1</v>
       </c>
       <c r="T170" t="n">
-        <v>1177.3</v>
+        <v>56.09999999999999</v>
       </c>
       <c r="U170" t="n">
-        <v>56.09999999999999</v>
+        <v>108.7</v>
       </c>
       <c r="V170" t="n">
-        <v>108.7</v>
+        <v>119</v>
       </c>
       <c r="W170" t="n">
         <v>47.11</v>
@@ -26514,13 +26514,13 @@
         <v>1</v>
       </c>
       <c r="T171" t="n">
-        <v>1193.3</v>
+        <v>61</v>
       </c>
       <c r="U171" t="n">
-        <v>61</v>
+        <v>118.6</v>
       </c>
       <c r="V171" t="n">
-        <v>118.6</v>
+        <v>130.1</v>
       </c>
       <c r="W171" t="n">
         <v>47.11</v>
@@ -26674,13 +26674,13 @@
         <v>1</v>
       </c>
       <c r="T172" t="n">
-        <v>1112.2</v>
+        <v>63.09999999999999</v>
       </c>
       <c r="U172" t="n">
-        <v>63.09999999999999</v>
+        <v>121.2</v>
       </c>
       <c r="V172" t="n">
-        <v>121.2</v>
+        <v>130.4</v>
       </c>
       <c r="W172" t="n">
         <v>47.11</v>
@@ -26834,13 +26834,13 @@
         <v>1</v>
       </c>
       <c r="T173" t="n">
-        <v>1003.8</v>
+        <v>54.2</v>
       </c>
       <c r="U173" t="n">
-        <v>54.2</v>
+        <v>122.5</v>
       </c>
       <c r="V173" t="n">
-        <v>122.5</v>
+        <v>128</v>
       </c>
       <c r="W173" t="n">
         <v>47.11</v>
@@ -26994,13 +26994,13 @@
         <v>1</v>
       </c>
       <c r="T174" t="n">
-        <v>892.1999999999999</v>
+        <v>36.6</v>
       </c>
       <c r="U174" t="n">
-        <v>36.6</v>
+        <v>128</v>
       </c>
       <c r="V174" t="n">
-        <v>128</v>
+        <v>134.6</v>
       </c>
       <c r="W174" t="n">
         <v>47.11</v>
@@ -27154,13 +27154,13 @@
         <v>0</v>
       </c>
       <c r="T175" t="n">
-        <v>770.8</v>
+        <v>46.5</v>
       </c>
       <c r="U175" t="n">
-        <v>46.5</v>
+        <v>122.6</v>
       </c>
       <c r="V175" t="n">
-        <v>122.6</v>
+        <v>127.8</v>
       </c>
       <c r="W175" t="n">
         <v>47.11</v>
@@ -27314,13 +27314,13 @@
         <v>0</v>
       </c>
       <c r="T176" t="n">
-        <v>653.4</v>
+        <v>40.5</v>
       </c>
       <c r="U176" t="n">
-        <v>40.5</v>
+        <v>123.6</v>
       </c>
       <c r="V176" t="n">
-        <v>123.6</v>
+        <v>129.9</v>
       </c>
       <c r="W176" t="n">
         <v>47.11</v>
@@ -27474,13 +27474,13 @@
         <v>0</v>
       </c>
       <c r="T177" t="n">
-        <v>536.1</v>
+        <v>40.1</v>
       </c>
       <c r="U177" t="n">
-        <v>40.1</v>
+        <v>113</v>
       </c>
       <c r="V177" t="n">
-        <v>113</v>
+        <v>118.9</v>
       </c>
       <c r="W177" t="n">
         <v>47.11</v>
@@ -27634,13 +27634,13 @@
         <v>0</v>
       </c>
       <c r="T178" t="n">
-        <v>429</v>
+        <v>40.59999999999999</v>
       </c>
       <c r="U178" t="n">
-        <v>40.59999999999999</v>
+        <v>106.9</v>
       </c>
       <c r="V178" t="n">
-        <v>106.9</v>
+        <v>115.6</v>
       </c>
       <c r="W178" t="n">
         <v>47.11</v>
@@ -27794,13 +27794,13 @@
         <v>1</v>
       </c>
       <c r="T179" t="n">
-        <v>340.7</v>
+        <v>44.3</v>
       </c>
       <c r="U179" t="n">
-        <v>44.3</v>
+        <v>105.5</v>
       </c>
       <c r="V179" t="n">
-        <v>105.5</v>
+        <v>114.4</v>
       </c>
       <c r="W179" t="n">
         <v>47.11</v>
@@ -27954,13 +27954,13 @@
         <v>1</v>
       </c>
       <c r="T180" t="n">
-        <v>337.6</v>
+        <v>50.59999999999999</v>
       </c>
       <c r="U180" t="n">
-        <v>50.59999999999999</v>
+        <v>119.1</v>
       </c>
       <c r="V180" t="n">
-        <v>119.1</v>
+        <v>128.8</v>
       </c>
       <c r="W180" t="n">
         <v>47.11</v>
@@ -28114,13 +28114,13 @@
         <v>1</v>
       </c>
       <c r="T181" t="n">
-        <v>685.3</v>
+        <v>62.7</v>
       </c>
       <c r="U181" t="n">
-        <v>62.7</v>
+        <v>121.3</v>
       </c>
       <c r="V181" t="n">
-        <v>121.3</v>
+        <v>136.9</v>
       </c>
       <c r="W181" t="n">
         <v>47.11</v>
@@ -28274,13 +28274,13 @@
         <v>1</v>
       </c>
       <c r="T182" t="n">
-        <v>1106.9</v>
+        <v>59</v>
       </c>
       <c r="U182" t="n">
-        <v>59</v>
+        <v>141.1</v>
       </c>
       <c r="V182" t="n">
-        <v>141.1</v>
+        <v>145.7</v>
       </c>
       <c r="W182" t="n">
         <v>36.57</v>
@@ -28434,13 +28434,13 @@
         <v>1</v>
       </c>
       <c r="T183" t="n">
-        <v>1126.3</v>
+        <v>46.2</v>
       </c>
       <c r="U183" t="n">
-        <v>46.2</v>
+        <v>136.3</v>
       </c>
       <c r="V183" t="n">
-        <v>136.3</v>
+        <v>142.6</v>
       </c>
       <c r="W183" t="n">
         <v>36.57</v>
@@ -28594,13 +28594,13 @@
         <v>1</v>
       </c>
       <c r="T184" t="n">
-        <v>1033.7</v>
+        <v>58.4</v>
       </c>
       <c r="U184" t="n">
-        <v>58.4</v>
+        <v>147.9</v>
       </c>
       <c r="V184" t="n">
-        <v>147.9</v>
+        <v>157.9</v>
       </c>
       <c r="W184" t="n">
         <v>36.57</v>
@@ -28754,13 +28754,13 @@
         <v>1</v>
       </c>
       <c r="T185" t="n">
-        <v>900.3</v>
+        <v>36.1</v>
       </c>
       <c r="U185" t="n">
-        <v>36.1</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="V185" t="n">
-        <v>98.40000000000001</v>
+        <v>103.1</v>
       </c>
       <c r="W185" t="n">
         <v>36.57</v>
@@ -28914,13 +28914,13 @@
         <v>1</v>
       </c>
       <c r="T186" t="n">
-        <v>811.8000000000001</v>
+        <v>44.4</v>
       </c>
       <c r="U186" t="n">
-        <v>44.4</v>
+        <v>126.7</v>
       </c>
       <c r="V186" t="n">
-        <v>126.7</v>
+        <v>133.3</v>
       </c>
       <c r="W186" t="n">
         <v>36.57</v>
@@ -29074,13 +29074,13 @@
         <v>0</v>
       </c>
       <c r="T187" t="n">
-        <v>691.7</v>
+        <v>36.1</v>
       </c>
       <c r="U187" t="n">
-        <v>36.1</v>
+        <v>107.6</v>
       </c>
       <c r="V187" t="n">
-        <v>107.6</v>
+        <v>117</v>
       </c>
       <c r="W187" t="n">
         <v>36.57</v>
@@ -29234,13 +29234,13 @@
         <v>0</v>
       </c>
       <c r="T188" t="n">
-        <v>593.5</v>
+        <v>35.5</v>
       </c>
       <c r="U188" t="n">
-        <v>35.5</v>
+        <v>105.8</v>
       </c>
       <c r="V188" t="n">
-        <v>105.8</v>
+        <v>111.1</v>
       </c>
       <c r="W188" t="n">
         <v>36.57</v>
@@ -29394,13 +29394,13 @@
         <v>0</v>
       </c>
       <c r="T189" t="n">
-        <v>493</v>
+        <v>43.2</v>
       </c>
       <c r="U189" t="n">
-        <v>43.2</v>
+        <v>98.8</v>
       </c>
       <c r="V189" t="n">
-        <v>98.8</v>
+        <v>105</v>
       </c>
       <c r="W189" t="n">
         <v>36.57</v>
@@ -29554,13 +29554,13 @@
         <v>0</v>
       </c>
       <c r="T190" t="n">
-        <v>400.4</v>
+        <v>36.6</v>
       </c>
       <c r="U190" t="n">
-        <v>36.6</v>
+        <v>103.4</v>
       </c>
       <c r="V190" t="n">
-        <v>103.4</v>
+        <v>111.4</v>
       </c>
       <c r="W190" t="n">
         <v>36.57</v>
@@ -29714,13 +29714,13 @@
         <v>1</v>
       </c>
       <c r="T191" t="n">
-        <v>333</v>
+        <v>35.7</v>
       </c>
       <c r="U191" t="n">
-        <v>35.7</v>
+        <v>108.3</v>
       </c>
       <c r="V191" t="n">
-        <v>108.3</v>
+        <v>115.4</v>
       </c>
       <c r="W191" t="n">
         <v>36.57</v>
@@ -29874,13 +29874,13 @@
         <v>1</v>
       </c>
       <c r="T192" t="n">
-        <v>438</v>
+        <v>60.8</v>
       </c>
       <c r="U192" t="n">
-        <v>60.8</v>
+        <v>119.4</v>
       </c>
       <c r="V192" t="n">
-        <v>119.4</v>
+        <v>135.2</v>
       </c>
       <c r="W192" t="n">
         <v>36.57</v>
@@ -30034,13 +30034,13 @@
         <v>1</v>
       </c>
       <c r="T193" t="n">
-        <v>760.5</v>
+        <v>67.5</v>
       </c>
       <c r="U193" t="n">
-        <v>67.5</v>
+        <v>102.7</v>
       </c>
       <c r="V193" t="n">
-        <v>102.7</v>
+        <v>122.9</v>
       </c>
       <c r="W193" t="n">
         <v>36.57</v>
@@ -30194,13 +30194,13 @@
         <v>1</v>
       </c>
       <c r="T194" t="n">
-        <v>1082.7</v>
+        <v>61.8</v>
       </c>
       <c r="U194" t="n">
-        <v>61.8</v>
+        <v>111.9</v>
       </c>
       <c r="V194" t="n">
-        <v>111.9</v>
+        <v>125.7</v>
       </c>
       <c r="W194" t="n">
         <v>23.23</v>
@@ -30358,13 +30358,13 @@
         <v>1</v>
       </c>
       <c r="T195" t="n">
-        <v>1140.5</v>
+        <v>56.3</v>
       </c>
       <c r="U195" t="n">
-        <v>56.3</v>
+        <v>95.2</v>
       </c>
       <c r="V195" t="n">
-        <v>95.2</v>
+        <v>112.8</v>
       </c>
       <c r="W195" t="n">
         <v>23.23</v>
@@ -30522,13 +30522,13 @@
         <v>1</v>
       </c>
       <c r="T196" t="n">
-        <v>1081.5</v>
+        <v>53.8</v>
       </c>
       <c r="U196" t="n">
-        <v>53.8</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="V196" t="n">
-        <v>99.59999999999999</v>
+        <v>115.1</v>
       </c>
       <c r="W196" t="n">
         <v>23.23</v>
@@ -30686,13 +30686,13 @@
         <v>1</v>
       </c>
       <c r="T197" t="n">
-        <v>1012.4</v>
+        <v>51.3</v>
       </c>
       <c r="U197" t="n">
-        <v>51.3</v>
+        <v>110.1</v>
       </c>
       <c r="V197" t="n">
-        <v>110.1</v>
+        <v>121.8</v>
       </c>
       <c r="W197" t="n">
         <v>23.23</v>
@@ -30850,13 +30850,13 @@
         <v>1</v>
       </c>
       <c r="T198" t="n">
-        <v>921.7</v>
+        <v>59.09999999999999</v>
       </c>
       <c r="U198" t="n">
-        <v>59.09999999999999</v>
+        <v>124.2</v>
       </c>
       <c r="V198" t="n">
-        <v>124.2</v>
+        <v>139</v>
       </c>
       <c r="W198" t="n">
         <v>23.23</v>
@@ -31014,13 +31014,13 @@
         <v>0</v>
       </c>
       <c r="T199" t="n">
-        <v>812.3</v>
+        <v>44.2</v>
       </c>
       <c r="U199" t="n">
-        <v>44.2</v>
+        <v>124.4</v>
       </c>
       <c r="V199" t="n">
-        <v>124.4</v>
+        <v>137.7</v>
       </c>
       <c r="W199" t="n">
         <v>23.23</v>
@@ -31178,13 +31178,13 @@
         <v>0</v>
       </c>
       <c r="T200" t="n">
-        <v>701.2</v>
+        <v>54.5</v>
       </c>
       <c r="U200" t="n">
-        <v>54.5</v>
+        <v>130.6</v>
       </c>
       <c r="V200" t="n">
-        <v>130.6</v>
+        <v>142.5</v>
       </c>
       <c r="W200" t="n">
         <v>23.23</v>
@@ -31342,13 +31342,13 @@
         <v>0</v>
       </c>
       <c r="T201" t="n">
-        <v>582.5</v>
+        <v>54.3</v>
       </c>
       <c r="U201" t="n">
-        <v>54.3</v>
+        <v>111.1</v>
       </c>
       <c r="V201" t="n">
-        <v>111.1</v>
+        <v>125.6</v>
       </c>
       <c r="W201" t="n">
         <v>23.23</v>
@@ -31506,13 +31506,13 @@
         <v>0</v>
       </c>
       <c r="T202" t="n">
-        <v>485.9</v>
+        <v>36.4</v>
       </c>
       <c r="U202" t="n">
-        <v>36.4</v>
+        <v>118.1</v>
       </c>
       <c r="V202" t="n">
-        <v>118.1</v>
+        <v>125.9</v>
       </c>
       <c r="W202" t="n">
         <v>23.23</v>
@@ -31670,13 +31670,13 @@
         <v>1</v>
       </c>
       <c r="T203" t="n">
-        <v>382.9</v>
+        <v>48</v>
       </c>
       <c r="U203" t="n">
-        <v>48</v>
+        <v>117.5</v>
       </c>
       <c r="V203" t="n">
-        <v>117.5</v>
+        <v>128.5</v>
       </c>
       <c r="W203" t="n">
         <v>23.23</v>
@@ -31834,13 +31834,13 @@
         <v>1</v>
       </c>
       <c r="T204" t="n">
-        <v>374.8</v>
+        <v>61.59999999999999</v>
       </c>
       <c r="U204" t="n">
-        <v>61.59999999999999</v>
+        <v>117.8</v>
       </c>
       <c r="V204" t="n">
-        <v>117.8</v>
+        <v>133</v>
       </c>
       <c r="W204" t="n">
         <v>23.23</v>
@@ -31998,13 +31998,13 @@
         <v>1</v>
       </c>
       <c r="T205" t="n">
-        <v>903.0999999999999</v>
+        <v>62</v>
       </c>
       <c r="U205" t="n">
-        <v>62</v>
+        <v>114</v>
       </c>
       <c r="V205" t="n">
-        <v>114</v>
+        <v>133.2</v>
       </c>
       <c r="W205" t="n">
         <v>23.23</v>
@@ -32162,13 +32162,13 @@
         <v>1</v>
       </c>
       <c r="T206" t="n">
-        <v>1499.3</v>
+        <v>65.5</v>
       </c>
       <c r="U206" t="n">
-        <v>65.5</v>
+        <v>135.9</v>
       </c>
       <c r="V206" t="n">
-        <v>135.9</v>
+        <v>147.4</v>
       </c>
       <c r="W206" t="n">
         <v>22.07</v>
@@ -32326,13 +32326,13 @@
         <v>1</v>
       </c>
       <c r="T207" t="n">
-        <v>1652.3</v>
+        <v>60.7</v>
       </c>
       <c r="U207" t="n">
-        <v>60.7</v>
+        <v>135.5</v>
       </c>
       <c r="V207" t="n">
-        <v>135.5</v>
+        <v>149.1</v>
       </c>
       <c r="W207" t="n">
         <v>22.07</v>
@@ -32490,13 +32490,13 @@
         <v>1</v>
       </c>
       <c r="T208" t="n">
-        <v>1601.8</v>
+        <v>64.2</v>
       </c>
       <c r="U208" t="n">
-        <v>64.2</v>
+        <v>140.5</v>
       </c>
       <c r="V208" t="n">
-        <v>140.5</v>
+        <v>154.1</v>
       </c>
       <c r="W208" t="n">
         <v>22.07</v>
@@ -32654,13 +32654,13 @@
         <v>1</v>
       </c>
       <c r="T209" t="n">
-        <v>1485.3</v>
+        <v>63.7</v>
       </c>
       <c r="U209" t="n">
-        <v>63.7</v>
+        <v>132.1</v>
       </c>
       <c r="V209" t="n">
-        <v>132.1</v>
+        <v>142.4</v>
       </c>
       <c r="W209" t="n">
         <v>22.07</v>
@@ -32818,13 +32818,13 @@
         <v>1</v>
       </c>
       <c r="T210" t="n">
-        <v>1370.2</v>
+        <v>57.2</v>
       </c>
       <c r="U210" t="n">
-        <v>57.2</v>
+        <v>135.9</v>
       </c>
       <c r="V210" t="n">
-        <v>135.9</v>
+        <v>144.9</v>
       </c>
       <c r="W210" t="n">
         <v>22.07</v>
@@ -32982,13 +32982,13 @@
         <v>0</v>
       </c>
       <c r="T211" t="n">
-        <v>1243.3</v>
+        <v>54.6</v>
       </c>
       <c r="U211" t="n">
-        <v>54.6</v>
+        <v>135</v>
       </c>
       <c r="V211" t="n">
-        <v>135</v>
+        <v>144.9</v>
       </c>
       <c r="W211" t="n">
         <v>22.07</v>
@@ -33146,13 +33146,13 @@
         <v>0</v>
       </c>
       <c r="T212" t="n">
-        <v>1118.2</v>
+        <v>49.3</v>
       </c>
       <c r="U212" t="n">
-        <v>49.3</v>
+        <v>143.9</v>
       </c>
       <c r="V212" t="n">
-        <v>143.9</v>
+        <v>152.7</v>
       </c>
       <c r="W212" t="n">
         <v>22.07</v>
@@ -33310,13 +33310,13 @@
         <v>0</v>
       </c>
       <c r="T213" t="n">
-        <v>983.1</v>
+        <v>49.8</v>
       </c>
       <c r="U213" t="n">
-        <v>49.8</v>
+        <v>110.2</v>
       </c>
       <c r="V213" t="n">
-        <v>110.2</v>
+        <v>122.5</v>
       </c>
       <c r="W213" t="n">
         <v>22.07</v>
@@ -33474,13 +33474,13 @@
         <v>0</v>
       </c>
       <c r="T214" t="n">
-        <v>885.2</v>
+        <v>41.5</v>
       </c>
       <c r="U214" t="n">
-        <v>41.5</v>
+        <v>136.1</v>
       </c>
       <c r="V214" t="n">
-        <v>136.1</v>
+        <v>142.7</v>
       </c>
       <c r="W214" t="n">
         <v>22.07</v>
@@ -33638,13 +33638,13 @@
         <v>1</v>
       </c>
       <c r="T215" t="n">
-        <v>798.6</v>
+        <v>59.59999999999999</v>
       </c>
       <c r="U215" t="n">
-        <v>59.59999999999999</v>
+        <v>155.5</v>
       </c>
       <c r="V215" t="n">
-        <v>155.5</v>
+        <v>165.7</v>
       </c>
       <c r="W215" t="n">
         <v>22.07</v>
@@ -33802,13 +33802,13 @@
         <v>1</v>
       </c>
       <c r="T216" t="n">
-        <v>823.5</v>
+        <v>60.2</v>
       </c>
       <c r="U216" t="n">
-        <v>60.2</v>
+        <v>133.1</v>
       </c>
       <c r="V216" t="n">
-        <v>133.1</v>
+        <v>149.1</v>
       </c>
       <c r="W216" t="n">
         <v>22.07</v>
@@ -33966,13 +33966,13 @@
         <v>1</v>
       </c>
       <c r="T217" t="n">
-        <v>1164.3</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="U217" t="n">
-        <v>74.59999999999999</v>
+        <v>120.8</v>
       </c>
       <c r="V217" t="n">
-        <v>120.8</v>
+        <v>147.7</v>
       </c>
       <c r="W217" t="n">
         <v>22.07</v>
@@ -34130,13 +34130,13 @@
         <v>1</v>
       </c>
       <c r="T218" t="n">
-        <v>1403.3</v>
+        <v>53.5</v>
       </c>
       <c r="U218" t="n">
-        <v>53.5</v>
+        <v>120.2</v>
       </c>
       <c r="V218" t="n">
-        <v>120.2</v>
+        <v>135.1</v>
       </c>
       <c r="W218" t="n">
         <v>21.15</v>
@@ -34294,13 +34294,13 @@
         <v>1</v>
       </c>
       <c r="T219" t="n">
-        <v>1399.1</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="U219" t="n">
-        <v>64.40000000000001</v>
+        <v>116.3</v>
       </c>
       <c r="V219" t="n">
-        <v>116.3</v>
+        <v>135.6</v>
       </c>
       <c r="W219" t="n">
         <v>21.15</v>
@@ -34458,13 +34458,13 @@
         <v>1</v>
       </c>
       <c r="T220" t="n">
-        <v>1314.2</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="U220" t="n">
-        <v>92.59999999999999</v>
+        <v>159.2</v>
       </c>
       <c r="V220" t="n">
-        <v>159.2</v>
+        <v>190.9</v>
       </c>
       <c r="W220" t="n">
         <v>21.15</v>
@@ -34622,13 +34622,13 @@
         <v>1</v>
       </c>
       <c r="T221" t="n">
-        <v>1188.8</v>
+        <v>52.5</v>
       </c>
       <c r="U221" t="n">
-        <v>52.5</v>
+        <v>121.4</v>
       </c>
       <c r="V221" t="n">
-        <v>121.4</v>
+        <v>146.9</v>
       </c>
       <c r="W221" t="n">
         <v>21.15</v>
@@ -34786,13 +34786,13 @@
         <v>1</v>
       </c>
       <c r="T222" t="n">
-        <v>1099.4</v>
+        <v>69</v>
       </c>
       <c r="U222" t="n">
-        <v>69</v>
+        <v>136.4</v>
       </c>
       <c r="V222" t="n">
-        <v>136.4</v>
+        <v>163.3</v>
       </c>
       <c r="W222" t="n">
         <v>21.15</v>
@@ -34950,13 +34950,13 @@
         <v>0</v>
       </c>
       <c r="T223" t="n">
-        <v>989.9</v>
+        <v>61.7</v>
       </c>
       <c r="U223" t="n">
-        <v>61.7</v>
+        <v>146.7</v>
       </c>
       <c r="V223" t="n">
-        <v>146.7</v>
+        <v>170.8</v>
       </c>
       <c r="W223" t="n">
         <v>21.15</v>
@@ -35114,13 +35114,13 @@
         <v>0</v>
       </c>
       <c r="T224" t="n">
-        <v>867.3</v>
+        <v>61</v>
       </c>
       <c r="U224" t="n">
-        <v>61</v>
+        <v>154.7</v>
       </c>
       <c r="V224" t="n">
-        <v>154.7</v>
+        <v>172.1</v>
       </c>
       <c r="W224" t="n">
         <v>21.15</v>
@@ -35278,13 +35278,13 @@
         <v>0</v>
       </c>
       <c r="T225" t="n">
-        <v>730</v>
+        <v>61.1</v>
       </c>
       <c r="U225" t="n">
-        <v>61.1</v>
+        <v>127.3</v>
       </c>
       <c r="V225" t="n">
-        <v>127.3</v>
+        <v>140.9</v>
       </c>
       <c r="W225" t="n">
         <v>21.15</v>
@@ -35442,13 +35442,13 @@
         <v>0</v>
       </c>
       <c r="T226" t="n">
-        <v>616.3</v>
+        <v>52.7</v>
       </c>
       <c r="U226" t="n">
-        <v>52.7</v>
+        <v>142.2</v>
       </c>
       <c r="V226" t="n">
-        <v>142.2</v>
+        <v>159.3</v>
       </c>
       <c r="W226" t="n">
         <v>21.15</v>
@@ -35606,13 +35606,13 @@
         <v>1</v>
       </c>
       <c r="T227" t="n">
-        <v>529.4</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="U227" t="n">
-        <v>72.90000000000001</v>
+        <v>150.2</v>
       </c>
       <c r="V227" t="n">
-        <v>150.2</v>
+        <v>168.6</v>
       </c>
       <c r="W227" t="n">
         <v>21.15</v>
@@ -35770,13 +35770,13 @@
         <v>1</v>
       </c>
       <c r="T228" t="n">
-        <v>642.1</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="U228" t="n">
-        <v>70.59999999999999</v>
+        <v>146.2</v>
       </c>
       <c r="V228" t="n">
-        <v>146.2</v>
+        <v>166.3</v>
       </c>
       <c r="W228" t="n">
         <v>21.15</v>
@@ -35934,13 +35934,13 @@
         <v>1</v>
       </c>
       <c r="T229" t="n">
-        <v>991.5</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="U229" t="n">
-        <v>82.09999999999999</v>
+        <v>144.7</v>
       </c>
       <c r="V229" t="n">
-        <v>144.7</v>
+        <v>165.6</v>
       </c>
       <c r="W229" t="n">
         <v>21.15</v>
@@ -36098,13 +36098,13 @@
         <v>1</v>
       </c>
       <c r="T230" t="n">
-        <v>1219.5</v>
+        <v>54.3</v>
       </c>
       <c r="U230" t="n">
-        <v>54.3</v>
+        <v>125.1</v>
       </c>
       <c r="V230" t="n">
-        <v>125.1</v>
+        <v>136.8</v>
       </c>
       <c r="W230" t="n">
         <v>21.87</v>
@@ -36262,13 +36262,13 @@
         <v>1</v>
       </c>
       <c r="T231" t="n">
-        <v>1333</v>
+        <v>64.3</v>
       </c>
       <c r="U231" t="n">
-        <v>64.3</v>
+        <v>151.8</v>
       </c>
       <c r="V231" t="n">
-        <v>151.8</v>
+        <v>168.5</v>
       </c>
       <c r="W231" t="n">
         <v>21.87</v>
@@ -36426,13 +36426,13 @@
         <v>1</v>
       </c>
       <c r="T232" t="n">
-        <v>1242.5</v>
+        <v>69.39876</v>
       </c>
       <c r="U232" t="n">
-        <v>69.39876</v>
+        <v>158.39876</v>
       </c>
       <c r="V232" t="n">
-        <v>158.39876</v>
+        <v>176.19876</v>
       </c>
       <c r="W232" t="n">
         <v>21.87</v>
@@ -36590,13 +36590,13 @@
         <v>1</v>
       </c>
       <c r="T233" t="n">
-        <v>1105.00124</v>
+        <v>59.97207</v>
       </c>
       <c r="U233" t="n">
-        <v>59.97207</v>
+        <v>143.87207</v>
       </c>
       <c r="V233" t="n">
-        <v>143.87207</v>
+        <v>159.37207</v>
       </c>
       <c r="W233" t="n">
         <v>21.87</v>
@@ -36754,13 +36754,13 @@
         <v>1</v>
       </c>
       <c r="T234" t="n">
-        <v>981.12917</v>
+        <v>61.08387</v>
       </c>
       <c r="U234" t="n">
-        <v>61.08387</v>
+        <v>138.08387</v>
       </c>
       <c r="V234" t="n">
-        <v>138.08387</v>
+        <v>151.38387</v>
       </c>
       <c r="W234" t="n">
         <v>21.87</v>
@@ -36918,13 +36918,13 @@
         <v>0</v>
       </c>
       <c r="T235" t="n">
-        <v>856.3453</v>
+        <v>46.4093</v>
       </c>
       <c r="U235" t="n">
-        <v>46.4093</v>
+        <v>120.9093</v>
       </c>
       <c r="V235" t="n">
-        <v>120.9093</v>
+        <v>134.2093</v>
       </c>
       <c r="W235" t="n">
         <v>21.87</v>
@@ -37082,13 +37082,13 @@
         <v>0</v>
       </c>
       <c r="T236" t="n">
-        <v>748.736</v>
+        <v>48.0546</v>
       </c>
       <c r="U236" t="n">
-        <v>48.0546</v>
+        <v>119.4546</v>
       </c>
       <c r="V236" t="n">
-        <v>119.4546</v>
+        <v>129.9546</v>
       </c>
       <c r="W236" t="n">
         <v>21.87</v>
@@ -37246,13 +37246,13 @@
         <v>0</v>
       </c>
       <c r="T237" t="n">
-        <v>639.7814</v>
+        <v>45.5813</v>
       </c>
       <c r="U237" t="n">
-        <v>45.5813</v>
+        <v>103.0813</v>
       </c>
       <c r="V237" t="n">
-        <v>103.0813</v>
+        <v>111.5813</v>
       </c>
       <c r="W237" t="n">
         <v>21.87</v>
@@ -37410,13 +37410,13 @@
         <v>0</v>
       </c>
       <c r="T238" t="n">
-        <v>545.2001</v>
+        <v>50.83693</v>
       </c>
       <c r="U238" t="n">
-        <v>50.83693</v>
+        <v>138.43693</v>
       </c>
       <c r="V238" t="n">
-        <v>138.43693</v>
+        <v>154.63693</v>
       </c>
       <c r="W238" t="n">
         <v>21.87</v>
@@ -37574,13 +37574,13 @@
         <v>1</v>
       </c>
       <c r="T239" t="n">
-        <v>474.26317</v>
+        <v>52.27798</v>
       </c>
       <c r="U239" t="n">
-        <v>52.27798</v>
+        <v>123.07807</v>
       </c>
       <c r="V239" t="n">
-        <v>123.07807</v>
+        <v>135.77576</v>
       </c>
       <c r="W239" t="n">
         <v>21.87</v>
@@ -37738,13 +37738,13 @@
         <v>1</v>
       </c>
       <c r="T240" t="n">
-        <v>652.12889</v>
+        <v>66.68469</v>
       </c>
       <c r="U240" t="n">
-        <v>66.68469</v>
+        <v>131.14616</v>
       </c>
       <c r="V240" t="n">
-        <v>131.14616</v>
+        <v>150.09314</v>
       </c>
       <c r="W240" t="n">
         <v>21.87</v>
@@ -37902,13 +37902,13 @@
         <v>1</v>
       </c>
       <c r="T241" t="n">
-        <v>1082.59951</v>
+        <v>87.33429</v>
       </c>
       <c r="U241" t="n">
-        <v>87.33429</v>
+        <v>133.16688</v>
       </c>
       <c r="V241" t="n">
-        <v>133.16688</v>
+        <v>168.76112</v>
       </c>
       <c r="W241" t="n">
         <v>21.87</v>
@@ -38066,13 +38066,13 @@
         <v>1</v>
       </c>
       <c r="T242" t="n">
-        <v>1456.23687</v>
+        <v>66.91667</v>
       </c>
       <c r="U242" t="n">
-        <v>66.91667</v>
+        <v>127.82545</v>
       </c>
       <c r="V242" t="n">
-        <v>127.82545</v>
+        <v>140.66259</v>
       </c>
       <c r="W242" t="n">
         <v>18.49</v>
@@ -38230,13 +38230,13 @@
         <v>1</v>
       </c>
       <c r="T243" t="n">
-        <v>1450.03596</v>
+        <v>61.72054</v>
       </c>
       <c r="U243" t="n">
-        <v>61.72054</v>
+        <v>132.63051</v>
       </c>
       <c r="V243" t="n">
-        <v>132.63051</v>
+        <v>150.05011</v>
       </c>
       <c r="W243" t="n">
         <v>18.49</v>
@@ -38394,13 +38394,13 @@
         <v>1</v>
       </c>
       <c r="T244" t="n">
-        <v>1355.63225</v>
+        <v>82.70704000000001</v>
       </c>
       <c r="U244" t="n">
-        <v>82.70704000000001</v>
+        <v>148.96743</v>
       </c>
       <c r="V244" t="n">
-        <v>148.96743</v>
+        <v>161.00501</v>
       </c>
       <c r="W244" t="n">
         <v>18.49</v>
@@ -38558,13 +38558,13 @@
         <v>1</v>
       </c>
       <c r="T245" t="n">
-        <v>1225.76</v>
+        <v>78.14018</v>
       </c>
       <c r="U245" t="n">
-        <v>78.14018</v>
+        <v>163.54158</v>
       </c>
       <c r="V245" t="n">
-        <v>163.54158</v>
+        <v>185.47345</v>
       </c>
       <c r="W245" t="n">
         <v>18.49</v>
@@ -38722,13 +38722,13 @@
         <v>1</v>
       </c>
       <c r="T246" t="n">
-        <v>1087.06699</v>
+        <v>61.35098</v>
       </c>
       <c r="U246" t="n">
-        <v>61.35098</v>
+        <v>158.73977</v>
       </c>
       <c r="V246" t="n">
-        <v>158.73977</v>
+        <v>179.16932</v>
       </c>
       <c r="W246" t="n">
         <v>18.49</v>
@@ -38886,13 +38886,13 @@
         <v>0</v>
       </c>
       <c r="T247" t="n">
-        <v>948.77037</v>
+        <v>69.8897</v>
       </c>
       <c r="U247" t="n">
-        <v>69.8897</v>
+        <v>156.86133</v>
       </c>
       <c r="V247" t="n">
-        <v>156.86133</v>
+        <v>173.33602</v>
       </c>
       <c r="W247" t="n">
         <v>18.49</v>
@@ -39050,13 +39050,13 @@
         <v>0</v>
       </c>
       <c r="T248" t="n">
-        <v>808.38373</v>
+        <v>46.20949</v>
       </c>
       <c r="U248" t="n">
-        <v>46.20949</v>
+        <v>123.98166</v>
       </c>
       <c r="V248" t="n">
-        <v>123.98166</v>
+        <v>136.63646</v>
       </c>
       <c r="W248" t="n">
         <v>18.49</v>
@@ -39214,13 +39214,13 @@
         <v>0</v>
       </c>
       <c r="T249" t="n">
-        <v>697.05687</v>
+        <v>74.10861</v>
       </c>
       <c r="U249" t="n">
-        <v>74.10861</v>
+        <v>137.00597</v>
       </c>
       <c r="V249" t="n">
-        <v>137.00597</v>
+        <v>157.25384</v>
       </c>
       <c r="W249" t="n">
         <v>18.49</v>
@@ -39378,13 +39378,13 @@
         <v>0</v>
       </c>
       <c r="T250" t="n">
-        <v>580.29877</v>
+        <v>60.02887</v>
       </c>
       <c r="U250" t="n">
-        <v>60.02887</v>
+        <v>137.8733</v>
       </c>
       <c r="V250" t="n">
-        <v>137.8733</v>
+        <v>149.39471</v>
       </c>
       <c r="W250" t="n">
         <v>18.49</v>
@@ -39542,13 +39542,13 @@
         <v>1</v>
       </c>
       <c r="T251" t="n">
-        <v>484.54688</v>
+        <v>59.688993</v>
       </c>
       <c r="U251" t="n">
-        <v>59.688993</v>
+        <v>130.70794</v>
       </c>
       <c r="V251" t="n">
-        <v>130.70794</v>
+        <v>143.97365</v>
       </c>
       <c r="W251" t="n">
         <v>18.49</v>
@@ -39706,13 +39706,13 @@
         <v>1</v>
       </c>
       <c r="T252" t="n">
-        <v>536.22945</v>
+        <v>61.516812</v>
       </c>
       <c r="U252" t="n">
-        <v>61.516812</v>
+        <v>105.916514</v>
       </c>
       <c r="V252" t="n">
-        <v>105.916514</v>
+        <v>126.790398</v>
       </c>
       <c r="W252" t="n">
         <v>18.49</v>
@@ -39870,13 +39870,13 @@
         <v>1</v>
       </c>
       <c r="T253" t="n">
-        <v>688.56732</v>
+        <v>58.524683</v>
       </c>
       <c r="U253" t="n">
-        <v>58.524683</v>
+        <v>83.737821</v>
       </c>
       <c r="V253" t="n">
-        <v>83.737821</v>
+        <v>117.150692</v>
       </c>
       <c r="W253" t="n">
         <v>18.49</v>
@@ -40034,13 +40034,13 @@
         <v>1</v>
       </c>
       <c r="T254" t="n">
-        <v>819.41167</v>
+        <v>27.956514</v>
       </c>
       <c r="U254" t="n">
-        <v>27.956514</v>
+        <v>70.739482</v>
       </c>
       <c r="V254" t="n">
-        <v>70.739482</v>
+        <v>83.77951399999999</v>
       </c>
       <c r="W254" t="n">
         <v>20.52</v>
@@ -40198,13 +40198,13 @@
         <v>1</v>
       </c>
       <c r="T255" t="n">
-        <v>796.80232</v>
+        <v>49.56535</v>
       </c>
       <c r="U255" t="n">
-        <v>49.56535</v>
+        <v>77.157633</v>
       </c>
       <c r="V255" t="n">
-        <v>77.157633</v>
+        <v>96.19555600000001</v>
       </c>
       <c r="W255" t="n">
         <v>20.52</v>
@@ -40362,13 +40362,13 @@
         <v>1</v>
       </c>
       <c r="T256" t="n">
-        <v>746.11531</v>
+        <v>47.65777</v>
       </c>
       <c r="U256" t="n">
-        <v>47.65777</v>
+        <v>93.86382999999999</v>
       </c>
       <c r="V256" t="n">
-        <v>93.86382999999999</v>
+        <v>111.10677</v>
       </c>
       <c r="W256" t="n">
         <v>20.52</v>
@@ -40526,13 +40526,13 @@
         <v>1</v>
       </c>
       <c r="T257" t="n">
-        <v>671.37961</v>
+        <v>34.263216</v>
       </c>
       <c r="U257" t="n">
-        <v>34.263216</v>
+        <v>73.972008</v>
       </c>
       <c r="V257" t="n">
-        <v>73.972008</v>
+        <v>84.16021600000001</v>
       </c>
       <c r="W257" t="n">
         <v>20.52</v>
@@ -40690,13 +40690,13 @@
         <v>1</v>
       </c>
       <c r="T258" t="n">
-        <v>608.25225</v>
+        <v>40.245948</v>
       </c>
       <c r="U258" t="n">
-        <v>40.245948</v>
+        <v>92.83561399999999</v>
       </c>
       <c r="V258" t="n">
-        <v>92.83561399999999</v>
+        <v>106.839948</v>
       </c>
       <c r="W258" t="n">
         <v>20.52</v>
@@ -40854,13 +40854,13 @@
         <v>0</v>
       </c>
       <c r="T259" t="n">
-        <v>529.42454</v>
+        <v>45.04922</v>
       </c>
       <c r="U259" t="n">
-        <v>45.04922</v>
+        <v>90.81742</v>
       </c>
       <c r="V259" t="n">
-        <v>90.81742</v>
+        <v>106.67322</v>
       </c>
       <c r="W259" t="n">
         <v>20.52</v>

--- a/Output/Excel/df_month.xlsx
+++ b/Output/Excel/df_month.xlsx
@@ -38075,67 +38075,67 @@
         <v>140.66259</v>
       </c>
       <c r="W242" t="n">
-        <v>18.49</v>
+        <v>18.17</v>
       </c>
       <c r="X242" t="n">
-        <v>1.925833333333333</v>
+        <v>1.681666666666667</v>
       </c>
       <c r="Y242" t="n">
-        <v>0.1041666666666667</v>
+        <v>0.09250000000000001</v>
       </c>
       <c r="Z242" t="n">
-        <v>122.57</v>
+        <v>122.51</v>
       </c>
       <c r="AA242" t="n">
-        <v>12.34833333333333</v>
+        <v>11.07666666666667</v>
       </c>
       <c r="AB242" t="n">
-        <v>0.1008333333333333</v>
+        <v>0.09000000000000001</v>
       </c>
       <c r="AC242" t="n">
-        <v>0.34</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD242" t="n">
-        <v>0.02916666666666666</v>
+        <v>0.06083333333333333</v>
       </c>
       <c r="AE242" t="n">
-        <v>0.08583333333333333</v>
+        <v>0.0675</v>
       </c>
       <c r="AF242" t="n">
-        <v>2.46</v>
+        <v>2.7</v>
       </c>
       <c r="AG242" t="n">
-        <v>0.1525</v>
+        <v>0.1775</v>
       </c>
       <c r="AH242" t="n">
-        <v>0.06166666666666667</v>
+        <v>0.06583333333333334</v>
       </c>
       <c r="AI242" t="n">
-        <v>118.04</v>
+        <v>130.07</v>
       </c>
       <c r="AJ242" t="n">
-        <v>21.24333333333333</v>
+        <v>21.1</v>
       </c>
       <c r="AK242" t="n">
-        <v>0.18</v>
+        <v>0.1625</v>
       </c>
       <c r="AL242" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="AM242" t="n">
-        <v>0.29</v>
+        <v>0.3091666666666666</v>
       </c>
       <c r="AN242" t="n">
-        <v>0.2233333333333334</v>
+        <v>0.2325</v>
       </c>
       <c r="AO242" t="n">
-        <v>879.9000000000001</v>
+        <v>876.6699999999998</v>
       </c>
       <c r="AP242" t="n">
-        <v>66.17583333333333</v>
+        <v>68.35333333333334</v>
       </c>
       <c r="AQ242" t="n">
-        <v>0.075</v>
+        <v>0.07833333333333332</v>
       </c>
       <c r="AR242" t="n">
         <v>2022</v>
@@ -38239,67 +38239,67 @@
         <v>150.05011</v>
       </c>
       <c r="W243" t="n">
-        <v>18.49</v>
+        <v>18.17</v>
       </c>
       <c r="X243" t="n">
-        <v>1.925833333333333</v>
+        <v>1.681666666666667</v>
       </c>
       <c r="Y243" t="n">
-        <v>0.1041666666666667</v>
+        <v>0.09250000000000001</v>
       </c>
       <c r="Z243" t="n">
-        <v>122.57</v>
+        <v>122.51</v>
       </c>
       <c r="AA243" t="n">
-        <v>12.34833333333333</v>
+        <v>11.07666666666667</v>
       </c>
       <c r="AB243" t="n">
-        <v>0.1008333333333333</v>
+        <v>0.09000000000000001</v>
       </c>
       <c r="AC243" t="n">
-        <v>0.34</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD243" t="n">
-        <v>0.02916666666666666</v>
+        <v>0.06083333333333333</v>
       </c>
       <c r="AE243" t="n">
-        <v>0.08583333333333333</v>
+        <v>0.0675</v>
       </c>
       <c r="AF243" t="n">
-        <v>2.46</v>
+        <v>2.7</v>
       </c>
       <c r="AG243" t="n">
-        <v>0.1525</v>
+        <v>0.1775</v>
       </c>
       <c r="AH243" t="n">
-        <v>0.06166666666666667</v>
+        <v>0.06583333333333334</v>
       </c>
       <c r="AI243" t="n">
-        <v>118.04</v>
+        <v>130.07</v>
       </c>
       <c r="AJ243" t="n">
-        <v>21.24333333333333</v>
+        <v>21.1</v>
       </c>
       <c r="AK243" t="n">
-        <v>0.18</v>
+        <v>0.1625</v>
       </c>
       <c r="AL243" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="AM243" t="n">
-        <v>0.29</v>
+        <v>0.3091666666666666</v>
       </c>
       <c r="AN243" t="n">
-        <v>0.2233333333333334</v>
+        <v>0.2325</v>
       </c>
       <c r="AO243" t="n">
-        <v>879.9000000000001</v>
+        <v>876.6699999999998</v>
       </c>
       <c r="AP243" t="n">
-        <v>66.17583333333333</v>
+        <v>68.35333333333334</v>
       </c>
       <c r="AQ243" t="n">
-        <v>0.075</v>
+        <v>0.07833333333333332</v>
       </c>
       <c r="AR243" t="n">
         <v>2022</v>
@@ -38403,67 +38403,67 @@
         <v>161.00501</v>
       </c>
       <c r="W244" t="n">
-        <v>18.49</v>
+        <v>18.17</v>
       </c>
       <c r="X244" t="n">
-        <v>1.925833333333333</v>
+        <v>1.681666666666667</v>
       </c>
       <c r="Y244" t="n">
-        <v>0.1041666666666667</v>
+        <v>0.09250000000000001</v>
       </c>
       <c r="Z244" t="n">
-        <v>122.57</v>
+        <v>122.51</v>
       </c>
       <c r="AA244" t="n">
-        <v>12.34833333333333</v>
+        <v>11.07666666666667</v>
       </c>
       <c r="AB244" t="n">
-        <v>0.1008333333333333</v>
+        <v>0.09000000000000001</v>
       </c>
       <c r="AC244" t="n">
-        <v>0.34</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD244" t="n">
-        <v>0.02916666666666666</v>
+        <v>0.06083333333333333</v>
       </c>
       <c r="AE244" t="n">
-        <v>0.08583333333333333</v>
+        <v>0.0675</v>
       </c>
       <c r="AF244" t="n">
-        <v>2.46</v>
+        <v>2.7</v>
       </c>
       <c r="AG244" t="n">
-        <v>0.1525</v>
+        <v>0.1775</v>
       </c>
       <c r="AH244" t="n">
-        <v>0.06166666666666667</v>
+        <v>0.06583333333333334</v>
       </c>
       <c r="AI244" t="n">
-        <v>118.04</v>
+        <v>130.07</v>
       </c>
       <c r="AJ244" t="n">
-        <v>21.24333333333333</v>
+        <v>21.1</v>
       </c>
       <c r="AK244" t="n">
-        <v>0.18</v>
+        <v>0.1625</v>
       </c>
       <c r="AL244" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="AM244" t="n">
-        <v>0.29</v>
+        <v>0.3091666666666666</v>
       </c>
       <c r="AN244" t="n">
-        <v>0.2233333333333334</v>
+        <v>0.2325</v>
       </c>
       <c r="AO244" t="n">
-        <v>879.9000000000001</v>
+        <v>876.6699999999998</v>
       </c>
       <c r="AP244" t="n">
-        <v>66.17583333333333</v>
+        <v>68.35333333333334</v>
       </c>
       <c r="AQ244" t="n">
-        <v>0.075</v>
+        <v>0.07833333333333332</v>
       </c>
       <c r="AR244" t="n">
         <v>2022</v>
@@ -38567,67 +38567,67 @@
         <v>185.47345</v>
       </c>
       <c r="W245" t="n">
-        <v>18.49</v>
+        <v>18.17</v>
       </c>
       <c r="X245" t="n">
-        <v>1.925833333333333</v>
+        <v>1.681666666666667</v>
       </c>
       <c r="Y245" t="n">
-        <v>0.1041666666666667</v>
+        <v>0.09250000000000001</v>
       </c>
       <c r="Z245" t="n">
-        <v>122.57</v>
+        <v>122.51</v>
       </c>
       <c r="AA245" t="n">
-        <v>12.34833333333333</v>
+        <v>11.07666666666667</v>
       </c>
       <c r="AB245" t="n">
-        <v>0.1008333333333333</v>
+        <v>0.09000000000000001</v>
       </c>
       <c r="AC245" t="n">
-        <v>0.34</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD245" t="n">
-        <v>0.02916666666666666</v>
+        <v>0.06083333333333333</v>
       </c>
       <c r="AE245" t="n">
-        <v>0.08583333333333333</v>
+        <v>0.0675</v>
       </c>
       <c r="AF245" t="n">
-        <v>2.46</v>
+        <v>2.7</v>
       </c>
       <c r="AG245" t="n">
-        <v>0.1525</v>
+        <v>0.1775</v>
       </c>
       <c r="AH245" t="n">
-        <v>0.06166666666666667</v>
+        <v>0.06583333333333334</v>
       </c>
       <c r="AI245" t="n">
-        <v>118.04</v>
+        <v>130.07</v>
       </c>
       <c r="AJ245" t="n">
-        <v>21.24333333333333</v>
+        <v>21.1</v>
       </c>
       <c r="AK245" t="n">
-        <v>0.18</v>
+        <v>0.1625</v>
       </c>
       <c r="AL245" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="AM245" t="n">
-        <v>0.29</v>
+        <v>0.3091666666666666</v>
       </c>
       <c r="AN245" t="n">
-        <v>0.2233333333333334</v>
+        <v>0.2325</v>
       </c>
       <c r="AO245" t="n">
-        <v>879.9000000000001</v>
+        <v>876.6699999999998</v>
       </c>
       <c r="AP245" t="n">
-        <v>66.17583333333333</v>
+        <v>68.35333333333334</v>
       </c>
       <c r="AQ245" t="n">
-        <v>0.075</v>
+        <v>0.07833333333333332</v>
       </c>
       <c r="AR245" t="n">
         <v>2022</v>
@@ -38731,67 +38731,67 @@
         <v>179.16932</v>
       </c>
       <c r="W246" t="n">
-        <v>18.49</v>
+        <v>18.17</v>
       </c>
       <c r="X246" t="n">
-        <v>1.925833333333333</v>
+        <v>1.681666666666667</v>
       </c>
       <c r="Y246" t="n">
-        <v>0.1041666666666667</v>
+        <v>0.09250000000000001</v>
       </c>
       <c r="Z246" t="n">
-        <v>122.57</v>
+        <v>122.51</v>
       </c>
       <c r="AA246" t="n">
-        <v>12.34833333333333</v>
+        <v>11.07666666666667</v>
       </c>
       <c r="AB246" t="n">
-        <v>0.1008333333333333</v>
+        <v>0.09000000000000001</v>
       </c>
       <c r="AC246" t="n">
-        <v>0.34</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD246" t="n">
-        <v>0.02916666666666666</v>
+        <v>0.06083333333333333</v>
       </c>
       <c r="AE246" t="n">
-        <v>0.08583333333333333</v>
+        <v>0.0675</v>
       </c>
       <c r="AF246" t="n">
-        <v>2.46</v>
+        <v>2.7</v>
       </c>
       <c r="AG246" t="n">
-        <v>0.1525</v>
+        <v>0.1775</v>
       </c>
       <c r="AH246" t="n">
-        <v>0.06166666666666667</v>
+        <v>0.06583333333333334</v>
       </c>
       <c r="AI246" t="n">
-        <v>118.04</v>
+        <v>130.07</v>
       </c>
       <c r="AJ246" t="n">
-        <v>21.24333333333333</v>
+        <v>21.1</v>
       </c>
       <c r="AK246" t="n">
-        <v>0.18</v>
+        <v>0.1625</v>
       </c>
       <c r="AL246" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="AM246" t="n">
-        <v>0.29</v>
+        <v>0.3091666666666666</v>
       </c>
       <c r="AN246" t="n">
-        <v>0.2233333333333334</v>
+        <v>0.2325</v>
       </c>
       <c r="AO246" t="n">
-        <v>879.9000000000001</v>
+        <v>876.6699999999998</v>
       </c>
       <c r="AP246" t="n">
-        <v>66.17583333333333</v>
+        <v>68.35333333333334</v>
       </c>
       <c r="AQ246" t="n">
-        <v>0.075</v>
+        <v>0.07833333333333332</v>
       </c>
       <c r="AR246" t="n">
         <v>2022</v>
@@ -38895,67 +38895,67 @@
         <v>173.33602</v>
       </c>
       <c r="W247" t="n">
-        <v>18.49</v>
+        <v>18.17</v>
       </c>
       <c r="X247" t="n">
-        <v>1.925833333333333</v>
+        <v>1.681666666666667</v>
       </c>
       <c r="Y247" t="n">
-        <v>0.1041666666666667</v>
+        <v>0.09250000000000001</v>
       </c>
       <c r="Z247" t="n">
-        <v>122.57</v>
+        <v>122.51</v>
       </c>
       <c r="AA247" t="n">
-        <v>12.34833333333333</v>
+        <v>11.07666666666667</v>
       </c>
       <c r="AB247" t="n">
-        <v>0.1008333333333333</v>
+        <v>0.09000000000000001</v>
       </c>
       <c r="AC247" t="n">
-        <v>0.34</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD247" t="n">
-        <v>0.02916666666666666</v>
+        <v>0.06083333333333333</v>
       </c>
       <c r="AE247" t="n">
-        <v>0.08583333333333333</v>
+        <v>0.0675</v>
       </c>
       <c r="AF247" t="n">
-        <v>2.46</v>
+        <v>2.7</v>
       </c>
       <c r="AG247" t="n">
-        <v>0.1525</v>
+        <v>0.1775</v>
       </c>
       <c r="AH247" t="n">
-        <v>0.06166666666666667</v>
+        <v>0.06583333333333334</v>
       </c>
       <c r="AI247" t="n">
-        <v>118.04</v>
+        <v>130.07</v>
       </c>
       <c r="AJ247" t="n">
-        <v>21.24333333333333</v>
+        <v>21.1</v>
       </c>
       <c r="AK247" t="n">
-        <v>0.18</v>
+        <v>0.1625</v>
       </c>
       <c r="AL247" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="AM247" t="n">
-        <v>0.29</v>
+        <v>0.3091666666666666</v>
       </c>
       <c r="AN247" t="n">
-        <v>0.2233333333333334</v>
+        <v>0.2325</v>
       </c>
       <c r="AO247" t="n">
-        <v>879.9000000000001</v>
+        <v>876.6699999999998</v>
       </c>
       <c r="AP247" t="n">
-        <v>66.17583333333333</v>
+        <v>68.35333333333334</v>
       </c>
       <c r="AQ247" t="n">
-        <v>0.075</v>
+        <v>0.07833333333333332</v>
       </c>
       <c r="AR247" t="n">
         <v>2022</v>
@@ -39059,67 +39059,67 @@
         <v>136.63646</v>
       </c>
       <c r="W248" t="n">
-        <v>18.49</v>
+        <v>18.17</v>
       </c>
       <c r="X248" t="n">
-        <v>1.925833333333333</v>
+        <v>1.681666666666667</v>
       </c>
       <c r="Y248" t="n">
-        <v>0.1041666666666667</v>
+        <v>0.09250000000000001</v>
       </c>
       <c r="Z248" t="n">
-        <v>122.57</v>
+        <v>122.51</v>
       </c>
       <c r="AA248" t="n">
-        <v>12.34833333333333</v>
+        <v>11.07666666666667</v>
       </c>
       <c r="AB248" t="n">
-        <v>0.1008333333333333</v>
+        <v>0.09000000000000001</v>
       </c>
       <c r="AC248" t="n">
-        <v>0.34</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD248" t="n">
-        <v>0.02916666666666666</v>
+        <v>0.06083333333333333</v>
       </c>
       <c r="AE248" t="n">
-        <v>0.08583333333333333</v>
+        <v>0.0675</v>
       </c>
       <c r="AF248" t="n">
-        <v>2.46</v>
+        <v>2.7</v>
       </c>
       <c r="AG248" t="n">
-        <v>0.1525</v>
+        <v>0.1775</v>
       </c>
       <c r="AH248" t="n">
-        <v>0.06166666666666667</v>
+        <v>0.06583333333333334</v>
       </c>
       <c r="AI248" t="n">
-        <v>118.04</v>
+        <v>130.07</v>
       </c>
       <c r="AJ248" t="n">
-        <v>21.24333333333333</v>
+        <v>21.1</v>
       </c>
       <c r="AK248" t="n">
-        <v>0.18</v>
+        <v>0.1625</v>
       </c>
       <c r="AL248" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="AM248" t="n">
-        <v>0.29</v>
+        <v>0.3091666666666666</v>
       </c>
       <c r="AN248" t="n">
-        <v>0.2233333333333334</v>
+        <v>0.2325</v>
       </c>
       <c r="AO248" t="n">
-        <v>879.9000000000001</v>
+        <v>876.6699999999998</v>
       </c>
       <c r="AP248" t="n">
-        <v>66.17583333333333</v>
+        <v>68.35333333333334</v>
       </c>
       <c r="AQ248" t="n">
-        <v>0.075</v>
+        <v>0.07833333333333332</v>
       </c>
       <c r="AR248" t="n">
         <v>2022</v>
@@ -39223,67 +39223,67 @@
         <v>157.25384</v>
       </c>
       <c r="W249" t="n">
-        <v>18.49</v>
+        <v>18.17</v>
       </c>
       <c r="X249" t="n">
-        <v>1.925833333333333</v>
+        <v>1.681666666666667</v>
       </c>
       <c r="Y249" t="n">
-        <v>0.1041666666666667</v>
+        <v>0.09250000000000001</v>
       </c>
       <c r="Z249" t="n">
-        <v>122.57</v>
+        <v>122.51</v>
       </c>
       <c r="AA249" t="n">
-        <v>12.34833333333333</v>
+        <v>11.07666666666667</v>
       </c>
       <c r="AB249" t="n">
-        <v>0.1008333333333333</v>
+        <v>0.09000000000000001</v>
       </c>
       <c r="AC249" t="n">
-        <v>0.34</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD249" t="n">
-        <v>0.02916666666666666</v>
+        <v>0.06083333333333333</v>
       </c>
       <c r="AE249" t="n">
-        <v>0.08583333333333333</v>
+        <v>0.0675</v>
       </c>
       <c r="AF249" t="n">
-        <v>2.46</v>
+        <v>2.7</v>
       </c>
       <c r="AG249" t="n">
-        <v>0.1525</v>
+        <v>0.1775</v>
       </c>
       <c r="AH249" t="n">
-        <v>0.06166666666666667</v>
+        <v>0.06583333333333334</v>
       </c>
       <c r="AI249" t="n">
-        <v>118.04</v>
+        <v>130.07</v>
       </c>
       <c r="AJ249" t="n">
-        <v>21.24333333333333</v>
+        <v>21.1</v>
       </c>
       <c r="AK249" t="n">
-        <v>0.18</v>
+        <v>0.1625</v>
       </c>
       <c r="AL249" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="AM249" t="n">
-        <v>0.29</v>
+        <v>0.3091666666666666</v>
       </c>
       <c r="AN249" t="n">
-        <v>0.2233333333333334</v>
+        <v>0.2325</v>
       </c>
       <c r="AO249" t="n">
-        <v>879.9000000000001</v>
+        <v>876.6699999999998</v>
       </c>
       <c r="AP249" t="n">
-        <v>66.17583333333333</v>
+        <v>68.35333333333334</v>
       </c>
       <c r="AQ249" t="n">
-        <v>0.075</v>
+        <v>0.07833333333333332</v>
       </c>
       <c r="AR249" t="n">
         <v>2022</v>
@@ -39387,67 +39387,67 @@
         <v>149.39471</v>
       </c>
       <c r="W250" t="n">
-        <v>18.49</v>
+        <v>18.17</v>
       </c>
       <c r="X250" t="n">
-        <v>1.925833333333333</v>
+        <v>1.681666666666667</v>
       </c>
       <c r="Y250" t="n">
-        <v>0.1041666666666667</v>
+        <v>0.09250000000000001</v>
       </c>
       <c r="Z250" t="n">
-        <v>122.57</v>
+        <v>122.51</v>
       </c>
       <c r="AA250" t="n">
-        <v>12.34833333333333</v>
+        <v>11.07666666666667</v>
       </c>
       <c r="AB250" t="n">
-        <v>0.1008333333333333</v>
+        <v>0.09000000000000001</v>
       </c>
       <c r="AC250" t="n">
-        <v>0.34</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD250" t="n">
-        <v>0.02916666666666666</v>
+        <v>0.06083333333333333</v>
       </c>
       <c r="AE250" t="n">
-        <v>0.08583333333333333</v>
+        <v>0.0675</v>
       </c>
       <c r="AF250" t="n">
-        <v>2.46</v>
+        <v>2.7</v>
       </c>
       <c r="AG250" t="n">
-        <v>0.1525</v>
+        <v>0.1775</v>
       </c>
       <c r="AH250" t="n">
-        <v>0.06166666666666667</v>
+        <v>0.06583333333333334</v>
       </c>
       <c r="AI250" t="n">
-        <v>118.04</v>
+        <v>130.07</v>
       </c>
       <c r="AJ250" t="n">
-        <v>21.24333333333333</v>
+        <v>21.1</v>
       </c>
       <c r="AK250" t="n">
-        <v>0.18</v>
+        <v>0.1625</v>
       </c>
       <c r="AL250" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="AM250" t="n">
-        <v>0.29</v>
+        <v>0.3091666666666666</v>
       </c>
       <c r="AN250" t="n">
-        <v>0.2233333333333334</v>
+        <v>0.2325</v>
       </c>
       <c r="AO250" t="n">
-        <v>879.9000000000001</v>
+        <v>876.6699999999998</v>
       </c>
       <c r="AP250" t="n">
-        <v>66.17583333333333</v>
+        <v>68.35333333333334</v>
       </c>
       <c r="AQ250" t="n">
-        <v>0.075</v>
+        <v>0.07833333333333332</v>
       </c>
       <c r="AR250" t="n">
         <v>2022</v>
@@ -39551,67 +39551,67 @@
         <v>143.97365</v>
       </c>
       <c r="W251" t="n">
-        <v>18.49</v>
+        <v>18.17</v>
       </c>
       <c r="X251" t="n">
-        <v>1.925833333333333</v>
+        <v>1.681666666666667</v>
       </c>
       <c r="Y251" t="n">
-        <v>0.1041666666666667</v>
+        <v>0.09250000000000001</v>
       </c>
       <c r="Z251" t="n">
-        <v>122.57</v>
+        <v>122.51</v>
       </c>
       <c r="AA251" t="n">
-        <v>12.34833333333333</v>
+        <v>11.07666666666667</v>
       </c>
       <c r="AB251" t="n">
-        <v>0.1008333333333333</v>
+        <v>0.09000000000000001</v>
       </c>
       <c r="AC251" t="n">
-        <v>0.34</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD251" t="n">
-        <v>0.02916666666666666</v>
+        <v>0.06083333333333333</v>
       </c>
       <c r="AE251" t="n">
-        <v>0.08583333333333333</v>
+        <v>0.0675</v>
       </c>
       <c r="AF251" t="n">
-        <v>2.46</v>
+        <v>2.7</v>
       </c>
       <c r="AG251" t="n">
-        <v>0.1525</v>
+        <v>0.1775</v>
       </c>
       <c r="AH251" t="n">
-        <v>0.06166666666666667</v>
+        <v>0.06583333333333334</v>
       </c>
       <c r="AI251" t="n">
-        <v>118.04</v>
+        <v>130.07</v>
       </c>
       <c r="AJ251" t="n">
-        <v>21.24333333333333</v>
+        <v>21.1</v>
       </c>
       <c r="AK251" t="n">
-        <v>0.18</v>
+        <v>0.1625</v>
       </c>
       <c r="AL251" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="AM251" t="n">
-        <v>0.29</v>
+        <v>0.3091666666666666</v>
       </c>
       <c r="AN251" t="n">
-        <v>0.2233333333333334</v>
+        <v>0.2325</v>
       </c>
       <c r="AO251" t="n">
-        <v>879.9000000000001</v>
+        <v>876.6699999999998</v>
       </c>
       <c r="AP251" t="n">
-        <v>66.17583333333333</v>
+        <v>68.35333333333334</v>
       </c>
       <c r="AQ251" t="n">
-        <v>0.075</v>
+        <v>0.07833333333333332</v>
       </c>
       <c r="AR251" t="n">
         <v>2022</v>
@@ -39715,67 +39715,67 @@
         <v>126.790398</v>
       </c>
       <c r="W252" t="n">
-        <v>18.49</v>
+        <v>18.17</v>
       </c>
       <c r="X252" t="n">
-        <v>1.925833333333333</v>
+        <v>1.681666666666667</v>
       </c>
       <c r="Y252" t="n">
-        <v>0.1041666666666667</v>
+        <v>0.09250000000000001</v>
       </c>
       <c r="Z252" t="n">
-        <v>122.57</v>
+        <v>122.51</v>
       </c>
       <c r="AA252" t="n">
-        <v>12.34833333333333</v>
+        <v>11.07666666666667</v>
       </c>
       <c r="AB252" t="n">
-        <v>0.1008333333333333</v>
+        <v>0.09000000000000001</v>
       </c>
       <c r="AC252" t="n">
-        <v>0.34</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD252" t="n">
-        <v>0.02916666666666666</v>
+        <v>0.06083333333333333</v>
       </c>
       <c r="AE252" t="n">
-        <v>0.08583333333333333</v>
+        <v>0.0675</v>
       </c>
       <c r="AF252" t="n">
-        <v>2.46</v>
+        <v>2.7</v>
       </c>
       <c r="AG252" t="n">
-        <v>0.1525</v>
+        <v>0.1775</v>
       </c>
       <c r="AH252" t="n">
-        <v>0.06166666666666667</v>
+        <v>0.06583333333333334</v>
       </c>
       <c r="AI252" t="n">
-        <v>118.04</v>
+        <v>130.07</v>
       </c>
       <c r="AJ252" t="n">
-        <v>21.24333333333333</v>
+        <v>21.1</v>
       </c>
       <c r="AK252" t="n">
-        <v>0.18</v>
+        <v>0.1625</v>
       </c>
       <c r="AL252" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="AM252" t="n">
-        <v>0.29</v>
+        <v>0.3091666666666666</v>
       </c>
       <c r="AN252" t="n">
-        <v>0.2233333333333334</v>
+        <v>0.2325</v>
       </c>
       <c r="AO252" t="n">
-        <v>879.9000000000001</v>
+        <v>876.6699999999998</v>
       </c>
       <c r="AP252" t="n">
-        <v>66.17583333333333</v>
+        <v>68.35333333333334</v>
       </c>
       <c r="AQ252" t="n">
-        <v>0.075</v>
+        <v>0.07833333333333332</v>
       </c>
       <c r="AR252" t="n">
         <v>2022</v>
@@ -39879,67 +39879,67 @@
         <v>117.150692</v>
       </c>
       <c r="W253" t="n">
-        <v>18.49</v>
+        <v>18.17</v>
       </c>
       <c r="X253" t="n">
-        <v>1.925833333333333</v>
+        <v>1.681666666666667</v>
       </c>
       <c r="Y253" t="n">
-        <v>0.1041666666666667</v>
+        <v>0.09250000000000001</v>
       </c>
       <c r="Z253" t="n">
-        <v>122.57</v>
+        <v>122.51</v>
       </c>
       <c r="AA253" t="n">
-        <v>12.34833333333333</v>
+        <v>11.07666666666667</v>
       </c>
       <c r="AB253" t="n">
-        <v>0.1008333333333333</v>
+        <v>0.09000000000000001</v>
       </c>
       <c r="AC253" t="n">
-        <v>0.34</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD253" t="n">
-        <v>0.02916666666666666</v>
+        <v>0.06083333333333333</v>
       </c>
       <c r="AE253" t="n">
-        <v>0.08583333333333333</v>
+        <v>0.0675</v>
       </c>
       <c r="AF253" t="n">
-        <v>2.46</v>
+        <v>2.7</v>
       </c>
       <c r="AG253" t="n">
-        <v>0.1525</v>
+        <v>0.1775</v>
       </c>
       <c r="AH253" t="n">
-        <v>0.06166666666666667</v>
+        <v>0.06583333333333334</v>
       </c>
       <c r="AI253" t="n">
-        <v>118.04</v>
+        <v>130.07</v>
       </c>
       <c r="AJ253" t="n">
-        <v>21.24333333333333</v>
+        <v>21.1</v>
       </c>
       <c r="AK253" t="n">
-        <v>0.18</v>
+        <v>0.1625</v>
       </c>
       <c r="AL253" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="AM253" t="n">
-        <v>0.29</v>
+        <v>0.3091666666666666</v>
       </c>
       <c r="AN253" t="n">
-        <v>0.2233333333333334</v>
+        <v>0.2325</v>
       </c>
       <c r="AO253" t="n">
-        <v>879.9000000000001</v>
+        <v>876.6699999999998</v>
       </c>
       <c r="AP253" t="n">
-        <v>66.17583333333333</v>
+        <v>68.35333333333334</v>
       </c>
       <c r="AQ253" t="n">
-        <v>0.075</v>
+        <v>0.07833333333333332</v>
       </c>
       <c r="AR253" t="n">
         <v>2022</v>
@@ -40043,67 +40043,67 @@
         <v>83.77951399999999</v>
       </c>
       <c r="W254" t="n">
-        <v>20.52</v>
+        <v>22.52</v>
       </c>
       <c r="X254" t="n">
-        <v>1.4875</v>
+        <v>1.9375</v>
       </c>
       <c r="Y254" t="n">
-        <v>0.0725</v>
+        <v>0.08583333333333333</v>
       </c>
       <c r="Z254" t="n">
-        <v>145.83</v>
+        <v>192.08</v>
       </c>
       <c r="AA254" t="n">
-        <v>13.14333333333333</v>
+        <v>11.12666666666667</v>
       </c>
       <c r="AB254" t="n">
-        <v>0.09000000000000001</v>
+        <v>0.05833333333333333</v>
       </c>
       <c r="AC254" t="n">
-        <v>0.34</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD254" t="n">
-        <v>0.02416666666666667</v>
+        <v>0.06083333333333333</v>
       </c>
       <c r="AE254" t="n">
-        <v>0.06999999999999999</v>
+        <v>0.0675</v>
       </c>
       <c r="AF254" t="n">
-        <v>2.38</v>
+        <v>2.56</v>
       </c>
       <c r="AG254" t="n">
-        <v>0.1858333333333333</v>
+        <v>0.17</v>
       </c>
       <c r="AH254" t="n">
-        <v>0.07833333333333332</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="AI254" t="n">
-        <v>117.2</v>
+        <v>114.43</v>
       </c>
       <c r="AJ254" t="n">
-        <v>15.54416666666667</v>
+        <v>15.30166666666667</v>
       </c>
       <c r="AK254" t="n">
-        <v>0.1325</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="AL254" t="n">
-        <v>1.81</v>
+        <v>2.2</v>
       </c>
       <c r="AM254" t="n">
-        <v>0.4375</v>
+        <v>0.6508333333333333</v>
       </c>
       <c r="AN254" t="n">
-        <v>0.2416666666666667</v>
+        <v>0.2958333333333333</v>
       </c>
       <c r="AO254" t="n">
-        <v>763.1799999999999</v>
+        <v>746.96</v>
       </c>
       <c r="AP254" t="n">
-        <v>50.87833333333333</v>
+        <v>73.97833333333334</v>
       </c>
       <c r="AQ254" t="n">
-        <v>0.06666666666666667</v>
+        <v>0.09916666666666667</v>
       </c>
       <c r="AR254" t="n">
         <v>2023</v>
@@ -40207,67 +40207,67 @@
         <v>96.19555600000001</v>
       </c>
       <c r="W255" t="n">
-        <v>20.52</v>
+        <v>22.52</v>
       </c>
       <c r="X255" t="n">
-        <v>1.4875</v>
+        <v>1.9375</v>
       </c>
       <c r="Y255" t="n">
-        <v>0.0725</v>
+        <v>0.08583333333333333</v>
       </c>
       <c r="Z255" t="n">
-        <v>145.83</v>
+        <v>192.08</v>
       </c>
       <c r="AA255" t="n">
-        <v>13.14333333333333</v>
+        <v>11.12666666666667</v>
       </c>
       <c r="AB255" t="n">
-        <v>0.09000000000000001</v>
+        <v>0.05833333333333333</v>
       </c>
       <c r="AC255" t="n">
-        <v>0.34</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD255" t="n">
-        <v>0.02416666666666667</v>
+        <v>0.06083333333333333</v>
       </c>
       <c r="AE255" t="n">
-        <v>0.06999999999999999</v>
+        <v>0.0675</v>
       </c>
       <c r="AF255" t="n">
-        <v>2.38</v>
+        <v>2.56</v>
       </c>
       <c r="AG255" t="n">
-        <v>0.1858333333333333</v>
+        <v>0.17</v>
       </c>
       <c r="AH255" t="n">
-        <v>0.07833333333333332</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="AI255" t="n">
-        <v>117.2</v>
+        <v>114.43</v>
       </c>
       <c r="AJ255" t="n">
-        <v>15.54416666666667</v>
+        <v>15.30166666666667</v>
       </c>
       <c r="AK255" t="n">
-        <v>0.1325</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="AL255" t="n">
-        <v>1.81</v>
+        <v>2.2</v>
       </c>
       <c r="AM255" t="n">
-        <v>0.4375</v>
+        <v>0.6508333333333333</v>
       </c>
       <c r="AN255" t="n">
-        <v>0.2416666666666667</v>
+        <v>0.2958333333333333</v>
       </c>
       <c r="AO255" t="n">
-        <v>763.1799999999999</v>
+        <v>746.96</v>
       </c>
       <c r="AP255" t="n">
-        <v>50.87833333333333</v>
+        <v>73.97833333333334</v>
       </c>
       <c r="AQ255" t="n">
-        <v>0.06666666666666667</v>
+        <v>0.09916666666666667</v>
       </c>
       <c r="AR255" t="n">
         <v>2023</v>
@@ -40371,67 +40371,67 @@
         <v>111.10677</v>
       </c>
       <c r="W256" t="n">
-        <v>20.52</v>
+        <v>22.52</v>
       </c>
       <c r="X256" t="n">
-        <v>1.4875</v>
+        <v>1.9375</v>
       </c>
       <c r="Y256" t="n">
-        <v>0.0725</v>
+        <v>0.08583333333333333</v>
       </c>
       <c r="Z256" t="n">
-        <v>145.83</v>
+        <v>192.08</v>
       </c>
       <c r="AA256" t="n">
-        <v>13.14333333333333</v>
+        <v>11.12666666666667</v>
       </c>
       <c r="AB256" t="n">
-        <v>0.09000000000000001</v>
+        <v>0.05833333333333333</v>
       </c>
       <c r="AC256" t="n">
-        <v>0.34</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD256" t="n">
-        <v>0.02416666666666667</v>
+        <v>0.06083333333333333</v>
       </c>
       <c r="AE256" t="n">
-        <v>0.06999999999999999</v>
+        <v>0.0675</v>
       </c>
       <c r="AF256" t="n">
-        <v>2.38</v>
+        <v>2.56</v>
       </c>
       <c r="AG256" t="n">
-        <v>0.1858333333333333</v>
+        <v>0.17</v>
       </c>
       <c r="AH256" t="n">
-        <v>0.07833333333333332</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="AI256" t="n">
-        <v>117.2</v>
+        <v>114.43</v>
       </c>
       <c r="AJ256" t="n">
-        <v>15.54416666666667</v>
+        <v>15.30166666666667</v>
       </c>
       <c r="AK256" t="n">
-        <v>0.1325</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="AL256" t="n">
-        <v>1.81</v>
+        <v>2.2</v>
       </c>
       <c r="AM256" t="n">
-        <v>0.4375</v>
+        <v>0.6508333333333333</v>
       </c>
       <c r="AN256" t="n">
-        <v>0.2416666666666667</v>
+        <v>0.2958333333333333</v>
       </c>
       <c r="AO256" t="n">
-        <v>763.1799999999999</v>
+        <v>746.96</v>
       </c>
       <c r="AP256" t="n">
-        <v>50.87833333333333</v>
+        <v>73.97833333333334</v>
       </c>
       <c r="AQ256" t="n">
-        <v>0.06666666666666667</v>
+        <v>0.09916666666666667</v>
       </c>
       <c r="AR256" t="n">
         <v>2023</v>
@@ -40535,67 +40535,67 @@
         <v>84.16021600000001</v>
       </c>
       <c r="W257" t="n">
-        <v>20.52</v>
+        <v>22.52</v>
       </c>
       <c r="X257" t="n">
-        <v>1.4875</v>
+        <v>1.9375</v>
       </c>
       <c r="Y257" t="n">
-        <v>0.0725</v>
+        <v>0.08583333333333333</v>
       </c>
       <c r="Z257" t="n">
-        <v>145.83</v>
+        <v>192.08</v>
       </c>
       <c r="AA257" t="n">
-        <v>13.14333333333333</v>
+        <v>11.12666666666667</v>
       </c>
       <c r="AB257" t="n">
-        <v>0.09000000000000001</v>
+        <v>0.05833333333333333</v>
       </c>
       <c r="AC257" t="n">
-        <v>0.34</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD257" t="n">
-        <v>0.02416666666666667</v>
+        <v>0.06083333333333333</v>
       </c>
       <c r="AE257" t="n">
-        <v>0.06999999999999999</v>
+        <v>0.0675</v>
       </c>
       <c r="AF257" t="n">
-        <v>2.38</v>
+        <v>2.56</v>
       </c>
       <c r="AG257" t="n">
-        <v>0.1858333333333333</v>
+        <v>0.17</v>
       </c>
       <c r="AH257" t="n">
-        <v>0.07833333333333332</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="AI257" t="n">
-        <v>117.2</v>
+        <v>114.43</v>
       </c>
       <c r="AJ257" t="n">
-        <v>15.54416666666667</v>
+        <v>15.30166666666667</v>
       </c>
       <c r="AK257" t="n">
-        <v>0.1325</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="AL257" t="n">
-        <v>1.81</v>
+        <v>2.2</v>
       </c>
       <c r="AM257" t="n">
-        <v>0.4375</v>
+        <v>0.6508333333333333</v>
       </c>
       <c r="AN257" t="n">
-        <v>0.2416666666666667</v>
+        <v>0.2958333333333333</v>
       </c>
       <c r="AO257" t="n">
-        <v>763.1799999999999</v>
+        <v>746.96</v>
       </c>
       <c r="AP257" t="n">
-        <v>50.87833333333333</v>
+        <v>73.97833333333334</v>
       </c>
       <c r="AQ257" t="n">
-        <v>0.06666666666666667</v>
+        <v>0.09916666666666667</v>
       </c>
       <c r="AR257" t="n">
         <v>2023</v>
@@ -40699,67 +40699,67 @@
         <v>106.839948</v>
       </c>
       <c r="W258" t="n">
-        <v>20.52</v>
+        <v>22.52</v>
       </c>
       <c r="X258" t="n">
-        <v>1.4875</v>
+        <v>1.9375</v>
       </c>
       <c r="Y258" t="n">
-        <v>0.0725</v>
+        <v>0.08583333333333333</v>
       </c>
       <c r="Z258" t="n">
-        <v>145.83</v>
+        <v>192.08</v>
       </c>
       <c r="AA258" t="n">
-        <v>13.14333333333333</v>
+        <v>11.12666666666667</v>
       </c>
       <c r="AB258" t="n">
-        <v>0.09000000000000001</v>
+        <v>0.05833333333333333</v>
       </c>
       <c r="AC258" t="n">
-        <v>0.34</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD258" t="n">
-        <v>0.02416666666666667</v>
+        <v>0.06083333333333333</v>
       </c>
       <c r="AE258" t="n">
-        <v>0.06999999999999999</v>
+        <v>0.0675</v>
       </c>
       <c r="AF258" t="n">
-        <v>2.38</v>
+        <v>2.56</v>
       </c>
       <c r="AG258" t="n">
-        <v>0.1858333333333333</v>
+        <v>0.17</v>
       </c>
       <c r="AH258" t="n">
-        <v>0.07833333333333332</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="AI258" t="n">
-        <v>117.2</v>
+        <v>114.43</v>
       </c>
       <c r="AJ258" t="n">
-        <v>15.54416666666667</v>
+        <v>15.30166666666667</v>
       </c>
       <c r="AK258" t="n">
-        <v>0.1325</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="AL258" t="n">
-        <v>1.81</v>
+        <v>2.2</v>
       </c>
       <c r="AM258" t="n">
-        <v>0.4375</v>
+        <v>0.6508333333333333</v>
       </c>
       <c r="AN258" t="n">
-        <v>0.2416666666666667</v>
+        <v>0.2958333333333333</v>
       </c>
       <c r="AO258" t="n">
-        <v>763.1799999999999</v>
+        <v>746.96</v>
       </c>
       <c r="AP258" t="n">
-        <v>50.87833333333333</v>
+        <v>73.97833333333334</v>
       </c>
       <c r="AQ258" t="n">
-        <v>0.06666666666666667</v>
+        <v>0.09916666666666667</v>
       </c>
       <c r="AR258" t="n">
         <v>2023</v>
@@ -40863,67 +40863,67 @@
         <v>106.67322</v>
       </c>
       <c r="W259" t="n">
-        <v>20.52</v>
+        <v>22.52</v>
       </c>
       <c r="X259" t="n">
-        <v>1.4875</v>
+        <v>1.9375</v>
       </c>
       <c r="Y259" t="n">
-        <v>0.0725</v>
+        <v>0.08583333333333333</v>
       </c>
       <c r="Z259" t="n">
-        <v>145.83</v>
+        <v>192.08</v>
       </c>
       <c r="AA259" t="n">
-        <v>13.14333333333333</v>
+        <v>11.12666666666667</v>
       </c>
       <c r="AB259" t="n">
-        <v>0.09000000000000001</v>
+        <v>0.05833333333333333</v>
       </c>
       <c r="AC259" t="n">
-        <v>0.34</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD259" t="n">
-        <v>0.02416666666666667</v>
+        <v>0.06083333333333333</v>
       </c>
       <c r="AE259" t="n">
-        <v>0.06999999999999999</v>
+        <v>0.0675</v>
       </c>
       <c r="AF259" t="n">
-        <v>2.38</v>
+        <v>2.56</v>
       </c>
       <c r="AG259" t="n">
-        <v>0.1858333333333333</v>
+        <v>0.17</v>
       </c>
       <c r="AH259" t="n">
-        <v>0.07833333333333332</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="AI259" t="n">
-        <v>117.2</v>
+        <v>114.43</v>
       </c>
       <c r="AJ259" t="n">
-        <v>15.54416666666667</v>
+        <v>15.30166666666667</v>
       </c>
       <c r="AK259" t="n">
-        <v>0.1325</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="AL259" t="n">
-        <v>1.81</v>
+        <v>2.2</v>
       </c>
       <c r="AM259" t="n">
-        <v>0.4375</v>
+        <v>0.6508333333333333</v>
       </c>
       <c r="AN259" t="n">
-        <v>0.2416666666666667</v>
+        <v>0.2958333333333333</v>
       </c>
       <c r="AO259" t="n">
-        <v>763.1799999999999</v>
+        <v>746.96</v>
       </c>
       <c r="AP259" t="n">
-        <v>50.87833333333333</v>
+        <v>73.97833333333334</v>
       </c>
       <c r="AQ259" t="n">
-        <v>0.06666666666666667</v>
+        <v>0.09916666666666667</v>
       </c>
       <c r="AR259" t="n">
         <v>2023</v>

--- a/Output/Excel/df_month.xlsx
+++ b/Output/Excel/df_month.xlsx
@@ -642,17 +642,17 @@
       </c>
       <c r="AO1" s="1" t="inlineStr">
         <is>
-          <t>area_Spain_Sunflower_seed</t>
+          <t>area_Spain_Sunflower</t>
         </is>
       </c>
       <c r="AP1" s="1" t="inlineStr">
         <is>
-          <t>grossProduction_Spain_Sunflower_seed</t>
+          <t>grossProduction_Spain_Sunflower</t>
         </is>
       </c>
       <c r="AQ1" s="1" t="inlineStr">
         <is>
-          <t>yield_Spain_Sunflower_seed</t>
+          <t>yield_Spain_Sunflower</t>
         </is>
       </c>
       <c r="AR1" s="1" t="inlineStr">

--- a/Output/Excel/df_month.xlsx
+++ b/Output/Excel/df_month.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BB259"/>
+  <dimension ref="A1:BE262"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -707,7 +707,22 @@
       </c>
       <c r="BB1" s="1" t="inlineStr">
         <is>
+          <t>HARVEST_YEAR</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
           <t>PRODUCTION_HARVEST</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>PRODUCTION_HARVEST_LAST_YEAR</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>PRODUCTION_HARVEST_2_YEARS</t>
         </is>
       </c>
     </row>
@@ -854,8 +869,11 @@
         <v>1</v>
       </c>
       <c r="BB2" t="n">
-        <v>931.9</v>
-      </c>
+        <v>2002</v>
+      </c>
+      <c r="BC2" t="inlineStr"/>
+      <c r="BD2" t="inlineStr"/>
+      <c r="BE2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -1002,8 +1020,11 @@
         <v>2</v>
       </c>
       <c r="BB3" t="n">
-        <v>931.9</v>
-      </c>
+        <v>2002</v>
+      </c>
+      <c r="BC3" t="inlineStr"/>
+      <c r="BD3" t="inlineStr"/>
+      <c r="BE3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -1150,8 +1171,13 @@
         <v>3</v>
       </c>
       <c r="BB4" t="n">
+        <v>2002</v>
+      </c>
+      <c r="BC4" t="n">
         <v>931.9</v>
       </c>
+      <c r="BD4" t="inlineStr"/>
+      <c r="BE4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -1298,8 +1324,13 @@
         <v>4</v>
       </c>
       <c r="BB5" t="n">
+        <v>2002</v>
+      </c>
+      <c r="BC5" t="n">
         <v>931.9</v>
       </c>
+      <c r="BD5" t="inlineStr"/>
+      <c r="BE5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -1446,8 +1477,13 @@
         <v>5</v>
       </c>
       <c r="BB6" t="n">
+        <v>2002</v>
+      </c>
+      <c r="BC6" t="n">
         <v>931.9</v>
       </c>
+      <c r="BD6" t="inlineStr"/>
+      <c r="BE6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -1594,8 +1630,13 @@
         <v>6</v>
       </c>
       <c r="BB7" t="n">
+        <v>2002</v>
+      </c>
+      <c r="BC7" t="n">
         <v>931.9</v>
       </c>
+      <c r="BD7" t="inlineStr"/>
+      <c r="BE7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -1742,8 +1783,13 @@
         <v>7</v>
       </c>
       <c r="BB8" t="n">
+        <v>2002</v>
+      </c>
+      <c r="BC8" t="n">
         <v>931.9</v>
       </c>
+      <c r="BD8" t="inlineStr"/>
+      <c r="BE8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -1890,8 +1936,13 @@
         <v>8</v>
       </c>
       <c r="BB9" t="n">
+        <v>2002</v>
+      </c>
+      <c r="BC9" t="n">
         <v>931.9</v>
       </c>
+      <c r="BD9" t="inlineStr"/>
+      <c r="BE9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -2038,8 +2089,13 @@
         <v>9</v>
       </c>
       <c r="BB10" t="n">
+        <v>2002</v>
+      </c>
+      <c r="BC10" t="n">
         <v>931.9</v>
       </c>
+      <c r="BD10" t="inlineStr"/>
+      <c r="BE10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -2186,8 +2242,13 @@
         <v>10</v>
       </c>
       <c r="BB11" t="n">
+        <v>2003</v>
+      </c>
+      <c r="BC11" t="n">
         <v>931.9</v>
       </c>
+      <c r="BD11" t="inlineStr"/>
+      <c r="BE11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -2334,8 +2395,13 @@
         <v>11</v>
       </c>
       <c r="BB12" t="n">
+        <v>2003</v>
+      </c>
+      <c r="BC12" t="n">
         <v>931.9</v>
       </c>
+      <c r="BD12" t="inlineStr"/>
+      <c r="BE12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -2482,8 +2548,13 @@
         <v>12</v>
       </c>
       <c r="BB13" t="n">
+        <v>2003</v>
+      </c>
+      <c r="BC13" t="n">
         <v>931.9</v>
       </c>
+      <c r="BD13" t="inlineStr"/>
+      <c r="BE13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -2630,8 +2701,13 @@
         <v>1</v>
       </c>
       <c r="BB14" t="n">
-        <v>861.1</v>
-      </c>
+        <v>2003</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>931.9</v>
+      </c>
+      <c r="BD14" t="inlineStr"/>
+      <c r="BE14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -2778,8 +2854,13 @@
         <v>2</v>
       </c>
       <c r="BB15" t="n">
-        <v>861.1</v>
-      </c>
+        <v>2003</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>931.9</v>
+      </c>
+      <c r="BD15" t="inlineStr"/>
+      <c r="BE15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -2926,8 +3007,13 @@
         <v>3</v>
       </c>
       <c r="BB16" t="n">
+        <v>2003</v>
+      </c>
+      <c r="BC16" t="n">
         <v>861.1</v>
       </c>
+      <c r="BD16" t="inlineStr"/>
+      <c r="BE16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -3074,8 +3160,13 @@
         <v>4</v>
       </c>
       <c r="BB17" t="n">
+        <v>2003</v>
+      </c>
+      <c r="BC17" t="n">
         <v>861.1</v>
       </c>
+      <c r="BD17" t="inlineStr"/>
+      <c r="BE17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -3222,8 +3313,15 @@
         <v>5</v>
       </c>
       <c r="BB18" t="n">
+        <v>2003</v>
+      </c>
+      <c r="BC18" t="n">
         <v>861.1</v>
       </c>
+      <c r="BD18" t="n">
+        <v>931.9</v>
+      </c>
+      <c r="BE18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -3370,8 +3468,15 @@
         <v>6</v>
       </c>
       <c r="BB19" t="n">
+        <v>2003</v>
+      </c>
+      <c r="BC19" t="n">
         <v>861.1</v>
       </c>
+      <c r="BD19" t="n">
+        <v>931.9</v>
+      </c>
+      <c r="BE19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -3518,8 +3623,15 @@
         <v>7</v>
       </c>
       <c r="BB20" t="n">
+        <v>2003</v>
+      </c>
+      <c r="BC20" t="n">
         <v>861.1</v>
       </c>
+      <c r="BD20" t="n">
+        <v>931.9</v>
+      </c>
+      <c r="BE20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -3666,8 +3778,15 @@
         <v>8</v>
       </c>
       <c r="BB21" t="n">
+        <v>2003</v>
+      </c>
+      <c r="BC21" t="n">
         <v>861.1</v>
       </c>
+      <c r="BD21" t="n">
+        <v>931.9</v>
+      </c>
+      <c r="BE21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -3814,8 +3933,15 @@
         <v>9</v>
       </c>
       <c r="BB22" t="n">
+        <v>2003</v>
+      </c>
+      <c r="BC22" t="n">
         <v>861.1</v>
       </c>
+      <c r="BD22" t="n">
+        <v>931.9</v>
+      </c>
+      <c r="BE22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -3962,8 +4088,15 @@
         <v>10</v>
       </c>
       <c r="BB23" t="n">
+        <v>2004</v>
+      </c>
+      <c r="BC23" t="n">
         <v>861.1</v>
       </c>
+      <c r="BD23" t="n">
+        <v>931.9</v>
+      </c>
+      <c r="BE23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -4110,8 +4243,15 @@
         <v>11</v>
       </c>
       <c r="BB24" t="n">
+        <v>2004</v>
+      </c>
+      <c r="BC24" t="n">
         <v>861.1</v>
       </c>
+      <c r="BD24" t="n">
+        <v>931.9</v>
+      </c>
+      <c r="BE24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -4258,8 +4398,15 @@
         <v>12</v>
       </c>
       <c r="BB25" t="n">
+        <v>2004</v>
+      </c>
+      <c r="BC25" t="n">
         <v>861.1</v>
       </c>
+      <c r="BD25" t="n">
+        <v>931.9</v>
+      </c>
+      <c r="BE25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -4406,8 +4553,15 @@
         <v>1</v>
       </c>
       <c r="BB26" t="n">
-        <v>1416.6</v>
-      </c>
+        <v>2004</v>
+      </c>
+      <c r="BC26" t="n">
+        <v>861.1</v>
+      </c>
+      <c r="BD26" t="n">
+        <v>931.9</v>
+      </c>
+      <c r="BE26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -4554,8 +4708,15 @@
         <v>2</v>
       </c>
       <c r="BB27" t="n">
-        <v>1416.6</v>
-      </c>
+        <v>2004</v>
+      </c>
+      <c r="BC27" t="n">
+        <v>861.1</v>
+      </c>
+      <c r="BD27" t="n">
+        <v>931.9</v>
+      </c>
+      <c r="BE27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -4702,8 +4863,15 @@
         <v>3</v>
       </c>
       <c r="BB28" t="n">
+        <v>2004</v>
+      </c>
+      <c r="BC28" t="n">
         <v>1416.6</v>
       </c>
+      <c r="BD28" t="n">
+        <v>931.9</v>
+      </c>
+      <c r="BE28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -4850,8 +5018,15 @@
         <v>4</v>
       </c>
       <c r="BB29" t="n">
+        <v>2004</v>
+      </c>
+      <c r="BC29" t="n">
         <v>1416.6</v>
       </c>
+      <c r="BD29" t="n">
+        <v>931.9</v>
+      </c>
+      <c r="BE29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -4998,7 +5173,16 @@
         <v>5</v>
       </c>
       <c r="BB30" t="n">
+        <v>2004</v>
+      </c>
+      <c r="BC30" t="n">
         <v>1416.6</v>
+      </c>
+      <c r="BD30" t="n">
+        <v>861.1</v>
+      </c>
+      <c r="BE30" t="n">
+        <v>931.9</v>
       </c>
     </row>
     <row r="31">
@@ -5146,7 +5330,16 @@
         <v>6</v>
       </c>
       <c r="BB31" t="n">
+        <v>2004</v>
+      </c>
+      <c r="BC31" t="n">
         <v>1416.6</v>
+      </c>
+      <c r="BD31" t="n">
+        <v>861.1</v>
+      </c>
+      <c r="BE31" t="n">
+        <v>931.9</v>
       </c>
     </row>
     <row r="32">
@@ -5294,7 +5487,16 @@
         <v>7</v>
       </c>
       <c r="BB32" t="n">
+        <v>2004</v>
+      </c>
+      <c r="BC32" t="n">
         <v>1416.6</v>
+      </c>
+      <c r="BD32" t="n">
+        <v>861.1</v>
+      </c>
+      <c r="BE32" t="n">
+        <v>931.9</v>
       </c>
     </row>
     <row r="33">
@@ -5442,7 +5644,16 @@
         <v>8</v>
       </c>
       <c r="BB33" t="n">
+        <v>2004</v>
+      </c>
+      <c r="BC33" t="n">
         <v>1416.6</v>
+      </c>
+      <c r="BD33" t="n">
+        <v>861.1</v>
+      </c>
+      <c r="BE33" t="n">
+        <v>931.9</v>
       </c>
     </row>
     <row r="34">
@@ -5590,7 +5801,16 @@
         <v>9</v>
       </c>
       <c r="BB34" t="n">
+        <v>2004</v>
+      </c>
+      <c r="BC34" t="n">
         <v>1416.6</v>
+      </c>
+      <c r="BD34" t="n">
+        <v>861.1</v>
+      </c>
+      <c r="BE34" t="n">
+        <v>931.9</v>
       </c>
     </row>
     <row r="35">
@@ -5738,7 +5958,16 @@
         <v>10</v>
       </c>
       <c r="BB35" t="n">
+        <v>2005</v>
+      </c>
+      <c r="BC35" t="n">
         <v>1416.6</v>
+      </c>
+      <c r="BD35" t="n">
+        <v>861.1</v>
+      </c>
+      <c r="BE35" t="n">
+        <v>931.9</v>
       </c>
     </row>
     <row r="36">
@@ -5886,7 +6115,16 @@
         <v>11</v>
       </c>
       <c r="BB36" t="n">
+        <v>2005</v>
+      </c>
+      <c r="BC36" t="n">
         <v>1416.6</v>
+      </c>
+      <c r="BD36" t="n">
+        <v>861.1</v>
+      </c>
+      <c r="BE36" t="n">
+        <v>931.9</v>
       </c>
     </row>
     <row r="37">
@@ -6034,7 +6272,16 @@
         <v>12</v>
       </c>
       <c r="BB37" t="n">
+        <v>2005</v>
+      </c>
+      <c r="BC37" t="n">
         <v>1416.6</v>
+      </c>
+      <c r="BD37" t="n">
+        <v>861.1</v>
+      </c>
+      <c r="BE37" t="n">
+        <v>931.9</v>
       </c>
     </row>
     <row r="38">
@@ -6182,7 +6429,16 @@
         <v>1</v>
       </c>
       <c r="BB38" t="n">
-        <v>989.8000000000001</v>
+        <v>2005</v>
+      </c>
+      <c r="BC38" t="n">
+        <v>1416.6</v>
+      </c>
+      <c r="BD38" t="n">
+        <v>861.1</v>
+      </c>
+      <c r="BE38" t="n">
+        <v>931.9</v>
       </c>
     </row>
     <row r="39">
@@ -6330,7 +6586,16 @@
         <v>2</v>
       </c>
       <c r="BB39" t="n">
-        <v>989.8000000000001</v>
+        <v>2005</v>
+      </c>
+      <c r="BC39" t="n">
+        <v>1416.6</v>
+      </c>
+      <c r="BD39" t="n">
+        <v>861.1</v>
+      </c>
+      <c r="BE39" t="n">
+        <v>931.9</v>
       </c>
     </row>
     <row r="40">
@@ -6478,7 +6743,16 @@
         <v>3</v>
       </c>
       <c r="BB40" t="n">
+        <v>2005</v>
+      </c>
+      <c r="BC40" t="n">
         <v>989.8000000000001</v>
+      </c>
+      <c r="BD40" t="n">
+        <v>861.1</v>
+      </c>
+      <c r="BE40" t="n">
+        <v>931.9</v>
       </c>
     </row>
     <row r="41">
@@ -6626,7 +6900,16 @@
         <v>4</v>
       </c>
       <c r="BB41" t="n">
+        <v>2005</v>
+      </c>
+      <c r="BC41" t="n">
         <v>989.8000000000001</v>
+      </c>
+      <c r="BD41" t="n">
+        <v>861.1</v>
+      </c>
+      <c r="BE41" t="n">
+        <v>931.9</v>
       </c>
     </row>
     <row r="42">
@@ -6774,7 +7057,16 @@
         <v>5</v>
       </c>
       <c r="BB42" t="n">
+        <v>2005</v>
+      </c>
+      <c r="BC42" t="n">
         <v>989.8000000000001</v>
+      </c>
+      <c r="BD42" t="n">
+        <v>1416.6</v>
+      </c>
+      <c r="BE42" t="n">
+        <v>861.1</v>
       </c>
     </row>
     <row r="43">
@@ -6922,7 +7214,16 @@
         <v>6</v>
       </c>
       <c r="BB43" t="n">
+        <v>2005</v>
+      </c>
+      <c r="BC43" t="n">
         <v>989.8000000000001</v>
+      </c>
+      <c r="BD43" t="n">
+        <v>1416.6</v>
+      </c>
+      <c r="BE43" t="n">
+        <v>861.1</v>
       </c>
     </row>
     <row r="44">
@@ -7070,7 +7371,16 @@
         <v>7</v>
       </c>
       <c r="BB44" t="n">
+        <v>2005</v>
+      </c>
+      <c r="BC44" t="n">
         <v>989.8000000000001</v>
+      </c>
+      <c r="BD44" t="n">
+        <v>1416.6</v>
+      </c>
+      <c r="BE44" t="n">
+        <v>861.1</v>
       </c>
     </row>
     <row r="45">
@@ -7218,7 +7528,16 @@
         <v>8</v>
       </c>
       <c r="BB45" t="n">
+        <v>2005</v>
+      </c>
+      <c r="BC45" t="n">
         <v>989.8000000000001</v>
+      </c>
+      <c r="BD45" t="n">
+        <v>1416.6</v>
+      </c>
+      <c r="BE45" t="n">
+        <v>861.1</v>
       </c>
     </row>
     <row r="46">
@@ -7366,7 +7685,16 @@
         <v>9</v>
       </c>
       <c r="BB46" t="n">
+        <v>2005</v>
+      </c>
+      <c r="BC46" t="n">
         <v>989.8000000000001</v>
+      </c>
+      <c r="BD46" t="n">
+        <v>1416.6</v>
+      </c>
+      <c r="BE46" t="n">
+        <v>861.1</v>
       </c>
     </row>
     <row r="47">
@@ -7514,7 +7842,16 @@
         <v>10</v>
       </c>
       <c r="BB47" t="n">
+        <v>2006</v>
+      </c>
+      <c r="BC47" t="n">
         <v>989.8000000000001</v>
+      </c>
+      <c r="BD47" t="n">
+        <v>1416.6</v>
+      </c>
+      <c r="BE47" t="n">
+        <v>861.1</v>
       </c>
     </row>
     <row r="48">
@@ -7662,7 +7999,16 @@
         <v>11</v>
       </c>
       <c r="BB48" t="n">
+        <v>2006</v>
+      </c>
+      <c r="BC48" t="n">
         <v>989.8000000000001</v>
+      </c>
+      <c r="BD48" t="n">
+        <v>1416.6</v>
+      </c>
+      <c r="BE48" t="n">
+        <v>861.1</v>
       </c>
     </row>
     <row r="49">
@@ -7810,7 +8156,16 @@
         <v>12</v>
       </c>
       <c r="BB49" t="n">
+        <v>2006</v>
+      </c>
+      <c r="BC49" t="n">
         <v>989.8000000000001</v>
+      </c>
+      <c r="BD49" t="n">
+        <v>1416.6</v>
+      </c>
+      <c r="BE49" t="n">
+        <v>861.1</v>
       </c>
     </row>
     <row r="50">
@@ -7958,7 +8313,16 @@
         <v>1</v>
       </c>
       <c r="BB50" t="n">
-        <v>826.9</v>
+        <v>2006</v>
+      </c>
+      <c r="BC50" t="n">
+        <v>989.8000000000001</v>
+      </c>
+      <c r="BD50" t="n">
+        <v>1416.6</v>
+      </c>
+      <c r="BE50" t="n">
+        <v>861.1</v>
       </c>
     </row>
     <row r="51">
@@ -8106,7 +8470,16 @@
         <v>2</v>
       </c>
       <c r="BB51" t="n">
-        <v>826.9</v>
+        <v>2006</v>
+      </c>
+      <c r="BC51" t="n">
+        <v>989.8000000000001</v>
+      </c>
+      <c r="BD51" t="n">
+        <v>1416.6</v>
+      </c>
+      <c r="BE51" t="n">
+        <v>861.1</v>
       </c>
     </row>
     <row r="52">
@@ -8254,7 +8627,16 @@
         <v>3</v>
       </c>
       <c r="BB52" t="n">
+        <v>2006</v>
+      </c>
+      <c r="BC52" t="n">
         <v>826.9</v>
+      </c>
+      <c r="BD52" t="n">
+        <v>1416.6</v>
+      </c>
+      <c r="BE52" t="n">
+        <v>861.1</v>
       </c>
     </row>
     <row r="53">
@@ -8402,7 +8784,16 @@
         <v>4</v>
       </c>
       <c r="BB53" t="n">
+        <v>2006</v>
+      </c>
+      <c r="BC53" t="n">
         <v>826.9</v>
+      </c>
+      <c r="BD53" t="n">
+        <v>1416.6</v>
+      </c>
+      <c r="BE53" t="n">
+        <v>861.1</v>
       </c>
     </row>
     <row r="54">
@@ -8550,7 +8941,16 @@
         <v>5</v>
       </c>
       <c r="BB54" t="n">
+        <v>2006</v>
+      </c>
+      <c r="BC54" t="n">
         <v>826.9</v>
+      </c>
+      <c r="BD54" t="n">
+        <v>989.8000000000001</v>
+      </c>
+      <c r="BE54" t="n">
+        <v>1416.6</v>
       </c>
     </row>
     <row r="55">
@@ -8698,7 +9098,16 @@
         <v>6</v>
       </c>
       <c r="BB55" t="n">
+        <v>2006</v>
+      </c>
+      <c r="BC55" t="n">
         <v>826.9</v>
+      </c>
+      <c r="BD55" t="n">
+        <v>989.8000000000001</v>
+      </c>
+      <c r="BE55" t="n">
+        <v>1416.6</v>
       </c>
     </row>
     <row r="56">
@@ -8846,7 +9255,16 @@
         <v>7</v>
       </c>
       <c r="BB56" t="n">
+        <v>2006</v>
+      </c>
+      <c r="BC56" t="n">
         <v>826.9</v>
+      </c>
+      <c r="BD56" t="n">
+        <v>989.8000000000001</v>
+      </c>
+      <c r="BE56" t="n">
+        <v>1416.6</v>
       </c>
     </row>
     <row r="57">
@@ -8994,7 +9412,16 @@
         <v>8</v>
       </c>
       <c r="BB57" t="n">
+        <v>2006</v>
+      </c>
+      <c r="BC57" t="n">
         <v>826.9</v>
+      </c>
+      <c r="BD57" t="n">
+        <v>989.8000000000001</v>
+      </c>
+      <c r="BE57" t="n">
+        <v>1416.6</v>
       </c>
     </row>
     <row r="58">
@@ -9142,7 +9569,16 @@
         <v>9</v>
       </c>
       <c r="BB58" t="n">
+        <v>2006</v>
+      </c>
+      <c r="BC58" t="n">
         <v>826.9</v>
+      </c>
+      <c r="BD58" t="n">
+        <v>989.8000000000001</v>
+      </c>
+      <c r="BE58" t="n">
+        <v>1416.6</v>
       </c>
     </row>
     <row r="59">
@@ -9290,7 +9726,16 @@
         <v>10</v>
       </c>
       <c r="BB59" t="n">
+        <v>2007</v>
+      </c>
+      <c r="BC59" t="n">
         <v>826.9</v>
+      </c>
+      <c r="BD59" t="n">
+        <v>989.8000000000001</v>
+      </c>
+      <c r="BE59" t="n">
+        <v>1416.6</v>
       </c>
     </row>
     <row r="60">
@@ -9438,7 +9883,16 @@
         <v>11</v>
       </c>
       <c r="BB60" t="n">
+        <v>2007</v>
+      </c>
+      <c r="BC60" t="n">
         <v>826.9</v>
+      </c>
+      <c r="BD60" t="n">
+        <v>989.8000000000001</v>
+      </c>
+      <c r="BE60" t="n">
+        <v>1416.6</v>
       </c>
     </row>
     <row r="61">
@@ -9586,7 +10040,16 @@
         <v>12</v>
       </c>
       <c r="BB61" t="n">
+        <v>2007</v>
+      </c>
+      <c r="BC61" t="n">
         <v>826.9</v>
+      </c>
+      <c r="BD61" t="n">
+        <v>989.8000000000001</v>
+      </c>
+      <c r="BE61" t="n">
+        <v>1416.6</v>
       </c>
     </row>
     <row r="62">
@@ -9734,7 +10197,16 @@
         <v>1</v>
       </c>
       <c r="BB62" t="n">
-        <v>1111.7</v>
+        <v>2007</v>
+      </c>
+      <c r="BC62" t="n">
+        <v>826.9</v>
+      </c>
+      <c r="BD62" t="n">
+        <v>989.8000000000001</v>
+      </c>
+      <c r="BE62" t="n">
+        <v>1416.6</v>
       </c>
     </row>
     <row r="63">
@@ -9882,7 +10354,16 @@
         <v>2</v>
       </c>
       <c r="BB63" t="n">
-        <v>1111.7</v>
+        <v>2007</v>
+      </c>
+      <c r="BC63" t="n">
+        <v>826.9</v>
+      </c>
+      <c r="BD63" t="n">
+        <v>989.8000000000001</v>
+      </c>
+      <c r="BE63" t="n">
+        <v>1416.6</v>
       </c>
     </row>
     <row r="64">
@@ -10030,7 +10511,16 @@
         <v>3</v>
       </c>
       <c r="BB64" t="n">
+        <v>2007</v>
+      </c>
+      <c r="BC64" t="n">
         <v>1111.7</v>
+      </c>
+      <c r="BD64" t="n">
+        <v>989.8000000000001</v>
+      </c>
+      <c r="BE64" t="n">
+        <v>1416.6</v>
       </c>
     </row>
     <row r="65">
@@ -10178,7 +10668,16 @@
         <v>4</v>
       </c>
       <c r="BB65" t="n">
+        <v>2007</v>
+      </c>
+      <c r="BC65" t="n">
         <v>1111.7</v>
+      </c>
+      <c r="BD65" t="n">
+        <v>989.8000000000001</v>
+      </c>
+      <c r="BE65" t="n">
+        <v>1416.6</v>
       </c>
     </row>
     <row r="66">
@@ -10326,7 +10825,16 @@
         <v>5</v>
       </c>
       <c r="BB66" t="n">
+        <v>2007</v>
+      </c>
+      <c r="BC66" t="n">
         <v>1111.7</v>
+      </c>
+      <c r="BD66" t="n">
+        <v>826.9</v>
+      </c>
+      <c r="BE66" t="n">
+        <v>989.8000000000001</v>
       </c>
     </row>
     <row r="67">
@@ -10474,7 +10982,16 @@
         <v>6</v>
       </c>
       <c r="BB67" t="n">
+        <v>2007</v>
+      </c>
+      <c r="BC67" t="n">
         <v>1111.7</v>
+      </c>
+      <c r="BD67" t="n">
+        <v>826.9</v>
+      </c>
+      <c r="BE67" t="n">
+        <v>989.8000000000001</v>
       </c>
     </row>
     <row r="68">
@@ -10622,7 +11139,16 @@
         <v>7</v>
       </c>
       <c r="BB68" t="n">
+        <v>2007</v>
+      </c>
+      <c r="BC68" t="n">
         <v>1111.7</v>
+      </c>
+      <c r="BD68" t="n">
+        <v>826.9</v>
+      </c>
+      <c r="BE68" t="n">
+        <v>989.8000000000001</v>
       </c>
     </row>
     <row r="69">
@@ -10770,7 +11296,16 @@
         <v>8</v>
       </c>
       <c r="BB69" t="n">
+        <v>2007</v>
+      </c>
+      <c r="BC69" t="n">
         <v>1111.7</v>
+      </c>
+      <c r="BD69" t="n">
+        <v>826.9</v>
+      </c>
+      <c r="BE69" t="n">
+        <v>989.8000000000001</v>
       </c>
     </row>
     <row r="70">
@@ -10918,7 +11453,16 @@
         <v>9</v>
       </c>
       <c r="BB70" t="n">
+        <v>2007</v>
+      </c>
+      <c r="BC70" t="n">
         <v>1111.7</v>
+      </c>
+      <c r="BD70" t="n">
+        <v>826.9</v>
+      </c>
+      <c r="BE70" t="n">
+        <v>989.8000000000001</v>
       </c>
     </row>
     <row r="71">
@@ -11066,7 +11610,16 @@
         <v>10</v>
       </c>
       <c r="BB71" t="n">
+        <v>2008</v>
+      </c>
+      <c r="BC71" t="n">
         <v>1111.7</v>
+      </c>
+      <c r="BD71" t="n">
+        <v>826.9</v>
+      </c>
+      <c r="BE71" t="n">
+        <v>989.8000000000001</v>
       </c>
     </row>
     <row r="72">
@@ -11214,7 +11767,16 @@
         <v>11</v>
       </c>
       <c r="BB72" t="n">
+        <v>2008</v>
+      </c>
+      <c r="BC72" t="n">
         <v>1111.7</v>
+      </c>
+      <c r="BD72" t="n">
+        <v>826.9</v>
+      </c>
+      <c r="BE72" t="n">
+        <v>989.8000000000001</v>
       </c>
     </row>
     <row r="73">
@@ -11362,7 +11924,16 @@
         <v>12</v>
       </c>
       <c r="BB73" t="n">
+        <v>2008</v>
+      </c>
+      <c r="BC73" t="n">
         <v>1111.7</v>
+      </c>
+      <c r="BD73" t="n">
+        <v>826.9</v>
+      </c>
+      <c r="BE73" t="n">
+        <v>989.8000000000001</v>
       </c>
     </row>
     <row r="74">
@@ -11510,7 +12081,16 @@
         <v>1</v>
       </c>
       <c r="BB74" t="n">
-        <v>1236.1</v>
+        <v>2008</v>
+      </c>
+      <c r="BC74" t="n">
+        <v>1111.7</v>
+      </c>
+      <c r="BD74" t="n">
+        <v>826.9</v>
+      </c>
+      <c r="BE74" t="n">
+        <v>989.8000000000001</v>
       </c>
     </row>
     <row r="75">
@@ -11658,7 +12238,16 @@
         <v>2</v>
       </c>
       <c r="BB75" t="n">
-        <v>1236.1</v>
+        <v>2008</v>
+      </c>
+      <c r="BC75" t="n">
+        <v>1111.7</v>
+      </c>
+      <c r="BD75" t="n">
+        <v>826.9</v>
+      </c>
+      <c r="BE75" t="n">
+        <v>989.8000000000001</v>
       </c>
     </row>
     <row r="76">
@@ -11806,7 +12395,16 @@
         <v>3</v>
       </c>
       <c r="BB76" t="n">
+        <v>2008</v>
+      </c>
+      <c r="BC76" t="n">
         <v>1236.1</v>
+      </c>
+      <c r="BD76" t="n">
+        <v>826.9</v>
+      </c>
+      <c r="BE76" t="n">
+        <v>989.8000000000001</v>
       </c>
     </row>
     <row r="77">
@@ -11954,7 +12552,16 @@
         <v>4</v>
       </c>
       <c r="BB77" t="n">
+        <v>2008</v>
+      </c>
+      <c r="BC77" t="n">
         <v>1236.1</v>
+      </c>
+      <c r="BD77" t="n">
+        <v>826.9</v>
+      </c>
+      <c r="BE77" t="n">
+        <v>989.8000000000001</v>
       </c>
     </row>
     <row r="78">
@@ -12102,7 +12709,16 @@
         <v>5</v>
       </c>
       <c r="BB78" t="n">
+        <v>2008</v>
+      </c>
+      <c r="BC78" t="n">
         <v>1236.1</v>
+      </c>
+      <c r="BD78" t="n">
+        <v>1111.7</v>
+      </c>
+      <c r="BE78" t="n">
+        <v>826.9</v>
       </c>
     </row>
     <row r="79">
@@ -12250,7 +12866,16 @@
         <v>6</v>
       </c>
       <c r="BB79" t="n">
+        <v>2008</v>
+      </c>
+      <c r="BC79" t="n">
         <v>1236.1</v>
+      </c>
+      <c r="BD79" t="n">
+        <v>1111.7</v>
+      </c>
+      <c r="BE79" t="n">
+        <v>826.9</v>
       </c>
     </row>
     <row r="80">
@@ -12398,7 +13023,16 @@
         <v>7</v>
       </c>
       <c r="BB80" t="n">
+        <v>2008</v>
+      </c>
+      <c r="BC80" t="n">
         <v>1236.1</v>
+      </c>
+      <c r="BD80" t="n">
+        <v>1111.7</v>
+      </c>
+      <c r="BE80" t="n">
+        <v>826.9</v>
       </c>
     </row>
     <row r="81">
@@ -12546,7 +13180,16 @@
         <v>8</v>
       </c>
       <c r="BB81" t="n">
+        <v>2008</v>
+      </c>
+      <c r="BC81" t="n">
         <v>1236.1</v>
+      </c>
+      <c r="BD81" t="n">
+        <v>1111.7</v>
+      </c>
+      <c r="BE81" t="n">
+        <v>826.9</v>
       </c>
     </row>
     <row r="82">
@@ -12694,7 +13337,16 @@
         <v>9</v>
       </c>
       <c r="BB82" t="n">
+        <v>2008</v>
+      </c>
+      <c r="BC82" t="n">
         <v>1236.1</v>
+      </c>
+      <c r="BD82" t="n">
+        <v>1111.7</v>
+      </c>
+      <c r="BE82" t="n">
+        <v>826.9</v>
       </c>
     </row>
     <row r="83">
@@ -12842,7 +13494,16 @@
         <v>10</v>
       </c>
       <c r="BB83" t="n">
+        <v>2009</v>
+      </c>
+      <c r="BC83" t="n">
         <v>1236.1</v>
+      </c>
+      <c r="BD83" t="n">
+        <v>1111.7</v>
+      </c>
+      <c r="BE83" t="n">
+        <v>826.9</v>
       </c>
     </row>
     <row r="84">
@@ -12990,7 +13651,16 @@
         <v>11</v>
       </c>
       <c r="BB84" t="n">
+        <v>2009</v>
+      </c>
+      <c r="BC84" t="n">
         <v>1236.1</v>
+      </c>
+      <c r="BD84" t="n">
+        <v>1111.7</v>
+      </c>
+      <c r="BE84" t="n">
+        <v>826.9</v>
       </c>
     </row>
     <row r="85">
@@ -13138,7 +13808,16 @@
         <v>12</v>
       </c>
       <c r="BB85" t="n">
+        <v>2009</v>
+      </c>
+      <c r="BC85" t="n">
         <v>1236.1</v>
+      </c>
+      <c r="BD85" t="n">
+        <v>1111.7</v>
+      </c>
+      <c r="BE85" t="n">
+        <v>826.9</v>
       </c>
     </row>
     <row r="86">
@@ -13286,7 +13965,16 @@
         <v>1</v>
       </c>
       <c r="BB86" t="n">
-        <v>1030</v>
+        <v>2009</v>
+      </c>
+      <c r="BC86" t="n">
+        <v>1236.1</v>
+      </c>
+      <c r="BD86" t="n">
+        <v>1111.7</v>
+      </c>
+      <c r="BE86" t="n">
+        <v>826.9</v>
       </c>
     </row>
     <row r="87">
@@ -13434,7 +14122,16 @@
         <v>2</v>
       </c>
       <c r="BB87" t="n">
-        <v>1030</v>
+        <v>2009</v>
+      </c>
+      <c r="BC87" t="n">
+        <v>1236.1</v>
+      </c>
+      <c r="BD87" t="n">
+        <v>1111.7</v>
+      </c>
+      <c r="BE87" t="n">
+        <v>826.9</v>
       </c>
     </row>
     <row r="88">
@@ -13582,7 +14279,16 @@
         <v>3</v>
       </c>
       <c r="BB88" t="n">
+        <v>2009</v>
+      </c>
+      <c r="BC88" t="n">
         <v>1030</v>
+      </c>
+      <c r="BD88" t="n">
+        <v>1111.7</v>
+      </c>
+      <c r="BE88" t="n">
+        <v>826.9</v>
       </c>
     </row>
     <row r="89">
@@ -13730,7 +14436,16 @@
         <v>4</v>
       </c>
       <c r="BB89" t="n">
+        <v>2009</v>
+      </c>
+      <c r="BC89" t="n">
         <v>1030</v>
+      </c>
+      <c r="BD89" t="n">
+        <v>1111.7</v>
+      </c>
+      <c r="BE89" t="n">
+        <v>826.9</v>
       </c>
     </row>
     <row r="90">
@@ -13878,7 +14593,16 @@
         <v>5</v>
       </c>
       <c r="BB90" t="n">
+        <v>2009</v>
+      </c>
+      <c r="BC90" t="n">
         <v>1030</v>
+      </c>
+      <c r="BD90" t="n">
+        <v>1236.1</v>
+      </c>
+      <c r="BE90" t="n">
+        <v>1111.7</v>
       </c>
     </row>
     <row r="91">
@@ -14026,7 +14750,16 @@
         <v>6</v>
       </c>
       <c r="BB91" t="n">
+        <v>2009</v>
+      </c>
+      <c r="BC91" t="n">
         <v>1030</v>
+      </c>
+      <c r="BD91" t="n">
+        <v>1236.1</v>
+      </c>
+      <c r="BE91" t="n">
+        <v>1111.7</v>
       </c>
     </row>
     <row r="92">
@@ -14174,7 +14907,16 @@
         <v>7</v>
       </c>
       <c r="BB92" t="n">
+        <v>2009</v>
+      </c>
+      <c r="BC92" t="n">
         <v>1030</v>
+      </c>
+      <c r="BD92" t="n">
+        <v>1236.1</v>
+      </c>
+      <c r="BE92" t="n">
+        <v>1111.7</v>
       </c>
     </row>
     <row r="93">
@@ -14322,7 +15064,16 @@
         <v>8</v>
       </c>
       <c r="BB93" t="n">
+        <v>2009</v>
+      </c>
+      <c r="BC93" t="n">
         <v>1030</v>
+      </c>
+      <c r="BD93" t="n">
+        <v>1236.1</v>
+      </c>
+      <c r="BE93" t="n">
+        <v>1111.7</v>
       </c>
     </row>
     <row r="94">
@@ -14470,7 +15221,16 @@
         <v>9</v>
       </c>
       <c r="BB94" t="n">
+        <v>2009</v>
+      </c>
+      <c r="BC94" t="n">
         <v>1030</v>
+      </c>
+      <c r="BD94" t="n">
+        <v>1236.1</v>
+      </c>
+      <c r="BE94" t="n">
+        <v>1111.7</v>
       </c>
     </row>
     <row r="95">
@@ -14618,7 +15378,16 @@
         <v>10</v>
       </c>
       <c r="BB95" t="n">
+        <v>2010</v>
+      </c>
+      <c r="BC95" t="n">
         <v>1030</v>
+      </c>
+      <c r="BD95" t="n">
+        <v>1236.1</v>
+      </c>
+      <c r="BE95" t="n">
+        <v>1111.7</v>
       </c>
     </row>
     <row r="96">
@@ -14766,7 +15535,16 @@
         <v>11</v>
       </c>
       <c r="BB96" t="n">
+        <v>2010</v>
+      </c>
+      <c r="BC96" t="n">
         <v>1030</v>
+      </c>
+      <c r="BD96" t="n">
+        <v>1236.1</v>
+      </c>
+      <c r="BE96" t="n">
+        <v>1111.7</v>
       </c>
     </row>
     <row r="97">
@@ -14914,7 +15692,16 @@
         <v>12</v>
       </c>
       <c r="BB97" t="n">
+        <v>2010</v>
+      </c>
+      <c r="BC97" t="n">
         <v>1030</v>
+      </c>
+      <c r="BD97" t="n">
+        <v>1236.1</v>
+      </c>
+      <c r="BE97" t="n">
+        <v>1111.7</v>
       </c>
     </row>
     <row r="98">
@@ -15072,7 +15859,16 @@
         <v>1</v>
       </c>
       <c r="BB98" t="n">
-        <v>1401.5</v>
+        <v>2010</v>
+      </c>
+      <c r="BC98" t="n">
+        <v>1030</v>
+      </c>
+      <c r="BD98" t="n">
+        <v>1236.1</v>
+      </c>
+      <c r="BE98" t="n">
+        <v>1111.7</v>
       </c>
     </row>
     <row r="99">
@@ -15230,7 +16026,16 @@
         <v>2</v>
       </c>
       <c r="BB99" t="n">
-        <v>1401.5</v>
+        <v>2010</v>
+      </c>
+      <c r="BC99" t="n">
+        <v>1030</v>
+      </c>
+      <c r="BD99" t="n">
+        <v>1236.1</v>
+      </c>
+      <c r="BE99" t="n">
+        <v>1111.7</v>
       </c>
     </row>
     <row r="100">
@@ -15388,7 +16193,16 @@
         <v>3</v>
       </c>
       <c r="BB100" t="n">
+        <v>2010</v>
+      </c>
+      <c r="BC100" t="n">
         <v>1401.5</v>
+      </c>
+      <c r="BD100" t="n">
+        <v>1236.1</v>
+      </c>
+      <c r="BE100" t="n">
+        <v>1111.7</v>
       </c>
     </row>
     <row r="101">
@@ -15546,7 +16360,16 @@
         <v>4</v>
       </c>
       <c r="BB101" t="n">
+        <v>2010</v>
+      </c>
+      <c r="BC101" t="n">
         <v>1401.5</v>
+      </c>
+      <c r="BD101" t="n">
+        <v>1236.1</v>
+      </c>
+      <c r="BE101" t="n">
+        <v>1111.7</v>
       </c>
     </row>
     <row r="102">
@@ -15704,7 +16527,16 @@
         <v>5</v>
       </c>
       <c r="BB102" t="n">
+        <v>2010</v>
+      </c>
+      <c r="BC102" t="n">
         <v>1401.5</v>
+      </c>
+      <c r="BD102" t="n">
+        <v>1030</v>
+      </c>
+      <c r="BE102" t="n">
+        <v>1236.1</v>
       </c>
     </row>
     <row r="103">
@@ -15862,7 +16694,16 @@
         <v>6</v>
       </c>
       <c r="BB103" t="n">
+        <v>2010</v>
+      </c>
+      <c r="BC103" t="n">
         <v>1401.5</v>
+      </c>
+      <c r="BD103" t="n">
+        <v>1030</v>
+      </c>
+      <c r="BE103" t="n">
+        <v>1236.1</v>
       </c>
     </row>
     <row r="104">
@@ -16020,7 +16861,16 @@
         <v>7</v>
       </c>
       <c r="BB104" t="n">
+        <v>2010</v>
+      </c>
+      <c r="BC104" t="n">
         <v>1401.5</v>
+      </c>
+      <c r="BD104" t="n">
+        <v>1030</v>
+      </c>
+      <c r="BE104" t="n">
+        <v>1236.1</v>
       </c>
     </row>
     <row r="105">
@@ -16178,7 +17028,16 @@
         <v>8</v>
       </c>
       <c r="BB105" t="n">
+        <v>2010</v>
+      </c>
+      <c r="BC105" t="n">
         <v>1401.5</v>
+      </c>
+      <c r="BD105" t="n">
+        <v>1030</v>
+      </c>
+      <c r="BE105" t="n">
+        <v>1236.1</v>
       </c>
     </row>
     <row r="106">
@@ -16336,7 +17195,16 @@
         <v>9</v>
       </c>
       <c r="BB106" t="n">
+        <v>2010</v>
+      </c>
+      <c r="BC106" t="n">
         <v>1401.5</v>
+      </c>
+      <c r="BD106" t="n">
+        <v>1030</v>
+      </c>
+      <c r="BE106" t="n">
+        <v>1236.1</v>
       </c>
     </row>
     <row r="107">
@@ -16494,7 +17362,16 @@
         <v>10</v>
       </c>
       <c r="BB107" t="n">
+        <v>2011</v>
+      </c>
+      <c r="BC107" t="n">
         <v>1401.5</v>
+      </c>
+      <c r="BD107" t="n">
+        <v>1030</v>
+      </c>
+      <c r="BE107" t="n">
+        <v>1236.1</v>
       </c>
     </row>
     <row r="108">
@@ -16652,7 +17529,16 @@
         <v>11</v>
       </c>
       <c r="BB108" t="n">
+        <v>2011</v>
+      </c>
+      <c r="BC108" t="n">
         <v>1401.5</v>
+      </c>
+      <c r="BD108" t="n">
+        <v>1030</v>
+      </c>
+      <c r="BE108" t="n">
+        <v>1236.1</v>
       </c>
     </row>
     <row r="109">
@@ -16810,7 +17696,16 @@
         <v>12</v>
       </c>
       <c r="BB109" t="n">
+        <v>2011</v>
+      </c>
+      <c r="BC109" t="n">
         <v>1401.5</v>
+      </c>
+      <c r="BD109" t="n">
+        <v>1030</v>
+      </c>
+      <c r="BE109" t="n">
+        <v>1236.1</v>
       </c>
     </row>
     <row r="110">
@@ -16968,7 +17863,16 @@
         <v>1</v>
       </c>
       <c r="BB110" t="n">
-        <v>1391.1</v>
+        <v>2011</v>
+      </c>
+      <c r="BC110" t="n">
+        <v>1401.5</v>
+      </c>
+      <c r="BD110" t="n">
+        <v>1030</v>
+      </c>
+      <c r="BE110" t="n">
+        <v>1236.1</v>
       </c>
     </row>
     <row r="111">
@@ -17126,7 +18030,16 @@
         <v>2</v>
       </c>
       <c r="BB111" t="n">
-        <v>1391.1</v>
+        <v>2011</v>
+      </c>
+      <c r="BC111" t="n">
+        <v>1401.5</v>
+      </c>
+      <c r="BD111" t="n">
+        <v>1030</v>
+      </c>
+      <c r="BE111" t="n">
+        <v>1236.1</v>
       </c>
     </row>
     <row r="112">
@@ -17284,7 +18197,16 @@
         <v>3</v>
       </c>
       <c r="BB112" t="n">
+        <v>2011</v>
+      </c>
+      <c r="BC112" t="n">
         <v>1391.1</v>
+      </c>
+      <c r="BD112" t="n">
+        <v>1030</v>
+      </c>
+      <c r="BE112" t="n">
+        <v>1236.1</v>
       </c>
     </row>
     <row r="113">
@@ -17442,7 +18364,16 @@
         <v>4</v>
       </c>
       <c r="BB113" t="n">
+        <v>2011</v>
+      </c>
+      <c r="BC113" t="n">
         <v>1391.1</v>
+      </c>
+      <c r="BD113" t="n">
+        <v>1030</v>
+      </c>
+      <c r="BE113" t="n">
+        <v>1236.1</v>
       </c>
     </row>
     <row r="114">
@@ -17600,7 +18531,16 @@
         <v>5</v>
       </c>
       <c r="BB114" t="n">
+        <v>2011</v>
+      </c>
+      <c r="BC114" t="n">
         <v>1391.1</v>
+      </c>
+      <c r="BD114" t="n">
+        <v>1401.5</v>
+      </c>
+      <c r="BE114" t="n">
+        <v>1030</v>
       </c>
     </row>
     <row r="115">
@@ -17758,7 +18698,16 @@
         <v>6</v>
       </c>
       <c r="BB115" t="n">
+        <v>2011</v>
+      </c>
+      <c r="BC115" t="n">
         <v>1391.1</v>
+      </c>
+      <c r="BD115" t="n">
+        <v>1401.5</v>
+      </c>
+      <c r="BE115" t="n">
+        <v>1030</v>
       </c>
     </row>
     <row r="116">
@@ -17916,7 +18865,16 @@
         <v>7</v>
       </c>
       <c r="BB116" t="n">
+        <v>2011</v>
+      </c>
+      <c r="BC116" t="n">
         <v>1391.1</v>
+      </c>
+      <c r="BD116" t="n">
+        <v>1401.5</v>
+      </c>
+      <c r="BE116" t="n">
+        <v>1030</v>
       </c>
     </row>
     <row r="117">
@@ -18074,7 +19032,16 @@
         <v>8</v>
       </c>
       <c r="BB117" t="n">
+        <v>2011</v>
+      </c>
+      <c r="BC117" t="n">
         <v>1391.1</v>
+      </c>
+      <c r="BD117" t="n">
+        <v>1401.5</v>
+      </c>
+      <c r="BE117" t="n">
+        <v>1030</v>
       </c>
     </row>
     <row r="118">
@@ -18232,7 +19199,16 @@
         <v>9</v>
       </c>
       <c r="BB118" t="n">
+        <v>2011</v>
+      </c>
+      <c r="BC118" t="n">
         <v>1391.1</v>
+      </c>
+      <c r="BD118" t="n">
+        <v>1401.5</v>
+      </c>
+      <c r="BE118" t="n">
+        <v>1030</v>
       </c>
     </row>
     <row r="119">
@@ -18390,7 +19366,16 @@
         <v>10</v>
       </c>
       <c r="BB119" t="n">
+        <v>2012</v>
+      </c>
+      <c r="BC119" t="n">
         <v>1391.1</v>
+      </c>
+      <c r="BD119" t="n">
+        <v>1401.5</v>
+      </c>
+      <c r="BE119" t="n">
+        <v>1030</v>
       </c>
     </row>
     <row r="120">
@@ -18548,7 +19533,16 @@
         <v>11</v>
       </c>
       <c r="BB120" t="n">
+        <v>2012</v>
+      </c>
+      <c r="BC120" t="n">
         <v>1391.1</v>
+      </c>
+      <c r="BD120" t="n">
+        <v>1401.5</v>
+      </c>
+      <c r="BE120" t="n">
+        <v>1030</v>
       </c>
     </row>
     <row r="121">
@@ -18706,7 +19700,16 @@
         <v>12</v>
       </c>
       <c r="BB121" t="n">
+        <v>2012</v>
+      </c>
+      <c r="BC121" t="n">
         <v>1391.1</v>
+      </c>
+      <c r="BD121" t="n">
+        <v>1401.5</v>
+      </c>
+      <c r="BE121" t="n">
+        <v>1030</v>
       </c>
     </row>
     <row r="122">
@@ -18864,7 +19867,16 @@
         <v>1</v>
       </c>
       <c r="BB122" t="n">
-        <v>1615</v>
+        <v>2012</v>
+      </c>
+      <c r="BC122" t="n">
+        <v>1391.1</v>
+      </c>
+      <c r="BD122" t="n">
+        <v>1401.5</v>
+      </c>
+      <c r="BE122" t="n">
+        <v>1030</v>
       </c>
     </row>
     <row r="123">
@@ -19022,7 +20034,16 @@
         <v>2</v>
       </c>
       <c r="BB123" t="n">
-        <v>1615</v>
+        <v>2012</v>
+      </c>
+      <c r="BC123" t="n">
+        <v>1391.1</v>
+      </c>
+      <c r="BD123" t="n">
+        <v>1401.5</v>
+      </c>
+      <c r="BE123" t="n">
+        <v>1030</v>
       </c>
     </row>
     <row r="124">
@@ -19180,7 +20201,16 @@
         <v>3</v>
       </c>
       <c r="BB124" t="n">
+        <v>2012</v>
+      </c>
+      <c r="BC124" t="n">
         <v>1615</v>
+      </c>
+      <c r="BD124" t="n">
+        <v>1401.5</v>
+      </c>
+      <c r="BE124" t="n">
+        <v>1030</v>
       </c>
     </row>
     <row r="125">
@@ -19338,7 +20368,16 @@
         <v>4</v>
       </c>
       <c r="BB125" t="n">
+        <v>2012</v>
+      </c>
+      <c r="BC125" t="n">
         <v>1615</v>
+      </c>
+      <c r="BD125" t="n">
+        <v>1401.5</v>
+      </c>
+      <c r="BE125" t="n">
+        <v>1030</v>
       </c>
     </row>
     <row r="126">
@@ -19496,7 +20535,16 @@
         <v>5</v>
       </c>
       <c r="BB126" t="n">
+        <v>2012</v>
+      </c>
+      <c r="BC126" t="n">
         <v>1615</v>
+      </c>
+      <c r="BD126" t="n">
+        <v>1391.1</v>
+      </c>
+      <c r="BE126" t="n">
+        <v>1401.5</v>
       </c>
     </row>
     <row r="127">
@@ -19654,7 +20702,16 @@
         <v>6</v>
       </c>
       <c r="BB127" t="n">
+        <v>2012</v>
+      </c>
+      <c r="BC127" t="n">
         <v>1615</v>
+      </c>
+      <c r="BD127" t="n">
+        <v>1391.1</v>
+      </c>
+      <c r="BE127" t="n">
+        <v>1401.5</v>
       </c>
     </row>
     <row r="128">
@@ -19812,7 +20869,16 @@
         <v>7</v>
       </c>
       <c r="BB128" t="n">
+        <v>2012</v>
+      </c>
+      <c r="BC128" t="n">
         <v>1615</v>
+      </c>
+      <c r="BD128" t="n">
+        <v>1391.1</v>
+      </c>
+      <c r="BE128" t="n">
+        <v>1401.5</v>
       </c>
     </row>
     <row r="129">
@@ -19970,7 +21036,16 @@
         <v>8</v>
       </c>
       <c r="BB129" t="n">
+        <v>2012</v>
+      </c>
+      <c r="BC129" t="n">
         <v>1615</v>
+      </c>
+      <c r="BD129" t="n">
+        <v>1391.1</v>
+      </c>
+      <c r="BE129" t="n">
+        <v>1401.5</v>
       </c>
     </row>
     <row r="130">
@@ -20128,7 +21203,16 @@
         <v>9</v>
       </c>
       <c r="BB130" t="n">
+        <v>2012</v>
+      </c>
+      <c r="BC130" t="n">
         <v>1615</v>
+      </c>
+      <c r="BD130" t="n">
+        <v>1391.1</v>
+      </c>
+      <c r="BE130" t="n">
+        <v>1401.5</v>
       </c>
     </row>
     <row r="131">
@@ -20286,7 +21370,16 @@
         <v>10</v>
       </c>
       <c r="BB131" t="n">
+        <v>2013</v>
+      </c>
+      <c r="BC131" t="n">
         <v>1615</v>
+      </c>
+      <c r="BD131" t="n">
+        <v>1391.1</v>
+      </c>
+      <c r="BE131" t="n">
+        <v>1401.5</v>
       </c>
     </row>
     <row r="132">
@@ -20444,7 +21537,16 @@
         <v>11</v>
       </c>
       <c r="BB132" t="n">
+        <v>2013</v>
+      </c>
+      <c r="BC132" t="n">
         <v>1615</v>
+      </c>
+      <c r="BD132" t="n">
+        <v>1391.1</v>
+      </c>
+      <c r="BE132" t="n">
+        <v>1401.5</v>
       </c>
     </row>
     <row r="133">
@@ -20602,7 +21704,16 @@
         <v>12</v>
       </c>
       <c r="BB133" t="n">
+        <v>2013</v>
+      </c>
+      <c r="BC133" t="n">
         <v>1615</v>
+      </c>
+      <c r="BD133" t="n">
+        <v>1391.1</v>
+      </c>
+      <c r="BE133" t="n">
+        <v>1401.5</v>
       </c>
     </row>
     <row r="134">
@@ -20760,7 +21871,16 @@
         <v>1</v>
       </c>
       <c r="BB134" t="n">
-        <v>618.2</v>
+        <v>2013</v>
+      </c>
+      <c r="BC134" t="n">
+        <v>1615</v>
+      </c>
+      <c r="BD134" t="n">
+        <v>1391.1</v>
+      </c>
+      <c r="BE134" t="n">
+        <v>1401.5</v>
       </c>
     </row>
     <row r="135">
@@ -20918,7 +22038,16 @@
         <v>2</v>
       </c>
       <c r="BB135" t="n">
-        <v>618.2</v>
+        <v>2013</v>
+      </c>
+      <c r="BC135" t="n">
+        <v>1615</v>
+      </c>
+      <c r="BD135" t="n">
+        <v>1391.1</v>
+      </c>
+      <c r="BE135" t="n">
+        <v>1401.5</v>
       </c>
     </row>
     <row r="136">
@@ -21076,7 +22205,16 @@
         <v>3</v>
       </c>
       <c r="BB136" t="n">
+        <v>2013</v>
+      </c>
+      <c r="BC136" t="n">
         <v>618.2</v>
+      </c>
+      <c r="BD136" t="n">
+        <v>1391.1</v>
+      </c>
+      <c r="BE136" t="n">
+        <v>1401.5</v>
       </c>
     </row>
     <row r="137">
@@ -21234,7 +22372,16 @@
         <v>4</v>
       </c>
       <c r="BB137" t="n">
+        <v>2013</v>
+      </c>
+      <c r="BC137" t="n">
         <v>618.2</v>
+      </c>
+      <c r="BD137" t="n">
+        <v>1391.1</v>
+      </c>
+      <c r="BE137" t="n">
+        <v>1401.5</v>
       </c>
     </row>
     <row r="138">
@@ -21392,7 +22539,16 @@
         <v>5</v>
       </c>
       <c r="BB138" t="n">
+        <v>2013</v>
+      </c>
+      <c r="BC138" t="n">
         <v>618.2</v>
+      </c>
+      <c r="BD138" t="n">
+        <v>1615</v>
+      </c>
+      <c r="BE138" t="n">
+        <v>1391.1</v>
       </c>
     </row>
     <row r="139">
@@ -21550,7 +22706,16 @@
         <v>6</v>
       </c>
       <c r="BB139" t="n">
+        <v>2013</v>
+      </c>
+      <c r="BC139" t="n">
         <v>618.2</v>
+      </c>
+      <c r="BD139" t="n">
+        <v>1615</v>
+      </c>
+      <c r="BE139" t="n">
+        <v>1391.1</v>
       </c>
     </row>
     <row r="140">
@@ -21708,7 +22873,16 @@
         <v>7</v>
       </c>
       <c r="BB140" t="n">
+        <v>2013</v>
+      </c>
+      <c r="BC140" t="n">
         <v>618.2</v>
+      </c>
+      <c r="BD140" t="n">
+        <v>1615</v>
+      </c>
+      <c r="BE140" t="n">
+        <v>1391.1</v>
       </c>
     </row>
     <row r="141">
@@ -21866,7 +23040,16 @@
         <v>8</v>
       </c>
       <c r="BB141" t="n">
+        <v>2013</v>
+      </c>
+      <c r="BC141" t="n">
         <v>618.2</v>
+      </c>
+      <c r="BD141" t="n">
+        <v>1615</v>
+      </c>
+      <c r="BE141" t="n">
+        <v>1391.1</v>
       </c>
     </row>
     <row r="142">
@@ -22024,7 +23207,16 @@
         <v>9</v>
       </c>
       <c r="BB142" t="n">
+        <v>2013</v>
+      </c>
+      <c r="BC142" t="n">
         <v>618.2</v>
+      </c>
+      <c r="BD142" t="n">
+        <v>1615</v>
+      </c>
+      <c r="BE142" t="n">
+        <v>1391.1</v>
       </c>
     </row>
     <row r="143">
@@ -22182,7 +23374,16 @@
         <v>10</v>
       </c>
       <c r="BB143" t="n">
+        <v>2014</v>
+      </c>
+      <c r="BC143" t="n">
         <v>618.2</v>
+      </c>
+      <c r="BD143" t="n">
+        <v>1615</v>
+      </c>
+      <c r="BE143" t="n">
+        <v>1391.1</v>
       </c>
     </row>
     <row r="144">
@@ -22340,7 +23541,16 @@
         <v>11</v>
       </c>
       <c r="BB144" t="n">
+        <v>2014</v>
+      </c>
+      <c r="BC144" t="n">
         <v>618.2</v>
+      </c>
+      <c r="BD144" t="n">
+        <v>1615</v>
+      </c>
+      <c r="BE144" t="n">
+        <v>1391.1</v>
       </c>
     </row>
     <row r="145">
@@ -22498,7 +23708,16 @@
         <v>12</v>
       </c>
       <c r="BB145" t="n">
+        <v>2014</v>
+      </c>
+      <c r="BC145" t="n">
         <v>618.2</v>
+      </c>
+      <c r="BD145" t="n">
+        <v>1615</v>
+      </c>
+      <c r="BE145" t="n">
+        <v>1391.1</v>
       </c>
     </row>
     <row r="146">
@@ -22656,7 +23875,16 @@
         <v>1</v>
       </c>
       <c r="BB146" t="n">
-        <v>1780.2</v>
+        <v>2014</v>
+      </c>
+      <c r="BC146" t="n">
+        <v>618.2</v>
+      </c>
+      <c r="BD146" t="n">
+        <v>1615</v>
+      </c>
+      <c r="BE146" t="n">
+        <v>1391.1</v>
       </c>
     </row>
     <row r="147">
@@ -22814,7 +24042,16 @@
         <v>2</v>
       </c>
       <c r="BB147" t="n">
-        <v>1780.2</v>
+        <v>2014</v>
+      </c>
+      <c r="BC147" t="n">
+        <v>618.2</v>
+      </c>
+      <c r="BD147" t="n">
+        <v>1615</v>
+      </c>
+      <c r="BE147" t="n">
+        <v>1391.1</v>
       </c>
     </row>
     <row r="148">
@@ -22972,7 +24209,16 @@
         <v>3</v>
       </c>
       <c r="BB148" t="n">
+        <v>2014</v>
+      </c>
+      <c r="BC148" t="n">
         <v>1780.2</v>
+      </c>
+      <c r="BD148" t="n">
+        <v>1615</v>
+      </c>
+      <c r="BE148" t="n">
+        <v>1391.1</v>
       </c>
     </row>
     <row r="149">
@@ -23130,7 +24376,16 @@
         <v>4</v>
       </c>
       <c r="BB149" t="n">
+        <v>2014</v>
+      </c>
+      <c r="BC149" t="n">
         <v>1780.2</v>
+      </c>
+      <c r="BD149" t="n">
+        <v>1615</v>
+      </c>
+      <c r="BE149" t="n">
+        <v>1391.1</v>
       </c>
     </row>
     <row r="150">
@@ -23288,7 +24543,16 @@
         <v>5</v>
       </c>
       <c r="BB150" t="n">
+        <v>2014</v>
+      </c>
+      <c r="BC150" t="n">
         <v>1780.2</v>
+      </c>
+      <c r="BD150" t="n">
+        <v>618.2</v>
+      </c>
+      <c r="BE150" t="n">
+        <v>1615</v>
       </c>
     </row>
     <row r="151">
@@ -23446,7 +24710,16 @@
         <v>6</v>
       </c>
       <c r="BB151" t="n">
+        <v>2014</v>
+      </c>
+      <c r="BC151" t="n">
         <v>1780.2</v>
+      </c>
+      <c r="BD151" t="n">
+        <v>618.2</v>
+      </c>
+      <c r="BE151" t="n">
+        <v>1615</v>
       </c>
     </row>
     <row r="152">
@@ -23604,7 +24877,16 @@
         <v>7</v>
       </c>
       <c r="BB152" t="n">
+        <v>2014</v>
+      </c>
+      <c r="BC152" t="n">
         <v>1780.2</v>
+      </c>
+      <c r="BD152" t="n">
+        <v>618.2</v>
+      </c>
+      <c r="BE152" t="n">
+        <v>1615</v>
       </c>
     </row>
     <row r="153">
@@ -23762,7 +25044,16 @@
         <v>8</v>
       </c>
       <c r="BB153" t="n">
+        <v>2014</v>
+      </c>
+      <c r="BC153" t="n">
         <v>1780.2</v>
+      </c>
+      <c r="BD153" t="n">
+        <v>618.2</v>
+      </c>
+      <c r="BE153" t="n">
+        <v>1615</v>
       </c>
     </row>
     <row r="154">
@@ -23920,7 +25211,16 @@
         <v>9</v>
       </c>
       <c r="BB154" t="n">
+        <v>2014</v>
+      </c>
+      <c r="BC154" t="n">
         <v>1780.2</v>
+      </c>
+      <c r="BD154" t="n">
+        <v>618.2</v>
+      </c>
+      <c r="BE154" t="n">
+        <v>1615</v>
       </c>
     </row>
     <row r="155">
@@ -24078,7 +25378,16 @@
         <v>10</v>
       </c>
       <c r="BB155" t="n">
+        <v>2015</v>
+      </c>
+      <c r="BC155" t="n">
         <v>1780.2</v>
+      </c>
+      <c r="BD155" t="n">
+        <v>618.2</v>
+      </c>
+      <c r="BE155" t="n">
+        <v>1615</v>
       </c>
     </row>
     <row r="156">
@@ -24236,7 +25545,16 @@
         <v>11</v>
       </c>
       <c r="BB156" t="n">
+        <v>2015</v>
+      </c>
+      <c r="BC156" t="n">
         <v>1780.2</v>
+      </c>
+      <c r="BD156" t="n">
+        <v>618.2</v>
+      </c>
+      <c r="BE156" t="n">
+        <v>1615</v>
       </c>
     </row>
     <row r="157">
@@ -24394,7 +25712,16 @@
         <v>12</v>
       </c>
       <c r="BB157" t="n">
+        <v>2015</v>
+      </c>
+      <c r="BC157" t="n">
         <v>1780.2</v>
+      </c>
+      <c r="BD157" t="n">
+        <v>618.2</v>
+      </c>
+      <c r="BE157" t="n">
+        <v>1615</v>
       </c>
     </row>
     <row r="158">
@@ -24552,7 +25879,16 @@
         <v>1</v>
       </c>
       <c r="BB158" t="n">
-        <v>842.3000000000001</v>
+        <v>2015</v>
+      </c>
+      <c r="BC158" t="n">
+        <v>1780.2</v>
+      </c>
+      <c r="BD158" t="n">
+        <v>618.2</v>
+      </c>
+      <c r="BE158" t="n">
+        <v>1615</v>
       </c>
     </row>
     <row r="159">
@@ -24710,7 +26046,16 @@
         <v>2</v>
       </c>
       <c r="BB159" t="n">
-        <v>842.3000000000001</v>
+        <v>2015</v>
+      </c>
+      <c r="BC159" t="n">
+        <v>1780.2</v>
+      </c>
+      <c r="BD159" t="n">
+        <v>618.2</v>
+      </c>
+      <c r="BE159" t="n">
+        <v>1615</v>
       </c>
     </row>
     <row r="160">
@@ -24868,7 +26213,16 @@
         <v>3</v>
       </c>
       <c r="BB160" t="n">
+        <v>2015</v>
+      </c>
+      <c r="BC160" t="n">
         <v>842.3000000000001</v>
+      </c>
+      <c r="BD160" t="n">
+        <v>618.2</v>
+      </c>
+      <c r="BE160" t="n">
+        <v>1615</v>
       </c>
     </row>
     <row r="161">
@@ -25026,7 +26380,16 @@
         <v>4</v>
       </c>
       <c r="BB161" t="n">
+        <v>2015</v>
+      </c>
+      <c r="BC161" t="n">
         <v>842.3000000000001</v>
+      </c>
+      <c r="BD161" t="n">
+        <v>618.2</v>
+      </c>
+      <c r="BE161" t="n">
+        <v>1615</v>
       </c>
     </row>
     <row r="162">
@@ -25184,7 +26547,16 @@
         <v>5</v>
       </c>
       <c r="BB162" t="n">
+        <v>2015</v>
+      </c>
+      <c r="BC162" t="n">
         <v>842.3000000000001</v>
+      </c>
+      <c r="BD162" t="n">
+        <v>1780.2</v>
+      </c>
+      <c r="BE162" t="n">
+        <v>618.2</v>
       </c>
     </row>
     <row r="163">
@@ -25342,7 +26714,16 @@
         <v>6</v>
       </c>
       <c r="BB163" t="n">
+        <v>2015</v>
+      </c>
+      <c r="BC163" t="n">
         <v>842.3000000000001</v>
+      </c>
+      <c r="BD163" t="n">
+        <v>1780.2</v>
+      </c>
+      <c r="BE163" t="n">
+        <v>618.2</v>
       </c>
     </row>
     <row r="164">
@@ -25500,7 +26881,16 @@
         <v>7</v>
       </c>
       <c r="BB164" t="n">
+        <v>2015</v>
+      </c>
+      <c r="BC164" t="n">
         <v>842.3000000000001</v>
+      </c>
+      <c r="BD164" t="n">
+        <v>1780.2</v>
+      </c>
+      <c r="BE164" t="n">
+        <v>618.2</v>
       </c>
     </row>
     <row r="165">
@@ -25658,7 +27048,16 @@
         <v>8</v>
       </c>
       <c r="BB165" t="n">
+        <v>2015</v>
+      </c>
+      <c r="BC165" t="n">
         <v>842.3000000000001</v>
+      </c>
+      <c r="BD165" t="n">
+        <v>1780.2</v>
+      </c>
+      <c r="BE165" t="n">
+        <v>618.2</v>
       </c>
     </row>
     <row r="166">
@@ -25816,7 +27215,16 @@
         <v>9</v>
       </c>
       <c r="BB166" t="n">
+        <v>2015</v>
+      </c>
+      <c r="BC166" t="n">
         <v>842.3000000000001</v>
+      </c>
+      <c r="BD166" t="n">
+        <v>1780.2</v>
+      </c>
+      <c r="BE166" t="n">
+        <v>618.2</v>
       </c>
     </row>
     <row r="167">
@@ -25974,7 +27382,16 @@
         <v>10</v>
       </c>
       <c r="BB167" t="n">
+        <v>2016</v>
+      </c>
+      <c r="BC167" t="n">
         <v>842.3000000000001</v>
+      </c>
+      <c r="BD167" t="n">
+        <v>1780.2</v>
+      </c>
+      <c r="BE167" t="n">
+        <v>618.2</v>
       </c>
     </row>
     <row r="168">
@@ -26132,7 +27549,16 @@
         <v>11</v>
       </c>
       <c r="BB168" t="n">
+        <v>2016</v>
+      </c>
+      <c r="BC168" t="n">
         <v>842.3000000000001</v>
+      </c>
+      <c r="BD168" t="n">
+        <v>1780.2</v>
+      </c>
+      <c r="BE168" t="n">
+        <v>618.2</v>
       </c>
     </row>
     <row r="169">
@@ -26292,7 +27718,16 @@
         <v>12</v>
       </c>
       <c r="BB169" t="n">
+        <v>2016</v>
+      </c>
+      <c r="BC169" t="n">
         <v>842.3000000000001</v>
+      </c>
+      <c r="BD169" t="n">
+        <v>1780.2</v>
+      </c>
+      <c r="BE169" t="n">
+        <v>618.2</v>
       </c>
     </row>
     <row r="170">
@@ -26452,7 +27887,16 @@
         <v>1</v>
       </c>
       <c r="BB170" t="n">
-        <v>1403.3</v>
+        <v>2016</v>
+      </c>
+      <c r="BC170" t="n">
+        <v>842.3000000000001</v>
+      </c>
+      <c r="BD170" t="n">
+        <v>1780.2</v>
+      </c>
+      <c r="BE170" t="n">
+        <v>618.2</v>
       </c>
     </row>
     <row r="171">
@@ -26612,7 +28056,16 @@
         <v>2</v>
       </c>
       <c r="BB171" t="n">
-        <v>1403.3</v>
+        <v>2016</v>
+      </c>
+      <c r="BC171" t="n">
+        <v>842.3000000000001</v>
+      </c>
+      <c r="BD171" t="n">
+        <v>1780.2</v>
+      </c>
+      <c r="BE171" t="n">
+        <v>618.2</v>
       </c>
     </row>
     <row r="172">
@@ -26772,7 +28225,16 @@
         <v>3</v>
       </c>
       <c r="BB172" t="n">
+        <v>2016</v>
+      </c>
+      <c r="BC172" t="n">
         <v>1403.3</v>
+      </c>
+      <c r="BD172" t="n">
+        <v>1780.2</v>
+      </c>
+      <c r="BE172" t="n">
+        <v>618.2</v>
       </c>
     </row>
     <row r="173">
@@ -26932,7 +28394,16 @@
         <v>4</v>
       </c>
       <c r="BB173" t="n">
+        <v>2016</v>
+      </c>
+      <c r="BC173" t="n">
         <v>1403.3</v>
+      </c>
+      <c r="BD173" t="n">
+        <v>1780.2</v>
+      </c>
+      <c r="BE173" t="n">
+        <v>618.2</v>
       </c>
     </row>
     <row r="174">
@@ -27092,7 +28563,16 @@
         <v>5</v>
       </c>
       <c r="BB174" t="n">
+        <v>2016</v>
+      </c>
+      <c r="BC174" t="n">
         <v>1403.3</v>
+      </c>
+      <c r="BD174" t="n">
+        <v>842.3000000000001</v>
+      </c>
+      <c r="BE174" t="n">
+        <v>1780.2</v>
       </c>
     </row>
     <row r="175">
@@ -27252,7 +28732,16 @@
         <v>6</v>
       </c>
       <c r="BB175" t="n">
+        <v>2016</v>
+      </c>
+      <c r="BC175" t="n">
         <v>1403.3</v>
+      </c>
+      <c r="BD175" t="n">
+        <v>842.3000000000001</v>
+      </c>
+      <c r="BE175" t="n">
+        <v>1780.2</v>
       </c>
     </row>
     <row r="176">
@@ -27412,7 +28901,16 @@
         <v>7</v>
       </c>
       <c r="BB176" t="n">
+        <v>2016</v>
+      </c>
+      <c r="BC176" t="n">
         <v>1403.3</v>
+      </c>
+      <c r="BD176" t="n">
+        <v>842.3000000000001</v>
+      </c>
+      <c r="BE176" t="n">
+        <v>1780.2</v>
       </c>
     </row>
     <row r="177">
@@ -27572,7 +29070,16 @@
         <v>8</v>
       </c>
       <c r="BB177" t="n">
+        <v>2016</v>
+      </c>
+      <c r="BC177" t="n">
         <v>1403.3</v>
+      </c>
+      <c r="BD177" t="n">
+        <v>842.3000000000001</v>
+      </c>
+      <c r="BE177" t="n">
+        <v>1780.2</v>
       </c>
     </row>
     <row r="178">
@@ -27732,7 +29239,16 @@
         <v>9</v>
       </c>
       <c r="BB178" t="n">
+        <v>2016</v>
+      </c>
+      <c r="BC178" t="n">
         <v>1403.3</v>
+      </c>
+      <c r="BD178" t="n">
+        <v>842.3000000000001</v>
+      </c>
+      <c r="BE178" t="n">
+        <v>1780.2</v>
       </c>
     </row>
     <row r="179">
@@ -27892,7 +29408,16 @@
         <v>10</v>
       </c>
       <c r="BB179" t="n">
+        <v>2017</v>
+      </c>
+      <c r="BC179" t="n">
         <v>1403.3</v>
+      </c>
+      <c r="BD179" t="n">
+        <v>842.3000000000001</v>
+      </c>
+      <c r="BE179" t="n">
+        <v>1780.2</v>
       </c>
     </row>
     <row r="180">
@@ -28052,7 +29577,16 @@
         <v>11</v>
       </c>
       <c r="BB180" t="n">
+        <v>2017</v>
+      </c>
+      <c r="BC180" t="n">
         <v>1403.3</v>
+      </c>
+      <c r="BD180" t="n">
+        <v>842.3000000000001</v>
+      </c>
+      <c r="BE180" t="n">
+        <v>1780.2</v>
       </c>
     </row>
     <row r="181">
@@ -28212,7 +29746,16 @@
         <v>12</v>
       </c>
       <c r="BB181" t="n">
+        <v>2017</v>
+      </c>
+      <c r="BC181" t="n">
         <v>1403.3</v>
+      </c>
+      <c r="BD181" t="n">
+        <v>842.3000000000001</v>
+      </c>
+      <c r="BE181" t="n">
+        <v>1780.2</v>
       </c>
     </row>
     <row r="182">
@@ -28372,7 +29915,16 @@
         <v>1</v>
       </c>
       <c r="BB182" t="n">
-        <v>1290.6</v>
+        <v>2017</v>
+      </c>
+      <c r="BC182" t="n">
+        <v>1403.3</v>
+      </c>
+      <c r="BD182" t="n">
+        <v>842.3000000000001</v>
+      </c>
+      <c r="BE182" t="n">
+        <v>1780.2</v>
       </c>
     </row>
     <row r="183">
@@ -28532,7 +30084,16 @@
         <v>2</v>
       </c>
       <c r="BB183" t="n">
-        <v>1290.6</v>
+        <v>2017</v>
+      </c>
+      <c r="BC183" t="n">
+        <v>1403.3</v>
+      </c>
+      <c r="BD183" t="n">
+        <v>842.3000000000001</v>
+      </c>
+      <c r="BE183" t="n">
+        <v>1780.2</v>
       </c>
     </row>
     <row r="184">
@@ -28692,7 +30253,16 @@
         <v>3</v>
       </c>
       <c r="BB184" t="n">
+        <v>2017</v>
+      </c>
+      <c r="BC184" t="n">
         <v>1290.6</v>
+      </c>
+      <c r="BD184" t="n">
+        <v>842.3000000000001</v>
+      </c>
+      <c r="BE184" t="n">
+        <v>1780.2</v>
       </c>
     </row>
     <row r="185">
@@ -28852,7 +30422,16 @@
         <v>4</v>
       </c>
       <c r="BB185" t="n">
+        <v>2017</v>
+      </c>
+      <c r="BC185" t="n">
         <v>1290.6</v>
+      </c>
+      <c r="BD185" t="n">
+        <v>842.3000000000001</v>
+      </c>
+      <c r="BE185" t="n">
+        <v>1780.2</v>
       </c>
     </row>
     <row r="186">
@@ -29012,7 +30591,16 @@
         <v>5</v>
       </c>
       <c r="BB186" t="n">
+        <v>2017</v>
+      </c>
+      <c r="BC186" t="n">
         <v>1290.6</v>
+      </c>
+      <c r="BD186" t="n">
+        <v>1403.3</v>
+      </c>
+      <c r="BE186" t="n">
+        <v>842.3000000000001</v>
       </c>
     </row>
     <row r="187">
@@ -29172,7 +30760,16 @@
         <v>6</v>
       </c>
       <c r="BB187" t="n">
+        <v>2017</v>
+      </c>
+      <c r="BC187" t="n">
         <v>1290.6</v>
+      </c>
+      <c r="BD187" t="n">
+        <v>1403.3</v>
+      </c>
+      <c r="BE187" t="n">
+        <v>842.3000000000001</v>
       </c>
     </row>
     <row r="188">
@@ -29332,7 +30929,16 @@
         <v>7</v>
       </c>
       <c r="BB188" t="n">
+        <v>2017</v>
+      </c>
+      <c r="BC188" t="n">
         <v>1290.6</v>
+      </c>
+      <c r="BD188" t="n">
+        <v>1403.3</v>
+      </c>
+      <c r="BE188" t="n">
+        <v>842.3000000000001</v>
       </c>
     </row>
     <row r="189">
@@ -29492,7 +31098,16 @@
         <v>8</v>
       </c>
       <c r="BB189" t="n">
+        <v>2017</v>
+      </c>
+      <c r="BC189" t="n">
         <v>1290.6</v>
+      </c>
+      <c r="BD189" t="n">
+        <v>1403.3</v>
+      </c>
+      <c r="BE189" t="n">
+        <v>842.3000000000001</v>
       </c>
     </row>
     <row r="190">
@@ -29652,7 +31267,16 @@
         <v>9</v>
       </c>
       <c r="BB190" t="n">
+        <v>2017</v>
+      </c>
+      <c r="BC190" t="n">
         <v>1290.6</v>
+      </c>
+      <c r="BD190" t="n">
+        <v>1403.3</v>
+      </c>
+      <c r="BE190" t="n">
+        <v>842.3000000000001</v>
       </c>
     </row>
     <row r="191">
@@ -29812,7 +31436,16 @@
         <v>10</v>
       </c>
       <c r="BB191" t="n">
+        <v>2018</v>
+      </c>
+      <c r="BC191" t="n">
         <v>1290.6</v>
+      </c>
+      <c r="BD191" t="n">
+        <v>1403.3</v>
+      </c>
+      <c r="BE191" t="n">
+        <v>842.3000000000001</v>
       </c>
     </row>
     <row r="192">
@@ -29972,7 +31605,16 @@
         <v>11</v>
       </c>
       <c r="BB192" t="n">
+        <v>2018</v>
+      </c>
+      <c r="BC192" t="n">
         <v>1290.6</v>
+      </c>
+      <c r="BD192" t="n">
+        <v>1403.3</v>
+      </c>
+      <c r="BE192" t="n">
+        <v>842.3000000000001</v>
       </c>
     </row>
     <row r="193">
@@ -30132,7 +31774,16 @@
         <v>12</v>
       </c>
       <c r="BB193" t="n">
+        <v>2018</v>
+      </c>
+      <c r="BC193" t="n">
         <v>1290.6</v>
+      </c>
+      <c r="BD193" t="n">
+        <v>1403.3</v>
+      </c>
+      <c r="BE193" t="n">
+        <v>842.3000000000001</v>
       </c>
     </row>
     <row r="194">
@@ -30296,7 +31947,16 @@
         <v>1</v>
       </c>
       <c r="BB194" t="n">
-        <v>1262.2</v>
+        <v>2018</v>
+      </c>
+      <c r="BC194" t="n">
+        <v>1290.6</v>
+      </c>
+      <c r="BD194" t="n">
+        <v>1403.3</v>
+      </c>
+      <c r="BE194" t="n">
+        <v>842.3000000000001</v>
       </c>
     </row>
     <row r="195">
@@ -30460,7 +32120,16 @@
         <v>2</v>
       </c>
       <c r="BB195" t="n">
-        <v>1262.2</v>
+        <v>2018</v>
+      </c>
+      <c r="BC195" t="n">
+        <v>1290.6</v>
+      </c>
+      <c r="BD195" t="n">
+        <v>1403.3</v>
+      </c>
+      <c r="BE195" t="n">
+        <v>842.3000000000001</v>
       </c>
     </row>
     <row r="196">
@@ -30624,7 +32293,16 @@
         <v>3</v>
       </c>
       <c r="BB196" t="n">
+        <v>2018</v>
+      </c>
+      <c r="BC196" t="n">
         <v>1262.2</v>
+      </c>
+      <c r="BD196" t="n">
+        <v>1403.3</v>
+      </c>
+      <c r="BE196" t="n">
+        <v>842.3000000000001</v>
       </c>
     </row>
     <row r="197">
@@ -30788,7 +32466,16 @@
         <v>4</v>
       </c>
       <c r="BB197" t="n">
+        <v>2018</v>
+      </c>
+      <c r="BC197" t="n">
         <v>1262.2</v>
+      </c>
+      <c r="BD197" t="n">
+        <v>1403.3</v>
+      </c>
+      <c r="BE197" t="n">
+        <v>842.3000000000001</v>
       </c>
     </row>
     <row r="198">
@@ -30952,7 +32639,16 @@
         <v>5</v>
       </c>
       <c r="BB198" t="n">
+        <v>2018</v>
+      </c>
+      <c r="BC198" t="n">
         <v>1262.2</v>
+      </c>
+      <c r="BD198" t="n">
+        <v>1290.6</v>
+      </c>
+      <c r="BE198" t="n">
+        <v>1403.3</v>
       </c>
     </row>
     <row r="199">
@@ -31116,7 +32812,16 @@
         <v>6</v>
       </c>
       <c r="BB199" t="n">
+        <v>2018</v>
+      </c>
+      <c r="BC199" t="n">
         <v>1262.2</v>
+      </c>
+      <c r="BD199" t="n">
+        <v>1290.6</v>
+      </c>
+      <c r="BE199" t="n">
+        <v>1403.3</v>
       </c>
     </row>
     <row r="200">
@@ -31280,7 +32985,16 @@
         <v>7</v>
       </c>
       <c r="BB200" t="n">
+        <v>2018</v>
+      </c>
+      <c r="BC200" t="n">
         <v>1262.2</v>
+      </c>
+      <c r="BD200" t="n">
+        <v>1290.6</v>
+      </c>
+      <c r="BE200" t="n">
+        <v>1403.3</v>
       </c>
     </row>
     <row r="201">
@@ -31444,7 +33158,16 @@
         <v>8</v>
       </c>
       <c r="BB201" t="n">
+        <v>2018</v>
+      </c>
+      <c r="BC201" t="n">
         <v>1262.2</v>
+      </c>
+      <c r="BD201" t="n">
+        <v>1290.6</v>
+      </c>
+      <c r="BE201" t="n">
+        <v>1403.3</v>
       </c>
     </row>
     <row r="202">
@@ -31608,7 +33331,16 @@
         <v>9</v>
       </c>
       <c r="BB202" t="n">
+        <v>2018</v>
+      </c>
+      <c r="BC202" t="n">
         <v>1262.2</v>
+      </c>
+      <c r="BD202" t="n">
+        <v>1290.6</v>
+      </c>
+      <c r="BE202" t="n">
+        <v>1403.3</v>
       </c>
     </row>
     <row r="203">
@@ -31772,7 +33504,16 @@
         <v>10</v>
       </c>
       <c r="BB203" t="n">
+        <v>2019</v>
+      </c>
+      <c r="BC203" t="n">
         <v>1262.2</v>
+      </c>
+      <c r="BD203" t="n">
+        <v>1290.6</v>
+      </c>
+      <c r="BE203" t="n">
+        <v>1403.3</v>
       </c>
     </row>
     <row r="204">
@@ -31936,7 +33677,16 @@
         <v>11</v>
       </c>
       <c r="BB204" t="n">
+        <v>2019</v>
+      </c>
+      <c r="BC204" t="n">
         <v>1262.2</v>
+      </c>
+      <c r="BD204" t="n">
+        <v>1290.6</v>
+      </c>
+      <c r="BE204" t="n">
+        <v>1403.3</v>
       </c>
     </row>
     <row r="205">
@@ -32100,7 +33850,16 @@
         <v>12</v>
       </c>
       <c r="BB205" t="n">
+        <v>2019</v>
+      </c>
+      <c r="BC205" t="n">
         <v>1262.2</v>
+      </c>
+      <c r="BD205" t="n">
+        <v>1290.6</v>
+      </c>
+      <c r="BE205" t="n">
+        <v>1403.3</v>
       </c>
     </row>
     <row r="206">
@@ -32264,7 +34023,16 @@
         <v>1</v>
       </c>
       <c r="BB206" t="n">
-        <v>1793.5</v>
+        <v>2019</v>
+      </c>
+      <c r="BC206" t="n">
+        <v>1262.2</v>
+      </c>
+      <c r="BD206" t="n">
+        <v>1290.6</v>
+      </c>
+      <c r="BE206" t="n">
+        <v>1403.3</v>
       </c>
     </row>
     <row r="207">
@@ -32428,7 +34196,16 @@
         <v>2</v>
       </c>
       <c r="BB207" t="n">
-        <v>1793.5</v>
+        <v>2019</v>
+      </c>
+      <c r="BC207" t="n">
+        <v>1262.2</v>
+      </c>
+      <c r="BD207" t="n">
+        <v>1290.6</v>
+      </c>
+      <c r="BE207" t="n">
+        <v>1403.3</v>
       </c>
     </row>
     <row r="208">
@@ -32592,7 +34369,16 @@
         <v>3</v>
       </c>
       <c r="BB208" t="n">
+        <v>2019</v>
+      </c>
+      <c r="BC208" t="n">
         <v>1793.5</v>
+      </c>
+      <c r="BD208" t="n">
+        <v>1290.6</v>
+      </c>
+      <c r="BE208" t="n">
+        <v>1403.3</v>
       </c>
     </row>
     <row r="209">
@@ -32756,7 +34542,16 @@
         <v>4</v>
       </c>
       <c r="BB209" t="n">
+        <v>2019</v>
+      </c>
+      <c r="BC209" t="n">
         <v>1793.5</v>
+      </c>
+      <c r="BD209" t="n">
+        <v>1290.6</v>
+      </c>
+      <c r="BE209" t="n">
+        <v>1403.3</v>
       </c>
     </row>
     <row r="210">
@@ -32920,7 +34715,16 @@
         <v>5</v>
       </c>
       <c r="BB210" t="n">
+        <v>2019</v>
+      </c>
+      <c r="BC210" t="n">
         <v>1793.5</v>
+      </c>
+      <c r="BD210" t="n">
+        <v>1262.2</v>
+      </c>
+      <c r="BE210" t="n">
+        <v>1290.6</v>
       </c>
     </row>
     <row r="211">
@@ -33084,7 +34888,16 @@
         <v>6</v>
       </c>
       <c r="BB211" t="n">
+        <v>2019</v>
+      </c>
+      <c r="BC211" t="n">
         <v>1793.5</v>
+      </c>
+      <c r="BD211" t="n">
+        <v>1262.2</v>
+      </c>
+      <c r="BE211" t="n">
+        <v>1290.6</v>
       </c>
     </row>
     <row r="212">
@@ -33248,7 +35061,16 @@
         <v>7</v>
       </c>
       <c r="BB212" t="n">
+        <v>2019</v>
+      </c>
+      <c r="BC212" t="n">
         <v>1793.5</v>
+      </c>
+      <c r="BD212" t="n">
+        <v>1262.2</v>
+      </c>
+      <c r="BE212" t="n">
+        <v>1290.6</v>
       </c>
     </row>
     <row r="213">
@@ -33412,7 +35234,16 @@
         <v>8</v>
       </c>
       <c r="BB213" t="n">
+        <v>2019</v>
+      </c>
+      <c r="BC213" t="n">
         <v>1793.5</v>
+      </c>
+      <c r="BD213" t="n">
+        <v>1262.2</v>
+      </c>
+      <c r="BE213" t="n">
+        <v>1290.6</v>
       </c>
     </row>
     <row r="214">
@@ -33576,7 +35407,16 @@
         <v>9</v>
       </c>
       <c r="BB214" t="n">
+        <v>2019</v>
+      </c>
+      <c r="BC214" t="n">
         <v>1793.5</v>
+      </c>
+      <c r="BD214" t="n">
+        <v>1262.2</v>
+      </c>
+      <c r="BE214" t="n">
+        <v>1290.6</v>
       </c>
     </row>
     <row r="215">
@@ -33740,7 +35580,16 @@
         <v>10</v>
       </c>
       <c r="BB215" t="n">
+        <v>2020</v>
+      </c>
+      <c r="BC215" t="n">
         <v>1793.5</v>
+      </c>
+      <c r="BD215" t="n">
+        <v>1262.2</v>
+      </c>
+      <c r="BE215" t="n">
+        <v>1290.6</v>
       </c>
     </row>
     <row r="216">
@@ -33904,7 +35753,16 @@
         <v>11</v>
       </c>
       <c r="BB216" t="n">
+        <v>2020</v>
+      </c>
+      <c r="BC216" t="n">
         <v>1793.5</v>
+      </c>
+      <c r="BD216" t="n">
+        <v>1262.2</v>
+      </c>
+      <c r="BE216" t="n">
+        <v>1290.6</v>
       </c>
     </row>
     <row r="217">
@@ -34068,7 +35926,16 @@
         <v>12</v>
       </c>
       <c r="BB217" t="n">
+        <v>2020</v>
+      </c>
+      <c r="BC217" t="n">
         <v>1793.5</v>
+      </c>
+      <c r="BD217" t="n">
+        <v>1262.2</v>
+      </c>
+      <c r="BE217" t="n">
+        <v>1290.6</v>
       </c>
     </row>
     <row r="218">
@@ -34232,7 +36099,16 @@
         <v>1</v>
       </c>
       <c r="BB218" t="n">
-        <v>1125.7</v>
+        <v>2020</v>
+      </c>
+      <c r="BC218" t="n">
+        <v>1793.5</v>
+      </c>
+      <c r="BD218" t="n">
+        <v>1262.2</v>
+      </c>
+      <c r="BE218" t="n">
+        <v>1290.6</v>
       </c>
     </row>
     <row r="219">
@@ -34396,7 +36272,16 @@
         <v>2</v>
       </c>
       <c r="BB219" t="n">
-        <v>1125.7</v>
+        <v>2020</v>
+      </c>
+      <c r="BC219" t="n">
+        <v>1793.5</v>
+      </c>
+      <c r="BD219" t="n">
+        <v>1262.2</v>
+      </c>
+      <c r="BE219" t="n">
+        <v>1290.6</v>
       </c>
     </row>
     <row r="220">
@@ -34560,7 +36445,16 @@
         <v>3</v>
       </c>
       <c r="BB220" t="n">
+        <v>2020</v>
+      </c>
+      <c r="BC220" t="n">
         <v>1125.7</v>
+      </c>
+      <c r="BD220" t="n">
+        <v>1262.2</v>
+      </c>
+      <c r="BE220" t="n">
+        <v>1290.6</v>
       </c>
     </row>
     <row r="221">
@@ -34724,7 +36618,16 @@
         <v>4</v>
       </c>
       <c r="BB221" t="n">
+        <v>2020</v>
+      </c>
+      <c r="BC221" t="n">
         <v>1125.7</v>
+      </c>
+      <c r="BD221" t="n">
+        <v>1262.2</v>
+      </c>
+      <c r="BE221" t="n">
+        <v>1290.6</v>
       </c>
     </row>
     <row r="222">
@@ -34888,7 +36791,16 @@
         <v>5</v>
       </c>
       <c r="BB222" t="n">
+        <v>2020</v>
+      </c>
+      <c r="BC222" t="n">
         <v>1125.7</v>
+      </c>
+      <c r="BD222" t="n">
+        <v>1793.5</v>
+      </c>
+      <c r="BE222" t="n">
+        <v>1262.2</v>
       </c>
     </row>
     <row r="223">
@@ -35052,7 +36964,16 @@
         <v>6</v>
       </c>
       <c r="BB223" t="n">
+        <v>2020</v>
+      </c>
+      <c r="BC223" t="n">
         <v>1125.7</v>
+      </c>
+      <c r="BD223" t="n">
+        <v>1793.5</v>
+      </c>
+      <c r="BE223" t="n">
+        <v>1262.2</v>
       </c>
     </row>
     <row r="224">
@@ -35216,7 +37137,16 @@
         <v>7</v>
       </c>
       <c r="BB224" t="n">
+        <v>2020</v>
+      </c>
+      <c r="BC224" t="n">
         <v>1125.7</v>
+      </c>
+      <c r="BD224" t="n">
+        <v>1793.5</v>
+      </c>
+      <c r="BE224" t="n">
+        <v>1262.2</v>
       </c>
     </row>
     <row r="225">
@@ -35380,7 +37310,16 @@
         <v>8</v>
       </c>
       <c r="BB225" t="n">
+        <v>2020</v>
+      </c>
+      <c r="BC225" t="n">
         <v>1125.7</v>
+      </c>
+      <c r="BD225" t="n">
+        <v>1793.5</v>
+      </c>
+      <c r="BE225" t="n">
+        <v>1262.2</v>
       </c>
     </row>
     <row r="226">
@@ -35544,7 +37483,16 @@
         <v>9</v>
       </c>
       <c r="BB226" t="n">
+        <v>2020</v>
+      </c>
+      <c r="BC226" t="n">
         <v>1125.7</v>
+      </c>
+      <c r="BD226" t="n">
+        <v>1793.5</v>
+      </c>
+      <c r="BE226" t="n">
+        <v>1262.2</v>
       </c>
     </row>
     <row r="227">
@@ -35708,7 +37656,16 @@
         <v>10</v>
       </c>
       <c r="BB227" t="n">
+        <v>2021</v>
+      </c>
+      <c r="BC227" t="n">
         <v>1125.7</v>
+      </c>
+      <c r="BD227" t="n">
+        <v>1793.5</v>
+      </c>
+      <c r="BE227" t="n">
+        <v>1262.2</v>
       </c>
     </row>
     <row r="228">
@@ -35872,7 +37829,16 @@
         <v>11</v>
       </c>
       <c r="BB228" t="n">
+        <v>2021</v>
+      </c>
+      <c r="BC228" t="n">
         <v>1125.7</v>
+      </c>
+      <c r="BD228" t="n">
+        <v>1793.5</v>
+      </c>
+      <c r="BE228" t="n">
+        <v>1262.2</v>
       </c>
     </row>
     <row r="229">
@@ -36036,7 +38002,16 @@
         <v>12</v>
       </c>
       <c r="BB229" t="n">
+        <v>2021</v>
+      </c>
+      <c r="BC229" t="n">
         <v>1125.7</v>
+      </c>
+      <c r="BD229" t="n">
+        <v>1793.5</v>
+      </c>
+      <c r="BE229" t="n">
+        <v>1262.2</v>
       </c>
     </row>
     <row r="230">
@@ -36200,7 +38175,16 @@
         <v>1</v>
       </c>
       <c r="BB230" t="n">
-        <v>1389.1</v>
+        <v>2021</v>
+      </c>
+      <c r="BC230" t="n">
+        <v>1125.7</v>
+      </c>
+      <c r="BD230" t="n">
+        <v>1793.5</v>
+      </c>
+      <c r="BE230" t="n">
+        <v>1262.2</v>
       </c>
     </row>
     <row r="231">
@@ -36364,7 +38348,16 @@
         <v>2</v>
       </c>
       <c r="BB231" t="n">
-        <v>1389.1</v>
+        <v>2021</v>
+      </c>
+      <c r="BC231" t="n">
+        <v>1125.7</v>
+      </c>
+      <c r="BD231" t="n">
+        <v>1793.5</v>
+      </c>
+      <c r="BE231" t="n">
+        <v>1262.2</v>
       </c>
     </row>
     <row r="232">
@@ -36528,7 +38521,16 @@
         <v>3</v>
       </c>
       <c r="BB232" t="n">
+        <v>2021</v>
+      </c>
+      <c r="BC232" t="n">
         <v>1389.1</v>
+      </c>
+      <c r="BD232" t="n">
+        <v>1793.5</v>
+      </c>
+      <c r="BE232" t="n">
+        <v>1262.2</v>
       </c>
     </row>
     <row r="233">
@@ -36692,7 +38694,16 @@
         <v>4</v>
       </c>
       <c r="BB233" t="n">
+        <v>2021</v>
+      </c>
+      <c r="BC233" t="n">
         <v>1389.1</v>
+      </c>
+      <c r="BD233" t="n">
+        <v>1793.5</v>
+      </c>
+      <c r="BE233" t="n">
+        <v>1262.2</v>
       </c>
     </row>
     <row r="234">
@@ -36856,7 +38867,16 @@
         <v>5</v>
       </c>
       <c r="BB234" t="n">
+        <v>2021</v>
+      </c>
+      <c r="BC234" t="n">
         <v>1389.1</v>
+      </c>
+      <c r="BD234" t="n">
+        <v>1125.7</v>
+      </c>
+      <c r="BE234" t="n">
+        <v>1793.5</v>
       </c>
     </row>
     <row r="235">
@@ -37020,7 +39040,16 @@
         <v>6</v>
       </c>
       <c r="BB235" t="n">
+        <v>2021</v>
+      </c>
+      <c r="BC235" t="n">
         <v>1389.1</v>
+      </c>
+      <c r="BD235" t="n">
+        <v>1125.7</v>
+      </c>
+      <c r="BE235" t="n">
+        <v>1793.5</v>
       </c>
     </row>
     <row r="236">
@@ -37184,7 +39213,16 @@
         <v>7</v>
       </c>
       <c r="BB236" t="n">
+        <v>2021</v>
+      </c>
+      <c r="BC236" t="n">
         <v>1389.1</v>
+      </c>
+      <c r="BD236" t="n">
+        <v>1125.7</v>
+      </c>
+      <c r="BE236" t="n">
+        <v>1793.5</v>
       </c>
     </row>
     <row r="237">
@@ -37348,7 +39386,16 @@
         <v>8</v>
       </c>
       <c r="BB237" t="n">
+        <v>2021</v>
+      </c>
+      <c r="BC237" t="n">
         <v>1389.1</v>
+      </c>
+      <c r="BD237" t="n">
+        <v>1125.7</v>
+      </c>
+      <c r="BE237" t="n">
+        <v>1793.5</v>
       </c>
     </row>
     <row r="238">
@@ -37512,7 +39559,16 @@
         <v>9</v>
       </c>
       <c r="BB238" t="n">
+        <v>2021</v>
+      </c>
+      <c r="BC238" t="n">
         <v>1389.1</v>
+      </c>
+      <c r="BD238" t="n">
+        <v>1125.7</v>
+      </c>
+      <c r="BE238" t="n">
+        <v>1793.5</v>
       </c>
     </row>
     <row r="239">
@@ -37676,7 +39732,16 @@
         <v>10</v>
       </c>
       <c r="BB239" t="n">
+        <v>2022</v>
+      </c>
+      <c r="BC239" t="n">
         <v>1389.1</v>
+      </c>
+      <c r="BD239" t="n">
+        <v>1125.7</v>
+      </c>
+      <c r="BE239" t="n">
+        <v>1793.5</v>
       </c>
     </row>
     <row r="240">
@@ -37840,7 +39905,16 @@
         <v>11</v>
       </c>
       <c r="BB240" t="n">
+        <v>2022</v>
+      </c>
+      <c r="BC240" t="n">
         <v>1389.1</v>
+      </c>
+      <c r="BD240" t="n">
+        <v>1125.7</v>
+      </c>
+      <c r="BE240" t="n">
+        <v>1793.5</v>
       </c>
     </row>
     <row r="241">
@@ -38004,7 +40078,16 @@
         <v>12</v>
       </c>
       <c r="BB241" t="n">
+        <v>2022</v>
+      </c>
+      <c r="BC241" t="n">
         <v>1389.1</v>
+      </c>
+      <c r="BD241" t="n">
+        <v>1125.7</v>
+      </c>
+      <c r="BE241" t="n">
+        <v>1793.5</v>
       </c>
     </row>
     <row r="242">
@@ -38168,7 +40251,16 @@
         <v>1</v>
       </c>
       <c r="BB242" t="n">
-        <v>1493</v>
+        <v>2022</v>
+      </c>
+      <c r="BC242" t="n">
+        <v>1389.1</v>
+      </c>
+      <c r="BD242" t="n">
+        <v>1125.7</v>
+      </c>
+      <c r="BE242" t="n">
+        <v>1793.5</v>
       </c>
     </row>
     <row r="243">
@@ -38332,7 +40424,16 @@
         <v>2</v>
       </c>
       <c r="BB243" t="n">
-        <v>1493</v>
+        <v>2022</v>
+      </c>
+      <c r="BC243" t="n">
+        <v>1389.1</v>
+      </c>
+      <c r="BD243" t="n">
+        <v>1125.7</v>
+      </c>
+      <c r="BE243" t="n">
+        <v>1793.5</v>
       </c>
     </row>
     <row r="244">
@@ -38496,7 +40597,16 @@
         <v>3</v>
       </c>
       <c r="BB244" t="n">
+        <v>2022</v>
+      </c>
+      <c r="BC244" t="n">
         <v>1493</v>
+      </c>
+      <c r="BD244" t="n">
+        <v>1125.7</v>
+      </c>
+      <c r="BE244" t="n">
+        <v>1793.5</v>
       </c>
     </row>
     <row r="245">
@@ -38660,7 +40770,16 @@
         <v>4</v>
       </c>
       <c r="BB245" t="n">
+        <v>2022</v>
+      </c>
+      <c r="BC245" t="n">
         <v>1493</v>
+      </c>
+      <c r="BD245" t="n">
+        <v>1125.7</v>
+      </c>
+      <c r="BE245" t="n">
+        <v>1793.5</v>
       </c>
     </row>
     <row r="246">
@@ -38824,7 +40943,16 @@
         <v>5</v>
       </c>
       <c r="BB246" t="n">
+        <v>2022</v>
+      </c>
+      <c r="BC246" t="n">
         <v>1493</v>
+      </c>
+      <c r="BD246" t="n">
+        <v>1389.1</v>
+      </c>
+      <c r="BE246" t="n">
+        <v>1125.7</v>
       </c>
     </row>
     <row r="247">
@@ -38988,7 +41116,16 @@
         <v>6</v>
       </c>
       <c r="BB247" t="n">
+        <v>2022</v>
+      </c>
+      <c r="BC247" t="n">
         <v>1493</v>
+      </c>
+      <c r="BD247" t="n">
+        <v>1389.1</v>
+      </c>
+      <c r="BE247" t="n">
+        <v>1125.7</v>
       </c>
     </row>
     <row r="248">
@@ -39152,7 +41289,16 @@
         <v>7</v>
       </c>
       <c r="BB248" t="n">
+        <v>2022</v>
+      </c>
+      <c r="BC248" t="n">
         <v>1493</v>
+      </c>
+      <c r="BD248" t="n">
+        <v>1389.1</v>
+      </c>
+      <c r="BE248" t="n">
+        <v>1125.7</v>
       </c>
     </row>
     <row r="249">
@@ -39316,7 +41462,16 @@
         <v>8</v>
       </c>
       <c r="BB249" t="n">
+        <v>2022</v>
+      </c>
+      <c r="BC249" t="n">
         <v>1493</v>
+      </c>
+      <c r="BD249" t="n">
+        <v>1389.1</v>
+      </c>
+      <c r="BE249" t="n">
+        <v>1125.7</v>
       </c>
     </row>
     <row r="250">
@@ -39480,7 +41635,16 @@
         <v>9</v>
       </c>
       <c r="BB250" t="n">
+        <v>2022</v>
+      </c>
+      <c r="BC250" t="n">
         <v>1493</v>
+      </c>
+      <c r="BD250" t="n">
+        <v>1389.1</v>
+      </c>
+      <c r="BE250" t="n">
+        <v>1125.7</v>
       </c>
     </row>
     <row r="251">
@@ -39644,7 +41808,16 @@
         <v>10</v>
       </c>
       <c r="BB251" t="n">
+        <v>2023</v>
+      </c>
+      <c r="BC251" t="n">
         <v>1493</v>
+      </c>
+      <c r="BD251" t="n">
+        <v>1389.1</v>
+      </c>
+      <c r="BE251" t="n">
+        <v>1125.7</v>
       </c>
     </row>
     <row r="252">
@@ -39808,7 +41981,16 @@
         <v>11</v>
       </c>
       <c r="BB252" t="n">
+        <v>2023</v>
+      </c>
+      <c r="BC252" t="n">
         <v>1493</v>
+      </c>
+      <c r="BD252" t="n">
+        <v>1389.1</v>
+      </c>
+      <c r="BE252" t="n">
+        <v>1125.7</v>
       </c>
     </row>
     <row r="253">
@@ -39972,7 +42154,16 @@
         <v>12</v>
       </c>
       <c r="BB253" t="n">
+        <v>2023</v>
+      </c>
+      <c r="BC253" t="n">
         <v>1493</v>
+      </c>
+      <c r="BD253" t="n">
+        <v>1389.1</v>
+      </c>
+      <c r="BE253" t="n">
+        <v>1125.7</v>
       </c>
     </row>
     <row r="254">
@@ -40136,7 +42327,16 @@
         <v>1</v>
       </c>
       <c r="BB254" t="n">
-        <v>663.4</v>
+        <v>2023</v>
+      </c>
+      <c r="BC254" t="n">
+        <v>1493</v>
+      </c>
+      <c r="BD254" t="n">
+        <v>1389.1</v>
+      </c>
+      <c r="BE254" t="n">
+        <v>1125.7</v>
       </c>
     </row>
     <row r="255">
@@ -40206,69 +42406,27 @@
       <c r="V255" t="n">
         <v>96.19555600000001</v>
       </c>
-      <c r="W255" t="n">
-        <v>22.52</v>
-      </c>
-      <c r="X255" t="n">
-        <v>1.9375</v>
-      </c>
-      <c r="Y255" t="n">
-        <v>0.08583333333333333</v>
-      </c>
-      <c r="Z255" t="n">
-        <v>192.08</v>
-      </c>
-      <c r="AA255" t="n">
-        <v>11.12666666666667</v>
-      </c>
-      <c r="AB255" t="n">
-        <v>0.05833333333333333</v>
-      </c>
-      <c r="AC255" t="n">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AD255" t="n">
-        <v>0.06083333333333333</v>
-      </c>
-      <c r="AE255" t="n">
-        <v>0.0675</v>
-      </c>
-      <c r="AF255" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="AG255" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="AH255" t="n">
-        <v>0.06666666666666667</v>
-      </c>
-      <c r="AI255" t="n">
-        <v>114.43</v>
-      </c>
-      <c r="AJ255" t="n">
-        <v>15.30166666666667</v>
-      </c>
-      <c r="AK255" t="n">
-        <v>0.1333333333333333</v>
-      </c>
-      <c r="AL255" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AM255" t="n">
-        <v>0.6508333333333333</v>
-      </c>
-      <c r="AN255" t="n">
-        <v>0.2958333333333333</v>
-      </c>
-      <c r="AO255" t="n">
-        <v>746.96</v>
-      </c>
-      <c r="AP255" t="n">
-        <v>73.97833333333334</v>
-      </c>
-      <c r="AQ255" t="n">
-        <v>0.09916666666666667</v>
-      </c>
+      <c r="W255" t="inlineStr"/>
+      <c r="X255" t="inlineStr"/>
+      <c r="Y255" t="inlineStr"/>
+      <c r="Z255" t="inlineStr"/>
+      <c r="AA255" t="inlineStr"/>
+      <c r="AB255" t="inlineStr"/>
+      <c r="AC255" t="inlineStr"/>
+      <c r="AD255" t="inlineStr"/>
+      <c r="AE255" t="inlineStr"/>
+      <c r="AF255" t="inlineStr"/>
+      <c r="AG255" t="inlineStr"/>
+      <c r="AH255" t="inlineStr"/>
+      <c r="AI255" t="inlineStr"/>
+      <c r="AJ255" t="inlineStr"/>
+      <c r="AK255" t="inlineStr"/>
+      <c r="AL255" t="inlineStr"/>
+      <c r="AM255" t="inlineStr"/>
+      <c r="AN255" t="inlineStr"/>
+      <c r="AO255" t="inlineStr"/>
+      <c r="AP255" t="inlineStr"/>
+      <c r="AQ255" t="inlineStr"/>
       <c r="AR255" t="n">
         <v>2023</v>
       </c>
@@ -40300,7 +42458,16 @@
         <v>2</v>
       </c>
       <c r="BB255" t="n">
-        <v>663.4</v>
+        <v>2023</v>
+      </c>
+      <c r="BC255" t="n">
+        <v>1493</v>
+      </c>
+      <c r="BD255" t="n">
+        <v>1389.1</v>
+      </c>
+      <c r="BE255" t="n">
+        <v>1125.7</v>
       </c>
     </row>
     <row r="256">
@@ -40370,69 +42537,27 @@
       <c r="V256" t="n">
         <v>111.10677</v>
       </c>
-      <c r="W256" t="n">
-        <v>22.52</v>
-      </c>
-      <c r="X256" t="n">
-        <v>1.9375</v>
-      </c>
-      <c r="Y256" t="n">
-        <v>0.08583333333333333</v>
-      </c>
-      <c r="Z256" t="n">
-        <v>192.08</v>
-      </c>
-      <c r="AA256" t="n">
-        <v>11.12666666666667</v>
-      </c>
-      <c r="AB256" t="n">
-        <v>0.05833333333333333</v>
-      </c>
-      <c r="AC256" t="n">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AD256" t="n">
-        <v>0.06083333333333333</v>
-      </c>
-      <c r="AE256" t="n">
-        <v>0.0675</v>
-      </c>
-      <c r="AF256" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="AG256" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="AH256" t="n">
-        <v>0.06666666666666667</v>
-      </c>
-      <c r="AI256" t="n">
-        <v>114.43</v>
-      </c>
-      <c r="AJ256" t="n">
-        <v>15.30166666666667</v>
-      </c>
-      <c r="AK256" t="n">
-        <v>0.1333333333333333</v>
-      </c>
-      <c r="AL256" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AM256" t="n">
-        <v>0.6508333333333333</v>
-      </c>
-      <c r="AN256" t="n">
-        <v>0.2958333333333333</v>
-      </c>
-      <c r="AO256" t="n">
-        <v>746.96</v>
-      </c>
-      <c r="AP256" t="n">
-        <v>73.97833333333334</v>
-      </c>
-      <c r="AQ256" t="n">
-        <v>0.09916666666666667</v>
-      </c>
+      <c r="W256" t="inlineStr"/>
+      <c r="X256" t="inlineStr"/>
+      <c r="Y256" t="inlineStr"/>
+      <c r="Z256" t="inlineStr"/>
+      <c r="AA256" t="inlineStr"/>
+      <c r="AB256" t="inlineStr"/>
+      <c r="AC256" t="inlineStr"/>
+      <c r="AD256" t="inlineStr"/>
+      <c r="AE256" t="inlineStr"/>
+      <c r="AF256" t="inlineStr"/>
+      <c r="AG256" t="inlineStr"/>
+      <c r="AH256" t="inlineStr"/>
+      <c r="AI256" t="inlineStr"/>
+      <c r="AJ256" t="inlineStr"/>
+      <c r="AK256" t="inlineStr"/>
+      <c r="AL256" t="inlineStr"/>
+      <c r="AM256" t="inlineStr"/>
+      <c r="AN256" t="inlineStr"/>
+      <c r="AO256" t="inlineStr"/>
+      <c r="AP256" t="inlineStr"/>
+      <c r="AQ256" t="inlineStr"/>
       <c r="AR256" t="n">
         <v>2023</v>
       </c>
@@ -40464,7 +42589,16 @@
         <v>3</v>
       </c>
       <c r="BB256" t="n">
+        <v>2023</v>
+      </c>
+      <c r="BC256" t="n">
         <v>663.4</v>
+      </c>
+      <c r="BD256" t="n">
+        <v>1389.1</v>
+      </c>
+      <c r="BE256" t="n">
+        <v>1125.7</v>
       </c>
     </row>
     <row r="257">
@@ -40534,69 +42668,27 @@
       <c r="V257" t="n">
         <v>84.16021600000001</v>
       </c>
-      <c r="W257" t="n">
-        <v>22.52</v>
-      </c>
-      <c r="X257" t="n">
-        <v>1.9375</v>
-      </c>
-      <c r="Y257" t="n">
-        <v>0.08583333333333333</v>
-      </c>
-      <c r="Z257" t="n">
-        <v>192.08</v>
-      </c>
-      <c r="AA257" t="n">
-        <v>11.12666666666667</v>
-      </c>
-      <c r="AB257" t="n">
-        <v>0.05833333333333333</v>
-      </c>
-      <c r="AC257" t="n">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AD257" t="n">
-        <v>0.06083333333333333</v>
-      </c>
-      <c r="AE257" t="n">
-        <v>0.0675</v>
-      </c>
-      <c r="AF257" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="AG257" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="AH257" t="n">
-        <v>0.06666666666666667</v>
-      </c>
-      <c r="AI257" t="n">
-        <v>114.43</v>
-      </c>
-      <c r="AJ257" t="n">
-        <v>15.30166666666667</v>
-      </c>
-      <c r="AK257" t="n">
-        <v>0.1333333333333333</v>
-      </c>
-      <c r="AL257" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AM257" t="n">
-        <v>0.6508333333333333</v>
-      </c>
-      <c r="AN257" t="n">
-        <v>0.2958333333333333</v>
-      </c>
-      <c r="AO257" t="n">
-        <v>746.96</v>
-      </c>
-      <c r="AP257" t="n">
-        <v>73.97833333333334</v>
-      </c>
-      <c r="AQ257" t="n">
-        <v>0.09916666666666667</v>
-      </c>
+      <c r="W257" t="inlineStr"/>
+      <c r="X257" t="inlineStr"/>
+      <c r="Y257" t="inlineStr"/>
+      <c r="Z257" t="inlineStr"/>
+      <c r="AA257" t="inlineStr"/>
+      <c r="AB257" t="inlineStr"/>
+      <c r="AC257" t="inlineStr"/>
+      <c r="AD257" t="inlineStr"/>
+      <c r="AE257" t="inlineStr"/>
+      <c r="AF257" t="inlineStr"/>
+      <c r="AG257" t="inlineStr"/>
+      <c r="AH257" t="inlineStr"/>
+      <c r="AI257" t="inlineStr"/>
+      <c r="AJ257" t="inlineStr"/>
+      <c r="AK257" t="inlineStr"/>
+      <c r="AL257" t="inlineStr"/>
+      <c r="AM257" t="inlineStr"/>
+      <c r="AN257" t="inlineStr"/>
+      <c r="AO257" t="inlineStr"/>
+      <c r="AP257" t="inlineStr"/>
+      <c r="AQ257" t="inlineStr"/>
       <c r="AR257" t="n">
         <v>2023</v>
       </c>
@@ -40628,7 +42720,14 @@
         <v>4</v>
       </c>
       <c r="BB257" t="n">
-        <v>663.4</v>
+        <v>2023</v>
+      </c>
+      <c r="BC257" t="inlineStr"/>
+      <c r="BD257" t="n">
+        <v>1389.1</v>
+      </c>
+      <c r="BE257" t="n">
+        <v>1125.7</v>
       </c>
     </row>
     <row r="258">
@@ -40698,69 +42797,27 @@
       <c r="V258" t="n">
         <v>106.839948</v>
       </c>
-      <c r="W258" t="n">
-        <v>22.52</v>
-      </c>
-      <c r="X258" t="n">
-        <v>1.9375</v>
-      </c>
-      <c r="Y258" t="n">
-        <v>0.08583333333333333</v>
-      </c>
-      <c r="Z258" t="n">
-        <v>192.08</v>
-      </c>
-      <c r="AA258" t="n">
-        <v>11.12666666666667</v>
-      </c>
-      <c r="AB258" t="n">
-        <v>0.05833333333333333</v>
-      </c>
-      <c r="AC258" t="n">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AD258" t="n">
-        <v>0.06083333333333333</v>
-      </c>
-      <c r="AE258" t="n">
-        <v>0.0675</v>
-      </c>
-      <c r="AF258" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="AG258" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="AH258" t="n">
-        <v>0.06666666666666667</v>
-      </c>
-      <c r="AI258" t="n">
-        <v>114.43</v>
-      </c>
-      <c r="AJ258" t="n">
-        <v>15.30166666666667</v>
-      </c>
-      <c r="AK258" t="n">
-        <v>0.1333333333333333</v>
-      </c>
-      <c r="AL258" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AM258" t="n">
-        <v>0.6508333333333333</v>
-      </c>
-      <c r="AN258" t="n">
-        <v>0.2958333333333333</v>
-      </c>
-      <c r="AO258" t="n">
-        <v>746.96</v>
-      </c>
-      <c r="AP258" t="n">
-        <v>73.97833333333334</v>
-      </c>
-      <c r="AQ258" t="n">
-        <v>0.09916666666666667</v>
-      </c>
+      <c r="W258" t="inlineStr"/>
+      <c r="X258" t="inlineStr"/>
+      <c r="Y258" t="inlineStr"/>
+      <c r="Z258" t="inlineStr"/>
+      <c r="AA258" t="inlineStr"/>
+      <c r="AB258" t="inlineStr"/>
+      <c r="AC258" t="inlineStr"/>
+      <c r="AD258" t="inlineStr"/>
+      <c r="AE258" t="inlineStr"/>
+      <c r="AF258" t="inlineStr"/>
+      <c r="AG258" t="inlineStr"/>
+      <c r="AH258" t="inlineStr"/>
+      <c r="AI258" t="inlineStr"/>
+      <c r="AJ258" t="inlineStr"/>
+      <c r="AK258" t="inlineStr"/>
+      <c r="AL258" t="inlineStr"/>
+      <c r="AM258" t="inlineStr"/>
+      <c r="AN258" t="inlineStr"/>
+      <c r="AO258" t="inlineStr"/>
+      <c r="AP258" t="inlineStr"/>
+      <c r="AQ258" t="inlineStr"/>
       <c r="AR258" t="n">
         <v>2023</v>
       </c>
@@ -40792,7 +42849,14 @@
         <v>5</v>
       </c>
       <c r="BB258" t="n">
-        <v>663.4</v>
+        <v>2023</v>
+      </c>
+      <c r="BC258" t="inlineStr"/>
+      <c r="BD258" t="n">
+        <v>1493</v>
+      </c>
+      <c r="BE258" t="n">
+        <v>1389.1</v>
       </c>
     </row>
     <row r="259">
@@ -40862,69 +42926,27 @@
       <c r="V259" t="n">
         <v>106.67322</v>
       </c>
-      <c r="W259" t="n">
-        <v>22.52</v>
-      </c>
-      <c r="X259" t="n">
-        <v>1.9375</v>
-      </c>
-      <c r="Y259" t="n">
-        <v>0.08583333333333333</v>
-      </c>
-      <c r="Z259" t="n">
-        <v>192.08</v>
-      </c>
-      <c r="AA259" t="n">
-        <v>11.12666666666667</v>
-      </c>
-      <c r="AB259" t="n">
-        <v>0.05833333333333333</v>
-      </c>
-      <c r="AC259" t="n">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AD259" t="n">
-        <v>0.06083333333333333</v>
-      </c>
-      <c r="AE259" t="n">
-        <v>0.0675</v>
-      </c>
-      <c r="AF259" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="AG259" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="AH259" t="n">
-        <v>0.06666666666666667</v>
-      </c>
-      <c r="AI259" t="n">
-        <v>114.43</v>
-      </c>
-      <c r="AJ259" t="n">
-        <v>15.30166666666667</v>
-      </c>
-      <c r="AK259" t="n">
-        <v>0.1333333333333333</v>
-      </c>
-      <c r="AL259" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AM259" t="n">
-        <v>0.6508333333333333</v>
-      </c>
-      <c r="AN259" t="n">
-        <v>0.2958333333333333</v>
-      </c>
-      <c r="AO259" t="n">
-        <v>746.96</v>
-      </c>
-      <c r="AP259" t="n">
-        <v>73.97833333333334</v>
-      </c>
-      <c r="AQ259" t="n">
-        <v>0.09916666666666667</v>
-      </c>
+      <c r="W259" t="inlineStr"/>
+      <c r="X259" t="inlineStr"/>
+      <c r="Y259" t="inlineStr"/>
+      <c r="Z259" t="inlineStr"/>
+      <c r="AA259" t="inlineStr"/>
+      <c r="AB259" t="inlineStr"/>
+      <c r="AC259" t="inlineStr"/>
+      <c r="AD259" t="inlineStr"/>
+      <c r="AE259" t="inlineStr"/>
+      <c r="AF259" t="inlineStr"/>
+      <c r="AG259" t="inlineStr"/>
+      <c r="AH259" t="inlineStr"/>
+      <c r="AI259" t="inlineStr"/>
+      <c r="AJ259" t="inlineStr"/>
+      <c r="AK259" t="inlineStr"/>
+      <c r="AL259" t="inlineStr"/>
+      <c r="AM259" t="inlineStr"/>
+      <c r="AN259" t="inlineStr"/>
+      <c r="AO259" t="inlineStr"/>
+      <c r="AP259" t="inlineStr"/>
+      <c r="AQ259" t="inlineStr"/>
       <c r="AR259" t="n">
         <v>2023</v>
       </c>
@@ -40956,7 +42978,337 @@
         <v>6</v>
       </c>
       <c r="BB259" t="n">
-        <v>663.4</v>
+        <v>2023</v>
+      </c>
+      <c r="BC259" t="inlineStr"/>
+      <c r="BD259" t="n">
+        <v>1493</v>
+      </c>
+      <c r="BE259" t="n">
+        <v>1389.1</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="2" t="n">
+        <v>45108</v>
+      </c>
+      <c r="B260" t="n">
+        <v>7.470149999999999</v>
+      </c>
+      <c r="C260" t="n">
+        <v>6.96135</v>
+      </c>
+      <c r="D260" t="n">
+        <v>6.5082</v>
+      </c>
+      <c r="E260" t="n">
+        <v>7.411</v>
+      </c>
+      <c r="F260" t="n">
+        <v>6.5744</v>
+      </c>
+      <c r="G260" t="n">
+        <v>6.4544</v>
+      </c>
+      <c r="H260" t="n">
+        <v>6.8538</v>
+      </c>
+      <c r="I260" t="n">
+        <v>1253.44126984127</v>
+      </c>
+      <c r="J260" t="n">
+        <v>456.4</v>
+      </c>
+      <c r="K260" t="n">
+        <v>982.8571428571429</v>
+      </c>
+      <c r="L260" t="n">
+        <v>1047.38</v>
+      </c>
+      <c r="M260" t="n">
+        <v>1.105985714285714</v>
+      </c>
+      <c r="N260" t="n">
+        <v>555.11419625</v>
+      </c>
+      <c r="O260" t="n">
+        <v>36.4</v>
+      </c>
+      <c r="P260" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="Q260" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="R260" t="n">
+        <v>0</v>
+      </c>
+      <c r="S260" t="n">
+        <v>0</v>
+      </c>
+      <c r="T260" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="U260" t="n">
+        <v>92</v>
+      </c>
+      <c r="V260" t="n">
+        <v>110.8</v>
+      </c>
+      <c r="W260" t="inlineStr"/>
+      <c r="X260" t="inlineStr"/>
+      <c r="Y260" t="inlineStr"/>
+      <c r="Z260" t="inlineStr"/>
+      <c r="AA260" t="inlineStr"/>
+      <c r="AB260" t="inlineStr"/>
+      <c r="AC260" t="inlineStr"/>
+      <c r="AD260" t="inlineStr"/>
+      <c r="AE260" t="inlineStr"/>
+      <c r="AF260" t="inlineStr"/>
+      <c r="AG260" t="inlineStr"/>
+      <c r="AH260" t="inlineStr"/>
+      <c r="AI260" t="inlineStr"/>
+      <c r="AJ260" t="inlineStr"/>
+      <c r="AK260" t="inlineStr"/>
+      <c r="AL260" t="inlineStr"/>
+      <c r="AM260" t="inlineStr"/>
+      <c r="AN260" t="inlineStr"/>
+      <c r="AO260" t="inlineStr"/>
+      <c r="AP260" t="inlineStr"/>
+      <c r="AQ260" t="inlineStr"/>
+      <c r="AR260" t="n">
+        <v>2023</v>
+      </c>
+      <c r="AS260" t="inlineStr"/>
+      <c r="AT260" t="inlineStr"/>
+      <c r="AU260" t="inlineStr"/>
+      <c r="AV260" t="inlineStr"/>
+      <c r="AW260" t="inlineStr"/>
+      <c r="AX260" t="inlineStr"/>
+      <c r="AY260" t="n">
+        <v>6.01900655021834</v>
+      </c>
+      <c r="AZ260" t="n">
+        <v>5.315676855895196</v>
+      </c>
+      <c r="BA260" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB260" t="n">
+        <v>2023</v>
+      </c>
+      <c r="BC260" t="inlineStr"/>
+      <c r="BD260" t="n">
+        <v>1493</v>
+      </c>
+      <c r="BE260" t="n">
+        <v>1389.1</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="2" t="n">
+        <v>45139</v>
+      </c>
+      <c r="B261" t="n">
+        <v>8.18055</v>
+      </c>
+      <c r="C261" t="n">
+        <v>7.47861</v>
+      </c>
+      <c r="D261" t="n">
+        <v>7.02637</v>
+      </c>
+      <c r="E261" t="inlineStr"/>
+      <c r="F261" t="inlineStr"/>
+      <c r="G261" t="inlineStr"/>
+      <c r="H261" t="inlineStr"/>
+      <c r="I261" t="n">
+        <v>1182.03768115942</v>
+      </c>
+      <c r="J261" t="n">
+        <v>383.2</v>
+      </c>
+      <c r="K261" t="n">
+        <v>955.1086956521739</v>
+      </c>
+      <c r="L261" t="n">
+        <v>1099.09</v>
+      </c>
+      <c r="M261" t="n">
+        <v>1.091</v>
+      </c>
+      <c r="N261" t="n">
+        <v>510.150329576087</v>
+      </c>
+      <c r="O261" t="n">
+        <v>32</v>
+      </c>
+      <c r="P261" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q261" t="n">
+        <v>50.2</v>
+      </c>
+      <c r="R261" t="n">
+        <v>0</v>
+      </c>
+      <c r="S261" t="n">
+        <v>0</v>
+      </c>
+      <c r="T261" t="n">
+        <v>52</v>
+      </c>
+      <c r="U261" t="n">
+        <v>82.2</v>
+      </c>
+      <c r="V261" t="n">
+        <v>102.2</v>
+      </c>
+      <c r="W261" t="inlineStr"/>
+      <c r="X261" t="inlineStr"/>
+      <c r="Y261" t="inlineStr"/>
+      <c r="Z261" t="inlineStr"/>
+      <c r="AA261" t="inlineStr"/>
+      <c r="AB261" t="inlineStr"/>
+      <c r="AC261" t="inlineStr"/>
+      <c r="AD261" t="inlineStr"/>
+      <c r="AE261" t="inlineStr"/>
+      <c r="AF261" t="inlineStr"/>
+      <c r="AG261" t="inlineStr"/>
+      <c r="AH261" t="inlineStr"/>
+      <c r="AI261" t="inlineStr"/>
+      <c r="AJ261" t="inlineStr"/>
+      <c r="AK261" t="inlineStr"/>
+      <c r="AL261" t="inlineStr"/>
+      <c r="AM261" t="inlineStr"/>
+      <c r="AN261" t="inlineStr"/>
+      <c r="AO261" t="inlineStr"/>
+      <c r="AP261" t="inlineStr"/>
+      <c r="AQ261" t="inlineStr"/>
+      <c r="AR261" t="n">
+        <v>2023</v>
+      </c>
+      <c r="AS261" t="inlineStr"/>
+      <c r="AT261" t="inlineStr"/>
+      <c r="AU261" t="inlineStr"/>
+      <c r="AV261" t="inlineStr"/>
+      <c r="AW261" t="inlineStr"/>
+      <c r="AX261" t="inlineStr"/>
+      <c r="AY261" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AZ261" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="BA261" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB261" t="n">
+        <v>2023</v>
+      </c>
+      <c r="BC261" t="inlineStr"/>
+      <c r="BD261" t="n">
+        <v>1493</v>
+      </c>
+      <c r="BE261" t="n">
+        <v>1389.1</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="2" t="n">
+        <v>45170</v>
+      </c>
+      <c r="B262" t="n">
+        <v>8.403930000000001</v>
+      </c>
+      <c r="C262" t="n">
+        <v>7.58649</v>
+      </c>
+      <c r="D262" t="n">
+        <v>7.26682</v>
+      </c>
+      <c r="E262" t="inlineStr"/>
+      <c r="F262" t="inlineStr"/>
+      <c r="G262" t="inlineStr"/>
+      <c r="H262" t="inlineStr"/>
+      <c r="I262" t="n">
+        <v>1084.46686507936</v>
+      </c>
+      <c r="J262" t="n">
+        <v>321</v>
+      </c>
+      <c r="K262" t="n">
+        <v>895.5952380952381</v>
+      </c>
+      <c r="L262" t="n">
+        <v>1071.67</v>
+      </c>
+      <c r="M262" t="n">
+        <v>1.06772380952381</v>
+      </c>
+      <c r="N262" t="n">
+        <v>487.151474</v>
+      </c>
+      <c r="O262" t="inlineStr"/>
+      <c r="P262" t="inlineStr"/>
+      <c r="Q262" t="inlineStr"/>
+      <c r="R262" t="n">
+        <v>0</v>
+      </c>
+      <c r="S262" t="n">
+        <v>0</v>
+      </c>
+      <c r="T262" t="inlineStr"/>
+      <c r="U262" t="inlineStr"/>
+      <c r="V262" t="inlineStr"/>
+      <c r="W262" t="inlineStr"/>
+      <c r="X262" t="inlineStr"/>
+      <c r="Y262" t="inlineStr"/>
+      <c r="Z262" t="inlineStr"/>
+      <c r="AA262" t="inlineStr"/>
+      <c r="AB262" t="inlineStr"/>
+      <c r="AC262" t="inlineStr"/>
+      <c r="AD262" t="inlineStr"/>
+      <c r="AE262" t="inlineStr"/>
+      <c r="AF262" t="inlineStr"/>
+      <c r="AG262" t="inlineStr"/>
+      <c r="AH262" t="inlineStr"/>
+      <c r="AI262" t="inlineStr"/>
+      <c r="AJ262" t="inlineStr"/>
+      <c r="AK262" t="inlineStr"/>
+      <c r="AL262" t="inlineStr"/>
+      <c r="AM262" t="inlineStr"/>
+      <c r="AN262" t="inlineStr"/>
+      <c r="AO262" t="inlineStr"/>
+      <c r="AP262" t="inlineStr"/>
+      <c r="AQ262" t="inlineStr"/>
+      <c r="AR262" t="n">
+        <v>2023</v>
+      </c>
+      <c r="AS262" t="inlineStr"/>
+      <c r="AT262" t="inlineStr"/>
+      <c r="AU262" t="inlineStr"/>
+      <c r="AV262" t="inlineStr"/>
+      <c r="AW262" t="inlineStr"/>
+      <c r="AX262" t="inlineStr"/>
+      <c r="AY262" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AZ262" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="BA262" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB262" t="n">
+        <v>2023</v>
+      </c>
+      <c r="BC262" t="inlineStr"/>
+      <c r="BD262" t="n">
+        <v>1493</v>
+      </c>
+      <c r="BE262" t="n">
+        <v>1389.1</v>
       </c>
     </row>
   </sheetData>

--- a/Output/Excel/df_month.xlsx
+++ b/Output/Excel/df_month.xlsx
@@ -542,7 +542,7 @@
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>EXTERNAL_DEMAND</t>
+          <t>TOTAL_CONS</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">

--- a/Output/Excel/df_month.xlsx
+++ b/Output/Excel/df_month.xlsx
@@ -1174,7 +1174,7 @@
         <v>2002</v>
       </c>
       <c r="BC4" t="n">
-        <v>931.9</v>
+        <v>830.3</v>
       </c>
       <c r="BD4" t="inlineStr"/>
       <c r="BE4" t="inlineStr"/>
@@ -1327,7 +1327,7 @@
         <v>2002</v>
       </c>
       <c r="BC5" t="n">
-        <v>931.9</v>
+        <v>830.3</v>
       </c>
       <c r="BD5" t="inlineStr"/>
       <c r="BE5" t="inlineStr"/>
@@ -1480,7 +1480,7 @@
         <v>2002</v>
       </c>
       <c r="BC6" t="n">
-        <v>931.9</v>
+        <v>830.3</v>
       </c>
       <c r="BD6" t="inlineStr"/>
       <c r="BE6" t="inlineStr"/>
@@ -1633,7 +1633,7 @@
         <v>2002</v>
       </c>
       <c r="BC7" t="n">
-        <v>931.9</v>
+        <v>830.3</v>
       </c>
       <c r="BD7" t="inlineStr"/>
       <c r="BE7" t="inlineStr"/>
@@ -1786,7 +1786,7 @@
         <v>2002</v>
       </c>
       <c r="BC8" t="n">
-        <v>931.9</v>
+        <v>830.3</v>
       </c>
       <c r="BD8" t="inlineStr"/>
       <c r="BE8" t="inlineStr"/>
@@ -1939,7 +1939,7 @@
         <v>2002</v>
       </c>
       <c r="BC9" t="n">
-        <v>931.9</v>
+        <v>830.3</v>
       </c>
       <c r="BD9" t="inlineStr"/>
       <c r="BE9" t="inlineStr"/>
@@ -2092,7 +2092,7 @@
         <v>2002</v>
       </c>
       <c r="BC10" t="n">
-        <v>931.9</v>
+        <v>830.3</v>
       </c>
       <c r="BD10" t="inlineStr"/>
       <c r="BE10" t="inlineStr"/>
@@ -2245,7 +2245,7 @@
         <v>2003</v>
       </c>
       <c r="BC11" t="n">
-        <v>931.9</v>
+        <v>830.3</v>
       </c>
       <c r="BD11" t="inlineStr"/>
       <c r="BE11" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>2003</v>
       </c>
       <c r="BC12" t="n">
-        <v>931.9</v>
+        <v>830.3</v>
       </c>
       <c r="BD12" t="inlineStr"/>
       <c r="BE12" t="inlineStr"/>
@@ -2551,7 +2551,7 @@
         <v>2003</v>
       </c>
       <c r="BC13" t="n">
-        <v>931.9</v>
+        <v>830.3</v>
       </c>
       <c r="BD13" t="inlineStr"/>
       <c r="BE13" t="inlineStr"/>
@@ -2704,7 +2704,7 @@
         <v>2003</v>
       </c>
       <c r="BC14" t="n">
-        <v>931.9</v>
+        <v>830.3</v>
       </c>
       <c r="BD14" t="inlineStr"/>
       <c r="BE14" t="inlineStr"/>
@@ -2857,7 +2857,7 @@
         <v>2003</v>
       </c>
       <c r="BC15" t="n">
-        <v>931.9</v>
+        <v>830.3</v>
       </c>
       <c r="BD15" t="inlineStr"/>
       <c r="BE15" t="inlineStr"/>
@@ -3010,7 +3010,7 @@
         <v>2003</v>
       </c>
       <c r="BC16" t="n">
-        <v>861.1</v>
+        <v>804.5</v>
       </c>
       <c r="BD16" t="inlineStr"/>
       <c r="BE16" t="inlineStr"/>
@@ -3163,7 +3163,7 @@
         <v>2003</v>
       </c>
       <c r="BC17" t="n">
-        <v>861.1</v>
+        <v>804.5</v>
       </c>
       <c r="BD17" t="inlineStr"/>
       <c r="BE17" t="inlineStr"/>
@@ -3316,10 +3316,10 @@
         <v>2003</v>
       </c>
       <c r="BC18" t="n">
-        <v>861.1</v>
+        <v>804.5</v>
       </c>
       <c r="BD18" t="n">
-        <v>931.9</v>
+        <v>830.3</v>
       </c>
       <c r="BE18" t="inlineStr"/>
     </row>
@@ -3471,10 +3471,10 @@
         <v>2003</v>
       </c>
       <c r="BC19" t="n">
-        <v>861.1</v>
+        <v>804.5</v>
       </c>
       <c r="BD19" t="n">
-        <v>931.9</v>
+        <v>830.3</v>
       </c>
       <c r="BE19" t="inlineStr"/>
     </row>
@@ -3626,10 +3626,10 @@
         <v>2003</v>
       </c>
       <c r="BC20" t="n">
-        <v>861.1</v>
+        <v>804.5</v>
       </c>
       <c r="BD20" t="n">
-        <v>931.9</v>
+        <v>830.3</v>
       </c>
       <c r="BE20" t="inlineStr"/>
     </row>
@@ -3781,10 +3781,10 @@
         <v>2003</v>
       </c>
       <c r="BC21" t="n">
-        <v>861.1</v>
+        <v>804.5</v>
       </c>
       <c r="BD21" t="n">
-        <v>931.9</v>
+        <v>830.3</v>
       </c>
       <c r="BE21" t="inlineStr"/>
     </row>
@@ -3936,10 +3936,10 @@
         <v>2003</v>
       </c>
       <c r="BC22" t="n">
-        <v>861.1</v>
+        <v>804.5</v>
       </c>
       <c r="BD22" t="n">
-        <v>931.9</v>
+        <v>830.3</v>
       </c>
       <c r="BE22" t="inlineStr"/>
     </row>
@@ -4091,10 +4091,10 @@
         <v>2004</v>
       </c>
       <c r="BC23" t="n">
-        <v>861.1</v>
+        <v>804.5</v>
       </c>
       <c r="BD23" t="n">
-        <v>931.9</v>
+        <v>830.3</v>
       </c>
       <c r="BE23" t="inlineStr"/>
     </row>
@@ -4246,10 +4246,10 @@
         <v>2004</v>
       </c>
       <c r="BC24" t="n">
-        <v>861.1</v>
+        <v>804.5</v>
       </c>
       <c r="BD24" t="n">
-        <v>931.9</v>
+        <v>830.3</v>
       </c>
       <c r="BE24" t="inlineStr"/>
     </row>
@@ -4401,10 +4401,10 @@
         <v>2004</v>
       </c>
       <c r="BC25" t="n">
-        <v>861.1</v>
+        <v>804.5</v>
       </c>
       <c r="BD25" t="n">
-        <v>931.9</v>
+        <v>830.3</v>
       </c>
       <c r="BE25" t="inlineStr"/>
     </row>
@@ -4556,10 +4556,10 @@
         <v>2004</v>
       </c>
       <c r="BC26" t="n">
-        <v>861.1</v>
+        <v>804.5</v>
       </c>
       <c r="BD26" t="n">
-        <v>931.9</v>
+        <v>830.3</v>
       </c>
       <c r="BE26" t="inlineStr"/>
     </row>
@@ -4711,10 +4711,10 @@
         <v>2004</v>
       </c>
       <c r="BC27" t="n">
-        <v>861.1</v>
+        <v>804.5</v>
       </c>
       <c r="BD27" t="n">
-        <v>931.9</v>
+        <v>830.3</v>
       </c>
       <c r="BE27" t="inlineStr"/>
     </row>
@@ -4866,10 +4866,10 @@
         <v>2004</v>
       </c>
       <c r="BC28" t="n">
-        <v>1416.6</v>
+        <v>1326.6</v>
       </c>
       <c r="BD28" t="n">
-        <v>931.9</v>
+        <v>830.3</v>
       </c>
       <c r="BE28" t="inlineStr"/>
     </row>
@@ -5021,10 +5021,10 @@
         <v>2004</v>
       </c>
       <c r="BC29" t="n">
-        <v>1416.6</v>
+        <v>1326.6</v>
       </c>
       <c r="BD29" t="n">
-        <v>931.9</v>
+        <v>830.3</v>
       </c>
       <c r="BE29" t="inlineStr"/>
     </row>
@@ -5176,13 +5176,13 @@
         <v>2004</v>
       </c>
       <c r="BC30" t="n">
-        <v>1416.6</v>
+        <v>1326.6</v>
       </c>
       <c r="BD30" t="n">
-        <v>861.1</v>
+        <v>804.5</v>
       </c>
       <c r="BE30" t="n">
-        <v>931.9</v>
+        <v>830.3</v>
       </c>
     </row>
     <row r="31">
@@ -5333,13 +5333,13 @@
         <v>2004</v>
       </c>
       <c r="BC31" t="n">
-        <v>1416.6</v>
+        <v>1326.6</v>
       </c>
       <c r="BD31" t="n">
-        <v>861.1</v>
+        <v>804.5</v>
       </c>
       <c r="BE31" t="n">
-        <v>931.9</v>
+        <v>830.3</v>
       </c>
     </row>
     <row r="32">
@@ -5490,13 +5490,13 @@
         <v>2004</v>
       </c>
       <c r="BC32" t="n">
-        <v>1416.6</v>
+        <v>1326.6</v>
       </c>
       <c r="BD32" t="n">
-        <v>861.1</v>
+        <v>804.5</v>
       </c>
       <c r="BE32" t="n">
-        <v>931.9</v>
+        <v>830.3</v>
       </c>
     </row>
     <row r="33">
@@ -5647,13 +5647,13 @@
         <v>2004</v>
       </c>
       <c r="BC33" t="n">
-        <v>1416.6</v>
+        <v>1326.6</v>
       </c>
       <c r="BD33" t="n">
-        <v>861.1</v>
+        <v>804.5</v>
       </c>
       <c r="BE33" t="n">
-        <v>931.9</v>
+        <v>830.3</v>
       </c>
     </row>
     <row r="34">
@@ -5804,13 +5804,13 @@
         <v>2004</v>
       </c>
       <c r="BC34" t="n">
-        <v>1416.6</v>
+        <v>1326.6</v>
       </c>
       <c r="BD34" t="n">
-        <v>861.1</v>
+        <v>804.5</v>
       </c>
       <c r="BE34" t="n">
-        <v>931.9</v>
+        <v>830.3</v>
       </c>
     </row>
     <row r="35">
@@ -5961,13 +5961,13 @@
         <v>2005</v>
       </c>
       <c r="BC35" t="n">
-        <v>1416.6</v>
+        <v>1326.6</v>
       </c>
       <c r="BD35" t="n">
-        <v>861.1</v>
+        <v>804.5</v>
       </c>
       <c r="BE35" t="n">
-        <v>931.9</v>
+        <v>830.3</v>
       </c>
     </row>
     <row r="36">
@@ -6118,13 +6118,13 @@
         <v>2005</v>
       </c>
       <c r="BC36" t="n">
-        <v>1416.6</v>
+        <v>1326.6</v>
       </c>
       <c r="BD36" t="n">
-        <v>861.1</v>
+        <v>804.5</v>
       </c>
       <c r="BE36" t="n">
-        <v>931.9</v>
+        <v>830.3</v>
       </c>
     </row>
     <row r="37">
@@ -6275,13 +6275,13 @@
         <v>2005</v>
       </c>
       <c r="BC37" t="n">
-        <v>1416.6</v>
+        <v>1326.6</v>
       </c>
       <c r="BD37" t="n">
-        <v>861.1</v>
+        <v>804.5</v>
       </c>
       <c r="BE37" t="n">
-        <v>931.9</v>
+        <v>830.3</v>
       </c>
     </row>
     <row r="38">
@@ -6432,13 +6432,13 @@
         <v>2005</v>
       </c>
       <c r="BC38" t="n">
-        <v>1416.6</v>
+        <v>1326.6</v>
       </c>
       <c r="BD38" t="n">
-        <v>861.1</v>
+        <v>804.5</v>
       </c>
       <c r="BE38" t="n">
-        <v>931.9</v>
+        <v>830.3</v>
       </c>
     </row>
     <row r="39">
@@ -6589,13 +6589,13 @@
         <v>2005</v>
       </c>
       <c r="BC39" t="n">
-        <v>1416.6</v>
+        <v>1326.6</v>
       </c>
       <c r="BD39" t="n">
-        <v>861.1</v>
+        <v>804.5</v>
       </c>
       <c r="BE39" t="n">
-        <v>931.9</v>
+        <v>830.3</v>
       </c>
     </row>
     <row r="40">
@@ -6746,13 +6746,13 @@
         <v>2005</v>
       </c>
       <c r="BC40" t="n">
-        <v>989.8000000000001</v>
+        <v>956.5</v>
       </c>
       <c r="BD40" t="n">
-        <v>861.1</v>
+        <v>804.5</v>
       </c>
       <c r="BE40" t="n">
-        <v>931.9</v>
+        <v>830.3</v>
       </c>
     </row>
     <row r="41">
@@ -6903,13 +6903,13 @@
         <v>2005</v>
       </c>
       <c r="BC41" t="n">
-        <v>989.8000000000001</v>
+        <v>956.5</v>
       </c>
       <c r="BD41" t="n">
-        <v>861.1</v>
+        <v>804.5</v>
       </c>
       <c r="BE41" t="n">
-        <v>931.9</v>
+        <v>830.3</v>
       </c>
     </row>
     <row r="42">
@@ -7060,13 +7060,13 @@
         <v>2005</v>
       </c>
       <c r="BC42" t="n">
-        <v>989.8000000000001</v>
+        <v>956.5</v>
       </c>
       <c r="BD42" t="n">
-        <v>1416.6</v>
+        <v>1326.6</v>
       </c>
       <c r="BE42" t="n">
-        <v>861.1</v>
+        <v>804.5</v>
       </c>
     </row>
     <row r="43">
@@ -7217,13 +7217,13 @@
         <v>2005</v>
       </c>
       <c r="BC43" t="n">
-        <v>989.8000000000001</v>
+        <v>956.5</v>
       </c>
       <c r="BD43" t="n">
-        <v>1416.6</v>
+        <v>1326.6</v>
       </c>
       <c r="BE43" t="n">
-        <v>861.1</v>
+        <v>804.5</v>
       </c>
     </row>
     <row r="44">
@@ -7374,13 +7374,13 @@
         <v>2005</v>
       </c>
       <c r="BC44" t="n">
-        <v>989.8000000000001</v>
+        <v>956.5</v>
       </c>
       <c r="BD44" t="n">
-        <v>1416.6</v>
+        <v>1326.6</v>
       </c>
       <c r="BE44" t="n">
-        <v>861.1</v>
+        <v>804.5</v>
       </c>
     </row>
     <row r="45">
@@ -7531,13 +7531,13 @@
         <v>2005</v>
       </c>
       <c r="BC45" t="n">
-        <v>989.8000000000001</v>
+        <v>956.5</v>
       </c>
       <c r="BD45" t="n">
-        <v>1416.6</v>
+        <v>1326.6</v>
       </c>
       <c r="BE45" t="n">
-        <v>861.1</v>
+        <v>804.5</v>
       </c>
     </row>
     <row r="46">
@@ -7688,13 +7688,13 @@
         <v>2005</v>
       </c>
       <c r="BC46" t="n">
-        <v>989.8000000000001</v>
+        <v>956.5</v>
       </c>
       <c r="BD46" t="n">
-        <v>1416.6</v>
+        <v>1326.6</v>
       </c>
       <c r="BE46" t="n">
-        <v>861.1</v>
+        <v>804.5</v>
       </c>
     </row>
     <row r="47">
@@ -7845,13 +7845,13 @@
         <v>2006</v>
       </c>
       <c r="BC47" t="n">
-        <v>989.8000000000001</v>
+        <v>956.5</v>
       </c>
       <c r="BD47" t="n">
-        <v>1416.6</v>
+        <v>1326.6</v>
       </c>
       <c r="BE47" t="n">
-        <v>861.1</v>
+        <v>804.5</v>
       </c>
     </row>
     <row r="48">
@@ -8002,13 +8002,13 @@
         <v>2006</v>
       </c>
       <c r="BC48" t="n">
-        <v>989.8000000000001</v>
+        <v>956.5</v>
       </c>
       <c r="BD48" t="n">
-        <v>1416.6</v>
+        <v>1326.6</v>
       </c>
       <c r="BE48" t="n">
-        <v>861.1</v>
+        <v>804.5</v>
       </c>
     </row>
     <row r="49">
@@ -8159,13 +8159,13 @@
         <v>2006</v>
       </c>
       <c r="BC49" t="n">
-        <v>989.8000000000001</v>
+        <v>956.5</v>
       </c>
       <c r="BD49" t="n">
-        <v>1416.6</v>
+        <v>1326.6</v>
       </c>
       <c r="BE49" t="n">
-        <v>861.1</v>
+        <v>804.5</v>
       </c>
     </row>
     <row r="50">
@@ -8316,13 +8316,13 @@
         <v>2006</v>
       </c>
       <c r="BC50" t="n">
-        <v>989.8000000000001</v>
+        <v>956.5</v>
       </c>
       <c r="BD50" t="n">
-        <v>1416.6</v>
+        <v>1326.6</v>
       </c>
       <c r="BE50" t="n">
-        <v>861.1</v>
+        <v>804.5</v>
       </c>
     </row>
     <row r="51">
@@ -8473,13 +8473,13 @@
         <v>2006</v>
       </c>
       <c r="BC51" t="n">
-        <v>989.8000000000001</v>
+        <v>956.5</v>
       </c>
       <c r="BD51" t="n">
-        <v>1416.6</v>
+        <v>1326.6</v>
       </c>
       <c r="BE51" t="n">
-        <v>861.1</v>
+        <v>804.5</v>
       </c>
     </row>
     <row r="52">
@@ -8630,13 +8630,13 @@
         <v>2006</v>
       </c>
       <c r="BC52" t="n">
-        <v>826.9</v>
+        <v>771.5</v>
       </c>
       <c r="BD52" t="n">
-        <v>1416.6</v>
+        <v>1326.6</v>
       </c>
       <c r="BE52" t="n">
-        <v>861.1</v>
+        <v>804.5</v>
       </c>
     </row>
     <row r="53">
@@ -8787,13 +8787,13 @@
         <v>2006</v>
       </c>
       <c r="BC53" t="n">
-        <v>826.9</v>
+        <v>771.5</v>
       </c>
       <c r="BD53" t="n">
-        <v>1416.6</v>
+        <v>1326.6</v>
       </c>
       <c r="BE53" t="n">
-        <v>861.1</v>
+        <v>804.5</v>
       </c>
     </row>
     <row r="54">
@@ -8944,13 +8944,13 @@
         <v>2006</v>
       </c>
       <c r="BC54" t="n">
-        <v>826.9</v>
+        <v>771.5</v>
       </c>
       <c r="BD54" t="n">
-        <v>989.8000000000001</v>
+        <v>956.5</v>
       </c>
       <c r="BE54" t="n">
-        <v>1416.6</v>
+        <v>1326.6</v>
       </c>
     </row>
     <row r="55">
@@ -9101,13 +9101,13 @@
         <v>2006</v>
       </c>
       <c r="BC55" t="n">
-        <v>826.9</v>
+        <v>771.5</v>
       </c>
       <c r="BD55" t="n">
-        <v>989.8000000000001</v>
+        <v>956.5</v>
       </c>
       <c r="BE55" t="n">
-        <v>1416.6</v>
+        <v>1326.6</v>
       </c>
     </row>
     <row r="56">
@@ -9258,13 +9258,13 @@
         <v>2006</v>
       </c>
       <c r="BC56" t="n">
-        <v>826.9</v>
+        <v>771.5</v>
       </c>
       <c r="BD56" t="n">
-        <v>989.8000000000001</v>
+        <v>956.5</v>
       </c>
       <c r="BE56" t="n">
-        <v>1416.6</v>
+        <v>1326.6</v>
       </c>
     </row>
     <row r="57">
@@ -9415,13 +9415,13 @@
         <v>2006</v>
       </c>
       <c r="BC57" t="n">
-        <v>826.9</v>
+        <v>771.5</v>
       </c>
       <c r="BD57" t="n">
-        <v>989.8000000000001</v>
+        <v>956.5</v>
       </c>
       <c r="BE57" t="n">
-        <v>1416.6</v>
+        <v>1326.6</v>
       </c>
     </row>
     <row r="58">
@@ -9572,13 +9572,13 @@
         <v>2006</v>
       </c>
       <c r="BC58" t="n">
-        <v>826.9</v>
+        <v>771.5</v>
       </c>
       <c r="BD58" t="n">
-        <v>989.8000000000001</v>
+        <v>956.5</v>
       </c>
       <c r="BE58" t="n">
-        <v>1416.6</v>
+        <v>1326.6</v>
       </c>
     </row>
     <row r="59">
@@ -9729,13 +9729,13 @@
         <v>2007</v>
       </c>
       <c r="BC59" t="n">
-        <v>826.9</v>
+        <v>771.5</v>
       </c>
       <c r="BD59" t="n">
-        <v>989.8000000000001</v>
+        <v>956.5</v>
       </c>
       <c r="BE59" t="n">
-        <v>1416.6</v>
+        <v>1326.6</v>
       </c>
     </row>
     <row r="60">
@@ -9886,13 +9886,13 @@
         <v>2007</v>
       </c>
       <c r="BC60" t="n">
-        <v>826.9</v>
+        <v>771.5</v>
       </c>
       <c r="BD60" t="n">
-        <v>989.8000000000001</v>
+        <v>956.5</v>
       </c>
       <c r="BE60" t="n">
-        <v>1416.6</v>
+        <v>1326.6</v>
       </c>
     </row>
     <row r="61">
@@ -10043,13 +10043,13 @@
         <v>2007</v>
       </c>
       <c r="BC61" t="n">
-        <v>826.9</v>
+        <v>771.5</v>
       </c>
       <c r="BD61" t="n">
-        <v>989.8000000000001</v>
+        <v>956.5</v>
       </c>
       <c r="BE61" t="n">
-        <v>1416.6</v>
+        <v>1326.6</v>
       </c>
     </row>
     <row r="62">
@@ -10200,13 +10200,13 @@
         <v>2007</v>
       </c>
       <c r="BC62" t="n">
-        <v>826.9</v>
+        <v>771.5</v>
       </c>
       <c r="BD62" t="n">
-        <v>989.8000000000001</v>
+        <v>956.5</v>
       </c>
       <c r="BE62" t="n">
-        <v>1416.6</v>
+        <v>1326.6</v>
       </c>
     </row>
     <row r="63">
@@ -10357,13 +10357,13 @@
         <v>2007</v>
       </c>
       <c r="BC63" t="n">
-        <v>826.9</v>
+        <v>771.5</v>
       </c>
       <c r="BD63" t="n">
-        <v>989.8000000000001</v>
+        <v>956.5</v>
       </c>
       <c r="BE63" t="n">
-        <v>1416.6</v>
+        <v>1326.6</v>
       </c>
     </row>
     <row r="64">
@@ -10514,13 +10514,13 @@
         <v>2007</v>
       </c>
       <c r="BC64" t="n">
-        <v>1111.7</v>
+        <v>1009.7</v>
       </c>
       <c r="BD64" t="n">
-        <v>989.8000000000001</v>
+        <v>956.5</v>
       </c>
       <c r="BE64" t="n">
-        <v>1416.6</v>
+        <v>1326.6</v>
       </c>
     </row>
     <row r="65">
@@ -10671,13 +10671,13 @@
         <v>2007</v>
       </c>
       <c r="BC65" t="n">
-        <v>1111.7</v>
+        <v>1009.7</v>
       </c>
       <c r="BD65" t="n">
-        <v>989.8000000000001</v>
+        <v>956.5</v>
       </c>
       <c r="BE65" t="n">
-        <v>1416.6</v>
+        <v>1326.6</v>
       </c>
     </row>
     <row r="66">
@@ -10828,13 +10828,13 @@
         <v>2007</v>
       </c>
       <c r="BC66" t="n">
-        <v>1111.7</v>
+        <v>1009.7</v>
       </c>
       <c r="BD66" t="n">
-        <v>826.9</v>
+        <v>771.5</v>
       </c>
       <c r="BE66" t="n">
-        <v>989.8000000000001</v>
+        <v>956.5</v>
       </c>
     </row>
     <row r="67">
@@ -10985,13 +10985,13 @@
         <v>2007</v>
       </c>
       <c r="BC67" t="n">
-        <v>1111.7</v>
+        <v>1009.7</v>
       </c>
       <c r="BD67" t="n">
-        <v>826.9</v>
+        <v>771.5</v>
       </c>
       <c r="BE67" t="n">
-        <v>989.8000000000001</v>
+        <v>956.5</v>
       </c>
     </row>
     <row r="68">
@@ -11142,13 +11142,13 @@
         <v>2007</v>
       </c>
       <c r="BC68" t="n">
-        <v>1111.7</v>
+        <v>1009.7</v>
       </c>
       <c r="BD68" t="n">
-        <v>826.9</v>
+        <v>771.5</v>
       </c>
       <c r="BE68" t="n">
-        <v>989.8000000000001</v>
+        <v>956.5</v>
       </c>
     </row>
     <row r="69">
@@ -11299,13 +11299,13 @@
         <v>2007</v>
       </c>
       <c r="BC69" t="n">
-        <v>1111.7</v>
+        <v>1009.7</v>
       </c>
       <c r="BD69" t="n">
-        <v>826.9</v>
+        <v>771.5</v>
       </c>
       <c r="BE69" t="n">
-        <v>989.8000000000001</v>
+        <v>956.5</v>
       </c>
     </row>
     <row r="70">
@@ -11456,13 +11456,13 @@
         <v>2007</v>
       </c>
       <c r="BC70" t="n">
-        <v>1111.7</v>
+        <v>1009.7</v>
       </c>
       <c r="BD70" t="n">
-        <v>826.9</v>
+        <v>771.5</v>
       </c>
       <c r="BE70" t="n">
-        <v>989.8000000000001</v>
+        <v>956.5</v>
       </c>
     </row>
     <row r="71">
@@ -11613,13 +11613,13 @@
         <v>2008</v>
       </c>
       <c r="BC71" t="n">
-        <v>1111.7</v>
+        <v>1009.7</v>
       </c>
       <c r="BD71" t="n">
-        <v>826.9</v>
+        <v>771.5</v>
       </c>
       <c r="BE71" t="n">
-        <v>989.8000000000001</v>
+        <v>956.5</v>
       </c>
     </row>
     <row r="72">
@@ -11770,13 +11770,13 @@
         <v>2008</v>
       </c>
       <c r="BC72" t="n">
-        <v>1111.7</v>
+        <v>1009.7</v>
       </c>
       <c r="BD72" t="n">
-        <v>826.9</v>
+        <v>771.5</v>
       </c>
       <c r="BE72" t="n">
-        <v>989.8000000000001</v>
+        <v>956.5</v>
       </c>
     </row>
     <row r="73">
@@ -11927,13 +11927,13 @@
         <v>2008</v>
       </c>
       <c r="BC73" t="n">
-        <v>1111.7</v>
+        <v>1009.7</v>
       </c>
       <c r="BD73" t="n">
-        <v>826.9</v>
+        <v>771.5</v>
       </c>
       <c r="BE73" t="n">
-        <v>989.8000000000001</v>
+        <v>956.5</v>
       </c>
     </row>
     <row r="74">
@@ -12084,13 +12084,13 @@
         <v>2008</v>
       </c>
       <c r="BC74" t="n">
-        <v>1111.7</v>
+        <v>1009.7</v>
       </c>
       <c r="BD74" t="n">
-        <v>826.9</v>
+        <v>771.5</v>
       </c>
       <c r="BE74" t="n">
-        <v>989.8000000000001</v>
+        <v>956.5</v>
       </c>
     </row>
     <row r="75">
@@ -12241,13 +12241,13 @@
         <v>2008</v>
       </c>
       <c r="BC75" t="n">
-        <v>1111.7</v>
+        <v>1009.7</v>
       </c>
       <c r="BD75" t="n">
-        <v>826.9</v>
+        <v>771.5</v>
       </c>
       <c r="BE75" t="n">
-        <v>989.8000000000001</v>
+        <v>956.5</v>
       </c>
     </row>
     <row r="76">
@@ -12398,13 +12398,13 @@
         <v>2008</v>
       </c>
       <c r="BC76" t="n">
-        <v>1236.1</v>
+        <v>1170.3</v>
       </c>
       <c r="BD76" t="n">
-        <v>826.9</v>
+        <v>771.5</v>
       </c>
       <c r="BE76" t="n">
-        <v>989.8000000000001</v>
+        <v>956.5</v>
       </c>
     </row>
     <row r="77">
@@ -12555,13 +12555,13 @@
         <v>2008</v>
       </c>
       <c r="BC77" t="n">
-        <v>1236.1</v>
+        <v>1170.3</v>
       </c>
       <c r="BD77" t="n">
-        <v>826.9</v>
+        <v>771.5</v>
       </c>
       <c r="BE77" t="n">
-        <v>989.8000000000001</v>
+        <v>956.5</v>
       </c>
     </row>
     <row r="78">
@@ -12712,13 +12712,13 @@
         <v>2008</v>
       </c>
       <c r="BC78" t="n">
-        <v>1236.1</v>
+        <v>1170.3</v>
       </c>
       <c r="BD78" t="n">
-        <v>1111.7</v>
+        <v>1009.7</v>
       </c>
       <c r="BE78" t="n">
-        <v>826.9</v>
+        <v>771.5</v>
       </c>
     </row>
     <row r="79">
@@ -12869,13 +12869,13 @@
         <v>2008</v>
       </c>
       <c r="BC79" t="n">
-        <v>1236.1</v>
+        <v>1170.3</v>
       </c>
       <c r="BD79" t="n">
-        <v>1111.7</v>
+        <v>1009.7</v>
       </c>
       <c r="BE79" t="n">
-        <v>826.9</v>
+        <v>771.5</v>
       </c>
     </row>
     <row r="80">
@@ -13026,13 +13026,13 @@
         <v>2008</v>
       </c>
       <c r="BC80" t="n">
-        <v>1236.1</v>
+        <v>1170.3</v>
       </c>
       <c r="BD80" t="n">
-        <v>1111.7</v>
+        <v>1009.7</v>
       </c>
       <c r="BE80" t="n">
-        <v>826.9</v>
+        <v>771.5</v>
       </c>
     </row>
     <row r="81">
@@ -13183,13 +13183,13 @@
         <v>2008</v>
       </c>
       <c r="BC81" t="n">
-        <v>1236.1</v>
+        <v>1170.3</v>
       </c>
       <c r="BD81" t="n">
-        <v>1111.7</v>
+        <v>1009.7</v>
       </c>
       <c r="BE81" t="n">
-        <v>826.9</v>
+        <v>771.5</v>
       </c>
     </row>
     <row r="82">
@@ -13340,13 +13340,13 @@
         <v>2008</v>
       </c>
       <c r="BC82" t="n">
-        <v>1236.1</v>
+        <v>1170.3</v>
       </c>
       <c r="BD82" t="n">
-        <v>1111.7</v>
+        <v>1009.7</v>
       </c>
       <c r="BE82" t="n">
-        <v>826.9</v>
+        <v>771.5</v>
       </c>
     </row>
     <row r="83">
@@ -13497,13 +13497,13 @@
         <v>2009</v>
       </c>
       <c r="BC83" t="n">
-        <v>1236.1</v>
+        <v>1170.3</v>
       </c>
       <c r="BD83" t="n">
-        <v>1111.7</v>
+        <v>1009.7</v>
       </c>
       <c r="BE83" t="n">
-        <v>826.9</v>
+        <v>771.5</v>
       </c>
     </row>
     <row r="84">
@@ -13654,13 +13654,13 @@
         <v>2009</v>
       </c>
       <c r="BC84" t="n">
-        <v>1236.1</v>
+        <v>1170.3</v>
       </c>
       <c r="BD84" t="n">
-        <v>1111.7</v>
+        <v>1009.7</v>
       </c>
       <c r="BE84" t="n">
-        <v>826.9</v>
+        <v>771.5</v>
       </c>
     </row>
     <row r="85">
@@ -13811,13 +13811,13 @@
         <v>2009</v>
       </c>
       <c r="BC85" t="n">
-        <v>1236.1</v>
+        <v>1170.3</v>
       </c>
       <c r="BD85" t="n">
-        <v>1111.7</v>
+        <v>1009.7</v>
       </c>
       <c r="BE85" t="n">
-        <v>826.9</v>
+        <v>771.5</v>
       </c>
     </row>
     <row r="86">
@@ -13968,13 +13968,13 @@
         <v>2009</v>
       </c>
       <c r="BC86" t="n">
-        <v>1236.1</v>
+        <v>1170.3</v>
       </c>
       <c r="BD86" t="n">
-        <v>1111.7</v>
+        <v>1009.7</v>
       </c>
       <c r="BE86" t="n">
-        <v>826.9</v>
+        <v>771.5</v>
       </c>
     </row>
     <row r="87">
@@ -14125,13 +14125,13 @@
         <v>2009</v>
       </c>
       <c r="BC87" t="n">
-        <v>1236.1</v>
+        <v>1170.3</v>
       </c>
       <c r="BD87" t="n">
-        <v>1111.7</v>
+        <v>1009.7</v>
       </c>
       <c r="BE87" t="n">
-        <v>826.9</v>
+        <v>771.5</v>
       </c>
     </row>
     <row r="88">
@@ -14282,13 +14282,13 @@
         <v>2009</v>
       </c>
       <c r="BC88" t="n">
-        <v>1030</v>
+        <v>955.2</v>
       </c>
       <c r="BD88" t="n">
-        <v>1111.7</v>
+        <v>1009.7</v>
       </c>
       <c r="BE88" t="n">
-        <v>826.9</v>
+        <v>771.5</v>
       </c>
     </row>
     <row r="89">
@@ -14439,13 +14439,13 @@
         <v>2009</v>
       </c>
       <c r="BC89" t="n">
-        <v>1030</v>
+        <v>955.2</v>
       </c>
       <c r="BD89" t="n">
-        <v>1111.7</v>
+        <v>1009.7</v>
       </c>
       <c r="BE89" t="n">
-        <v>826.9</v>
+        <v>771.5</v>
       </c>
     </row>
     <row r="90">
@@ -14596,13 +14596,13 @@
         <v>2009</v>
       </c>
       <c r="BC90" t="n">
-        <v>1030</v>
+        <v>955.2</v>
       </c>
       <c r="BD90" t="n">
-        <v>1236.1</v>
+        <v>1170.3</v>
       </c>
       <c r="BE90" t="n">
-        <v>1111.7</v>
+        <v>1009.7</v>
       </c>
     </row>
     <row r="91">
@@ -14753,13 +14753,13 @@
         <v>2009</v>
       </c>
       <c r="BC91" t="n">
-        <v>1030</v>
+        <v>955.2</v>
       </c>
       <c r="BD91" t="n">
-        <v>1236.1</v>
+        <v>1170.3</v>
       </c>
       <c r="BE91" t="n">
-        <v>1111.7</v>
+        <v>1009.7</v>
       </c>
     </row>
     <row r="92">
@@ -14910,13 +14910,13 @@
         <v>2009</v>
       </c>
       <c r="BC92" t="n">
-        <v>1030</v>
+        <v>955.2</v>
       </c>
       <c r="BD92" t="n">
-        <v>1236.1</v>
+        <v>1170.3</v>
       </c>
       <c r="BE92" t="n">
-        <v>1111.7</v>
+        <v>1009.7</v>
       </c>
     </row>
     <row r="93">
@@ -15067,13 +15067,13 @@
         <v>2009</v>
       </c>
       <c r="BC93" t="n">
-        <v>1030</v>
+        <v>955.2</v>
       </c>
       <c r="BD93" t="n">
-        <v>1236.1</v>
+        <v>1170.3</v>
       </c>
       <c r="BE93" t="n">
-        <v>1111.7</v>
+        <v>1009.7</v>
       </c>
     </row>
     <row r="94">
@@ -15224,13 +15224,13 @@
         <v>2009</v>
       </c>
       <c r="BC94" t="n">
-        <v>1030</v>
+        <v>955.2</v>
       </c>
       <c r="BD94" t="n">
-        <v>1236.1</v>
+        <v>1170.3</v>
       </c>
       <c r="BE94" t="n">
-        <v>1111.7</v>
+        <v>1009.7</v>
       </c>
     </row>
     <row r="95">
@@ -15381,13 +15381,13 @@
         <v>2010</v>
       </c>
       <c r="BC95" t="n">
-        <v>1030</v>
+        <v>955.2</v>
       </c>
       <c r="BD95" t="n">
-        <v>1236.1</v>
+        <v>1170.3</v>
       </c>
       <c r="BE95" t="n">
-        <v>1111.7</v>
+        <v>1009.7</v>
       </c>
     </row>
     <row r="96">
@@ -15538,13 +15538,13 @@
         <v>2010</v>
       </c>
       <c r="BC96" t="n">
-        <v>1030</v>
+        <v>955.2</v>
       </c>
       <c r="BD96" t="n">
-        <v>1236.1</v>
+        <v>1170.3</v>
       </c>
       <c r="BE96" t="n">
-        <v>1111.7</v>
+        <v>1009.7</v>
       </c>
     </row>
     <row r="97">
@@ -15695,13 +15695,13 @@
         <v>2010</v>
       </c>
       <c r="BC97" t="n">
-        <v>1030</v>
+        <v>955.2</v>
       </c>
       <c r="BD97" t="n">
-        <v>1236.1</v>
+        <v>1170.3</v>
       </c>
       <c r="BE97" t="n">
-        <v>1111.7</v>
+        <v>1009.7</v>
       </c>
     </row>
     <row r="98">
@@ -15862,13 +15862,13 @@
         <v>2010</v>
       </c>
       <c r="BC98" t="n">
-        <v>1030</v>
+        <v>955.2</v>
       </c>
       <c r="BD98" t="n">
-        <v>1236.1</v>
+        <v>1170.3</v>
       </c>
       <c r="BE98" t="n">
-        <v>1111.7</v>
+        <v>1009.7</v>
       </c>
     </row>
     <row r="99">
@@ -16029,13 +16029,13 @@
         <v>2010</v>
       </c>
       <c r="BC99" t="n">
-        <v>1030</v>
+        <v>955.2</v>
       </c>
       <c r="BD99" t="n">
-        <v>1236.1</v>
+        <v>1170.3</v>
       </c>
       <c r="BE99" t="n">
-        <v>1111.7</v>
+        <v>1009.7</v>
       </c>
     </row>
     <row r="100">
@@ -16196,13 +16196,13 @@
         <v>2010</v>
       </c>
       <c r="BC100" t="n">
-        <v>1401.5</v>
+        <v>1087.9</v>
       </c>
       <c r="BD100" t="n">
-        <v>1236.1</v>
+        <v>1170.3</v>
       </c>
       <c r="BE100" t="n">
-        <v>1111.7</v>
+        <v>1009.7</v>
       </c>
     </row>
     <row r="101">
@@ -16363,13 +16363,13 @@
         <v>2010</v>
       </c>
       <c r="BC101" t="n">
-        <v>1401.5</v>
+        <v>1087.9</v>
       </c>
       <c r="BD101" t="n">
-        <v>1236.1</v>
+        <v>1170.3</v>
       </c>
       <c r="BE101" t="n">
-        <v>1111.7</v>
+        <v>1009.7</v>
       </c>
     </row>
     <row r="102">
@@ -16530,13 +16530,13 @@
         <v>2010</v>
       </c>
       <c r="BC102" t="n">
-        <v>1401.5</v>
+        <v>1087.9</v>
       </c>
       <c r="BD102" t="n">
-        <v>1030</v>
+        <v>955.2</v>
       </c>
       <c r="BE102" t="n">
-        <v>1236.1</v>
+        <v>1170.3</v>
       </c>
     </row>
     <row r="103">
@@ -16697,13 +16697,13 @@
         <v>2010</v>
       </c>
       <c r="BC103" t="n">
-        <v>1401.5</v>
+        <v>1087.9</v>
       </c>
       <c r="BD103" t="n">
-        <v>1030</v>
+        <v>955.2</v>
       </c>
       <c r="BE103" t="n">
-        <v>1236.1</v>
+        <v>1170.3</v>
       </c>
     </row>
     <row r="104">
@@ -16864,13 +16864,13 @@
         <v>2010</v>
       </c>
       <c r="BC104" t="n">
-        <v>1401.5</v>
+        <v>1087.9</v>
       </c>
       <c r="BD104" t="n">
-        <v>1030</v>
+        <v>955.2</v>
       </c>
       <c r="BE104" t="n">
-        <v>1236.1</v>
+        <v>1170.3</v>
       </c>
     </row>
     <row r="105">
@@ -17031,13 +17031,13 @@
         <v>2010</v>
       </c>
       <c r="BC105" t="n">
-        <v>1401.5</v>
+        <v>1087.9</v>
       </c>
       <c r="BD105" t="n">
-        <v>1030</v>
+        <v>955.2</v>
       </c>
       <c r="BE105" t="n">
-        <v>1236.1</v>
+        <v>1170.3</v>
       </c>
     </row>
     <row r="106">
@@ -17198,13 +17198,13 @@
         <v>2010</v>
       </c>
       <c r="BC106" t="n">
-        <v>1401.5</v>
+        <v>1087.9</v>
       </c>
       <c r="BD106" t="n">
-        <v>1030</v>
+        <v>955.2</v>
       </c>
       <c r="BE106" t="n">
-        <v>1236.1</v>
+        <v>1170.3</v>
       </c>
     </row>
     <row r="107">
@@ -17365,13 +17365,13 @@
         <v>2011</v>
       </c>
       <c r="BC107" t="n">
-        <v>1401.5</v>
+        <v>1087.9</v>
       </c>
       <c r="BD107" t="n">
-        <v>1030</v>
+        <v>955.2</v>
       </c>
       <c r="BE107" t="n">
-        <v>1236.1</v>
+        <v>1170.3</v>
       </c>
     </row>
     <row r="108">
@@ -17532,13 +17532,13 @@
         <v>2011</v>
       </c>
       <c r="BC108" t="n">
-        <v>1401.5</v>
+        <v>1087.9</v>
       </c>
       <c r="BD108" t="n">
-        <v>1030</v>
+        <v>955.2</v>
       </c>
       <c r="BE108" t="n">
-        <v>1236.1</v>
+        <v>1170.3</v>
       </c>
     </row>
     <row r="109">
@@ -17699,13 +17699,13 @@
         <v>2011</v>
       </c>
       <c r="BC109" t="n">
-        <v>1401.5</v>
+        <v>1087.9</v>
       </c>
       <c r="BD109" t="n">
-        <v>1030</v>
+        <v>955.2</v>
       </c>
       <c r="BE109" t="n">
-        <v>1236.1</v>
+        <v>1170.3</v>
       </c>
     </row>
     <row r="110">
@@ -17866,13 +17866,13 @@
         <v>2011</v>
       </c>
       <c r="BC110" t="n">
-        <v>1401.5</v>
+        <v>1087.9</v>
       </c>
       <c r="BD110" t="n">
-        <v>1030</v>
+        <v>955.2</v>
       </c>
       <c r="BE110" t="n">
-        <v>1236.1</v>
+        <v>1170.3</v>
       </c>
     </row>
     <row r="111">
@@ -18033,13 +18033,13 @@
         <v>2011</v>
       </c>
       <c r="BC111" t="n">
-        <v>1401.5</v>
+        <v>1087.9</v>
       </c>
       <c r="BD111" t="n">
-        <v>1030</v>
+        <v>955.2</v>
       </c>
       <c r="BE111" t="n">
-        <v>1236.1</v>
+        <v>1170.3</v>
       </c>
     </row>
     <row r="112">
@@ -18200,13 +18200,13 @@
         <v>2011</v>
       </c>
       <c r="BC112" t="n">
-        <v>1391.1</v>
+        <v>1339.6</v>
       </c>
       <c r="BD112" t="n">
-        <v>1030</v>
+        <v>955.2</v>
       </c>
       <c r="BE112" t="n">
-        <v>1236.1</v>
+        <v>1170.3</v>
       </c>
     </row>
     <row r="113">
@@ -18367,13 +18367,13 @@
         <v>2011</v>
       </c>
       <c r="BC113" t="n">
-        <v>1391.1</v>
+        <v>1339.6</v>
       </c>
       <c r="BD113" t="n">
-        <v>1030</v>
+        <v>955.2</v>
       </c>
       <c r="BE113" t="n">
-        <v>1236.1</v>
+        <v>1170.3</v>
       </c>
     </row>
     <row r="114">
@@ -18534,13 +18534,13 @@
         <v>2011</v>
       </c>
       <c r="BC114" t="n">
-        <v>1391.1</v>
+        <v>1339.6</v>
       </c>
       <c r="BD114" t="n">
-        <v>1401.5</v>
+        <v>1087.9</v>
       </c>
       <c r="BE114" t="n">
-        <v>1030</v>
+        <v>955.2</v>
       </c>
     </row>
     <row r="115">
@@ -18701,13 +18701,13 @@
         <v>2011</v>
       </c>
       <c r="BC115" t="n">
-        <v>1391.1</v>
+        <v>1339.6</v>
       </c>
       <c r="BD115" t="n">
-        <v>1401.5</v>
+        <v>1087.9</v>
       </c>
       <c r="BE115" t="n">
-        <v>1030</v>
+        <v>955.2</v>
       </c>
     </row>
     <row r="116">
@@ -18868,13 +18868,13 @@
         <v>2011</v>
       </c>
       <c r="BC116" t="n">
-        <v>1391.1</v>
+        <v>1339.6</v>
       </c>
       <c r="BD116" t="n">
-        <v>1401.5</v>
+        <v>1087.9</v>
       </c>
       <c r="BE116" t="n">
-        <v>1030</v>
+        <v>955.2</v>
       </c>
     </row>
     <row r="117">
@@ -19035,13 +19035,13 @@
         <v>2011</v>
       </c>
       <c r="BC117" t="n">
-        <v>1391.1</v>
+        <v>1339.6</v>
       </c>
       <c r="BD117" t="n">
-        <v>1401.5</v>
+        <v>1087.9</v>
       </c>
       <c r="BE117" t="n">
-        <v>1030</v>
+        <v>955.2</v>
       </c>
     </row>
     <row r="118">
@@ -19202,13 +19202,13 @@
         <v>2011</v>
       </c>
       <c r="BC118" t="n">
-        <v>1391.1</v>
+        <v>1339.6</v>
       </c>
       <c r="BD118" t="n">
-        <v>1401.5</v>
+        <v>1087.9</v>
       </c>
       <c r="BE118" t="n">
-        <v>1030</v>
+        <v>955.2</v>
       </c>
     </row>
     <row r="119">
@@ -19369,13 +19369,13 @@
         <v>2012</v>
       </c>
       <c r="BC119" t="n">
-        <v>1391.1</v>
+        <v>1339.6</v>
       </c>
       <c r="BD119" t="n">
-        <v>1401.5</v>
+        <v>1087.9</v>
       </c>
       <c r="BE119" t="n">
-        <v>1030</v>
+        <v>955.2</v>
       </c>
     </row>
     <row r="120">
@@ -19536,13 +19536,13 @@
         <v>2012</v>
       </c>
       <c r="BC120" t="n">
-        <v>1391.1</v>
+        <v>1339.6</v>
       </c>
       <c r="BD120" t="n">
-        <v>1401.5</v>
+        <v>1087.9</v>
       </c>
       <c r="BE120" t="n">
-        <v>1030</v>
+        <v>955.2</v>
       </c>
     </row>
     <row r="121">
@@ -19703,13 +19703,13 @@
         <v>2012</v>
       </c>
       <c r="BC121" t="n">
-        <v>1391.1</v>
+        <v>1339.6</v>
       </c>
       <c r="BD121" t="n">
-        <v>1401.5</v>
+        <v>1087.9</v>
       </c>
       <c r="BE121" t="n">
-        <v>1030</v>
+        <v>955.2</v>
       </c>
     </row>
     <row r="122">
@@ -19870,13 +19870,13 @@
         <v>2012</v>
       </c>
       <c r="BC122" t="n">
-        <v>1391.1</v>
+        <v>1339.6</v>
       </c>
       <c r="BD122" t="n">
-        <v>1401.5</v>
+        <v>1087.9</v>
       </c>
       <c r="BE122" t="n">
-        <v>1030</v>
+        <v>955.2</v>
       </c>
     </row>
     <row r="123">
@@ -20037,13 +20037,13 @@
         <v>2012</v>
       </c>
       <c r="BC123" t="n">
-        <v>1391.1</v>
+        <v>1339.6</v>
       </c>
       <c r="BD123" t="n">
-        <v>1401.5</v>
+        <v>1087.9</v>
       </c>
       <c r="BE123" t="n">
-        <v>1030</v>
+        <v>955.2</v>
       </c>
     </row>
     <row r="124">
@@ -20204,13 +20204,13 @@
         <v>2012</v>
       </c>
       <c r="BC124" t="n">
-        <v>1615</v>
+        <v>1571.4</v>
       </c>
       <c r="BD124" t="n">
-        <v>1401.5</v>
+        <v>1087.9</v>
       </c>
       <c r="BE124" t="n">
-        <v>1030</v>
+        <v>955.2</v>
       </c>
     </row>
     <row r="125">
@@ -20371,13 +20371,13 @@
         <v>2012</v>
       </c>
       <c r="BC125" t="n">
-        <v>1615</v>
+        <v>1571.4</v>
       </c>
       <c r="BD125" t="n">
-        <v>1401.5</v>
+        <v>1087.9</v>
       </c>
       <c r="BE125" t="n">
-        <v>1030</v>
+        <v>955.2</v>
       </c>
     </row>
     <row r="126">
@@ -20538,13 +20538,13 @@
         <v>2012</v>
       </c>
       <c r="BC126" t="n">
-        <v>1615</v>
+        <v>1571.4</v>
       </c>
       <c r="BD126" t="n">
-        <v>1391.1</v>
+        <v>1339.6</v>
       </c>
       <c r="BE126" t="n">
-        <v>1401.5</v>
+        <v>1087.9</v>
       </c>
     </row>
     <row r="127">
@@ -20705,13 +20705,13 @@
         <v>2012</v>
       </c>
       <c r="BC127" t="n">
-        <v>1615</v>
+        <v>1571.4</v>
       </c>
       <c r="BD127" t="n">
-        <v>1391.1</v>
+        <v>1339.6</v>
       </c>
       <c r="BE127" t="n">
-        <v>1401.5</v>
+        <v>1087.9</v>
       </c>
     </row>
     <row r="128">
@@ -20872,13 +20872,13 @@
         <v>2012</v>
       </c>
       <c r="BC128" t="n">
-        <v>1615</v>
+        <v>1571.4</v>
       </c>
       <c r="BD128" t="n">
-        <v>1391.1</v>
+        <v>1339.6</v>
       </c>
       <c r="BE128" t="n">
-        <v>1401.5</v>
+        <v>1087.9</v>
       </c>
     </row>
     <row r="129">
@@ -21039,13 +21039,13 @@
         <v>2012</v>
       </c>
       <c r="BC129" t="n">
-        <v>1615</v>
+        <v>1571.4</v>
       </c>
       <c r="BD129" t="n">
-        <v>1391.1</v>
+        <v>1339.6</v>
       </c>
       <c r="BE129" t="n">
-        <v>1401.5</v>
+        <v>1087.9</v>
       </c>
     </row>
     <row r="130">
@@ -21206,13 +21206,13 @@
         <v>2012</v>
       </c>
       <c r="BC130" t="n">
-        <v>1615</v>
+        <v>1571.4</v>
       </c>
       <c r="BD130" t="n">
-        <v>1391.1</v>
+        <v>1339.6</v>
       </c>
       <c r="BE130" t="n">
-        <v>1401.5</v>
+        <v>1087.9</v>
       </c>
     </row>
     <row r="131">
@@ -21373,13 +21373,13 @@
         <v>2013</v>
       </c>
       <c r="BC131" t="n">
-        <v>1615</v>
+        <v>1571.4</v>
       </c>
       <c r="BD131" t="n">
-        <v>1391.1</v>
+        <v>1339.6</v>
       </c>
       <c r="BE131" t="n">
-        <v>1401.5</v>
+        <v>1087.9</v>
       </c>
     </row>
     <row r="132">
@@ -21540,13 +21540,13 @@
         <v>2013</v>
       </c>
       <c r="BC132" t="n">
-        <v>1615</v>
+        <v>1571.4</v>
       </c>
       <c r="BD132" t="n">
-        <v>1391.1</v>
+        <v>1339.6</v>
       </c>
       <c r="BE132" t="n">
-        <v>1401.5</v>
+        <v>1087.9</v>
       </c>
     </row>
     <row r="133">
@@ -21707,13 +21707,13 @@
         <v>2013</v>
       </c>
       <c r="BC133" t="n">
-        <v>1615</v>
+        <v>1571.4</v>
       </c>
       <c r="BD133" t="n">
-        <v>1391.1</v>
+        <v>1339.6</v>
       </c>
       <c r="BE133" t="n">
-        <v>1401.5</v>
+        <v>1087.9</v>
       </c>
     </row>
     <row r="134">
@@ -21874,13 +21874,13 @@
         <v>2013</v>
       </c>
       <c r="BC134" t="n">
-        <v>1615</v>
+        <v>1571.4</v>
       </c>
       <c r="BD134" t="n">
-        <v>1391.1</v>
+        <v>1339.6</v>
       </c>
       <c r="BE134" t="n">
-        <v>1401.5</v>
+        <v>1087.9</v>
       </c>
     </row>
     <row r="135">
@@ -22041,13 +22041,13 @@
         <v>2013</v>
       </c>
       <c r="BC135" t="n">
-        <v>1615</v>
+        <v>1571.4</v>
       </c>
       <c r="BD135" t="n">
-        <v>1391.1</v>
+        <v>1339.6</v>
       </c>
       <c r="BE135" t="n">
-        <v>1401.5</v>
+        <v>1087.9</v>
       </c>
     </row>
     <row r="136">
@@ -22208,13 +22208,13 @@
         <v>2013</v>
       </c>
       <c r="BC136" t="n">
-        <v>618.2</v>
+        <v>598.6</v>
       </c>
       <c r="BD136" t="n">
-        <v>1391.1</v>
+        <v>1339.6</v>
       </c>
       <c r="BE136" t="n">
-        <v>1401.5</v>
+        <v>1087.9</v>
       </c>
     </row>
     <row r="137">
@@ -22375,13 +22375,13 @@
         <v>2013</v>
       </c>
       <c r="BC137" t="n">
-        <v>618.2</v>
+        <v>598.6</v>
       </c>
       <c r="BD137" t="n">
-        <v>1391.1</v>
+        <v>1339.6</v>
       </c>
       <c r="BE137" t="n">
-        <v>1401.5</v>
+        <v>1087.9</v>
       </c>
     </row>
     <row r="138">
@@ -22542,13 +22542,13 @@
         <v>2013</v>
       </c>
       <c r="BC138" t="n">
-        <v>618.2</v>
+        <v>598.6</v>
       </c>
       <c r="BD138" t="n">
-        <v>1615</v>
+        <v>1571.4</v>
       </c>
       <c r="BE138" t="n">
-        <v>1391.1</v>
+        <v>1339.6</v>
       </c>
     </row>
     <row r="139">
@@ -22709,13 +22709,13 @@
         <v>2013</v>
       </c>
       <c r="BC139" t="n">
-        <v>618.2</v>
+        <v>598.6</v>
       </c>
       <c r="BD139" t="n">
-        <v>1615</v>
+        <v>1571.4</v>
       </c>
       <c r="BE139" t="n">
-        <v>1391.1</v>
+        <v>1339.6</v>
       </c>
     </row>
     <row r="140">
@@ -22876,13 +22876,13 @@
         <v>2013</v>
       </c>
       <c r="BC140" t="n">
-        <v>618.2</v>
+        <v>598.6</v>
       </c>
       <c r="BD140" t="n">
-        <v>1615</v>
+        <v>1571.4</v>
       </c>
       <c r="BE140" t="n">
-        <v>1391.1</v>
+        <v>1339.6</v>
       </c>
     </row>
     <row r="141">
@@ -23043,13 +23043,13 @@
         <v>2013</v>
       </c>
       <c r="BC141" t="n">
-        <v>618.2</v>
+        <v>598.6</v>
       </c>
       <c r="BD141" t="n">
-        <v>1615</v>
+        <v>1571.4</v>
       </c>
       <c r="BE141" t="n">
-        <v>1391.1</v>
+        <v>1339.6</v>
       </c>
     </row>
     <row r="142">
@@ -23210,13 +23210,13 @@
         <v>2013</v>
       </c>
       <c r="BC142" t="n">
-        <v>618.2</v>
+        <v>598.6</v>
       </c>
       <c r="BD142" t="n">
-        <v>1615</v>
+        <v>1571.4</v>
       </c>
       <c r="BE142" t="n">
-        <v>1391.1</v>
+        <v>1339.6</v>
       </c>
     </row>
     <row r="143">
@@ -23377,13 +23377,13 @@
         <v>2014</v>
       </c>
       <c r="BC143" t="n">
-        <v>618.2</v>
+        <v>598.6</v>
       </c>
       <c r="BD143" t="n">
-        <v>1615</v>
+        <v>1571.4</v>
       </c>
       <c r="BE143" t="n">
-        <v>1391.1</v>
+        <v>1339.6</v>
       </c>
     </row>
     <row r="144">
@@ -23544,13 +23544,13 @@
         <v>2014</v>
       </c>
       <c r="BC144" t="n">
-        <v>618.2</v>
+        <v>598.6</v>
       </c>
       <c r="BD144" t="n">
-        <v>1615</v>
+        <v>1571.4</v>
       </c>
       <c r="BE144" t="n">
-        <v>1391.1</v>
+        <v>1339.6</v>
       </c>
     </row>
     <row r="145">
@@ -23711,13 +23711,13 @@
         <v>2014</v>
       </c>
       <c r="BC145" t="n">
-        <v>618.2</v>
+        <v>598.6</v>
       </c>
       <c r="BD145" t="n">
-        <v>1615</v>
+        <v>1571.4</v>
       </c>
       <c r="BE145" t="n">
-        <v>1391.1</v>
+        <v>1339.6</v>
       </c>
     </row>
     <row r="146">
@@ -23878,13 +23878,13 @@
         <v>2014</v>
       </c>
       <c r="BC146" t="n">
-        <v>618.2</v>
+        <v>598.6</v>
       </c>
       <c r="BD146" t="n">
-        <v>1615</v>
+        <v>1571.4</v>
       </c>
       <c r="BE146" t="n">
-        <v>1391.1</v>
+        <v>1339.6</v>
       </c>
     </row>
     <row r="147">
@@ -24045,13 +24045,13 @@
         <v>2014</v>
       </c>
       <c r="BC147" t="n">
-        <v>618.2</v>
+        <v>598.6</v>
       </c>
       <c r="BD147" t="n">
-        <v>1615</v>
+        <v>1571.4</v>
       </c>
       <c r="BE147" t="n">
-        <v>1391.1</v>
+        <v>1339.6</v>
       </c>
     </row>
     <row r="148">
@@ -24212,13 +24212,13 @@
         <v>2014</v>
       </c>
       <c r="BC148" t="n">
-        <v>1780.2</v>
+        <v>1553.1</v>
       </c>
       <c r="BD148" t="n">
-        <v>1615</v>
+        <v>1571.4</v>
       </c>
       <c r="BE148" t="n">
-        <v>1391.1</v>
+        <v>1339.6</v>
       </c>
     </row>
     <row r="149">
@@ -24379,13 +24379,13 @@
         <v>2014</v>
       </c>
       <c r="BC149" t="n">
-        <v>1780.2</v>
+        <v>1553.1</v>
       </c>
       <c r="BD149" t="n">
-        <v>1615</v>
+        <v>1571.4</v>
       </c>
       <c r="BE149" t="n">
-        <v>1391.1</v>
+        <v>1339.6</v>
       </c>
     </row>
     <row r="150">
@@ -24546,13 +24546,13 @@
         <v>2014</v>
       </c>
       <c r="BC150" t="n">
-        <v>1780.2</v>
+        <v>1553.1</v>
       </c>
       <c r="BD150" t="n">
-        <v>618.2</v>
+        <v>598.6</v>
       </c>
       <c r="BE150" t="n">
-        <v>1615</v>
+        <v>1571.4</v>
       </c>
     </row>
     <row r="151">
@@ -24713,13 +24713,13 @@
         <v>2014</v>
       </c>
       <c r="BC151" t="n">
-        <v>1780.2</v>
+        <v>1553.1</v>
       </c>
       <c r="BD151" t="n">
-        <v>618.2</v>
+        <v>598.6</v>
       </c>
       <c r="BE151" t="n">
-        <v>1615</v>
+        <v>1571.4</v>
       </c>
     </row>
     <row r="152">
@@ -24880,13 +24880,13 @@
         <v>2014</v>
       </c>
       <c r="BC152" t="n">
-        <v>1780.2</v>
+        <v>1553.1</v>
       </c>
       <c r="BD152" t="n">
-        <v>618.2</v>
+        <v>598.6</v>
       </c>
       <c r="BE152" t="n">
-        <v>1615</v>
+        <v>1571.4</v>
       </c>
     </row>
     <row r="153">
@@ -25047,13 +25047,13 @@
         <v>2014</v>
       </c>
       <c r="BC153" t="n">
-        <v>1780.2</v>
+        <v>1553.1</v>
       </c>
       <c r="BD153" t="n">
-        <v>618.2</v>
+        <v>598.6</v>
       </c>
       <c r="BE153" t="n">
-        <v>1615</v>
+        <v>1571.4</v>
       </c>
     </row>
     <row r="154">
@@ -25214,13 +25214,13 @@
         <v>2014</v>
       </c>
       <c r="BC154" t="n">
-        <v>1780.2</v>
+        <v>1553.1</v>
       </c>
       <c r="BD154" t="n">
-        <v>618.2</v>
+        <v>598.6</v>
       </c>
       <c r="BE154" t="n">
-        <v>1615</v>
+        <v>1571.4</v>
       </c>
     </row>
     <row r="155">
@@ -25381,13 +25381,13 @@
         <v>2015</v>
       </c>
       <c r="BC155" t="n">
-        <v>1780.2</v>
+        <v>1553.1</v>
       </c>
       <c r="BD155" t="n">
-        <v>618.2</v>
+        <v>598.6</v>
       </c>
       <c r="BE155" t="n">
-        <v>1615</v>
+        <v>1571.4</v>
       </c>
     </row>
     <row r="156">
@@ -25548,13 +25548,13 @@
         <v>2015</v>
       </c>
       <c r="BC156" t="n">
-        <v>1780.2</v>
+        <v>1553.1</v>
       </c>
       <c r="BD156" t="n">
-        <v>618.2</v>
+        <v>598.6</v>
       </c>
       <c r="BE156" t="n">
-        <v>1615</v>
+        <v>1571.4</v>
       </c>
     </row>
     <row r="157">
@@ -25715,13 +25715,13 @@
         <v>2015</v>
       </c>
       <c r="BC157" t="n">
-        <v>1780.2</v>
+        <v>1553.1</v>
       </c>
       <c r="BD157" t="n">
-        <v>618.2</v>
+        <v>598.6</v>
       </c>
       <c r="BE157" t="n">
-        <v>1615</v>
+        <v>1571.4</v>
       </c>
     </row>
     <row r="158">
@@ -25882,13 +25882,13 @@
         <v>2015</v>
       </c>
       <c r="BC158" t="n">
-        <v>1780.2</v>
+        <v>1553.1</v>
       </c>
       <c r="BD158" t="n">
-        <v>618.2</v>
+        <v>598.6</v>
       </c>
       <c r="BE158" t="n">
-        <v>1615</v>
+        <v>1571.4</v>
       </c>
     </row>
     <row r="159">
@@ -26049,13 +26049,13 @@
         <v>2015</v>
       </c>
       <c r="BC159" t="n">
-        <v>1780.2</v>
+        <v>1553.1</v>
       </c>
       <c r="BD159" t="n">
-        <v>618.2</v>
+        <v>598.6</v>
       </c>
       <c r="BE159" t="n">
-        <v>1615</v>
+        <v>1571.4</v>
       </c>
     </row>
     <row r="160">
@@ -26216,13 +26216,13 @@
         <v>2015</v>
       </c>
       <c r="BC160" t="n">
-        <v>842.3000000000001</v>
+        <v>813.7</v>
       </c>
       <c r="BD160" t="n">
-        <v>618.2</v>
+        <v>598.6</v>
       </c>
       <c r="BE160" t="n">
-        <v>1615</v>
+        <v>1571.4</v>
       </c>
     </row>
     <row r="161">
@@ -26383,13 +26383,13 @@
         <v>2015</v>
       </c>
       <c r="BC161" t="n">
-        <v>842.3000000000001</v>
+        <v>813.7</v>
       </c>
       <c r="BD161" t="n">
-        <v>618.2</v>
+        <v>598.6</v>
       </c>
       <c r="BE161" t="n">
-        <v>1615</v>
+        <v>1571.4</v>
       </c>
     </row>
     <row r="162">
@@ -26550,13 +26550,13 @@
         <v>2015</v>
       </c>
       <c r="BC162" t="n">
-        <v>842.3000000000001</v>
+        <v>813.7</v>
       </c>
       <c r="BD162" t="n">
-        <v>1780.2</v>
+        <v>1553.1</v>
       </c>
       <c r="BE162" t="n">
-        <v>618.2</v>
+        <v>598.6</v>
       </c>
     </row>
     <row r="163">
@@ -26717,13 +26717,13 @@
         <v>2015</v>
       </c>
       <c r="BC163" t="n">
-        <v>842.3000000000001</v>
+        <v>813.7</v>
       </c>
       <c r="BD163" t="n">
-        <v>1780.2</v>
+        <v>1553.1</v>
       </c>
       <c r="BE163" t="n">
-        <v>618.2</v>
+        <v>598.6</v>
       </c>
     </row>
     <row r="164">
@@ -26884,13 +26884,13 @@
         <v>2015</v>
       </c>
       <c r="BC164" t="n">
-        <v>842.3000000000001</v>
+        <v>813.7</v>
       </c>
       <c r="BD164" t="n">
-        <v>1780.2</v>
+        <v>1553.1</v>
       </c>
       <c r="BE164" t="n">
-        <v>618.2</v>
+        <v>598.6</v>
       </c>
     </row>
     <row r="165">
@@ -27051,13 +27051,13 @@
         <v>2015</v>
       </c>
       <c r="BC165" t="n">
-        <v>842.3000000000001</v>
+        <v>813.7</v>
       </c>
       <c r="BD165" t="n">
-        <v>1780.2</v>
+        <v>1553.1</v>
       </c>
       <c r="BE165" t="n">
-        <v>618.2</v>
+        <v>598.6</v>
       </c>
     </row>
     <row r="166">
@@ -27218,13 +27218,13 @@
         <v>2015</v>
       </c>
       <c r="BC166" t="n">
-        <v>842.3000000000001</v>
+        <v>813.7</v>
       </c>
       <c r="BD166" t="n">
-        <v>1780.2</v>
+        <v>1553.1</v>
       </c>
       <c r="BE166" t="n">
-        <v>618.2</v>
+        <v>598.6</v>
       </c>
     </row>
     <row r="167">
@@ -27385,13 +27385,13 @@
         <v>2016</v>
       </c>
       <c r="BC167" t="n">
-        <v>842.3000000000001</v>
+        <v>813.7</v>
       </c>
       <c r="BD167" t="n">
-        <v>1780.2</v>
+        <v>1553.1</v>
       </c>
       <c r="BE167" t="n">
-        <v>618.2</v>
+        <v>598.6</v>
       </c>
     </row>
     <row r="168">
@@ -27552,13 +27552,13 @@
         <v>2016</v>
       </c>
       <c r="BC168" t="n">
-        <v>842.3000000000001</v>
+        <v>813.7</v>
       </c>
       <c r="BD168" t="n">
-        <v>1780.2</v>
+        <v>1553.1</v>
       </c>
       <c r="BE168" t="n">
-        <v>618.2</v>
+        <v>598.6</v>
       </c>
     </row>
     <row r="169">
@@ -27721,13 +27721,13 @@
         <v>2016</v>
       </c>
       <c r="BC169" t="n">
-        <v>842.3000000000001</v>
+        <v>813.7</v>
       </c>
       <c r="BD169" t="n">
-        <v>1780.2</v>
+        <v>1553.1</v>
       </c>
       <c r="BE169" t="n">
-        <v>618.2</v>
+        <v>598.6</v>
       </c>
     </row>
     <row r="170">
@@ -27890,13 +27890,13 @@
         <v>2016</v>
       </c>
       <c r="BC170" t="n">
-        <v>842.3000000000001</v>
+        <v>813.7</v>
       </c>
       <c r="BD170" t="n">
-        <v>1780.2</v>
+        <v>1553.1</v>
       </c>
       <c r="BE170" t="n">
-        <v>618.2</v>
+        <v>598.6</v>
       </c>
     </row>
     <row r="171">
@@ -28059,13 +28059,13 @@
         <v>2016</v>
       </c>
       <c r="BC171" t="n">
-        <v>842.3000000000001</v>
+        <v>813.7</v>
       </c>
       <c r="BD171" t="n">
-        <v>1780.2</v>
+        <v>1553.1</v>
       </c>
       <c r="BE171" t="n">
-        <v>618.2</v>
+        <v>598.6</v>
       </c>
     </row>
     <row r="172">
@@ -28228,13 +28228,13 @@
         <v>2016</v>
       </c>
       <c r="BC172" t="n">
-        <v>1403.3</v>
+        <v>1368.3</v>
       </c>
       <c r="BD172" t="n">
-        <v>1780.2</v>
+        <v>1553.1</v>
       </c>
       <c r="BE172" t="n">
-        <v>618.2</v>
+        <v>598.6</v>
       </c>
     </row>
     <row r="173">
@@ -28397,13 +28397,13 @@
         <v>2016</v>
       </c>
       <c r="BC173" t="n">
-        <v>1403.3</v>
+        <v>1368.3</v>
       </c>
       <c r="BD173" t="n">
-        <v>1780.2</v>
+        <v>1553.1</v>
       </c>
       <c r="BE173" t="n">
-        <v>618.2</v>
+        <v>598.6</v>
       </c>
     </row>
     <row r="174">
@@ -28566,13 +28566,13 @@
         <v>2016</v>
       </c>
       <c r="BC174" t="n">
-        <v>1403.3</v>
+        <v>1368.3</v>
       </c>
       <c r="BD174" t="n">
-        <v>842.3000000000001</v>
+        <v>813.7</v>
       </c>
       <c r="BE174" t="n">
-        <v>1780.2</v>
+        <v>1553.1</v>
       </c>
     </row>
     <row r="175">
@@ -28735,13 +28735,13 @@
         <v>2016</v>
       </c>
       <c r="BC175" t="n">
-        <v>1403.3</v>
+        <v>1368.3</v>
       </c>
       <c r="BD175" t="n">
-        <v>842.3000000000001</v>
+        <v>813.7</v>
       </c>
       <c r="BE175" t="n">
-        <v>1780.2</v>
+        <v>1553.1</v>
       </c>
     </row>
     <row r="176">
@@ -28904,13 +28904,13 @@
         <v>2016</v>
       </c>
       <c r="BC176" t="n">
-        <v>1403.3</v>
+        <v>1368.3</v>
       </c>
       <c r="BD176" t="n">
-        <v>842.3000000000001</v>
+        <v>813.7</v>
       </c>
       <c r="BE176" t="n">
-        <v>1780.2</v>
+        <v>1553.1</v>
       </c>
     </row>
     <row r="177">
@@ -29073,13 +29073,13 @@
         <v>2016</v>
       </c>
       <c r="BC177" t="n">
-        <v>1403.3</v>
+        <v>1368.3</v>
       </c>
       <c r="BD177" t="n">
-        <v>842.3000000000001</v>
+        <v>813.7</v>
       </c>
       <c r="BE177" t="n">
-        <v>1780.2</v>
+        <v>1553.1</v>
       </c>
     </row>
     <row r="178">
@@ -29242,13 +29242,13 @@
         <v>2016</v>
       </c>
       <c r="BC178" t="n">
-        <v>1403.3</v>
+        <v>1368.3</v>
       </c>
       <c r="BD178" t="n">
-        <v>842.3000000000001</v>
+        <v>813.7</v>
       </c>
       <c r="BE178" t="n">
-        <v>1780.2</v>
+        <v>1553.1</v>
       </c>
     </row>
     <row r="179">
@@ -29411,13 +29411,13 @@
         <v>2017</v>
       </c>
       <c r="BC179" t="n">
-        <v>1403.3</v>
+        <v>1368.3</v>
       </c>
       <c r="BD179" t="n">
-        <v>842.3000000000001</v>
+        <v>813.7</v>
       </c>
       <c r="BE179" t="n">
-        <v>1780.2</v>
+        <v>1553.1</v>
       </c>
     </row>
     <row r="180">
@@ -29580,13 +29580,13 @@
         <v>2017</v>
       </c>
       <c r="BC180" t="n">
-        <v>1403.3</v>
+        <v>1368.3</v>
       </c>
       <c r="BD180" t="n">
-        <v>842.3000000000001</v>
+        <v>813.7</v>
       </c>
       <c r="BE180" t="n">
-        <v>1780.2</v>
+        <v>1553.1</v>
       </c>
     </row>
     <row r="181">
@@ -29749,13 +29749,13 @@
         <v>2017</v>
       </c>
       <c r="BC181" t="n">
-        <v>1403.3</v>
+        <v>1368.3</v>
       </c>
       <c r="BD181" t="n">
-        <v>842.3000000000001</v>
+        <v>813.7</v>
       </c>
       <c r="BE181" t="n">
-        <v>1780.2</v>
+        <v>1553.1</v>
       </c>
     </row>
     <row r="182">
@@ -29918,13 +29918,13 @@
         <v>2017</v>
       </c>
       <c r="BC182" t="n">
-        <v>1403.3</v>
+        <v>1368.3</v>
       </c>
       <c r="BD182" t="n">
-        <v>842.3000000000001</v>
+        <v>813.7</v>
       </c>
       <c r="BE182" t="n">
-        <v>1780.2</v>
+        <v>1553.1</v>
       </c>
     </row>
     <row r="183">
@@ -30087,13 +30087,13 @@
         <v>2017</v>
       </c>
       <c r="BC183" t="n">
-        <v>1403.3</v>
+        <v>1368.3</v>
       </c>
       <c r="BD183" t="n">
-        <v>842.3000000000001</v>
+        <v>813.7</v>
       </c>
       <c r="BE183" t="n">
-        <v>1780.2</v>
+        <v>1553.1</v>
       </c>
     </row>
     <row r="184">
@@ -30256,13 +30256,13 @@
         <v>2017</v>
       </c>
       <c r="BC184" t="n">
-        <v>1290.6</v>
+        <v>1243.5</v>
       </c>
       <c r="BD184" t="n">
-        <v>842.3000000000001</v>
+        <v>813.7</v>
       </c>
       <c r="BE184" t="n">
-        <v>1780.2</v>
+        <v>1553.1</v>
       </c>
     </row>
     <row r="185">
@@ -30425,13 +30425,13 @@
         <v>2017</v>
       </c>
       <c r="BC185" t="n">
-        <v>1290.6</v>
+        <v>1243.5</v>
       </c>
       <c r="BD185" t="n">
-        <v>842.3000000000001</v>
+        <v>813.7</v>
       </c>
       <c r="BE185" t="n">
-        <v>1780.2</v>
+        <v>1553.1</v>
       </c>
     </row>
     <row r="186">
@@ -30594,13 +30594,13 @@
         <v>2017</v>
       </c>
       <c r="BC186" t="n">
-        <v>1290.6</v>
+        <v>1243.5</v>
       </c>
       <c r="BD186" t="n">
-        <v>1403.3</v>
+        <v>1368.3</v>
       </c>
       <c r="BE186" t="n">
-        <v>842.3000000000001</v>
+        <v>813.7</v>
       </c>
     </row>
     <row r="187">
@@ -30763,13 +30763,13 @@
         <v>2017</v>
       </c>
       <c r="BC187" t="n">
-        <v>1290.6</v>
+        <v>1243.5</v>
       </c>
       <c r="BD187" t="n">
-        <v>1403.3</v>
+        <v>1368.3</v>
       </c>
       <c r="BE187" t="n">
-        <v>842.3000000000001</v>
+        <v>813.7</v>
       </c>
     </row>
     <row r="188">
@@ -30932,13 +30932,13 @@
         <v>2017</v>
       </c>
       <c r="BC188" t="n">
-        <v>1290.6</v>
+        <v>1243.5</v>
       </c>
       <c r="BD188" t="n">
-        <v>1403.3</v>
+        <v>1368.3</v>
       </c>
       <c r="BE188" t="n">
-        <v>842.3000000000001</v>
+        <v>813.7</v>
       </c>
     </row>
     <row r="189">
@@ -31101,13 +31101,13 @@
         <v>2017</v>
       </c>
       <c r="BC189" t="n">
-        <v>1290.6</v>
+        <v>1243.5</v>
       </c>
       <c r="BD189" t="n">
-        <v>1403.3</v>
+        <v>1368.3</v>
       </c>
       <c r="BE189" t="n">
-        <v>842.3000000000001</v>
+        <v>813.7</v>
       </c>
     </row>
     <row r="190">
@@ -31270,13 +31270,13 @@
         <v>2017</v>
       </c>
       <c r="BC190" t="n">
-        <v>1290.6</v>
+        <v>1243.5</v>
       </c>
       <c r="BD190" t="n">
-        <v>1403.3</v>
+        <v>1368.3</v>
       </c>
       <c r="BE190" t="n">
-        <v>842.3000000000001</v>
+        <v>813.7</v>
       </c>
     </row>
     <row r="191">
@@ -31439,13 +31439,13 @@
         <v>2018</v>
       </c>
       <c r="BC191" t="n">
-        <v>1290.6</v>
+        <v>1243.5</v>
       </c>
       <c r="BD191" t="n">
-        <v>1403.3</v>
+        <v>1368.3</v>
       </c>
       <c r="BE191" t="n">
-        <v>842.3000000000001</v>
+        <v>813.7</v>
       </c>
     </row>
     <row r="192">
@@ -31608,13 +31608,13 @@
         <v>2018</v>
       </c>
       <c r="BC192" t="n">
-        <v>1290.6</v>
+        <v>1243.5</v>
       </c>
       <c r="BD192" t="n">
-        <v>1403.3</v>
+        <v>1368.3</v>
       </c>
       <c r="BE192" t="n">
-        <v>842.3000000000001</v>
+        <v>813.7</v>
       </c>
     </row>
     <row r="193">
@@ -31777,13 +31777,13 @@
         <v>2018</v>
       </c>
       <c r="BC193" t="n">
-        <v>1290.6</v>
+        <v>1243.5</v>
       </c>
       <c r="BD193" t="n">
-        <v>1403.3</v>
+        <v>1368.3</v>
       </c>
       <c r="BE193" t="n">
-        <v>842.3000000000001</v>
+        <v>813.7</v>
       </c>
     </row>
     <row r="194">
@@ -31950,13 +31950,13 @@
         <v>2018</v>
       </c>
       <c r="BC194" t="n">
-        <v>1290.6</v>
+        <v>1243.5</v>
       </c>
       <c r="BD194" t="n">
-        <v>1403.3</v>
+        <v>1368.3</v>
       </c>
       <c r="BE194" t="n">
-        <v>842.3000000000001</v>
+        <v>813.7</v>
       </c>
     </row>
     <row r="195">
@@ -32123,13 +32123,13 @@
         <v>2018</v>
       </c>
       <c r="BC195" t="n">
-        <v>1290.6</v>
+        <v>1243.5</v>
       </c>
       <c r="BD195" t="n">
-        <v>1403.3</v>
+        <v>1368.3</v>
       </c>
       <c r="BE195" t="n">
-        <v>842.3000000000001</v>
+        <v>813.7</v>
       </c>
     </row>
     <row r="196">
@@ -32296,13 +32296,13 @@
         <v>2018</v>
       </c>
       <c r="BC196" t="n">
-        <v>1262.2</v>
+        <v>1220.9</v>
       </c>
       <c r="BD196" t="n">
-        <v>1403.3</v>
+        <v>1368.3</v>
       </c>
       <c r="BE196" t="n">
-        <v>842.3000000000001</v>
+        <v>813.7</v>
       </c>
     </row>
     <row r="197">
@@ -32469,13 +32469,13 @@
         <v>2018</v>
       </c>
       <c r="BC197" t="n">
-        <v>1262.2</v>
+        <v>1220.9</v>
       </c>
       <c r="BD197" t="n">
-        <v>1403.3</v>
+        <v>1368.3</v>
       </c>
       <c r="BE197" t="n">
-        <v>842.3000000000001</v>
+        <v>813.7</v>
       </c>
     </row>
     <row r="198">
@@ -32642,13 +32642,13 @@
         <v>2018</v>
       </c>
       <c r="BC198" t="n">
-        <v>1262.2</v>
+        <v>1220.9</v>
       </c>
       <c r="BD198" t="n">
-        <v>1290.6</v>
+        <v>1243.5</v>
       </c>
       <c r="BE198" t="n">
-        <v>1403.3</v>
+        <v>1368.3</v>
       </c>
     </row>
     <row r="199">
@@ -32815,13 +32815,13 @@
         <v>2018</v>
       </c>
       <c r="BC199" t="n">
-        <v>1262.2</v>
+        <v>1220.9</v>
       </c>
       <c r="BD199" t="n">
-        <v>1290.6</v>
+        <v>1243.5</v>
       </c>
       <c r="BE199" t="n">
-        <v>1403.3</v>
+        <v>1368.3</v>
       </c>
     </row>
     <row r="200">
@@ -32988,13 +32988,13 @@
         <v>2018</v>
       </c>
       <c r="BC200" t="n">
-        <v>1262.2</v>
+        <v>1220.9</v>
       </c>
       <c r="BD200" t="n">
-        <v>1290.6</v>
+        <v>1243.5</v>
       </c>
       <c r="BE200" t="n">
-        <v>1403.3</v>
+        <v>1368.3</v>
       </c>
     </row>
     <row r="201">
@@ -33161,13 +33161,13 @@
         <v>2018</v>
       </c>
       <c r="BC201" t="n">
-        <v>1262.2</v>
+        <v>1220.9</v>
       </c>
       <c r="BD201" t="n">
-        <v>1290.6</v>
+        <v>1243.5</v>
       </c>
       <c r="BE201" t="n">
-        <v>1403.3</v>
+        <v>1368.3</v>
       </c>
     </row>
     <row r="202">
@@ -33334,13 +33334,13 @@
         <v>2018</v>
       </c>
       <c r="BC202" t="n">
-        <v>1262.2</v>
+        <v>1220.9</v>
       </c>
       <c r="BD202" t="n">
-        <v>1290.6</v>
+        <v>1243.5</v>
       </c>
       <c r="BE202" t="n">
-        <v>1403.3</v>
+        <v>1368.3</v>
       </c>
     </row>
     <row r="203">
@@ -33507,13 +33507,13 @@
         <v>2019</v>
       </c>
       <c r="BC203" t="n">
-        <v>1262.2</v>
+        <v>1220.9</v>
       </c>
       <c r="BD203" t="n">
-        <v>1290.6</v>
+        <v>1243.5</v>
       </c>
       <c r="BE203" t="n">
-        <v>1403.3</v>
+        <v>1368.3</v>
       </c>
     </row>
     <row r="204">
@@ -33680,13 +33680,13 @@
         <v>2019</v>
       </c>
       <c r="BC204" t="n">
-        <v>1262.2</v>
+        <v>1220.9</v>
       </c>
       <c r="BD204" t="n">
-        <v>1290.6</v>
+        <v>1243.5</v>
       </c>
       <c r="BE204" t="n">
-        <v>1403.3</v>
+        <v>1368.3</v>
       </c>
     </row>
     <row r="205">
@@ -33853,13 +33853,13 @@
         <v>2019</v>
       </c>
       <c r="BC205" t="n">
-        <v>1262.2</v>
+        <v>1220.9</v>
       </c>
       <c r="BD205" t="n">
-        <v>1290.6</v>
+        <v>1243.5</v>
       </c>
       <c r="BE205" t="n">
-        <v>1403.3</v>
+        <v>1368.3</v>
       </c>
     </row>
     <row r="206">
@@ -34026,13 +34026,13 @@
         <v>2019</v>
       </c>
       <c r="BC206" t="n">
-        <v>1262.2</v>
+        <v>1220.9</v>
       </c>
       <c r="BD206" t="n">
-        <v>1290.6</v>
+        <v>1243.5</v>
       </c>
       <c r="BE206" t="n">
-        <v>1403.3</v>
+        <v>1368.3</v>
       </c>
     </row>
     <row r="207">
@@ -34199,13 +34199,13 @@
         <v>2019</v>
       </c>
       <c r="BC207" t="n">
-        <v>1262.2</v>
+        <v>1220.9</v>
       </c>
       <c r="BD207" t="n">
-        <v>1290.6</v>
+        <v>1243.5</v>
       </c>
       <c r="BE207" t="n">
-        <v>1403.3</v>
+        <v>1368.3</v>
       </c>
     </row>
     <row r="208">
@@ -34372,13 +34372,13 @@
         <v>2019</v>
       </c>
       <c r="BC208" t="n">
-        <v>1793.5</v>
+        <v>1705</v>
       </c>
       <c r="BD208" t="n">
-        <v>1290.6</v>
+        <v>1243.5</v>
       </c>
       <c r="BE208" t="n">
-        <v>1403.3</v>
+        <v>1368.3</v>
       </c>
     </row>
     <row r="209">
@@ -34545,13 +34545,13 @@
         <v>2019</v>
       </c>
       <c r="BC209" t="n">
-        <v>1793.5</v>
+        <v>1705</v>
       </c>
       <c r="BD209" t="n">
-        <v>1290.6</v>
+        <v>1243.5</v>
       </c>
       <c r="BE209" t="n">
-        <v>1403.3</v>
+        <v>1368.3</v>
       </c>
     </row>
     <row r="210">
@@ -34718,13 +34718,13 @@
         <v>2019</v>
       </c>
       <c r="BC210" t="n">
-        <v>1793.5</v>
+        <v>1705</v>
       </c>
       <c r="BD210" t="n">
-        <v>1262.2</v>
+        <v>1220.9</v>
       </c>
       <c r="BE210" t="n">
-        <v>1290.6</v>
+        <v>1243.5</v>
       </c>
     </row>
     <row r="211">
@@ -34891,13 +34891,13 @@
         <v>2019</v>
       </c>
       <c r="BC211" t="n">
-        <v>1793.5</v>
+        <v>1705</v>
       </c>
       <c r="BD211" t="n">
-        <v>1262.2</v>
+        <v>1220.9</v>
       </c>
       <c r="BE211" t="n">
-        <v>1290.6</v>
+        <v>1243.5</v>
       </c>
     </row>
     <row r="212">
@@ -35064,13 +35064,13 @@
         <v>2019</v>
       </c>
       <c r="BC212" t="n">
-        <v>1793.5</v>
+        <v>1705</v>
       </c>
       <c r="BD212" t="n">
-        <v>1262.2</v>
+        <v>1220.9</v>
       </c>
       <c r="BE212" t="n">
-        <v>1290.6</v>
+        <v>1243.5</v>
       </c>
     </row>
     <row r="213">
@@ -35237,13 +35237,13 @@
         <v>2019</v>
       </c>
       <c r="BC213" t="n">
-        <v>1793.5</v>
+        <v>1705</v>
       </c>
       <c r="BD213" t="n">
-        <v>1262.2</v>
+        <v>1220.9</v>
       </c>
       <c r="BE213" t="n">
-        <v>1290.6</v>
+        <v>1243.5</v>
       </c>
     </row>
     <row r="214">
@@ -35410,13 +35410,13 @@
         <v>2019</v>
       </c>
       <c r="BC214" t="n">
-        <v>1793.5</v>
+        <v>1705</v>
       </c>
       <c r="BD214" t="n">
-        <v>1262.2</v>
+        <v>1220.9</v>
       </c>
       <c r="BE214" t="n">
-        <v>1290.6</v>
+        <v>1243.5</v>
       </c>
     </row>
     <row r="215">
@@ -35583,13 +35583,13 @@
         <v>2020</v>
       </c>
       <c r="BC215" t="n">
-        <v>1793.5</v>
+        <v>1705</v>
       </c>
       <c r="BD215" t="n">
-        <v>1262.2</v>
+        <v>1220.9</v>
       </c>
       <c r="BE215" t="n">
-        <v>1290.6</v>
+        <v>1243.5</v>
       </c>
     </row>
     <row r="216">
@@ -35756,13 +35756,13 @@
         <v>2020</v>
       </c>
       <c r="BC216" t="n">
-        <v>1793.5</v>
+        <v>1705</v>
       </c>
       <c r="BD216" t="n">
-        <v>1262.2</v>
+        <v>1220.9</v>
       </c>
       <c r="BE216" t="n">
-        <v>1290.6</v>
+        <v>1243.5</v>
       </c>
     </row>
     <row r="217">
@@ -35929,13 +35929,13 @@
         <v>2020</v>
       </c>
       <c r="BC217" t="n">
-        <v>1793.5</v>
+        <v>1705</v>
       </c>
       <c r="BD217" t="n">
-        <v>1262.2</v>
+        <v>1220.9</v>
       </c>
       <c r="BE217" t="n">
-        <v>1290.6</v>
+        <v>1243.5</v>
       </c>
     </row>
     <row r="218">
@@ -36102,13 +36102,13 @@
         <v>2020</v>
       </c>
       <c r="BC218" t="n">
-        <v>1793.5</v>
+        <v>1705</v>
       </c>
       <c r="BD218" t="n">
-        <v>1262.2</v>
+        <v>1220.9</v>
       </c>
       <c r="BE218" t="n">
-        <v>1290.6</v>
+        <v>1243.5</v>
       </c>
     </row>
     <row r="219">
@@ -36275,13 +36275,13 @@
         <v>2020</v>
       </c>
       <c r="BC219" t="n">
-        <v>1793.5</v>
+        <v>1705</v>
       </c>
       <c r="BD219" t="n">
-        <v>1262.2</v>
+        <v>1220.9</v>
       </c>
       <c r="BE219" t="n">
-        <v>1290.6</v>
+        <v>1243.5</v>
       </c>
     </row>
     <row r="220">
@@ -36448,13 +36448,13 @@
         <v>2020</v>
       </c>
       <c r="BC220" t="n">
-        <v>1125.7</v>
+        <v>1105</v>
       </c>
       <c r="BD220" t="n">
-        <v>1262.2</v>
+        <v>1220.9</v>
       </c>
       <c r="BE220" t="n">
-        <v>1290.6</v>
+        <v>1243.5</v>
       </c>
     </row>
     <row r="221">
@@ -36621,13 +36621,13 @@
         <v>2020</v>
       </c>
       <c r="BC221" t="n">
-        <v>1125.7</v>
+        <v>1105</v>
       </c>
       <c r="BD221" t="n">
-        <v>1262.2</v>
+        <v>1220.9</v>
       </c>
       <c r="BE221" t="n">
-        <v>1290.6</v>
+        <v>1243.5</v>
       </c>
     </row>
     <row r="222">
@@ -36794,13 +36794,13 @@
         <v>2020</v>
       </c>
       <c r="BC222" t="n">
-        <v>1125.7</v>
+        <v>1105</v>
       </c>
       <c r="BD222" t="n">
-        <v>1793.5</v>
+        <v>1705</v>
       </c>
       <c r="BE222" t="n">
-        <v>1262.2</v>
+        <v>1220.9</v>
       </c>
     </row>
     <row r="223">
@@ -36967,13 +36967,13 @@
         <v>2020</v>
       </c>
       <c r="BC223" t="n">
-        <v>1125.7</v>
+        <v>1105</v>
       </c>
       <c r="BD223" t="n">
-        <v>1793.5</v>
+        <v>1705</v>
       </c>
       <c r="BE223" t="n">
-        <v>1262.2</v>
+        <v>1220.9</v>
       </c>
     </row>
     <row r="224">
@@ -37140,13 +37140,13 @@
         <v>2020</v>
       </c>
       <c r="BC224" t="n">
-        <v>1125.7</v>
+        <v>1105</v>
       </c>
       <c r="BD224" t="n">
-        <v>1793.5</v>
+        <v>1705</v>
       </c>
       <c r="BE224" t="n">
-        <v>1262.2</v>
+        <v>1220.9</v>
       </c>
     </row>
     <row r="225">
@@ -37313,13 +37313,13 @@
         <v>2020</v>
       </c>
       <c r="BC225" t="n">
-        <v>1125.7</v>
+        <v>1105</v>
       </c>
       <c r="BD225" t="n">
-        <v>1793.5</v>
+        <v>1705</v>
       </c>
       <c r="BE225" t="n">
-        <v>1262.2</v>
+        <v>1220.9</v>
       </c>
     </row>
     <row r="226">
@@ -37486,13 +37486,13 @@
         <v>2020</v>
       </c>
       <c r="BC226" t="n">
-        <v>1125.7</v>
+        <v>1105</v>
       </c>
       <c r="BD226" t="n">
-        <v>1793.5</v>
+        <v>1705</v>
       </c>
       <c r="BE226" t="n">
-        <v>1262.2</v>
+        <v>1220.9</v>
       </c>
     </row>
     <row r="227">
@@ -37659,13 +37659,13 @@
         <v>2021</v>
       </c>
       <c r="BC227" t="n">
-        <v>1125.7</v>
+        <v>1105</v>
       </c>
       <c r="BD227" t="n">
-        <v>1793.5</v>
+        <v>1705</v>
       </c>
       <c r="BE227" t="n">
-        <v>1262.2</v>
+        <v>1220.9</v>
       </c>
     </row>
     <row r="228">
@@ -37832,13 +37832,13 @@
         <v>2021</v>
       </c>
       <c r="BC228" t="n">
-        <v>1125.7</v>
+        <v>1105</v>
       </c>
       <c r="BD228" t="n">
-        <v>1793.5</v>
+        <v>1705</v>
       </c>
       <c r="BE228" t="n">
-        <v>1262.2</v>
+        <v>1220.9</v>
       </c>
     </row>
     <row r="229">
@@ -38005,13 +38005,13 @@
         <v>2021</v>
       </c>
       <c r="BC229" t="n">
-        <v>1125.7</v>
+        <v>1105</v>
       </c>
       <c r="BD229" t="n">
-        <v>1793.5</v>
+        <v>1705</v>
       </c>
       <c r="BE229" t="n">
-        <v>1262.2</v>
+        <v>1220.9</v>
       </c>
     </row>
     <row r="230">
@@ -38178,13 +38178,13 @@
         <v>2021</v>
       </c>
       <c r="BC230" t="n">
-        <v>1125.7</v>
+        <v>1105</v>
       </c>
       <c r="BD230" t="n">
-        <v>1793.5</v>
+        <v>1705</v>
       </c>
       <c r="BE230" t="n">
-        <v>1262.2</v>
+        <v>1220.9</v>
       </c>
     </row>
     <row r="231">
@@ -38351,13 +38351,13 @@
         <v>2021</v>
       </c>
       <c r="BC231" t="n">
-        <v>1125.7</v>
+        <v>1105</v>
       </c>
       <c r="BD231" t="n">
-        <v>1793.5</v>
+        <v>1705</v>
       </c>
       <c r="BE231" t="n">
-        <v>1262.2</v>
+        <v>1220.9</v>
       </c>
     </row>
     <row r="232">
@@ -38524,13 +38524,13 @@
         <v>2021</v>
       </c>
       <c r="BC232" t="n">
-        <v>1389.1</v>
+        <v>1336.9</v>
       </c>
       <c r="BD232" t="n">
-        <v>1793.5</v>
+        <v>1705</v>
       </c>
       <c r="BE232" t="n">
-        <v>1262.2</v>
+        <v>1220.9</v>
       </c>
     </row>
     <row r="233">
@@ -38697,13 +38697,13 @@
         <v>2021</v>
       </c>
       <c r="BC233" t="n">
-        <v>1389.1</v>
+        <v>1336.9</v>
       </c>
       <c r="BD233" t="n">
-        <v>1793.5</v>
+        <v>1705</v>
       </c>
       <c r="BE233" t="n">
-        <v>1262.2</v>
+        <v>1220.9</v>
       </c>
     </row>
     <row r="234">
@@ -38870,13 +38870,13 @@
         <v>2021</v>
       </c>
       <c r="BC234" t="n">
-        <v>1389.1</v>
+        <v>1336.9</v>
       </c>
       <c r="BD234" t="n">
-        <v>1125.7</v>
+        <v>1105</v>
       </c>
       <c r="BE234" t="n">
-        <v>1793.5</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="235">
@@ -39043,13 +39043,13 @@
         <v>2021</v>
       </c>
       <c r="BC235" t="n">
-        <v>1389.1</v>
+        <v>1336.9</v>
       </c>
       <c r="BD235" t="n">
-        <v>1125.7</v>
+        <v>1105</v>
       </c>
       <c r="BE235" t="n">
-        <v>1793.5</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="236">
@@ -39216,13 +39216,13 @@
         <v>2021</v>
       </c>
       <c r="BC236" t="n">
-        <v>1389.1</v>
+        <v>1336.9</v>
       </c>
       <c r="BD236" t="n">
-        <v>1125.7</v>
+        <v>1105</v>
       </c>
       <c r="BE236" t="n">
-        <v>1793.5</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="237">
@@ -39389,13 +39389,13 @@
         <v>2021</v>
       </c>
       <c r="BC237" t="n">
-        <v>1389.1</v>
+        <v>1336.9</v>
       </c>
       <c r="BD237" t="n">
-        <v>1125.7</v>
+        <v>1105</v>
       </c>
       <c r="BE237" t="n">
-        <v>1793.5</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="238">
@@ -39562,13 +39562,13 @@
         <v>2021</v>
       </c>
       <c r="BC238" t="n">
-        <v>1389.1</v>
+        <v>1336.9</v>
       </c>
       <c r="BD238" t="n">
-        <v>1125.7</v>
+        <v>1105</v>
       </c>
       <c r="BE238" t="n">
-        <v>1793.5</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="239">
@@ -39735,13 +39735,13 @@
         <v>2022</v>
       </c>
       <c r="BC239" t="n">
-        <v>1389.1</v>
+        <v>1336.9</v>
       </c>
       <c r="BD239" t="n">
-        <v>1125.7</v>
+        <v>1105</v>
       </c>
       <c r="BE239" t="n">
-        <v>1793.5</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="240">
@@ -39908,13 +39908,13 @@
         <v>2022</v>
       </c>
       <c r="BC240" t="n">
-        <v>1389.1</v>
+        <v>1336.9</v>
       </c>
       <c r="BD240" t="n">
-        <v>1125.7</v>
+        <v>1105</v>
       </c>
       <c r="BE240" t="n">
-        <v>1793.5</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="241">
@@ -40081,13 +40081,13 @@
         <v>2022</v>
       </c>
       <c r="BC241" t="n">
-        <v>1389.1</v>
+        <v>1336.9</v>
       </c>
       <c r="BD241" t="n">
-        <v>1125.7</v>
+        <v>1105</v>
       </c>
       <c r="BE241" t="n">
-        <v>1793.5</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="242">
@@ -40254,13 +40254,13 @@
         <v>2022</v>
       </c>
       <c r="BC242" t="n">
-        <v>1389.1</v>
+        <v>1336.9</v>
       </c>
       <c r="BD242" t="n">
-        <v>1125.7</v>
+        <v>1105</v>
       </c>
       <c r="BE242" t="n">
-        <v>1793.5</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="243">
@@ -40427,13 +40427,13 @@
         <v>2022</v>
       </c>
       <c r="BC243" t="n">
-        <v>1389.1</v>
+        <v>1336.9</v>
       </c>
       <c r="BD243" t="n">
-        <v>1125.7</v>
+        <v>1105</v>
       </c>
       <c r="BE243" t="n">
-        <v>1793.5</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="244">
@@ -40600,13 +40600,13 @@
         <v>2022</v>
       </c>
       <c r="BC244" t="n">
-        <v>1493</v>
+        <v>1462.2</v>
       </c>
       <c r="BD244" t="n">
-        <v>1125.7</v>
+        <v>1105</v>
       </c>
       <c r="BE244" t="n">
-        <v>1793.5</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="245">
@@ -40773,13 +40773,13 @@
         <v>2022</v>
       </c>
       <c r="BC245" t="n">
-        <v>1493</v>
+        <v>1462.2</v>
       </c>
       <c r="BD245" t="n">
-        <v>1125.7</v>
+        <v>1105</v>
       </c>
       <c r="BE245" t="n">
-        <v>1793.5</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="246">
@@ -40946,13 +40946,13 @@
         <v>2022</v>
       </c>
       <c r="BC246" t="n">
-        <v>1493</v>
+        <v>1462.2</v>
       </c>
       <c r="BD246" t="n">
-        <v>1389.1</v>
+        <v>1336.9</v>
       </c>
       <c r="BE246" t="n">
-        <v>1125.7</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="247">
@@ -41119,13 +41119,13 @@
         <v>2022</v>
       </c>
       <c r="BC247" t="n">
-        <v>1493</v>
+        <v>1462.2</v>
       </c>
       <c r="BD247" t="n">
-        <v>1389.1</v>
+        <v>1336.9</v>
       </c>
       <c r="BE247" t="n">
-        <v>1125.7</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="248">
@@ -41292,13 +41292,13 @@
         <v>2022</v>
       </c>
       <c r="BC248" t="n">
-        <v>1493</v>
+        <v>1462.2</v>
       </c>
       <c r="BD248" t="n">
-        <v>1389.1</v>
+        <v>1336.9</v>
       </c>
       <c r="BE248" t="n">
-        <v>1125.7</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="249">
@@ -41465,13 +41465,13 @@
         <v>2022</v>
       </c>
       <c r="BC249" t="n">
-        <v>1493</v>
+        <v>1462.2</v>
       </c>
       <c r="BD249" t="n">
-        <v>1389.1</v>
+        <v>1336.9</v>
       </c>
       <c r="BE249" t="n">
-        <v>1125.7</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="250">
@@ -41638,13 +41638,13 @@
         <v>2022</v>
       </c>
       <c r="BC250" t="n">
-        <v>1493</v>
+        <v>1462.2</v>
       </c>
       <c r="BD250" t="n">
-        <v>1389.1</v>
+        <v>1336.9</v>
       </c>
       <c r="BE250" t="n">
-        <v>1125.7</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="251">
@@ -41811,13 +41811,13 @@
         <v>2023</v>
       </c>
       <c r="BC251" t="n">
-        <v>1493</v>
+        <v>1462.2</v>
       </c>
       <c r="BD251" t="n">
-        <v>1389.1</v>
+        <v>1336.9</v>
       </c>
       <c r="BE251" t="n">
-        <v>1125.7</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="252">
@@ -41984,13 +41984,13 @@
         <v>2023</v>
       </c>
       <c r="BC252" t="n">
-        <v>1493</v>
+        <v>1462.2</v>
       </c>
       <c r="BD252" t="n">
-        <v>1389.1</v>
+        <v>1336.9</v>
       </c>
       <c r="BE252" t="n">
-        <v>1125.7</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="253">
@@ -42157,13 +42157,13 @@
         <v>2023</v>
       </c>
       <c r="BC253" t="n">
-        <v>1493</v>
+        <v>1462.2</v>
       </c>
       <c r="BD253" t="n">
-        <v>1389.1</v>
+        <v>1336.9</v>
       </c>
       <c r="BE253" t="n">
-        <v>1125.7</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="254">
@@ -42330,13 +42330,13 @@
         <v>2023</v>
       </c>
       <c r="BC254" t="n">
-        <v>1493</v>
+        <v>1462.2</v>
       </c>
       <c r="BD254" t="n">
-        <v>1389.1</v>
+        <v>1336.9</v>
       </c>
       <c r="BE254" t="n">
-        <v>1125.7</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="255">
@@ -42461,13 +42461,13 @@
         <v>2023</v>
       </c>
       <c r="BC255" t="n">
-        <v>1493</v>
+        <v>1462.2</v>
       </c>
       <c r="BD255" t="n">
-        <v>1389.1</v>
+        <v>1336.9</v>
       </c>
       <c r="BE255" t="n">
-        <v>1125.7</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="256">
@@ -42592,13 +42592,13 @@
         <v>2023</v>
       </c>
       <c r="BC256" t="n">
-        <v>663.4</v>
+        <v>653.4</v>
       </c>
       <c r="BD256" t="n">
-        <v>1389.1</v>
+        <v>1336.9</v>
       </c>
       <c r="BE256" t="n">
-        <v>1125.7</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="257">
@@ -42724,10 +42724,10 @@
       </c>
       <c r="BC257" t="inlineStr"/>
       <c r="BD257" t="n">
-        <v>1389.1</v>
+        <v>1336.9</v>
       </c>
       <c r="BE257" t="n">
-        <v>1125.7</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="258">
@@ -42853,10 +42853,10 @@
       </c>
       <c r="BC258" t="inlineStr"/>
       <c r="BD258" t="n">
-        <v>1493</v>
+        <v>1462.2</v>
       </c>
       <c r="BE258" t="n">
-        <v>1389.1</v>
+        <v>1336.9</v>
       </c>
     </row>
     <row r="259">
@@ -42982,10 +42982,10 @@
       </c>
       <c r="BC259" t="inlineStr"/>
       <c r="BD259" t="n">
-        <v>1493</v>
+        <v>1462.2</v>
       </c>
       <c r="BE259" t="n">
-        <v>1389.1</v>
+        <v>1336.9</v>
       </c>
     </row>
     <row r="260">
@@ -43099,10 +43099,10 @@
       </c>
       <c r="BC260" t="inlineStr"/>
       <c r="BD260" t="n">
-        <v>1493</v>
+        <v>1462.2</v>
       </c>
       <c r="BE260" t="n">
-        <v>1389.1</v>
+        <v>1336.9</v>
       </c>
     </row>
     <row r="261">
@@ -43208,10 +43208,10 @@
       </c>
       <c r="BC261" t="inlineStr"/>
       <c r="BD261" t="n">
-        <v>1493</v>
+        <v>1462.2</v>
       </c>
       <c r="BE261" t="n">
-        <v>1389.1</v>
+        <v>1336.9</v>
       </c>
     </row>
     <row r="262">
@@ -43305,10 +43305,10 @@
       </c>
       <c r="BC262" t="inlineStr"/>
       <c r="BD262" t="n">
-        <v>1493</v>
+        <v>1462.2</v>
       </c>
       <c r="BE262" t="n">
-        <v>1389.1</v>
+        <v>1336.9</v>
       </c>
     </row>
   </sheetData>

--- a/Output/Excel/df_month.xlsx
+++ b/Output/Excel/df_month.xlsx
@@ -58,7 +58,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -66,6 +66,7 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -431,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BE262"/>
+  <dimension ref="A1:BG262"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -717,10 +718,20 @@
       </c>
       <c r="BD1" s="1" t="inlineStr">
         <is>
+          <t>DATE</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>PRODUCTION_HARVEST_REAL_EST</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
           <t>PRODUCTION_HARVEST_LAST_YEAR</t>
         </is>
       </c>
-      <c r="BE1" s="1" t="inlineStr">
+      <c r="BG1" s="1" t="inlineStr">
         <is>
           <t>PRODUCTION_HARVEST_2_YEARS</t>
         </is>
@@ -872,8 +883,12 @@
         <v>2002</v>
       </c>
       <c r="BC2" t="inlineStr"/>
-      <c r="BD2" t="inlineStr"/>
+      <c r="BD2" s="3" t="n">
+        <v>37257</v>
+      </c>
       <c r="BE2" t="inlineStr"/>
+      <c r="BF2" t="inlineStr"/>
+      <c r="BG2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -1023,8 +1038,12 @@
         <v>2002</v>
       </c>
       <c r="BC3" t="inlineStr"/>
-      <c r="BD3" t="inlineStr"/>
+      <c r="BD3" s="3" t="n">
+        <v>37288</v>
+      </c>
       <c r="BE3" t="inlineStr"/>
+      <c r="BF3" t="inlineStr"/>
+      <c r="BG3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -1176,8 +1195,14 @@
       <c r="BC4" t="n">
         <v>830.3</v>
       </c>
-      <c r="BD4" t="inlineStr"/>
-      <c r="BE4" t="inlineStr"/>
+      <c r="BD4" s="3" t="n">
+        <v>37316</v>
+      </c>
+      <c r="BE4" t="n">
+        <v>830.3</v>
+      </c>
+      <c r="BF4" t="inlineStr"/>
+      <c r="BG4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -1329,8 +1354,14 @@
       <c r="BC5" t="n">
         <v>830.3</v>
       </c>
-      <c r="BD5" t="inlineStr"/>
-      <c r="BE5" t="inlineStr"/>
+      <c r="BD5" s="3" t="n">
+        <v>37347</v>
+      </c>
+      <c r="BE5" t="n">
+        <v>830.3</v>
+      </c>
+      <c r="BF5" t="inlineStr"/>
+      <c r="BG5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -1482,8 +1513,14 @@
       <c r="BC6" t="n">
         <v>830.3</v>
       </c>
-      <c r="BD6" t="inlineStr"/>
-      <c r="BE6" t="inlineStr"/>
+      <c r="BD6" s="3" t="n">
+        <v>37377</v>
+      </c>
+      <c r="BE6" t="n">
+        <v>830.3</v>
+      </c>
+      <c r="BF6" t="inlineStr"/>
+      <c r="BG6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -1635,8 +1672,14 @@
       <c r="BC7" t="n">
         <v>830.3</v>
       </c>
-      <c r="BD7" t="inlineStr"/>
-      <c r="BE7" t="inlineStr"/>
+      <c r="BD7" s="3" t="n">
+        <v>37408</v>
+      </c>
+      <c r="BE7" t="n">
+        <v>830.3</v>
+      </c>
+      <c r="BF7" t="inlineStr"/>
+      <c r="BG7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -1788,8 +1831,14 @@
       <c r="BC8" t="n">
         <v>830.3</v>
       </c>
-      <c r="BD8" t="inlineStr"/>
-      <c r="BE8" t="inlineStr"/>
+      <c r="BD8" s="3" t="n">
+        <v>37438</v>
+      </c>
+      <c r="BE8" t="n">
+        <v>830.3</v>
+      </c>
+      <c r="BF8" t="inlineStr"/>
+      <c r="BG8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -1941,8 +1990,14 @@
       <c r="BC9" t="n">
         <v>830.3</v>
       </c>
-      <c r="BD9" t="inlineStr"/>
-      <c r="BE9" t="inlineStr"/>
+      <c r="BD9" s="3" t="n">
+        <v>37469</v>
+      </c>
+      <c r="BE9" t="n">
+        <v>830.3</v>
+      </c>
+      <c r="BF9" t="inlineStr"/>
+      <c r="BG9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -2094,8 +2149,14 @@
       <c r="BC10" t="n">
         <v>830.3</v>
       </c>
-      <c r="BD10" t="inlineStr"/>
-      <c r="BE10" t="inlineStr"/>
+      <c r="BD10" s="3" t="n">
+        <v>37500</v>
+      </c>
+      <c r="BE10" t="n">
+        <v>830.3</v>
+      </c>
+      <c r="BF10" t="inlineStr"/>
+      <c r="BG10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -2247,8 +2308,14 @@
       <c r="BC11" t="n">
         <v>830.3</v>
       </c>
-      <c r="BD11" t="inlineStr"/>
-      <c r="BE11" t="inlineStr"/>
+      <c r="BD11" s="3" t="n">
+        <v>37530</v>
+      </c>
+      <c r="BE11" t="n">
+        <v>830.3</v>
+      </c>
+      <c r="BF11" t="inlineStr"/>
+      <c r="BG11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -2400,8 +2467,14 @@
       <c r="BC12" t="n">
         <v>830.3</v>
       </c>
-      <c r="BD12" t="inlineStr"/>
-      <c r="BE12" t="inlineStr"/>
+      <c r="BD12" s="3" t="n">
+        <v>37561</v>
+      </c>
+      <c r="BE12" t="n">
+        <v>830.3</v>
+      </c>
+      <c r="BF12" t="inlineStr"/>
+      <c r="BG12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -2553,8 +2626,14 @@
       <c r="BC13" t="n">
         <v>830.3</v>
       </c>
-      <c r="BD13" t="inlineStr"/>
-      <c r="BE13" t="inlineStr"/>
+      <c r="BD13" s="3" t="n">
+        <v>37591</v>
+      </c>
+      <c r="BE13" t="n">
+        <v>830.3</v>
+      </c>
+      <c r="BF13" t="inlineStr"/>
+      <c r="BG13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -2706,8 +2785,14 @@
       <c r="BC14" t="n">
         <v>830.3</v>
       </c>
-      <c r="BD14" t="inlineStr"/>
-      <c r="BE14" t="inlineStr"/>
+      <c r="BD14" s="3" t="n">
+        <v>37622</v>
+      </c>
+      <c r="BE14" t="n">
+        <v>830.3</v>
+      </c>
+      <c r="BF14" t="inlineStr"/>
+      <c r="BG14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -2859,8 +2944,14 @@
       <c r="BC15" t="n">
         <v>830.3</v>
       </c>
-      <c r="BD15" t="inlineStr"/>
-      <c r="BE15" t="inlineStr"/>
+      <c r="BD15" s="3" t="n">
+        <v>37653</v>
+      </c>
+      <c r="BE15" t="n">
+        <v>830.3</v>
+      </c>
+      <c r="BF15" t="inlineStr"/>
+      <c r="BG15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -3012,8 +3103,16 @@
       <c r="BC16" t="n">
         <v>804.5</v>
       </c>
-      <c r="BD16" t="inlineStr"/>
-      <c r="BE16" t="inlineStr"/>
+      <c r="BD16" s="3" t="n">
+        <v>37681</v>
+      </c>
+      <c r="BE16" t="n">
+        <v>804.5</v>
+      </c>
+      <c r="BF16" t="n">
+        <v>830.3</v>
+      </c>
+      <c r="BG16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -3165,8 +3264,16 @@
       <c r="BC17" t="n">
         <v>804.5</v>
       </c>
-      <c r="BD17" t="inlineStr"/>
-      <c r="BE17" t="inlineStr"/>
+      <c r="BD17" s="3" t="n">
+        <v>37712</v>
+      </c>
+      <c r="BE17" t="n">
+        <v>804.5</v>
+      </c>
+      <c r="BF17" t="n">
+        <v>830.3</v>
+      </c>
+      <c r="BG17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -3318,10 +3425,16 @@
       <c r="BC18" t="n">
         <v>804.5</v>
       </c>
-      <c r="BD18" t="n">
+      <c r="BD18" s="3" t="n">
+        <v>37742</v>
+      </c>
+      <c r="BE18" t="n">
+        <v>804.5</v>
+      </c>
+      <c r="BF18" t="n">
         <v>830.3</v>
       </c>
-      <c r="BE18" t="inlineStr"/>
+      <c r="BG18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -3473,10 +3586,16 @@
       <c r="BC19" t="n">
         <v>804.5</v>
       </c>
-      <c r="BD19" t="n">
+      <c r="BD19" s="3" t="n">
+        <v>37773</v>
+      </c>
+      <c r="BE19" t="n">
+        <v>804.5</v>
+      </c>
+      <c r="BF19" t="n">
         <v>830.3</v>
       </c>
-      <c r="BE19" t="inlineStr"/>
+      <c r="BG19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -3628,10 +3747,16 @@
       <c r="BC20" t="n">
         <v>804.5</v>
       </c>
-      <c r="BD20" t="n">
+      <c r="BD20" s="3" t="n">
+        <v>37803</v>
+      </c>
+      <c r="BE20" t="n">
+        <v>804.5</v>
+      </c>
+      <c r="BF20" t="n">
         <v>830.3</v>
       </c>
-      <c r="BE20" t="inlineStr"/>
+      <c r="BG20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -3783,10 +3908,16 @@
       <c r="BC21" t="n">
         <v>804.5</v>
       </c>
-      <c r="BD21" t="n">
+      <c r="BD21" s="3" t="n">
+        <v>37834</v>
+      </c>
+      <c r="BE21" t="n">
+        <v>804.5</v>
+      </c>
+      <c r="BF21" t="n">
         <v>830.3</v>
       </c>
-      <c r="BE21" t="inlineStr"/>
+      <c r="BG21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -3938,10 +4069,16 @@
       <c r="BC22" t="n">
         <v>804.5</v>
       </c>
-      <c r="BD22" t="n">
+      <c r="BD22" s="3" t="n">
+        <v>37865</v>
+      </c>
+      <c r="BE22" t="n">
+        <v>804.5</v>
+      </c>
+      <c r="BF22" t="n">
         <v>830.3</v>
       </c>
-      <c r="BE22" t="inlineStr"/>
+      <c r="BG22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -4093,10 +4230,16 @@
       <c r="BC23" t="n">
         <v>804.5</v>
       </c>
-      <c r="BD23" t="n">
+      <c r="BD23" s="3" t="n">
+        <v>37895</v>
+      </c>
+      <c r="BE23" t="n">
+        <v>804.5</v>
+      </c>
+      <c r="BF23" t="n">
         <v>830.3</v>
       </c>
-      <c r="BE23" t="inlineStr"/>
+      <c r="BG23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -4248,10 +4391,16 @@
       <c r="BC24" t="n">
         <v>804.5</v>
       </c>
-      <c r="BD24" t="n">
+      <c r="BD24" s="3" t="n">
+        <v>37926</v>
+      </c>
+      <c r="BE24" t="n">
+        <v>804.5</v>
+      </c>
+      <c r="BF24" t="n">
         <v>830.3</v>
       </c>
-      <c r="BE24" t="inlineStr"/>
+      <c r="BG24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -4403,10 +4552,16 @@
       <c r="BC25" t="n">
         <v>804.5</v>
       </c>
-      <c r="BD25" t="n">
+      <c r="BD25" s="3" t="n">
+        <v>37956</v>
+      </c>
+      <c r="BE25" t="n">
+        <v>804.5</v>
+      </c>
+      <c r="BF25" t="n">
         <v>830.3</v>
       </c>
-      <c r="BE25" t="inlineStr"/>
+      <c r="BG25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -4558,10 +4713,16 @@
       <c r="BC26" t="n">
         <v>804.5</v>
       </c>
-      <c r="BD26" t="n">
+      <c r="BD26" s="3" t="n">
+        <v>37987</v>
+      </c>
+      <c r="BE26" t="n">
+        <v>804.5</v>
+      </c>
+      <c r="BF26" t="n">
         <v>830.3</v>
       </c>
-      <c r="BE26" t="inlineStr"/>
+      <c r="BG26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -4713,10 +4874,16 @@
       <c r="BC27" t="n">
         <v>804.5</v>
       </c>
-      <c r="BD27" t="n">
+      <c r="BD27" s="3" t="n">
+        <v>38018</v>
+      </c>
+      <c r="BE27" t="n">
+        <v>804.5</v>
+      </c>
+      <c r="BF27" t="n">
         <v>830.3</v>
       </c>
-      <c r="BE27" t="inlineStr"/>
+      <c r="BG27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -4868,10 +5035,18 @@
       <c r="BC28" t="n">
         <v>1326.6</v>
       </c>
-      <c r="BD28" t="n">
+      <c r="BD28" s="3" t="n">
+        <v>38047</v>
+      </c>
+      <c r="BE28" t="n">
+        <v>1326.6</v>
+      </c>
+      <c r="BF28" t="n">
+        <v>804.5</v>
+      </c>
+      <c r="BG28" t="n">
         <v>830.3</v>
       </c>
-      <c r="BE28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -5023,10 +5198,18 @@
       <c r="BC29" t="n">
         <v>1326.6</v>
       </c>
-      <c r="BD29" t="n">
+      <c r="BD29" s="3" t="n">
+        <v>38078</v>
+      </c>
+      <c r="BE29" t="n">
+        <v>1326.6</v>
+      </c>
+      <c r="BF29" t="n">
+        <v>804.5</v>
+      </c>
+      <c r="BG29" t="n">
         <v>830.3</v>
       </c>
-      <c r="BE29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -5178,10 +5361,16 @@
       <c r="BC30" t="n">
         <v>1326.6</v>
       </c>
-      <c r="BD30" t="n">
+      <c r="BD30" s="3" t="n">
+        <v>38108</v>
+      </c>
+      <c r="BE30" t="n">
+        <v>1326.6</v>
+      </c>
+      <c r="BF30" t="n">
         <v>804.5</v>
       </c>
-      <c r="BE30" t="n">
+      <c r="BG30" t="n">
         <v>830.3</v>
       </c>
     </row>
@@ -5335,10 +5524,16 @@
       <c r="BC31" t="n">
         <v>1326.6</v>
       </c>
-      <c r="BD31" t="n">
+      <c r="BD31" s="3" t="n">
+        <v>38139</v>
+      </c>
+      <c r="BE31" t="n">
+        <v>1326.6</v>
+      </c>
+      <c r="BF31" t="n">
         <v>804.5</v>
       </c>
-      <c r="BE31" t="n">
+      <c r="BG31" t="n">
         <v>830.3</v>
       </c>
     </row>
@@ -5492,10 +5687,16 @@
       <c r="BC32" t="n">
         <v>1326.6</v>
       </c>
-      <c r="BD32" t="n">
+      <c r="BD32" s="3" t="n">
+        <v>38169</v>
+      </c>
+      <c r="BE32" t="n">
+        <v>1326.6</v>
+      </c>
+      <c r="BF32" t="n">
         <v>804.5</v>
       </c>
-      <c r="BE32" t="n">
+      <c r="BG32" t="n">
         <v>830.3</v>
       </c>
     </row>
@@ -5649,10 +5850,16 @@
       <c r="BC33" t="n">
         <v>1326.6</v>
       </c>
-      <c r="BD33" t="n">
+      <c r="BD33" s="3" t="n">
+        <v>38200</v>
+      </c>
+      <c r="BE33" t="n">
+        <v>1326.6</v>
+      </c>
+      <c r="BF33" t="n">
         <v>804.5</v>
       </c>
-      <c r="BE33" t="n">
+      <c r="BG33" t="n">
         <v>830.3</v>
       </c>
     </row>
@@ -5806,10 +6013,16 @@
       <c r="BC34" t="n">
         <v>1326.6</v>
       </c>
-      <c r="BD34" t="n">
+      <c r="BD34" s="3" t="n">
+        <v>38231</v>
+      </c>
+      <c r="BE34" t="n">
+        <v>1326.6</v>
+      </c>
+      <c r="BF34" t="n">
         <v>804.5</v>
       </c>
-      <c r="BE34" t="n">
+      <c r="BG34" t="n">
         <v>830.3</v>
       </c>
     </row>
@@ -5963,10 +6176,16 @@
       <c r="BC35" t="n">
         <v>1326.6</v>
       </c>
-      <c r="BD35" t="n">
+      <c r="BD35" s="3" t="n">
+        <v>38261</v>
+      </c>
+      <c r="BE35" t="n">
+        <v>1326.6</v>
+      </c>
+      <c r="BF35" t="n">
         <v>804.5</v>
       </c>
-      <c r="BE35" t="n">
+      <c r="BG35" t="n">
         <v>830.3</v>
       </c>
     </row>
@@ -6120,10 +6339,16 @@
       <c r="BC36" t="n">
         <v>1326.6</v>
       </c>
-      <c r="BD36" t="n">
+      <c r="BD36" s="3" t="n">
+        <v>38292</v>
+      </c>
+      <c r="BE36" t="n">
+        <v>1326.6</v>
+      </c>
+      <c r="BF36" t="n">
         <v>804.5</v>
       </c>
-      <c r="BE36" t="n">
+      <c r="BG36" t="n">
         <v>830.3</v>
       </c>
     </row>
@@ -6277,10 +6502,16 @@
       <c r="BC37" t="n">
         <v>1326.6</v>
       </c>
-      <c r="BD37" t="n">
+      <c r="BD37" s="3" t="n">
+        <v>38322</v>
+      </c>
+      <c r="BE37" t="n">
+        <v>1326.6</v>
+      </c>
+      <c r="BF37" t="n">
         <v>804.5</v>
       </c>
-      <c r="BE37" t="n">
+      <c r="BG37" t="n">
         <v>830.3</v>
       </c>
     </row>
@@ -6434,10 +6665,16 @@
       <c r="BC38" t="n">
         <v>1326.6</v>
       </c>
-      <c r="BD38" t="n">
+      <c r="BD38" s="3" t="n">
+        <v>38353</v>
+      </c>
+      <c r="BE38" t="n">
+        <v>1326.6</v>
+      </c>
+      <c r="BF38" t="n">
         <v>804.5</v>
       </c>
-      <c r="BE38" t="n">
+      <c r="BG38" t="n">
         <v>830.3</v>
       </c>
     </row>
@@ -6591,10 +6828,16 @@
       <c r="BC39" t="n">
         <v>1326.6</v>
       </c>
-      <c r="BD39" t="n">
+      <c r="BD39" s="3" t="n">
+        <v>38384</v>
+      </c>
+      <c r="BE39" t="n">
+        <v>1326.6</v>
+      </c>
+      <c r="BF39" t="n">
         <v>804.5</v>
       </c>
-      <c r="BE39" t="n">
+      <c r="BG39" t="n">
         <v>830.3</v>
       </c>
     </row>
@@ -6748,11 +6991,17 @@
       <c r="BC40" t="n">
         <v>956.5</v>
       </c>
-      <c r="BD40" t="n">
+      <c r="BD40" s="3" t="n">
+        <v>38412</v>
+      </c>
+      <c r="BE40" t="n">
+        <v>956.5</v>
+      </c>
+      <c r="BF40" t="n">
+        <v>1326.6</v>
+      </c>
+      <c r="BG40" t="n">
         <v>804.5</v>
-      </c>
-      <c r="BE40" t="n">
-        <v>830.3</v>
       </c>
     </row>
     <row r="41">
@@ -6905,11 +7154,17 @@
       <c r="BC41" t="n">
         <v>956.5</v>
       </c>
-      <c r="BD41" t="n">
+      <c r="BD41" s="3" t="n">
+        <v>38443</v>
+      </c>
+      <c r="BE41" t="n">
+        <v>956.5</v>
+      </c>
+      <c r="BF41" t="n">
+        <v>1326.6</v>
+      </c>
+      <c r="BG41" t="n">
         <v>804.5</v>
-      </c>
-      <c r="BE41" t="n">
-        <v>830.3</v>
       </c>
     </row>
     <row r="42">
@@ -7062,10 +7317,16 @@
       <c r="BC42" t="n">
         <v>956.5</v>
       </c>
-      <c r="BD42" t="n">
+      <c r="BD42" s="3" t="n">
+        <v>38473</v>
+      </c>
+      <c r="BE42" t="n">
+        <v>956.5</v>
+      </c>
+      <c r="BF42" t="n">
         <v>1326.6</v>
       </c>
-      <c r="BE42" t="n">
+      <c r="BG42" t="n">
         <v>804.5</v>
       </c>
     </row>
@@ -7219,10 +7480,16 @@
       <c r="BC43" t="n">
         <v>956.5</v>
       </c>
-      <c r="BD43" t="n">
+      <c r="BD43" s="3" t="n">
+        <v>38504</v>
+      </c>
+      <c r="BE43" t="n">
+        <v>956.5</v>
+      </c>
+      <c r="BF43" t="n">
         <v>1326.6</v>
       </c>
-      <c r="BE43" t="n">
+      <c r="BG43" t="n">
         <v>804.5</v>
       </c>
     </row>
@@ -7376,10 +7643,16 @@
       <c r="BC44" t="n">
         <v>956.5</v>
       </c>
-      <c r="BD44" t="n">
+      <c r="BD44" s="3" t="n">
+        <v>38534</v>
+      </c>
+      <c r="BE44" t="n">
+        <v>956.5</v>
+      </c>
+      <c r="BF44" t="n">
         <v>1326.6</v>
       </c>
-      <c r="BE44" t="n">
+      <c r="BG44" t="n">
         <v>804.5</v>
       </c>
     </row>
@@ -7533,10 +7806,16 @@
       <c r="BC45" t="n">
         <v>956.5</v>
       </c>
-      <c r="BD45" t="n">
+      <c r="BD45" s="3" t="n">
+        <v>38565</v>
+      </c>
+      <c r="BE45" t="n">
+        <v>956.5</v>
+      </c>
+      <c r="BF45" t="n">
         <v>1326.6</v>
       </c>
-      <c r="BE45" t="n">
+      <c r="BG45" t="n">
         <v>804.5</v>
       </c>
     </row>
@@ -7690,10 +7969,16 @@
       <c r="BC46" t="n">
         <v>956.5</v>
       </c>
-      <c r="BD46" t="n">
+      <c r="BD46" s="3" t="n">
+        <v>38596</v>
+      </c>
+      <c r="BE46" t="n">
+        <v>956.5</v>
+      </c>
+      <c r="BF46" t="n">
         <v>1326.6</v>
       </c>
-      <c r="BE46" t="n">
+      <c r="BG46" t="n">
         <v>804.5</v>
       </c>
     </row>
@@ -7847,10 +8132,16 @@
       <c r="BC47" t="n">
         <v>956.5</v>
       </c>
-      <c r="BD47" t="n">
+      <c r="BD47" s="3" t="n">
+        <v>38626</v>
+      </c>
+      <c r="BE47" t="n">
+        <v>956.5</v>
+      </c>
+      <c r="BF47" t="n">
         <v>1326.6</v>
       </c>
-      <c r="BE47" t="n">
+      <c r="BG47" t="n">
         <v>804.5</v>
       </c>
     </row>
@@ -8004,10 +8295,16 @@
       <c r="BC48" t="n">
         <v>956.5</v>
       </c>
-      <c r="BD48" t="n">
+      <c r="BD48" s="3" t="n">
+        <v>38657</v>
+      </c>
+      <c r="BE48" t="n">
+        <v>956.5</v>
+      </c>
+      <c r="BF48" t="n">
         <v>1326.6</v>
       </c>
-      <c r="BE48" t="n">
+      <c r="BG48" t="n">
         <v>804.5</v>
       </c>
     </row>
@@ -8161,10 +8458,16 @@
       <c r="BC49" t="n">
         <v>956.5</v>
       </c>
-      <c r="BD49" t="n">
+      <c r="BD49" s="3" t="n">
+        <v>38687</v>
+      </c>
+      <c r="BE49" t="n">
+        <v>956.5</v>
+      </c>
+      <c r="BF49" t="n">
         <v>1326.6</v>
       </c>
-      <c r="BE49" t="n">
+      <c r="BG49" t="n">
         <v>804.5</v>
       </c>
     </row>
@@ -8318,10 +8621,16 @@
       <c r="BC50" t="n">
         <v>956.5</v>
       </c>
-      <c r="BD50" t="n">
+      <c r="BD50" s="3" t="n">
+        <v>38718</v>
+      </c>
+      <c r="BE50" t="n">
+        <v>956.5</v>
+      </c>
+      <c r="BF50" t="n">
         <v>1326.6</v>
       </c>
-      <c r="BE50" t="n">
+      <c r="BG50" t="n">
         <v>804.5</v>
       </c>
     </row>
@@ -8475,10 +8784,16 @@
       <c r="BC51" t="n">
         <v>956.5</v>
       </c>
-      <c r="BD51" t="n">
+      <c r="BD51" s="3" t="n">
+        <v>38749</v>
+      </c>
+      <c r="BE51" t="n">
+        <v>956.5</v>
+      </c>
+      <c r="BF51" t="n">
         <v>1326.6</v>
       </c>
-      <c r="BE51" t="n">
+      <c r="BG51" t="n">
         <v>804.5</v>
       </c>
     </row>
@@ -8632,11 +8947,17 @@
       <c r="BC52" t="n">
         <v>771.5</v>
       </c>
-      <c r="BD52" t="n">
+      <c r="BD52" s="3" t="n">
+        <v>38777</v>
+      </c>
+      <c r="BE52" t="n">
+        <v>771.5</v>
+      </c>
+      <c r="BF52" t="n">
+        <v>956.5</v>
+      </c>
+      <c r="BG52" t="n">
         <v>1326.6</v>
-      </c>
-      <c r="BE52" t="n">
-        <v>804.5</v>
       </c>
     </row>
     <row r="53">
@@ -8789,11 +9110,17 @@
       <c r="BC53" t="n">
         <v>771.5</v>
       </c>
-      <c r="BD53" t="n">
+      <c r="BD53" s="3" t="n">
+        <v>38808</v>
+      </c>
+      <c r="BE53" t="n">
+        <v>771.5</v>
+      </c>
+      <c r="BF53" t="n">
+        <v>956.5</v>
+      </c>
+      <c r="BG53" t="n">
         <v>1326.6</v>
-      </c>
-      <c r="BE53" t="n">
-        <v>804.5</v>
       </c>
     </row>
     <row r="54">
@@ -8946,10 +9273,16 @@
       <c r="BC54" t="n">
         <v>771.5</v>
       </c>
-      <c r="BD54" t="n">
+      <c r="BD54" s="3" t="n">
+        <v>38838</v>
+      </c>
+      <c r="BE54" t="n">
+        <v>771.5</v>
+      </c>
+      <c r="BF54" t="n">
         <v>956.5</v>
       </c>
-      <c r="BE54" t="n">
+      <c r="BG54" t="n">
         <v>1326.6</v>
       </c>
     </row>
@@ -9103,10 +9436,16 @@
       <c r="BC55" t="n">
         <v>771.5</v>
       </c>
-      <c r="BD55" t="n">
+      <c r="BD55" s="3" t="n">
+        <v>38869</v>
+      </c>
+      <c r="BE55" t="n">
+        <v>771.5</v>
+      </c>
+      <c r="BF55" t="n">
         <v>956.5</v>
       </c>
-      <c r="BE55" t="n">
+      <c r="BG55" t="n">
         <v>1326.6</v>
       </c>
     </row>
@@ -9260,10 +9599,16 @@
       <c r="BC56" t="n">
         <v>771.5</v>
       </c>
-      <c r="BD56" t="n">
+      <c r="BD56" s="3" t="n">
+        <v>38899</v>
+      </c>
+      <c r="BE56" t="n">
+        <v>771.5</v>
+      </c>
+      <c r="BF56" t="n">
         <v>956.5</v>
       </c>
-      <c r="BE56" t="n">
+      <c r="BG56" t="n">
         <v>1326.6</v>
       </c>
     </row>
@@ -9417,10 +9762,16 @@
       <c r="BC57" t="n">
         <v>771.5</v>
       </c>
-      <c r="BD57" t="n">
+      <c r="BD57" s="3" t="n">
+        <v>38930</v>
+      </c>
+      <c r="BE57" t="n">
+        <v>771.5</v>
+      </c>
+      <c r="BF57" t="n">
         <v>956.5</v>
       </c>
-      <c r="BE57" t="n">
+      <c r="BG57" t="n">
         <v>1326.6</v>
       </c>
     </row>
@@ -9574,10 +9925,16 @@
       <c r="BC58" t="n">
         <v>771.5</v>
       </c>
-      <c r="BD58" t="n">
+      <c r="BD58" s="3" t="n">
+        <v>38961</v>
+      </c>
+      <c r="BE58" t="n">
+        <v>771.5</v>
+      </c>
+      <c r="BF58" t="n">
         <v>956.5</v>
       </c>
-      <c r="BE58" t="n">
+      <c r="BG58" t="n">
         <v>1326.6</v>
       </c>
     </row>
@@ -9731,10 +10088,16 @@
       <c r="BC59" t="n">
         <v>771.5</v>
       </c>
-      <c r="BD59" t="n">
+      <c r="BD59" s="3" t="n">
+        <v>38991</v>
+      </c>
+      <c r="BE59" t="n">
+        <v>771.5</v>
+      </c>
+      <c r="BF59" t="n">
         <v>956.5</v>
       </c>
-      <c r="BE59" t="n">
+      <c r="BG59" t="n">
         <v>1326.6</v>
       </c>
     </row>
@@ -9888,10 +10251,16 @@
       <c r="BC60" t="n">
         <v>771.5</v>
       </c>
-      <c r="BD60" t="n">
+      <c r="BD60" s="3" t="n">
+        <v>39022</v>
+      </c>
+      <c r="BE60" t="n">
+        <v>771.5</v>
+      </c>
+      <c r="BF60" t="n">
         <v>956.5</v>
       </c>
-      <c r="BE60" t="n">
+      <c r="BG60" t="n">
         <v>1326.6</v>
       </c>
     </row>
@@ -10045,10 +10414,16 @@
       <c r="BC61" t="n">
         <v>771.5</v>
       </c>
-      <c r="BD61" t="n">
+      <c r="BD61" s="3" t="n">
+        <v>39052</v>
+      </c>
+      <c r="BE61" t="n">
+        <v>771.5</v>
+      </c>
+      <c r="BF61" t="n">
         <v>956.5</v>
       </c>
-      <c r="BE61" t="n">
+      <c r="BG61" t="n">
         <v>1326.6</v>
       </c>
     </row>
@@ -10202,10 +10577,16 @@
       <c r="BC62" t="n">
         <v>771.5</v>
       </c>
-      <c r="BD62" t="n">
+      <c r="BD62" s="3" t="n">
+        <v>39083</v>
+      </c>
+      <c r="BE62" t="n">
+        <v>771.5</v>
+      </c>
+      <c r="BF62" t="n">
         <v>956.5</v>
       </c>
-      <c r="BE62" t="n">
+      <c r="BG62" t="n">
         <v>1326.6</v>
       </c>
     </row>
@@ -10359,10 +10740,16 @@
       <c r="BC63" t="n">
         <v>771.5</v>
       </c>
-      <c r="BD63" t="n">
+      <c r="BD63" s="3" t="n">
+        <v>39114</v>
+      </c>
+      <c r="BE63" t="n">
+        <v>771.5</v>
+      </c>
+      <c r="BF63" t="n">
         <v>956.5</v>
       </c>
-      <c r="BE63" t="n">
+      <c r="BG63" t="n">
         <v>1326.6</v>
       </c>
     </row>
@@ -10516,11 +10903,17 @@
       <c r="BC64" t="n">
         <v>1009.7</v>
       </c>
-      <c r="BD64" t="n">
+      <c r="BD64" s="3" t="n">
+        <v>39142</v>
+      </c>
+      <c r="BE64" t="n">
+        <v>1009.7</v>
+      </c>
+      <c r="BF64" t="n">
+        <v>771.5</v>
+      </c>
+      <c r="BG64" t="n">
         <v>956.5</v>
-      </c>
-      <c r="BE64" t="n">
-        <v>1326.6</v>
       </c>
     </row>
     <row r="65">
@@ -10673,11 +11066,17 @@
       <c r="BC65" t="n">
         <v>1009.7</v>
       </c>
-      <c r="BD65" t="n">
+      <c r="BD65" s="3" t="n">
+        <v>39173</v>
+      </c>
+      <c r="BE65" t="n">
+        <v>1009.7</v>
+      </c>
+      <c r="BF65" t="n">
+        <v>771.5</v>
+      </c>
+      <c r="BG65" t="n">
         <v>956.5</v>
-      </c>
-      <c r="BE65" t="n">
-        <v>1326.6</v>
       </c>
     </row>
     <row r="66">
@@ -10830,10 +11229,16 @@
       <c r="BC66" t="n">
         <v>1009.7</v>
       </c>
-      <c r="BD66" t="n">
+      <c r="BD66" s="3" t="n">
+        <v>39203</v>
+      </c>
+      <c r="BE66" t="n">
+        <v>1009.7</v>
+      </c>
+      <c r="BF66" t="n">
         <v>771.5</v>
       </c>
-      <c r="BE66" t="n">
+      <c r="BG66" t="n">
         <v>956.5</v>
       </c>
     </row>
@@ -10987,10 +11392,16 @@
       <c r="BC67" t="n">
         <v>1009.7</v>
       </c>
-      <c r="BD67" t="n">
+      <c r="BD67" s="3" t="n">
+        <v>39234</v>
+      </c>
+      <c r="BE67" t="n">
+        <v>1009.7</v>
+      </c>
+      <c r="BF67" t="n">
         <v>771.5</v>
       </c>
-      <c r="BE67" t="n">
+      <c r="BG67" t="n">
         <v>956.5</v>
       </c>
     </row>
@@ -11144,10 +11555,16 @@
       <c r="BC68" t="n">
         <v>1009.7</v>
       </c>
-      <c r="BD68" t="n">
+      <c r="BD68" s="3" t="n">
+        <v>39264</v>
+      </c>
+      <c r="BE68" t="n">
+        <v>1009.7</v>
+      </c>
+      <c r="BF68" t="n">
         <v>771.5</v>
       </c>
-      <c r="BE68" t="n">
+      <c r="BG68" t="n">
         <v>956.5</v>
       </c>
     </row>
@@ -11301,10 +11718,16 @@
       <c r="BC69" t="n">
         <v>1009.7</v>
       </c>
-      <c r="BD69" t="n">
+      <c r="BD69" s="3" t="n">
+        <v>39295</v>
+      </c>
+      <c r="BE69" t="n">
+        <v>1009.7</v>
+      </c>
+      <c r="BF69" t="n">
         <v>771.5</v>
       </c>
-      <c r="BE69" t="n">
+      <c r="BG69" t="n">
         <v>956.5</v>
       </c>
     </row>
@@ -11458,10 +11881,16 @@
       <c r="BC70" t="n">
         <v>1009.7</v>
       </c>
-      <c r="BD70" t="n">
+      <c r="BD70" s="3" t="n">
+        <v>39326</v>
+      </c>
+      <c r="BE70" t="n">
+        <v>1009.7</v>
+      </c>
+      <c r="BF70" t="n">
         <v>771.5</v>
       </c>
-      <c r="BE70" t="n">
+      <c r="BG70" t="n">
         <v>956.5</v>
       </c>
     </row>
@@ -11615,10 +12044,16 @@
       <c r="BC71" t="n">
         <v>1009.7</v>
       </c>
-      <c r="BD71" t="n">
+      <c r="BD71" s="3" t="n">
+        <v>39356</v>
+      </c>
+      <c r="BE71" t="n">
+        <v>1009.7</v>
+      </c>
+      <c r="BF71" t="n">
         <v>771.5</v>
       </c>
-      <c r="BE71" t="n">
+      <c r="BG71" t="n">
         <v>956.5</v>
       </c>
     </row>
@@ -11772,10 +12207,16 @@
       <c r="BC72" t="n">
         <v>1009.7</v>
       </c>
-      <c r="BD72" t="n">
+      <c r="BD72" s="3" t="n">
+        <v>39387</v>
+      </c>
+      <c r="BE72" t="n">
+        <v>1009.7</v>
+      </c>
+      <c r="BF72" t="n">
         <v>771.5</v>
       </c>
-      <c r="BE72" t="n">
+      <c r="BG72" t="n">
         <v>956.5</v>
       </c>
     </row>
@@ -11929,10 +12370,16 @@
       <c r="BC73" t="n">
         <v>1009.7</v>
       </c>
-      <c r="BD73" t="n">
+      <c r="BD73" s="3" t="n">
+        <v>39417</v>
+      </c>
+      <c r="BE73" t="n">
+        <v>1009.7</v>
+      </c>
+      <c r="BF73" t="n">
         <v>771.5</v>
       </c>
-      <c r="BE73" t="n">
+      <c r="BG73" t="n">
         <v>956.5</v>
       </c>
     </row>
@@ -12086,10 +12533,16 @@
       <c r="BC74" t="n">
         <v>1009.7</v>
       </c>
-      <c r="BD74" t="n">
+      <c r="BD74" s="3" t="n">
+        <v>39448</v>
+      </c>
+      <c r="BE74" t="n">
+        <v>1009.7</v>
+      </c>
+      <c r="BF74" t="n">
         <v>771.5</v>
       </c>
-      <c r="BE74" t="n">
+      <c r="BG74" t="n">
         <v>956.5</v>
       </c>
     </row>
@@ -12243,10 +12696,16 @@
       <c r="BC75" t="n">
         <v>1009.7</v>
       </c>
-      <c r="BD75" t="n">
+      <c r="BD75" s="3" t="n">
+        <v>39479</v>
+      </c>
+      <c r="BE75" t="n">
+        <v>1009.7</v>
+      </c>
+      <c r="BF75" t="n">
         <v>771.5</v>
       </c>
-      <c r="BE75" t="n">
+      <c r="BG75" t="n">
         <v>956.5</v>
       </c>
     </row>
@@ -12400,11 +12859,17 @@
       <c r="BC76" t="n">
         <v>1170.3</v>
       </c>
-      <c r="BD76" t="n">
+      <c r="BD76" s="3" t="n">
+        <v>39508</v>
+      </c>
+      <c r="BE76" t="n">
+        <v>1170.3</v>
+      </c>
+      <c r="BF76" t="n">
+        <v>1009.7</v>
+      </c>
+      <c r="BG76" t="n">
         <v>771.5</v>
-      </c>
-      <c r="BE76" t="n">
-        <v>956.5</v>
       </c>
     </row>
     <row r="77">
@@ -12557,11 +13022,17 @@
       <c r="BC77" t="n">
         <v>1170.3</v>
       </c>
-      <c r="BD77" t="n">
+      <c r="BD77" s="3" t="n">
+        <v>39539</v>
+      </c>
+      <c r="BE77" t="n">
+        <v>1170.3</v>
+      </c>
+      <c r="BF77" t="n">
+        <v>1009.7</v>
+      </c>
+      <c r="BG77" t="n">
         <v>771.5</v>
-      </c>
-      <c r="BE77" t="n">
-        <v>956.5</v>
       </c>
     </row>
     <row r="78">
@@ -12714,10 +13185,16 @@
       <c r="BC78" t="n">
         <v>1170.3</v>
       </c>
-      <c r="BD78" t="n">
+      <c r="BD78" s="3" t="n">
+        <v>39569</v>
+      </c>
+      <c r="BE78" t="n">
+        <v>1170.3</v>
+      </c>
+      <c r="BF78" t="n">
         <v>1009.7</v>
       </c>
-      <c r="BE78" t="n">
+      <c r="BG78" t="n">
         <v>771.5</v>
       </c>
     </row>
@@ -12871,10 +13348,16 @@
       <c r="BC79" t="n">
         <v>1170.3</v>
       </c>
-      <c r="BD79" t="n">
+      <c r="BD79" s="3" t="n">
+        <v>39600</v>
+      </c>
+      <c r="BE79" t="n">
+        <v>1170.3</v>
+      </c>
+      <c r="BF79" t="n">
         <v>1009.7</v>
       </c>
-      <c r="BE79" t="n">
+      <c r="BG79" t="n">
         <v>771.5</v>
       </c>
     </row>
@@ -13028,10 +13511,16 @@
       <c r="BC80" t="n">
         <v>1170.3</v>
       </c>
-      <c r="BD80" t="n">
+      <c r="BD80" s="3" t="n">
+        <v>39630</v>
+      </c>
+      <c r="BE80" t="n">
+        <v>1170.3</v>
+      </c>
+      <c r="BF80" t="n">
         <v>1009.7</v>
       </c>
-      <c r="BE80" t="n">
+      <c r="BG80" t="n">
         <v>771.5</v>
       </c>
     </row>
@@ -13185,10 +13674,16 @@
       <c r="BC81" t="n">
         <v>1170.3</v>
       </c>
-      <c r="BD81" t="n">
+      <c r="BD81" s="3" t="n">
+        <v>39661</v>
+      </c>
+      <c r="BE81" t="n">
+        <v>1170.3</v>
+      </c>
+      <c r="BF81" t="n">
         <v>1009.7</v>
       </c>
-      <c r="BE81" t="n">
+      <c r="BG81" t="n">
         <v>771.5</v>
       </c>
     </row>
@@ -13342,10 +13837,16 @@
       <c r="BC82" t="n">
         <v>1170.3</v>
       </c>
-      <c r="BD82" t="n">
+      <c r="BD82" s="3" t="n">
+        <v>39692</v>
+      </c>
+      <c r="BE82" t="n">
+        <v>1170.3</v>
+      </c>
+      <c r="BF82" t="n">
         <v>1009.7</v>
       </c>
-      <c r="BE82" t="n">
+      <c r="BG82" t="n">
         <v>771.5</v>
       </c>
     </row>
@@ -13499,10 +14000,16 @@
       <c r="BC83" t="n">
         <v>1170.3</v>
       </c>
-      <c r="BD83" t="n">
+      <c r="BD83" s="3" t="n">
+        <v>39722</v>
+      </c>
+      <c r="BE83" t="n">
+        <v>1170.3</v>
+      </c>
+      <c r="BF83" t="n">
         <v>1009.7</v>
       </c>
-      <c r="BE83" t="n">
+      <c r="BG83" t="n">
         <v>771.5</v>
       </c>
     </row>
@@ -13656,10 +14163,16 @@
       <c r="BC84" t="n">
         <v>1170.3</v>
       </c>
-      <c r="BD84" t="n">
+      <c r="BD84" s="3" t="n">
+        <v>39753</v>
+      </c>
+      <c r="BE84" t="n">
+        <v>1170.3</v>
+      </c>
+      <c r="BF84" t="n">
         <v>1009.7</v>
       </c>
-      <c r="BE84" t="n">
+      <c r="BG84" t="n">
         <v>771.5</v>
       </c>
     </row>
@@ -13813,10 +14326,16 @@
       <c r="BC85" t="n">
         <v>1170.3</v>
       </c>
-      <c r="BD85" t="n">
+      <c r="BD85" s="3" t="n">
+        <v>39783</v>
+      </c>
+      <c r="BE85" t="n">
+        <v>1170.3</v>
+      </c>
+      <c r="BF85" t="n">
         <v>1009.7</v>
       </c>
-      <c r="BE85" t="n">
+      <c r="BG85" t="n">
         <v>771.5</v>
       </c>
     </row>
@@ -13970,10 +14489,16 @@
       <c r="BC86" t="n">
         <v>1170.3</v>
       </c>
-      <c r="BD86" t="n">
+      <c r="BD86" s="3" t="n">
+        <v>39814</v>
+      </c>
+      <c r="BE86" t="n">
+        <v>1170.3</v>
+      </c>
+      <c r="BF86" t="n">
         <v>1009.7</v>
       </c>
-      <c r="BE86" t="n">
+      <c r="BG86" t="n">
         <v>771.5</v>
       </c>
     </row>
@@ -14127,10 +14652,16 @@
       <c r="BC87" t="n">
         <v>1170.3</v>
       </c>
-      <c r="BD87" t="n">
+      <c r="BD87" s="3" t="n">
+        <v>39845</v>
+      </c>
+      <c r="BE87" t="n">
+        <v>1170.3</v>
+      </c>
+      <c r="BF87" t="n">
         <v>1009.7</v>
       </c>
-      <c r="BE87" t="n">
+      <c r="BG87" t="n">
         <v>771.5</v>
       </c>
     </row>
@@ -14284,11 +14815,17 @@
       <c r="BC88" t="n">
         <v>955.2</v>
       </c>
-      <c r="BD88" t="n">
+      <c r="BD88" s="3" t="n">
+        <v>39873</v>
+      </c>
+      <c r="BE88" t="n">
+        <v>955.2</v>
+      </c>
+      <c r="BF88" t="n">
+        <v>1170.3</v>
+      </c>
+      <c r="BG88" t="n">
         <v>1009.7</v>
-      </c>
-      <c r="BE88" t="n">
-        <v>771.5</v>
       </c>
     </row>
     <row r="89">
@@ -14441,11 +14978,17 @@
       <c r="BC89" t="n">
         <v>955.2</v>
       </c>
-      <c r="BD89" t="n">
+      <c r="BD89" s="3" t="n">
+        <v>39904</v>
+      </c>
+      <c r="BE89" t="n">
+        <v>955.2</v>
+      </c>
+      <c r="BF89" t="n">
+        <v>1170.3</v>
+      </c>
+      <c r="BG89" t="n">
         <v>1009.7</v>
-      </c>
-      <c r="BE89" t="n">
-        <v>771.5</v>
       </c>
     </row>
     <row r="90">
@@ -14598,10 +15141,16 @@
       <c r="BC90" t="n">
         <v>955.2</v>
       </c>
-      <c r="BD90" t="n">
+      <c r="BD90" s="3" t="n">
+        <v>39934</v>
+      </c>
+      <c r="BE90" t="n">
+        <v>955.2</v>
+      </c>
+      <c r="BF90" t="n">
         <v>1170.3</v>
       </c>
-      <c r="BE90" t="n">
+      <c r="BG90" t="n">
         <v>1009.7</v>
       </c>
     </row>
@@ -14755,10 +15304,16 @@
       <c r="BC91" t="n">
         <v>955.2</v>
       </c>
-      <c r="BD91" t="n">
+      <c r="BD91" s="3" t="n">
+        <v>39965</v>
+      </c>
+      <c r="BE91" t="n">
+        <v>955.2</v>
+      </c>
+      <c r="BF91" t="n">
         <v>1170.3</v>
       </c>
-      <c r="BE91" t="n">
+      <c r="BG91" t="n">
         <v>1009.7</v>
       </c>
     </row>
@@ -14912,10 +15467,16 @@
       <c r="BC92" t="n">
         <v>955.2</v>
       </c>
-      <c r="BD92" t="n">
+      <c r="BD92" s="3" t="n">
+        <v>39995</v>
+      </c>
+      <c r="BE92" t="n">
+        <v>955.2</v>
+      </c>
+      <c r="BF92" t="n">
         <v>1170.3</v>
       </c>
-      <c r="BE92" t="n">
+      <c r="BG92" t="n">
         <v>1009.7</v>
       </c>
     </row>
@@ -15069,10 +15630,16 @@
       <c r="BC93" t="n">
         <v>955.2</v>
       </c>
-      <c r="BD93" t="n">
+      <c r="BD93" s="3" t="n">
+        <v>40026</v>
+      </c>
+      <c r="BE93" t="n">
+        <v>955.2</v>
+      </c>
+      <c r="BF93" t="n">
         <v>1170.3</v>
       </c>
-      <c r="BE93" t="n">
+      <c r="BG93" t="n">
         <v>1009.7</v>
       </c>
     </row>
@@ -15226,10 +15793,16 @@
       <c r="BC94" t="n">
         <v>955.2</v>
       </c>
-      <c r="BD94" t="n">
+      <c r="BD94" s="3" t="n">
+        <v>40057</v>
+      </c>
+      <c r="BE94" t="n">
+        <v>955.2</v>
+      </c>
+      <c r="BF94" t="n">
         <v>1170.3</v>
       </c>
-      <c r="BE94" t="n">
+      <c r="BG94" t="n">
         <v>1009.7</v>
       </c>
     </row>
@@ -15383,10 +15956,16 @@
       <c r="BC95" t="n">
         <v>955.2</v>
       </c>
-      <c r="BD95" t="n">
+      <c r="BD95" s="3" t="n">
+        <v>40087</v>
+      </c>
+      <c r="BE95" t="n">
+        <v>955.2</v>
+      </c>
+      <c r="BF95" t="n">
         <v>1170.3</v>
       </c>
-      <c r="BE95" t="n">
+      <c r="BG95" t="n">
         <v>1009.7</v>
       </c>
     </row>
@@ -15540,10 +16119,16 @@
       <c r="BC96" t="n">
         <v>955.2</v>
       </c>
-      <c r="BD96" t="n">
+      <c r="BD96" s="3" t="n">
+        <v>40118</v>
+      </c>
+      <c r="BE96" t="n">
+        <v>955.2</v>
+      </c>
+      <c r="BF96" t="n">
         <v>1170.3</v>
       </c>
-      <c r="BE96" t="n">
+      <c r="BG96" t="n">
         <v>1009.7</v>
       </c>
     </row>
@@ -15697,10 +16282,16 @@
       <c r="BC97" t="n">
         <v>955.2</v>
       </c>
-      <c r="BD97" t="n">
+      <c r="BD97" s="3" t="n">
+        <v>40148</v>
+      </c>
+      <c r="BE97" t="n">
+        <v>955.2</v>
+      </c>
+      <c r="BF97" t="n">
         <v>1170.3</v>
       </c>
-      <c r="BE97" t="n">
+      <c r="BG97" t="n">
         <v>1009.7</v>
       </c>
     </row>
@@ -15864,10 +16455,16 @@
       <c r="BC98" t="n">
         <v>955.2</v>
       </c>
-      <c r="BD98" t="n">
+      <c r="BD98" s="3" t="n">
+        <v>40179</v>
+      </c>
+      <c r="BE98" t="n">
+        <v>955.2</v>
+      </c>
+      <c r="BF98" t="n">
         <v>1170.3</v>
       </c>
-      <c r="BE98" t="n">
+      <c r="BG98" t="n">
         <v>1009.7</v>
       </c>
     </row>
@@ -16031,10 +16628,16 @@
       <c r="BC99" t="n">
         <v>955.2</v>
       </c>
-      <c r="BD99" t="n">
+      <c r="BD99" s="3" t="n">
+        <v>40210</v>
+      </c>
+      <c r="BE99" t="n">
+        <v>955.2</v>
+      </c>
+      <c r="BF99" t="n">
         <v>1170.3</v>
       </c>
-      <c r="BE99" t="n">
+      <c r="BG99" t="n">
         <v>1009.7</v>
       </c>
     </row>
@@ -16198,11 +16801,17 @@
       <c r="BC100" t="n">
         <v>1087.9</v>
       </c>
-      <c r="BD100" t="n">
+      <c r="BD100" s="3" t="n">
+        <v>40238</v>
+      </c>
+      <c r="BE100" t="n">
+        <v>1087.9</v>
+      </c>
+      <c r="BF100" t="n">
+        <v>955.2</v>
+      </c>
+      <c r="BG100" t="n">
         <v>1170.3</v>
-      </c>
-      <c r="BE100" t="n">
-        <v>1009.7</v>
       </c>
     </row>
     <row r="101">
@@ -16365,11 +16974,17 @@
       <c r="BC101" t="n">
         <v>1087.9</v>
       </c>
-      <c r="BD101" t="n">
+      <c r="BD101" s="3" t="n">
+        <v>40269</v>
+      </c>
+      <c r="BE101" t="n">
+        <v>1087.9</v>
+      </c>
+      <c r="BF101" t="n">
+        <v>955.2</v>
+      </c>
+      <c r="BG101" t="n">
         <v>1170.3</v>
-      </c>
-      <c r="BE101" t="n">
-        <v>1009.7</v>
       </c>
     </row>
     <row r="102">
@@ -16532,10 +17147,16 @@
       <c r="BC102" t="n">
         <v>1087.9</v>
       </c>
-      <c r="BD102" t="n">
+      <c r="BD102" s="3" t="n">
+        <v>40299</v>
+      </c>
+      <c r="BE102" t="n">
+        <v>1087.9</v>
+      </c>
+      <c r="BF102" t="n">
         <v>955.2</v>
       </c>
-      <c r="BE102" t="n">
+      <c r="BG102" t="n">
         <v>1170.3</v>
       </c>
     </row>
@@ -16699,10 +17320,16 @@
       <c r="BC103" t="n">
         <v>1087.9</v>
       </c>
-      <c r="BD103" t="n">
+      <c r="BD103" s="3" t="n">
+        <v>40330</v>
+      </c>
+      <c r="BE103" t="n">
+        <v>1087.9</v>
+      </c>
+      <c r="BF103" t="n">
         <v>955.2</v>
       </c>
-      <c r="BE103" t="n">
+      <c r="BG103" t="n">
         <v>1170.3</v>
       </c>
     </row>
@@ -16866,10 +17493,16 @@
       <c r="BC104" t="n">
         <v>1087.9</v>
       </c>
-      <c r="BD104" t="n">
+      <c r="BD104" s="3" t="n">
+        <v>40360</v>
+      </c>
+      <c r="BE104" t="n">
+        <v>1260.316486298508</v>
+      </c>
+      <c r="BF104" t="n">
         <v>955.2</v>
       </c>
-      <c r="BE104" t="n">
+      <c r="BG104" t="n">
         <v>1170.3</v>
       </c>
     </row>
@@ -17033,10 +17666,16 @@
       <c r="BC105" t="n">
         <v>1087.9</v>
       </c>
-      <c r="BD105" t="n">
+      <c r="BD105" s="3" t="n">
+        <v>40391</v>
+      </c>
+      <c r="BE105" t="n">
+        <v>1260.316486298508</v>
+      </c>
+      <c r="BF105" t="n">
         <v>955.2</v>
       </c>
-      <c r="BE105" t="n">
+      <c r="BG105" t="n">
         <v>1170.3</v>
       </c>
     </row>
@@ -17200,10 +17839,16 @@
       <c r="BC106" t="n">
         <v>1087.9</v>
       </c>
-      <c r="BD106" t="n">
+      <c r="BD106" s="3" t="n">
+        <v>40422</v>
+      </c>
+      <c r="BE106" t="n">
+        <v>1260.316486298508</v>
+      </c>
+      <c r="BF106" t="n">
         <v>955.2</v>
       </c>
-      <c r="BE106" t="n">
+      <c r="BG106" t="n">
         <v>1170.3</v>
       </c>
     </row>
@@ -17367,10 +18012,16 @@
       <c r="BC107" t="n">
         <v>1087.9</v>
       </c>
-      <c r="BD107" t="n">
+      <c r="BD107" s="3" t="n">
+        <v>40452</v>
+      </c>
+      <c r="BE107" t="n">
+        <v>1260.316486298508</v>
+      </c>
+      <c r="BF107" t="n">
         <v>955.2</v>
       </c>
-      <c r="BE107" t="n">
+      <c r="BG107" t="n">
         <v>1170.3</v>
       </c>
     </row>
@@ -17534,10 +18185,16 @@
       <c r="BC108" t="n">
         <v>1087.9</v>
       </c>
-      <c r="BD108" t="n">
+      <c r="BD108" s="3" t="n">
+        <v>40483</v>
+      </c>
+      <c r="BE108" t="n">
+        <v>1260.316486298508</v>
+      </c>
+      <c r="BF108" t="n">
         <v>955.2</v>
       </c>
-      <c r="BE108" t="n">
+      <c r="BG108" t="n">
         <v>1170.3</v>
       </c>
     </row>
@@ -17701,10 +18358,16 @@
       <c r="BC109" t="n">
         <v>1087.9</v>
       </c>
-      <c r="BD109" t="n">
+      <c r="BD109" s="3" t="n">
+        <v>40513</v>
+      </c>
+      <c r="BE109" t="n">
+        <v>1260.316486298508</v>
+      </c>
+      <c r="BF109" t="n">
         <v>955.2</v>
       </c>
-      <c r="BE109" t="n">
+      <c r="BG109" t="n">
         <v>1170.3</v>
       </c>
     </row>
@@ -17868,10 +18531,16 @@
       <c r="BC110" t="n">
         <v>1087.9</v>
       </c>
-      <c r="BD110" t="n">
+      <c r="BD110" s="3" t="n">
+        <v>40544</v>
+      </c>
+      <c r="BE110" t="n">
+        <v>1260.316486298508</v>
+      </c>
+      <c r="BF110" t="n">
         <v>955.2</v>
       </c>
-      <c r="BE110" t="n">
+      <c r="BG110" t="n">
         <v>1170.3</v>
       </c>
     </row>
@@ -18035,10 +18704,16 @@
       <c r="BC111" t="n">
         <v>1087.9</v>
       </c>
-      <c r="BD111" t="n">
+      <c r="BD111" s="3" t="n">
+        <v>40575</v>
+      </c>
+      <c r="BE111" t="n">
+        <v>1260.316486298508</v>
+      </c>
+      <c r="BF111" t="n">
         <v>955.2</v>
       </c>
-      <c r="BE111" t="n">
+      <c r="BG111" t="n">
         <v>1170.3</v>
       </c>
     </row>
@@ -18202,11 +18877,17 @@
       <c r="BC112" t="n">
         <v>1339.6</v>
       </c>
-      <c r="BD112" t="n">
+      <c r="BD112" s="3" t="n">
+        <v>40603</v>
+      </c>
+      <c r="BE112" t="n">
+        <v>1339.6</v>
+      </c>
+      <c r="BF112" t="n">
+        <v>1087.9</v>
+      </c>
+      <c r="BG112" t="n">
         <v>955.2</v>
-      </c>
-      <c r="BE112" t="n">
-        <v>1170.3</v>
       </c>
     </row>
     <row r="113">
@@ -18369,11 +19050,17 @@
       <c r="BC113" t="n">
         <v>1339.6</v>
       </c>
-      <c r="BD113" t="n">
+      <c r="BD113" s="3" t="n">
+        <v>40634</v>
+      </c>
+      <c r="BE113" t="n">
+        <v>1339.6</v>
+      </c>
+      <c r="BF113" t="n">
+        <v>1087.9</v>
+      </c>
+      <c r="BG113" t="n">
         <v>955.2</v>
-      </c>
-      <c r="BE113" t="n">
-        <v>1170.3</v>
       </c>
     </row>
     <row r="114">
@@ -18536,10 +19223,16 @@
       <c r="BC114" t="n">
         <v>1339.6</v>
       </c>
-      <c r="BD114" t="n">
+      <c r="BD114" s="3" t="n">
+        <v>40664</v>
+      </c>
+      <c r="BE114" t="n">
+        <v>1339.6</v>
+      </c>
+      <c r="BF114" t="n">
         <v>1087.9</v>
       </c>
-      <c r="BE114" t="n">
+      <c r="BG114" t="n">
         <v>955.2</v>
       </c>
     </row>
@@ -18703,10 +19396,16 @@
       <c r="BC115" t="n">
         <v>1339.6</v>
       </c>
-      <c r="BD115" t="n">
+      <c r="BD115" s="3" t="n">
+        <v>40695</v>
+      </c>
+      <c r="BE115" t="n">
+        <v>1339.6</v>
+      </c>
+      <c r="BF115" t="n">
         <v>1087.9</v>
       </c>
-      <c r="BE115" t="n">
+      <c r="BG115" t="n">
         <v>955.2</v>
       </c>
     </row>
@@ -18870,10 +19569,16 @@
       <c r="BC116" t="n">
         <v>1339.6</v>
       </c>
-      <c r="BD116" t="n">
+      <c r="BD116" s="3" t="n">
+        <v>40725</v>
+      </c>
+      <c r="BE116" t="n">
+        <v>1306.994874679935</v>
+      </c>
+      <c r="BF116" t="n">
         <v>1087.9</v>
       </c>
-      <c r="BE116" t="n">
+      <c r="BG116" t="n">
         <v>955.2</v>
       </c>
     </row>
@@ -19037,10 +19742,16 @@
       <c r="BC117" t="n">
         <v>1339.6</v>
       </c>
-      <c r="BD117" t="n">
+      <c r="BD117" s="3" t="n">
+        <v>40756</v>
+      </c>
+      <c r="BE117" t="n">
+        <v>1306.994874679935</v>
+      </c>
+      <c r="BF117" t="n">
         <v>1087.9</v>
       </c>
-      <c r="BE117" t="n">
+      <c r="BG117" t="n">
         <v>955.2</v>
       </c>
     </row>
@@ -19204,10 +19915,16 @@
       <c r="BC118" t="n">
         <v>1339.6</v>
       </c>
-      <c r="BD118" t="n">
+      <c r="BD118" s="3" t="n">
+        <v>40787</v>
+      </c>
+      <c r="BE118" t="n">
+        <v>1306.994874679935</v>
+      </c>
+      <c r="BF118" t="n">
         <v>1087.9</v>
       </c>
-      <c r="BE118" t="n">
+      <c r="BG118" t="n">
         <v>955.2</v>
       </c>
     </row>
@@ -19371,10 +20088,16 @@
       <c r="BC119" t="n">
         <v>1339.6</v>
       </c>
-      <c r="BD119" t="n">
+      <c r="BD119" s="3" t="n">
+        <v>40817</v>
+      </c>
+      <c r="BE119" t="n">
+        <v>1306.994874679935</v>
+      </c>
+      <c r="BF119" t="n">
         <v>1087.9</v>
       </c>
-      <c r="BE119" t="n">
+      <c r="BG119" t="n">
         <v>955.2</v>
       </c>
     </row>
@@ -19538,10 +20261,16 @@
       <c r="BC120" t="n">
         <v>1339.6</v>
       </c>
-      <c r="BD120" t="n">
+      <c r="BD120" s="3" t="n">
+        <v>40848</v>
+      </c>
+      <c r="BE120" t="n">
+        <v>1306.994874679935</v>
+      </c>
+      <c r="BF120" t="n">
         <v>1087.9</v>
       </c>
-      <c r="BE120" t="n">
+      <c r="BG120" t="n">
         <v>955.2</v>
       </c>
     </row>
@@ -19705,10 +20434,16 @@
       <c r="BC121" t="n">
         <v>1339.6</v>
       </c>
-      <c r="BD121" t="n">
+      <c r="BD121" s="3" t="n">
+        <v>40878</v>
+      </c>
+      <c r="BE121" t="n">
+        <v>1306.994874679935</v>
+      </c>
+      <c r="BF121" t="n">
         <v>1087.9</v>
       </c>
-      <c r="BE121" t="n">
+      <c r="BG121" t="n">
         <v>955.2</v>
       </c>
     </row>
@@ -19872,10 +20607,16 @@
       <c r="BC122" t="n">
         <v>1339.6</v>
       </c>
-      <c r="BD122" t="n">
+      <c r="BD122" s="3" t="n">
+        <v>40909</v>
+      </c>
+      <c r="BE122" t="n">
+        <v>1306.994874679935</v>
+      </c>
+      <c r="BF122" t="n">
         <v>1087.9</v>
       </c>
-      <c r="BE122" t="n">
+      <c r="BG122" t="n">
         <v>955.2</v>
       </c>
     </row>
@@ -20039,10 +20780,16 @@
       <c r="BC123" t="n">
         <v>1339.6</v>
       </c>
-      <c r="BD123" t="n">
+      <c r="BD123" s="3" t="n">
+        <v>40940</v>
+      </c>
+      <c r="BE123" t="n">
+        <v>1306.994874679935</v>
+      </c>
+      <c r="BF123" t="n">
         <v>1087.9</v>
       </c>
-      <c r="BE123" t="n">
+      <c r="BG123" t="n">
         <v>955.2</v>
       </c>
     </row>
@@ -20206,11 +20953,17 @@
       <c r="BC124" t="n">
         <v>1571.4</v>
       </c>
-      <c r="BD124" t="n">
+      <c r="BD124" s="3" t="n">
+        <v>40969</v>
+      </c>
+      <c r="BE124" t="n">
+        <v>1571.4</v>
+      </c>
+      <c r="BF124" t="n">
+        <v>1339.6</v>
+      </c>
+      <c r="BG124" t="n">
         <v>1087.9</v>
-      </c>
-      <c r="BE124" t="n">
-        <v>955.2</v>
       </c>
     </row>
     <row r="125">
@@ -20373,11 +21126,17 @@
       <c r="BC125" t="n">
         <v>1571.4</v>
       </c>
-      <c r="BD125" t="n">
+      <c r="BD125" s="3" t="n">
+        <v>41000</v>
+      </c>
+      <c r="BE125" t="n">
+        <v>1571.4</v>
+      </c>
+      <c r="BF125" t="n">
+        <v>1339.6</v>
+      </c>
+      <c r="BG125" t="n">
         <v>1087.9</v>
-      </c>
-      <c r="BE125" t="n">
-        <v>955.2</v>
       </c>
     </row>
     <row r="126">
@@ -20540,10 +21299,16 @@
       <c r="BC126" t="n">
         <v>1571.4</v>
       </c>
-      <c r="BD126" t="n">
+      <c r="BD126" s="3" t="n">
+        <v>41030</v>
+      </c>
+      <c r="BE126" t="n">
+        <v>1571.4</v>
+      </c>
+      <c r="BF126" t="n">
         <v>1339.6</v>
       </c>
-      <c r="BE126" t="n">
+      <c r="BG126" t="n">
         <v>1087.9</v>
       </c>
     </row>
@@ -20707,10 +21472,16 @@
       <c r="BC127" t="n">
         <v>1571.4</v>
       </c>
-      <c r="BD127" t="n">
+      <c r="BD127" s="3" t="n">
+        <v>41061</v>
+      </c>
+      <c r="BE127" t="n">
+        <v>1571.4</v>
+      </c>
+      <c r="BF127" t="n">
         <v>1339.6</v>
       </c>
-      <c r="BE127" t="n">
+      <c r="BG127" t="n">
         <v>1087.9</v>
       </c>
     </row>
@@ -20874,10 +21645,16 @@
       <c r="BC128" t="n">
         <v>1571.4</v>
       </c>
-      <c r="BD128" t="n">
+      <c r="BD128" s="3" t="n">
+        <v>41091</v>
+      </c>
+      <c r="BE128" t="n">
+        <v>583.479854767828</v>
+      </c>
+      <c r="BF128" t="n">
         <v>1339.6</v>
       </c>
-      <c r="BE128" t="n">
+      <c r="BG128" t="n">
         <v>1087.9</v>
       </c>
     </row>
@@ -21041,10 +21818,16 @@
       <c r="BC129" t="n">
         <v>1571.4</v>
       </c>
-      <c r="BD129" t="n">
+      <c r="BD129" s="3" t="n">
+        <v>41122</v>
+      </c>
+      <c r="BE129" t="n">
+        <v>583.479854767828</v>
+      </c>
+      <c r="BF129" t="n">
         <v>1339.6</v>
       </c>
-      <c r="BE129" t="n">
+      <c r="BG129" t="n">
         <v>1087.9</v>
       </c>
     </row>
@@ -21208,10 +21991,16 @@
       <c r="BC130" t="n">
         <v>1571.4</v>
       </c>
-      <c r="BD130" t="n">
+      <c r="BD130" s="3" t="n">
+        <v>41153</v>
+      </c>
+      <c r="BE130" t="n">
+        <v>583.479854767828</v>
+      </c>
+      <c r="BF130" t="n">
         <v>1339.6</v>
       </c>
-      <c r="BE130" t="n">
+      <c r="BG130" t="n">
         <v>1087.9</v>
       </c>
     </row>
@@ -21375,10 +22164,16 @@
       <c r="BC131" t="n">
         <v>1571.4</v>
       </c>
-      <c r="BD131" t="n">
+      <c r="BD131" s="3" t="n">
+        <v>41183</v>
+      </c>
+      <c r="BE131" t="n">
+        <v>583.479854767828</v>
+      </c>
+      <c r="BF131" t="n">
         <v>1339.6</v>
       </c>
-      <c r="BE131" t="n">
+      <c r="BG131" t="n">
         <v>1087.9</v>
       </c>
     </row>
@@ -21542,10 +22337,16 @@
       <c r="BC132" t="n">
         <v>1571.4</v>
       </c>
-      <c r="BD132" t="n">
+      <c r="BD132" s="3" t="n">
+        <v>41214</v>
+      </c>
+      <c r="BE132" t="n">
+        <v>583.479854767828</v>
+      </c>
+      <c r="BF132" t="n">
         <v>1339.6</v>
       </c>
-      <c r="BE132" t="n">
+      <c r="BG132" t="n">
         <v>1087.9</v>
       </c>
     </row>
@@ -21709,10 +22510,16 @@
       <c r="BC133" t="n">
         <v>1571.4</v>
       </c>
-      <c r="BD133" t="n">
+      <c r="BD133" s="3" t="n">
+        <v>41244</v>
+      </c>
+      <c r="BE133" t="n">
+        <v>583.479854767828</v>
+      </c>
+      <c r="BF133" t="n">
         <v>1339.6</v>
       </c>
-      <c r="BE133" t="n">
+      <c r="BG133" t="n">
         <v>1087.9</v>
       </c>
     </row>
@@ -21876,10 +22683,16 @@
       <c r="BC134" t="n">
         <v>1571.4</v>
       </c>
-      <c r="BD134" t="n">
+      <c r="BD134" s="3" t="n">
+        <v>41275</v>
+      </c>
+      <c r="BE134" t="n">
+        <v>583.479854767828</v>
+      </c>
+      <c r="BF134" t="n">
         <v>1339.6</v>
       </c>
-      <c r="BE134" t="n">
+      <c r="BG134" t="n">
         <v>1087.9</v>
       </c>
     </row>
@@ -22043,10 +22856,16 @@
       <c r="BC135" t="n">
         <v>1571.4</v>
       </c>
-      <c r="BD135" t="n">
+      <c r="BD135" s="3" t="n">
+        <v>41306</v>
+      </c>
+      <c r="BE135" t="n">
+        <v>583.479854767828</v>
+      </c>
+      <c r="BF135" t="n">
         <v>1339.6</v>
       </c>
-      <c r="BE135" t="n">
+      <c r="BG135" t="n">
         <v>1087.9</v>
       </c>
     </row>
@@ -22210,11 +23029,17 @@
       <c r="BC136" t="n">
         <v>598.6</v>
       </c>
-      <c r="BD136" t="n">
+      <c r="BD136" s="3" t="n">
+        <v>41334</v>
+      </c>
+      <c r="BE136" t="n">
+        <v>598.6</v>
+      </c>
+      <c r="BF136" t="n">
+        <v>1571.4</v>
+      </c>
+      <c r="BG136" t="n">
         <v>1339.6</v>
-      </c>
-      <c r="BE136" t="n">
-        <v>1087.9</v>
       </c>
     </row>
     <row r="137">
@@ -22377,11 +23202,17 @@
       <c r="BC137" t="n">
         <v>598.6</v>
       </c>
-      <c r="BD137" t="n">
+      <c r="BD137" s="3" t="n">
+        <v>41365</v>
+      </c>
+      <c r="BE137" t="n">
+        <v>598.6</v>
+      </c>
+      <c r="BF137" t="n">
+        <v>1571.4</v>
+      </c>
+      <c r="BG137" t="n">
         <v>1339.6</v>
-      </c>
-      <c r="BE137" t="n">
-        <v>1087.9</v>
       </c>
     </row>
     <row r="138">
@@ -22544,10 +23375,16 @@
       <c r="BC138" t="n">
         <v>598.6</v>
       </c>
-      <c r="BD138" t="n">
+      <c r="BD138" s="3" t="n">
+        <v>41395</v>
+      </c>
+      <c r="BE138" t="n">
+        <v>598.6</v>
+      </c>
+      <c r="BF138" t="n">
         <v>1571.4</v>
       </c>
-      <c r="BE138" t="n">
+      <c r="BG138" t="n">
         <v>1339.6</v>
       </c>
     </row>
@@ -22711,10 +23548,16 @@
       <c r="BC139" t="n">
         <v>598.6</v>
       </c>
-      <c r="BD139" t="n">
+      <c r="BD139" s="3" t="n">
+        <v>41426</v>
+      </c>
+      <c r="BE139" t="n">
+        <v>598.6</v>
+      </c>
+      <c r="BF139" t="n">
         <v>1571.4</v>
       </c>
-      <c r="BE139" t="n">
+      <c r="BG139" t="n">
         <v>1339.6</v>
       </c>
     </row>
@@ -22878,10 +23721,16 @@
       <c r="BC140" t="n">
         <v>598.6</v>
       </c>
-      <c r="BD140" t="n">
+      <c r="BD140" s="3" t="n">
+        <v>41456</v>
+      </c>
+      <c r="BE140" t="n">
+        <v>1503.977673649553</v>
+      </c>
+      <c r="BF140" t="n">
         <v>1571.4</v>
       </c>
-      <c r="BE140" t="n">
+      <c r="BG140" t="n">
         <v>1339.6</v>
       </c>
     </row>
@@ -23045,10 +23894,16 @@
       <c r="BC141" t="n">
         <v>598.6</v>
       </c>
-      <c r="BD141" t="n">
+      <c r="BD141" s="3" t="n">
+        <v>41487</v>
+      </c>
+      <c r="BE141" t="n">
+        <v>1503.977673649553</v>
+      </c>
+      <c r="BF141" t="n">
         <v>1571.4</v>
       </c>
-      <c r="BE141" t="n">
+      <c r="BG141" t="n">
         <v>1339.6</v>
       </c>
     </row>
@@ -23212,10 +24067,16 @@
       <c r="BC142" t="n">
         <v>598.6</v>
       </c>
-      <c r="BD142" t="n">
+      <c r="BD142" s="3" t="n">
+        <v>41518</v>
+      </c>
+      <c r="BE142" t="n">
+        <v>1503.977673649553</v>
+      </c>
+      <c r="BF142" t="n">
         <v>1571.4</v>
       </c>
-      <c r="BE142" t="n">
+      <c r="BG142" t="n">
         <v>1339.6</v>
       </c>
     </row>
@@ -23379,10 +24240,16 @@
       <c r="BC143" t="n">
         <v>598.6</v>
       </c>
-      <c r="BD143" t="n">
+      <c r="BD143" s="3" t="n">
+        <v>41548</v>
+      </c>
+      <c r="BE143" t="n">
+        <v>1503.977673649553</v>
+      </c>
+      <c r="BF143" t="n">
         <v>1571.4</v>
       </c>
-      <c r="BE143" t="n">
+      <c r="BG143" t="n">
         <v>1339.6</v>
       </c>
     </row>
@@ -23546,10 +24413,16 @@
       <c r="BC144" t="n">
         <v>598.6</v>
       </c>
-      <c r="BD144" t="n">
+      <c r="BD144" s="3" t="n">
+        <v>41579</v>
+      </c>
+      <c r="BE144" t="n">
+        <v>1503.977673649553</v>
+      </c>
+      <c r="BF144" t="n">
         <v>1571.4</v>
       </c>
-      <c r="BE144" t="n">
+      <c r="BG144" t="n">
         <v>1339.6</v>
       </c>
     </row>
@@ -23713,10 +24586,16 @@
       <c r="BC145" t="n">
         <v>598.6</v>
       </c>
-      <c r="BD145" t="n">
+      <c r="BD145" s="3" t="n">
+        <v>41609</v>
+      </c>
+      <c r="BE145" t="n">
+        <v>1503.977673649553</v>
+      </c>
+      <c r="BF145" t="n">
         <v>1571.4</v>
       </c>
-      <c r="BE145" t="n">
+      <c r="BG145" t="n">
         <v>1339.6</v>
       </c>
     </row>
@@ -23880,10 +24759,16 @@
       <c r="BC146" t="n">
         <v>598.6</v>
       </c>
-      <c r="BD146" t="n">
+      <c r="BD146" s="3" t="n">
+        <v>41640</v>
+      </c>
+      <c r="BE146" t="n">
+        <v>1503.977673649553</v>
+      </c>
+      <c r="BF146" t="n">
         <v>1571.4</v>
       </c>
-      <c r="BE146" t="n">
+      <c r="BG146" t="n">
         <v>1339.6</v>
       </c>
     </row>
@@ -24047,10 +24932,16 @@
       <c r="BC147" t="n">
         <v>598.6</v>
       </c>
-      <c r="BD147" t="n">
+      <c r="BD147" s="3" t="n">
+        <v>41671</v>
+      </c>
+      <c r="BE147" t="n">
+        <v>1503.977673649553</v>
+      </c>
+      <c r="BF147" t="n">
         <v>1571.4</v>
       </c>
-      <c r="BE147" t="n">
+      <c r="BG147" t="n">
         <v>1339.6</v>
       </c>
     </row>
@@ -24214,11 +25105,17 @@
       <c r="BC148" t="n">
         <v>1553.1</v>
       </c>
-      <c r="BD148" t="n">
+      <c r="BD148" s="3" t="n">
+        <v>41699</v>
+      </c>
+      <c r="BE148" t="n">
+        <v>1553.1</v>
+      </c>
+      <c r="BF148" t="n">
+        <v>598.6</v>
+      </c>
+      <c r="BG148" t="n">
         <v>1571.4</v>
-      </c>
-      <c r="BE148" t="n">
-        <v>1339.6</v>
       </c>
     </row>
     <row r="149">
@@ -24381,11 +25278,17 @@
       <c r="BC149" t="n">
         <v>1553.1</v>
       </c>
-      <c r="BD149" t="n">
+      <c r="BD149" s="3" t="n">
+        <v>41730</v>
+      </c>
+      <c r="BE149" t="n">
+        <v>1553.1</v>
+      </c>
+      <c r="BF149" t="n">
+        <v>598.6</v>
+      </c>
+      <c r="BG149" t="n">
         <v>1571.4</v>
-      </c>
-      <c r="BE149" t="n">
-        <v>1339.6</v>
       </c>
     </row>
     <row r="150">
@@ -24548,10 +25451,16 @@
       <c r="BC150" t="n">
         <v>1553.1</v>
       </c>
-      <c r="BD150" t="n">
+      <c r="BD150" s="3" t="n">
+        <v>41760</v>
+      </c>
+      <c r="BE150" t="n">
+        <v>1553.1</v>
+      </c>
+      <c r="BF150" t="n">
         <v>598.6</v>
       </c>
-      <c r="BE150" t="n">
+      <c r="BG150" t="n">
         <v>1571.4</v>
       </c>
     </row>
@@ -24715,10 +25624,16 @@
       <c r="BC151" t="n">
         <v>1553.1</v>
       </c>
-      <c r="BD151" t="n">
+      <c r="BD151" s="3" t="n">
+        <v>41791</v>
+      </c>
+      <c r="BE151" t="n">
+        <v>1553.1</v>
+      </c>
+      <c r="BF151" t="n">
         <v>598.6</v>
       </c>
-      <c r="BE151" t="n">
+      <c r="BG151" t="n">
         <v>1571.4</v>
       </c>
     </row>
@@ -24882,10 +25797,16 @@
       <c r="BC152" t="n">
         <v>1553.1</v>
       </c>
-      <c r="BD152" t="n">
+      <c r="BD152" s="3" t="n">
+        <v>41821</v>
+      </c>
+      <c r="BE152" t="n">
+        <v>731.9171298207634</v>
+      </c>
+      <c r="BF152" t="n">
         <v>598.6</v>
       </c>
-      <c r="BE152" t="n">
+      <c r="BG152" t="n">
         <v>1571.4</v>
       </c>
     </row>
@@ -25049,10 +25970,16 @@
       <c r="BC153" t="n">
         <v>1553.1</v>
       </c>
-      <c r="BD153" t="n">
+      <c r="BD153" s="3" t="n">
+        <v>41852</v>
+      </c>
+      <c r="BE153" t="n">
+        <v>731.9171298207634</v>
+      </c>
+      <c r="BF153" t="n">
         <v>598.6</v>
       </c>
-      <c r="BE153" t="n">
+      <c r="BG153" t="n">
         <v>1571.4</v>
       </c>
     </row>
@@ -25216,10 +26143,16 @@
       <c r="BC154" t="n">
         <v>1553.1</v>
       </c>
-      <c r="BD154" t="n">
+      <c r="BD154" s="3" t="n">
+        <v>41883</v>
+      </c>
+      <c r="BE154" t="n">
+        <v>731.9171298207634</v>
+      </c>
+      <c r="BF154" t="n">
         <v>598.6</v>
       </c>
-      <c r="BE154" t="n">
+      <c r="BG154" t="n">
         <v>1571.4</v>
       </c>
     </row>
@@ -25383,10 +26316,16 @@
       <c r="BC155" t="n">
         <v>1553.1</v>
       </c>
-      <c r="BD155" t="n">
+      <c r="BD155" s="3" t="n">
+        <v>41913</v>
+      </c>
+      <c r="BE155" t="n">
+        <v>731.9171298207634</v>
+      </c>
+      <c r="BF155" t="n">
         <v>598.6</v>
       </c>
-      <c r="BE155" t="n">
+      <c r="BG155" t="n">
         <v>1571.4</v>
       </c>
     </row>
@@ -25550,10 +26489,16 @@
       <c r="BC156" t="n">
         <v>1553.1</v>
       </c>
-      <c r="BD156" t="n">
+      <c r="BD156" s="3" t="n">
+        <v>41944</v>
+      </c>
+      <c r="BE156" t="n">
+        <v>731.9171298207634</v>
+      </c>
+      <c r="BF156" t="n">
         <v>598.6</v>
       </c>
-      <c r="BE156" t="n">
+      <c r="BG156" t="n">
         <v>1571.4</v>
       </c>
     </row>
@@ -25717,10 +26662,16 @@
       <c r="BC157" t="n">
         <v>1553.1</v>
       </c>
-      <c r="BD157" t="n">
+      <c r="BD157" s="3" t="n">
+        <v>41974</v>
+      </c>
+      <c r="BE157" t="n">
+        <v>731.9171298207634</v>
+      </c>
+      <c r="BF157" t="n">
         <v>598.6</v>
       </c>
-      <c r="BE157" t="n">
+      <c r="BG157" t="n">
         <v>1571.4</v>
       </c>
     </row>
@@ -25884,10 +26835,16 @@
       <c r="BC158" t="n">
         <v>1553.1</v>
       </c>
-      <c r="BD158" t="n">
+      <c r="BD158" s="3" t="n">
+        <v>42005</v>
+      </c>
+      <c r="BE158" t="n">
+        <v>731.9171298207634</v>
+      </c>
+      <c r="BF158" t="n">
         <v>598.6</v>
       </c>
-      <c r="BE158" t="n">
+      <c r="BG158" t="n">
         <v>1571.4</v>
       </c>
     </row>
@@ -26051,10 +27008,16 @@
       <c r="BC159" t="n">
         <v>1553.1</v>
       </c>
-      <c r="BD159" t="n">
+      <c r="BD159" s="3" t="n">
+        <v>42036</v>
+      </c>
+      <c r="BE159" t="n">
+        <v>731.9171298207634</v>
+      </c>
+      <c r="BF159" t="n">
         <v>598.6</v>
       </c>
-      <c r="BE159" t="n">
+      <c r="BG159" t="n">
         <v>1571.4</v>
       </c>
     </row>
@@ -26218,11 +27181,17 @@
       <c r="BC160" t="n">
         <v>813.7</v>
       </c>
-      <c r="BD160" t="n">
+      <c r="BD160" s="3" t="n">
+        <v>42064</v>
+      </c>
+      <c r="BE160" t="n">
+        <v>813.7</v>
+      </c>
+      <c r="BF160" t="n">
+        <v>1553.1</v>
+      </c>
+      <c r="BG160" t="n">
         <v>598.6</v>
-      </c>
-      <c r="BE160" t="n">
-        <v>1571.4</v>
       </c>
     </row>
     <row r="161">
@@ -26385,11 +27354,17 @@
       <c r="BC161" t="n">
         <v>813.7</v>
       </c>
-      <c r="BD161" t="n">
+      <c r="BD161" s="3" t="n">
+        <v>42095</v>
+      </c>
+      <c r="BE161" t="n">
+        <v>813.7</v>
+      </c>
+      <c r="BF161" t="n">
+        <v>1553.1</v>
+      </c>
+      <c r="BG161" t="n">
         <v>598.6</v>
-      </c>
-      <c r="BE161" t="n">
-        <v>1571.4</v>
       </c>
     </row>
     <row r="162">
@@ -26552,10 +27527,16 @@
       <c r="BC162" t="n">
         <v>813.7</v>
       </c>
-      <c r="BD162" t="n">
+      <c r="BD162" s="3" t="n">
+        <v>42125</v>
+      </c>
+      <c r="BE162" t="n">
+        <v>813.7</v>
+      </c>
+      <c r="BF162" t="n">
         <v>1553.1</v>
       </c>
-      <c r="BE162" t="n">
+      <c r="BG162" t="n">
         <v>598.6</v>
       </c>
     </row>
@@ -26719,10 +27700,16 @@
       <c r="BC163" t="n">
         <v>813.7</v>
       </c>
-      <c r="BD163" t="n">
+      <c r="BD163" s="3" t="n">
+        <v>42156</v>
+      </c>
+      <c r="BE163" t="n">
+        <v>813.7</v>
+      </c>
+      <c r="BF163" t="n">
         <v>1553.1</v>
       </c>
-      <c r="BE163" t="n">
+      <c r="BG163" t="n">
         <v>598.6</v>
       </c>
     </row>
@@ -26886,10 +27873,16 @@
       <c r="BC164" t="n">
         <v>813.7</v>
       </c>
-      <c r="BD164" t="n">
+      <c r="BD164" s="3" t="n">
+        <v>42186</v>
+      </c>
+      <c r="BE164" t="n">
+        <v>1120.28132115423</v>
+      </c>
+      <c r="BF164" t="n">
         <v>1553.1</v>
       </c>
-      <c r="BE164" t="n">
+      <c r="BG164" t="n">
         <v>598.6</v>
       </c>
     </row>
@@ -27053,10 +28046,16 @@
       <c r="BC165" t="n">
         <v>813.7</v>
       </c>
-      <c r="BD165" t="n">
+      <c r="BD165" s="3" t="n">
+        <v>42217</v>
+      </c>
+      <c r="BE165" t="n">
+        <v>1120.28132115423</v>
+      </c>
+      <c r="BF165" t="n">
         <v>1553.1</v>
       </c>
-      <c r="BE165" t="n">
+      <c r="BG165" t="n">
         <v>598.6</v>
       </c>
     </row>
@@ -27220,10 +28219,16 @@
       <c r="BC166" t="n">
         <v>813.7</v>
       </c>
-      <c r="BD166" t="n">
+      <c r="BD166" s="3" t="n">
+        <v>42248</v>
+      </c>
+      <c r="BE166" t="n">
+        <v>1120.28132115423</v>
+      </c>
+      <c r="BF166" t="n">
         <v>1553.1</v>
       </c>
-      <c r="BE166" t="n">
+      <c r="BG166" t="n">
         <v>598.6</v>
       </c>
     </row>
@@ -27387,10 +28392,16 @@
       <c r="BC167" t="n">
         <v>813.7</v>
       </c>
-      <c r="BD167" t="n">
+      <c r="BD167" s="3" t="n">
+        <v>42278</v>
+      </c>
+      <c r="BE167" t="n">
+        <v>1120.28132115423</v>
+      </c>
+      <c r="BF167" t="n">
         <v>1553.1</v>
       </c>
-      <c r="BE167" t="n">
+      <c r="BG167" t="n">
         <v>598.6</v>
       </c>
     </row>
@@ -27554,10 +28565,16 @@
       <c r="BC168" t="n">
         <v>813.7</v>
       </c>
-      <c r="BD168" t="n">
+      <c r="BD168" s="3" t="n">
+        <v>42309</v>
+      </c>
+      <c r="BE168" t="n">
+        <v>1120.28132115423</v>
+      </c>
+      <c r="BF168" t="n">
         <v>1553.1</v>
       </c>
-      <c r="BE168" t="n">
+      <c r="BG168" t="n">
         <v>598.6</v>
       </c>
     </row>
@@ -27723,10 +28740,16 @@
       <c r="BC169" t="n">
         <v>813.7</v>
       </c>
-      <c r="BD169" t="n">
+      <c r="BD169" s="3" t="n">
+        <v>42339</v>
+      </c>
+      <c r="BE169" t="n">
+        <v>1120.28132115423</v>
+      </c>
+      <c r="BF169" t="n">
         <v>1553.1</v>
       </c>
-      <c r="BE169" t="n">
+      <c r="BG169" t="n">
         <v>598.6</v>
       </c>
     </row>
@@ -27892,10 +28915,16 @@
       <c r="BC170" t="n">
         <v>813.7</v>
       </c>
-      <c r="BD170" t="n">
+      <c r="BD170" s="3" t="n">
+        <v>42370</v>
+      </c>
+      <c r="BE170" t="n">
+        <v>1120.28132115423</v>
+      </c>
+      <c r="BF170" t="n">
         <v>1553.1</v>
       </c>
-      <c r="BE170" t="n">
+      <c r="BG170" t="n">
         <v>598.6</v>
       </c>
     </row>
@@ -28061,10 +29090,16 @@
       <c r="BC171" t="n">
         <v>813.7</v>
       </c>
-      <c r="BD171" t="n">
+      <c r="BD171" s="3" t="n">
+        <v>42401</v>
+      </c>
+      <c r="BE171" t="n">
+        <v>1120.28132115423</v>
+      </c>
+      <c r="BF171" t="n">
         <v>1553.1</v>
       </c>
-      <c r="BE171" t="n">
+      <c r="BG171" t="n">
         <v>598.6</v>
       </c>
     </row>
@@ -28230,11 +29265,17 @@
       <c r="BC172" t="n">
         <v>1368.3</v>
       </c>
-      <c r="BD172" t="n">
+      <c r="BD172" s="3" t="n">
+        <v>42430</v>
+      </c>
+      <c r="BE172" t="n">
+        <v>1368.3</v>
+      </c>
+      <c r="BF172" t="n">
+        <v>813.7</v>
+      </c>
+      <c r="BG172" t="n">
         <v>1553.1</v>
-      </c>
-      <c r="BE172" t="n">
-        <v>598.6</v>
       </c>
     </row>
     <row r="173">
@@ -28399,11 +29440,17 @@
       <c r="BC173" t="n">
         <v>1368.3</v>
       </c>
-      <c r="BD173" t="n">
+      <c r="BD173" s="3" t="n">
+        <v>42461</v>
+      </c>
+      <c r="BE173" t="n">
+        <v>1368.3</v>
+      </c>
+      <c r="BF173" t="n">
+        <v>813.7</v>
+      </c>
+      <c r="BG173" t="n">
         <v>1553.1</v>
-      </c>
-      <c r="BE173" t="n">
-        <v>598.6</v>
       </c>
     </row>
     <row r="174">
@@ -28568,10 +29615,16 @@
       <c r="BC174" t="n">
         <v>1368.3</v>
       </c>
-      <c r="BD174" t="n">
+      <c r="BD174" s="3" t="n">
+        <v>42491</v>
+      </c>
+      <c r="BE174" t="n">
+        <v>1368.3</v>
+      </c>
+      <c r="BF174" t="n">
         <v>813.7</v>
       </c>
-      <c r="BE174" t="n">
+      <c r="BG174" t="n">
         <v>1553.1</v>
       </c>
     </row>
@@ -28737,10 +29790,16 @@
       <c r="BC175" t="n">
         <v>1368.3</v>
       </c>
-      <c r="BD175" t="n">
+      <c r="BD175" s="3" t="n">
+        <v>42522</v>
+      </c>
+      <c r="BE175" t="n">
+        <v>1368.3</v>
+      </c>
+      <c r="BF175" t="n">
         <v>813.7</v>
       </c>
-      <c r="BE175" t="n">
+      <c r="BG175" t="n">
         <v>1553.1</v>
       </c>
     </row>
@@ -28906,10 +29965,16 @@
       <c r="BC176" t="n">
         <v>1368.3</v>
       </c>
-      <c r="BD176" t="n">
+      <c r="BD176" s="3" t="n">
+        <v>42552</v>
+      </c>
+      <c r="BE176" t="n">
+        <v>1288.323519327364</v>
+      </c>
+      <c r="BF176" t="n">
         <v>813.7</v>
       </c>
-      <c r="BE176" t="n">
+      <c r="BG176" t="n">
         <v>1553.1</v>
       </c>
     </row>
@@ -29075,10 +30140,16 @@
       <c r="BC177" t="n">
         <v>1368.3</v>
       </c>
-      <c r="BD177" t="n">
+      <c r="BD177" s="3" t="n">
+        <v>42583</v>
+      </c>
+      <c r="BE177" t="n">
+        <v>1288.323519327364</v>
+      </c>
+      <c r="BF177" t="n">
         <v>813.7</v>
       </c>
-      <c r="BE177" t="n">
+      <c r="BG177" t="n">
         <v>1553.1</v>
       </c>
     </row>
@@ -29244,10 +30315,16 @@
       <c r="BC178" t="n">
         <v>1368.3</v>
       </c>
-      <c r="BD178" t="n">
+      <c r="BD178" s="3" t="n">
+        <v>42614</v>
+      </c>
+      <c r="BE178" t="n">
+        <v>1288.323519327364</v>
+      </c>
+      <c r="BF178" t="n">
         <v>813.7</v>
       </c>
-      <c r="BE178" t="n">
+      <c r="BG178" t="n">
         <v>1553.1</v>
       </c>
     </row>
@@ -29413,10 +30490,16 @@
       <c r="BC179" t="n">
         <v>1368.3</v>
       </c>
-      <c r="BD179" t="n">
+      <c r="BD179" s="3" t="n">
+        <v>42644</v>
+      </c>
+      <c r="BE179" t="n">
+        <v>1288.323519327364</v>
+      </c>
+      <c r="BF179" t="n">
         <v>813.7</v>
       </c>
-      <c r="BE179" t="n">
+      <c r="BG179" t="n">
         <v>1553.1</v>
       </c>
     </row>
@@ -29582,10 +30665,16 @@
       <c r="BC180" t="n">
         <v>1368.3</v>
       </c>
-      <c r="BD180" t="n">
+      <c r="BD180" s="3" t="n">
+        <v>42675</v>
+      </c>
+      <c r="BE180" t="n">
+        <v>1288.323519327364</v>
+      </c>
+      <c r="BF180" t="n">
         <v>813.7</v>
       </c>
-      <c r="BE180" t="n">
+      <c r="BG180" t="n">
         <v>1553.1</v>
       </c>
     </row>
@@ -29751,10 +30840,16 @@
       <c r="BC181" t="n">
         <v>1368.3</v>
       </c>
-      <c r="BD181" t="n">
+      <c r="BD181" s="3" t="n">
+        <v>42705</v>
+      </c>
+      <c r="BE181" t="n">
+        <v>1288.323519327364</v>
+      </c>
+      <c r="BF181" t="n">
         <v>813.7</v>
       </c>
-      <c r="BE181" t="n">
+      <c r="BG181" t="n">
         <v>1553.1</v>
       </c>
     </row>
@@ -29920,10 +31015,16 @@
       <c r="BC182" t="n">
         <v>1368.3</v>
       </c>
-      <c r="BD182" t="n">
+      <c r="BD182" s="3" t="n">
+        <v>42736</v>
+      </c>
+      <c r="BE182" t="n">
+        <v>1288.323519327364</v>
+      </c>
+      <c r="BF182" t="n">
         <v>813.7</v>
       </c>
-      <c r="BE182" t="n">
+      <c r="BG182" t="n">
         <v>1553.1</v>
       </c>
     </row>
@@ -30089,10 +31190,16 @@
       <c r="BC183" t="n">
         <v>1368.3</v>
       </c>
-      <c r="BD183" t="n">
+      <c r="BD183" s="3" t="n">
+        <v>42767</v>
+      </c>
+      <c r="BE183" t="n">
+        <v>1288.323519327364</v>
+      </c>
+      <c r="BF183" t="n">
         <v>813.7</v>
       </c>
-      <c r="BE183" t="n">
+      <c r="BG183" t="n">
         <v>1553.1</v>
       </c>
     </row>
@@ -30258,11 +31365,17 @@
       <c r="BC184" t="n">
         <v>1243.5</v>
       </c>
-      <c r="BD184" t="n">
+      <c r="BD184" s="3" t="n">
+        <v>42795</v>
+      </c>
+      <c r="BE184" t="n">
+        <v>1243.5</v>
+      </c>
+      <c r="BF184" t="n">
+        <v>1368.3</v>
+      </c>
+      <c r="BG184" t="n">
         <v>813.7</v>
-      </c>
-      <c r="BE184" t="n">
-        <v>1553.1</v>
       </c>
     </row>
     <row r="185">
@@ -30427,11 +31540,17 @@
       <c r="BC185" t="n">
         <v>1243.5</v>
       </c>
-      <c r="BD185" t="n">
+      <c r="BD185" s="3" t="n">
+        <v>42826</v>
+      </c>
+      <c r="BE185" t="n">
+        <v>1243.5</v>
+      </c>
+      <c r="BF185" t="n">
+        <v>1368.3</v>
+      </c>
+      <c r="BG185" t="n">
         <v>813.7</v>
-      </c>
-      <c r="BE185" t="n">
-        <v>1553.1</v>
       </c>
     </row>
     <row r="186">
@@ -30596,10 +31715,16 @@
       <c r="BC186" t="n">
         <v>1243.5</v>
       </c>
-      <c r="BD186" t="n">
+      <c r="BD186" s="3" t="n">
+        <v>42856</v>
+      </c>
+      <c r="BE186" t="n">
+        <v>1243.5</v>
+      </c>
+      <c r="BF186" t="n">
         <v>1368.3</v>
       </c>
-      <c r="BE186" t="n">
+      <c r="BG186" t="n">
         <v>813.7</v>
       </c>
     </row>
@@ -30765,10 +31890,16 @@
       <c r="BC187" t="n">
         <v>1243.5</v>
       </c>
-      <c r="BD187" t="n">
+      <c r="BD187" s="3" t="n">
+        <v>42887</v>
+      </c>
+      <c r="BE187" t="n">
+        <v>1243.5</v>
+      </c>
+      <c r="BF187" t="n">
         <v>1368.3</v>
       </c>
-      <c r="BE187" t="n">
+      <c r="BG187" t="n">
         <v>813.7</v>
       </c>
     </row>
@@ -30934,10 +32065,16 @@
       <c r="BC188" t="n">
         <v>1243.5</v>
       </c>
-      <c r="BD188" t="n">
+      <c r="BD188" s="3" t="n">
+        <v>42917</v>
+      </c>
+      <c r="BE188" t="n">
+        <v>1055.865145187862</v>
+      </c>
+      <c r="BF188" t="n">
         <v>1368.3</v>
       </c>
-      <c r="BE188" t="n">
+      <c r="BG188" t="n">
         <v>813.7</v>
       </c>
     </row>
@@ -31103,10 +32240,16 @@
       <c r="BC189" t="n">
         <v>1243.5</v>
       </c>
-      <c r="BD189" t="n">
+      <c r="BD189" s="3" t="n">
+        <v>42948</v>
+      </c>
+      <c r="BE189" t="n">
+        <v>1055.865145187862</v>
+      </c>
+      <c r="BF189" t="n">
         <v>1368.3</v>
       </c>
-      <c r="BE189" t="n">
+      <c r="BG189" t="n">
         <v>813.7</v>
       </c>
     </row>
@@ -31272,10 +32415,16 @@
       <c r="BC190" t="n">
         <v>1243.5</v>
       </c>
-      <c r="BD190" t="n">
+      <c r="BD190" s="3" t="n">
+        <v>42979</v>
+      </c>
+      <c r="BE190" t="n">
+        <v>1055.865145187862</v>
+      </c>
+      <c r="BF190" t="n">
         <v>1368.3</v>
       </c>
-      <c r="BE190" t="n">
+      <c r="BG190" t="n">
         <v>813.7</v>
       </c>
     </row>
@@ -31441,10 +32590,16 @@
       <c r="BC191" t="n">
         <v>1243.5</v>
       </c>
-      <c r="BD191" t="n">
+      <c r="BD191" s="3" t="n">
+        <v>43009</v>
+      </c>
+      <c r="BE191" t="n">
+        <v>1055.865145187862</v>
+      </c>
+      <c r="BF191" t="n">
         <v>1368.3</v>
       </c>
-      <c r="BE191" t="n">
+      <c r="BG191" t="n">
         <v>813.7</v>
       </c>
     </row>
@@ -31610,10 +32765,16 @@
       <c r="BC192" t="n">
         <v>1243.5</v>
       </c>
-      <c r="BD192" t="n">
+      <c r="BD192" s="3" t="n">
+        <v>43040</v>
+      </c>
+      <c r="BE192" t="n">
+        <v>1055.865145187862</v>
+      </c>
+      <c r="BF192" t="n">
         <v>1368.3</v>
       </c>
-      <c r="BE192" t="n">
+      <c r="BG192" t="n">
         <v>813.7</v>
       </c>
     </row>
@@ -31779,10 +32940,16 @@
       <c r="BC193" t="n">
         <v>1243.5</v>
       </c>
-      <c r="BD193" t="n">
+      <c r="BD193" s="3" t="n">
+        <v>43070</v>
+      </c>
+      <c r="BE193" t="n">
+        <v>1055.865145187862</v>
+      </c>
+      <c r="BF193" t="n">
         <v>1368.3</v>
       </c>
-      <c r="BE193" t="n">
+      <c r="BG193" t="n">
         <v>813.7</v>
       </c>
     </row>
@@ -31952,10 +33119,16 @@
       <c r="BC194" t="n">
         <v>1243.5</v>
       </c>
-      <c r="BD194" t="n">
+      <c r="BD194" s="3" t="n">
+        <v>43101</v>
+      </c>
+      <c r="BE194" t="n">
+        <v>1055.865145187862</v>
+      </c>
+      <c r="BF194" t="n">
         <v>1368.3</v>
       </c>
-      <c r="BE194" t="n">
+      <c r="BG194" t="n">
         <v>813.7</v>
       </c>
     </row>
@@ -32125,10 +33298,16 @@
       <c r="BC195" t="n">
         <v>1243.5</v>
       </c>
-      <c r="BD195" t="n">
+      <c r="BD195" s="3" t="n">
+        <v>43132</v>
+      </c>
+      <c r="BE195" t="n">
+        <v>1055.865145187862</v>
+      </c>
+      <c r="BF195" t="n">
         <v>1368.3</v>
       </c>
-      <c r="BE195" t="n">
+      <c r="BG195" t="n">
         <v>813.7</v>
       </c>
     </row>
@@ -32298,11 +33477,17 @@
       <c r="BC196" t="n">
         <v>1220.9</v>
       </c>
-      <c r="BD196" t="n">
+      <c r="BD196" s="3" t="n">
+        <v>43160</v>
+      </c>
+      <c r="BE196" t="n">
+        <v>1220.9</v>
+      </c>
+      <c r="BF196" t="n">
+        <v>1243.5</v>
+      </c>
+      <c r="BG196" t="n">
         <v>1368.3</v>
-      </c>
-      <c r="BE196" t="n">
-        <v>813.7</v>
       </c>
     </row>
     <row r="197">
@@ -32471,11 +33656,17 @@
       <c r="BC197" t="n">
         <v>1220.9</v>
       </c>
-      <c r="BD197" t="n">
+      <c r="BD197" s="3" t="n">
+        <v>43191</v>
+      </c>
+      <c r="BE197" t="n">
+        <v>1220.9</v>
+      </c>
+      <c r="BF197" t="n">
+        <v>1243.5</v>
+      </c>
+      <c r="BG197" t="n">
         <v>1368.3</v>
-      </c>
-      <c r="BE197" t="n">
-        <v>813.7</v>
       </c>
     </row>
     <row r="198">
@@ -32644,10 +33835,16 @@
       <c r="BC198" t="n">
         <v>1220.9</v>
       </c>
-      <c r="BD198" t="n">
+      <c r="BD198" s="3" t="n">
+        <v>43221</v>
+      </c>
+      <c r="BE198" t="n">
+        <v>1220.9</v>
+      </c>
+      <c r="BF198" t="n">
         <v>1243.5</v>
       </c>
-      <c r="BE198" t="n">
+      <c r="BG198" t="n">
         <v>1368.3</v>
       </c>
     </row>
@@ -32817,10 +34014,16 @@
       <c r="BC199" t="n">
         <v>1220.9</v>
       </c>
-      <c r="BD199" t="n">
+      <c r="BD199" s="3" t="n">
+        <v>43252</v>
+      </c>
+      <c r="BE199" t="n">
+        <v>1220.9</v>
+      </c>
+      <c r="BF199" t="n">
         <v>1243.5</v>
       </c>
-      <c r="BE199" t="n">
+      <c r="BG199" t="n">
         <v>1368.3</v>
       </c>
     </row>
@@ -32990,10 +34193,16 @@
       <c r="BC200" t="n">
         <v>1220.9</v>
       </c>
-      <c r="BD200" t="n">
+      <c r="BD200" s="3" t="n">
+        <v>43282</v>
+      </c>
+      <c r="BE200" t="n">
+        <v>1447.030039824213</v>
+      </c>
+      <c r="BF200" t="n">
         <v>1243.5</v>
       </c>
-      <c r="BE200" t="n">
+      <c r="BG200" t="n">
         <v>1368.3</v>
       </c>
     </row>
@@ -33163,10 +34372,16 @@
       <c r="BC201" t="n">
         <v>1220.9</v>
       </c>
-      <c r="BD201" t="n">
+      <c r="BD201" s="3" t="n">
+        <v>43313</v>
+      </c>
+      <c r="BE201" t="n">
+        <v>1447.030039824213</v>
+      </c>
+      <c r="BF201" t="n">
         <v>1243.5</v>
       </c>
-      <c r="BE201" t="n">
+      <c r="BG201" t="n">
         <v>1368.3</v>
       </c>
     </row>
@@ -33336,10 +34551,16 @@
       <c r="BC202" t="n">
         <v>1220.9</v>
       </c>
-      <c r="BD202" t="n">
+      <c r="BD202" s="3" t="n">
+        <v>43344</v>
+      </c>
+      <c r="BE202" t="n">
+        <v>1447.030039824213</v>
+      </c>
+      <c r="BF202" t="n">
         <v>1243.5</v>
       </c>
-      <c r="BE202" t="n">
+      <c r="BG202" t="n">
         <v>1368.3</v>
       </c>
     </row>
@@ -33509,10 +34730,16 @@
       <c r="BC203" t="n">
         <v>1220.9</v>
       </c>
-      <c r="BD203" t="n">
+      <c r="BD203" s="3" t="n">
+        <v>43374</v>
+      </c>
+      <c r="BE203" t="n">
+        <v>1447.030039824213</v>
+      </c>
+      <c r="BF203" t="n">
         <v>1243.5</v>
       </c>
-      <c r="BE203" t="n">
+      <c r="BG203" t="n">
         <v>1368.3</v>
       </c>
     </row>
@@ -33682,10 +34909,16 @@
       <c r="BC204" t="n">
         <v>1220.9</v>
       </c>
-      <c r="BD204" t="n">
+      <c r="BD204" s="3" t="n">
+        <v>43405</v>
+      </c>
+      <c r="BE204" t="n">
+        <v>1447.030039824213</v>
+      </c>
+      <c r="BF204" t="n">
         <v>1243.5</v>
       </c>
-      <c r="BE204" t="n">
+      <c r="BG204" t="n">
         <v>1368.3</v>
       </c>
     </row>
@@ -33855,10 +35088,16 @@
       <c r="BC205" t="n">
         <v>1220.9</v>
       </c>
-      <c r="BD205" t="n">
+      <c r="BD205" s="3" t="n">
+        <v>43435</v>
+      </c>
+      <c r="BE205" t="n">
+        <v>1447.030039824213</v>
+      </c>
+      <c r="BF205" t="n">
         <v>1243.5</v>
       </c>
-      <c r="BE205" t="n">
+      <c r="BG205" t="n">
         <v>1368.3</v>
       </c>
     </row>
@@ -34028,10 +35267,16 @@
       <c r="BC206" t="n">
         <v>1220.9</v>
       </c>
-      <c r="BD206" t="n">
+      <c r="BD206" s="3" t="n">
+        <v>43466</v>
+      </c>
+      <c r="BE206" t="n">
+        <v>1447.030039824213</v>
+      </c>
+      <c r="BF206" t="n">
         <v>1243.5</v>
       </c>
-      <c r="BE206" t="n">
+      <c r="BG206" t="n">
         <v>1368.3</v>
       </c>
     </row>
@@ -34201,10 +35446,16 @@
       <c r="BC207" t="n">
         <v>1220.9</v>
       </c>
-      <c r="BD207" t="n">
+      <c r="BD207" s="3" t="n">
+        <v>43497</v>
+      </c>
+      <c r="BE207" t="n">
+        <v>1447.030039824213</v>
+      </c>
+      <c r="BF207" t="n">
         <v>1243.5</v>
       </c>
-      <c r="BE207" t="n">
+      <c r="BG207" t="n">
         <v>1368.3</v>
       </c>
     </row>
@@ -34374,11 +35625,17 @@
       <c r="BC208" t="n">
         <v>1705</v>
       </c>
-      <c r="BD208" t="n">
+      <c r="BD208" s="3" t="n">
+        <v>43525</v>
+      </c>
+      <c r="BE208" t="n">
+        <v>1705</v>
+      </c>
+      <c r="BF208" t="n">
+        <v>1220.9</v>
+      </c>
+      <c r="BG208" t="n">
         <v>1243.5</v>
-      </c>
-      <c r="BE208" t="n">
-        <v>1368.3</v>
       </c>
     </row>
     <row r="209">
@@ -34547,11 +35804,17 @@
       <c r="BC209" t="n">
         <v>1705</v>
       </c>
-      <c r="BD209" t="n">
+      <c r="BD209" s="3" t="n">
+        <v>43556</v>
+      </c>
+      <c r="BE209" t="n">
+        <v>1705</v>
+      </c>
+      <c r="BF209" t="n">
+        <v>1220.9</v>
+      </c>
+      <c r="BG209" t="n">
         <v>1243.5</v>
-      </c>
-      <c r="BE209" t="n">
-        <v>1368.3</v>
       </c>
     </row>
     <row r="210">
@@ -34720,10 +35983,16 @@
       <c r="BC210" t="n">
         <v>1705</v>
       </c>
-      <c r="BD210" t="n">
+      <c r="BD210" s="3" t="n">
+        <v>43586</v>
+      </c>
+      <c r="BE210" t="n">
+        <v>1705</v>
+      </c>
+      <c r="BF210" t="n">
         <v>1220.9</v>
       </c>
-      <c r="BE210" t="n">
+      <c r="BG210" t="n">
         <v>1243.5</v>
       </c>
     </row>
@@ -34893,10 +36162,16 @@
       <c r="BC211" t="n">
         <v>1705</v>
       </c>
-      <c r="BD211" t="n">
+      <c r="BD211" s="3" t="n">
+        <v>43617</v>
+      </c>
+      <c r="BE211" t="n">
+        <v>1705</v>
+      </c>
+      <c r="BF211" t="n">
         <v>1220.9</v>
       </c>
-      <c r="BE211" t="n">
+      <c r="BG211" t="n">
         <v>1243.5</v>
       </c>
     </row>
@@ -35066,10 +36341,16 @@
       <c r="BC212" t="n">
         <v>1705</v>
       </c>
-      <c r="BD212" t="n">
+      <c r="BD212" s="3" t="n">
+        <v>43647</v>
+      </c>
+      <c r="BE212" t="n">
+        <v>1166.959709535656</v>
+      </c>
+      <c r="BF212" t="n">
         <v>1220.9</v>
       </c>
-      <c r="BE212" t="n">
+      <c r="BG212" t="n">
         <v>1243.5</v>
       </c>
     </row>
@@ -35239,10 +36520,16 @@
       <c r="BC213" t="n">
         <v>1705</v>
       </c>
-      <c r="BD213" t="n">
+      <c r="BD213" s="3" t="n">
+        <v>43678</v>
+      </c>
+      <c r="BE213" t="n">
+        <v>1166.959709535656</v>
+      </c>
+      <c r="BF213" t="n">
         <v>1220.9</v>
       </c>
-      <c r="BE213" t="n">
+      <c r="BG213" t="n">
         <v>1243.5</v>
       </c>
     </row>
@@ -35412,10 +36699,16 @@
       <c r="BC214" t="n">
         <v>1705</v>
       </c>
-      <c r="BD214" t="n">
+      <c r="BD214" s="3" t="n">
+        <v>43709</v>
+      </c>
+      <c r="BE214" t="n">
+        <v>1166.959709535656</v>
+      </c>
+      <c r="BF214" t="n">
         <v>1220.9</v>
       </c>
-      <c r="BE214" t="n">
+      <c r="BG214" t="n">
         <v>1243.5</v>
       </c>
     </row>
@@ -35585,10 +36878,16 @@
       <c r="BC215" t="n">
         <v>1705</v>
       </c>
-      <c r="BD215" t="n">
+      <c r="BD215" s="3" t="n">
+        <v>43739</v>
+      </c>
+      <c r="BE215" t="n">
+        <v>1166.959709535656</v>
+      </c>
+      <c r="BF215" t="n">
         <v>1220.9</v>
       </c>
-      <c r="BE215" t="n">
+      <c r="BG215" t="n">
         <v>1243.5</v>
       </c>
     </row>
@@ -35758,10 +37057,16 @@
       <c r="BC216" t="n">
         <v>1705</v>
       </c>
-      <c r="BD216" t="n">
+      <c r="BD216" s="3" t="n">
+        <v>43770</v>
+      </c>
+      <c r="BE216" t="n">
+        <v>1166.959709535656</v>
+      </c>
+      <c r="BF216" t="n">
         <v>1220.9</v>
       </c>
-      <c r="BE216" t="n">
+      <c r="BG216" t="n">
         <v>1243.5</v>
       </c>
     </row>
@@ -35931,10 +37236,16 @@
       <c r="BC217" t="n">
         <v>1705</v>
       </c>
-      <c r="BD217" t="n">
+      <c r="BD217" s="3" t="n">
+        <v>43800</v>
+      </c>
+      <c r="BE217" t="n">
+        <v>1166.959709535656</v>
+      </c>
+      <c r="BF217" t="n">
         <v>1220.9</v>
       </c>
-      <c r="BE217" t="n">
+      <c r="BG217" t="n">
         <v>1243.5</v>
       </c>
     </row>
@@ -36104,10 +37415,16 @@
       <c r="BC218" t="n">
         <v>1705</v>
       </c>
-      <c r="BD218" t="n">
+      <c r="BD218" s="3" t="n">
+        <v>43831</v>
+      </c>
+      <c r="BE218" t="n">
+        <v>1166.959709535656</v>
+      </c>
+      <c r="BF218" t="n">
         <v>1220.9</v>
       </c>
-      <c r="BE218" t="n">
+      <c r="BG218" t="n">
         <v>1243.5</v>
       </c>
     </row>
@@ -36277,10 +37594,16 @@
       <c r="BC219" t="n">
         <v>1705</v>
       </c>
-      <c r="BD219" t="n">
+      <c r="BD219" s="3" t="n">
+        <v>43862</v>
+      </c>
+      <c r="BE219" t="n">
+        <v>1166.959709535656</v>
+      </c>
+      <c r="BF219" t="n">
         <v>1220.9</v>
       </c>
-      <c r="BE219" t="n">
+      <c r="BG219" t="n">
         <v>1243.5</v>
       </c>
     </row>
@@ -36450,11 +37773,17 @@
       <c r="BC220" t="n">
         <v>1105</v>
       </c>
-      <c r="BD220" t="n">
+      <c r="BD220" s="3" t="n">
+        <v>43891</v>
+      </c>
+      <c r="BE220" t="n">
+        <v>1105</v>
+      </c>
+      <c r="BF220" t="n">
+        <v>1705</v>
+      </c>
+      <c r="BG220" t="n">
         <v>1220.9</v>
-      </c>
-      <c r="BE220" t="n">
-        <v>1243.5</v>
       </c>
     </row>
     <row r="221">
@@ -36623,11 +37952,17 @@
       <c r="BC221" t="n">
         <v>1105</v>
       </c>
-      <c r="BD221" t="n">
+      <c r="BD221" s="3" t="n">
+        <v>43922</v>
+      </c>
+      <c r="BE221" t="n">
+        <v>1105</v>
+      </c>
+      <c r="BF221" t="n">
+        <v>1705</v>
+      </c>
+      <c r="BG221" t="n">
         <v>1220.9</v>
-      </c>
-      <c r="BE221" t="n">
-        <v>1243.5</v>
       </c>
     </row>
     <row r="222">
@@ -36796,10 +38131,16 @@
       <c r="BC222" t="n">
         <v>1105</v>
       </c>
-      <c r="BD222" t="n">
+      <c r="BD222" s="3" t="n">
+        <v>43952</v>
+      </c>
+      <c r="BE222" t="n">
+        <v>1105</v>
+      </c>
+      <c r="BF222" t="n">
         <v>1705</v>
       </c>
-      <c r="BE222" t="n">
+      <c r="BG222" t="n">
         <v>1220.9</v>
       </c>
     </row>
@@ -36969,10 +38310,16 @@
       <c r="BC223" t="n">
         <v>1105</v>
       </c>
-      <c r="BD223" t="n">
+      <c r="BD223" s="3" t="n">
+        <v>43983</v>
+      </c>
+      <c r="BE223" t="n">
+        <v>1105</v>
+      </c>
+      <c r="BF223" t="n">
         <v>1705</v>
       </c>
-      <c r="BE223" t="n">
+      <c r="BG223" t="n">
         <v>1220.9</v>
       </c>
     </row>
@@ -37142,10 +38489,16 @@
       <c r="BC224" t="n">
         <v>1105</v>
       </c>
-      <c r="BD224" t="n">
+      <c r="BD224" s="3" t="n">
+        <v>44013</v>
+      </c>
+      <c r="BE224" t="n">
+        <v>1447.030039824213</v>
+      </c>
+      <c r="BF224" t="n">
         <v>1705</v>
       </c>
-      <c r="BE224" t="n">
+      <c r="BG224" t="n">
         <v>1220.9</v>
       </c>
     </row>
@@ -37315,10 +38668,16 @@
       <c r="BC225" t="n">
         <v>1105</v>
       </c>
-      <c r="BD225" t="n">
+      <c r="BD225" s="3" t="n">
+        <v>44044</v>
+      </c>
+      <c r="BE225" t="n">
+        <v>1447.030039824213</v>
+      </c>
+      <c r="BF225" t="n">
         <v>1705</v>
       </c>
-      <c r="BE225" t="n">
+      <c r="BG225" t="n">
         <v>1220.9</v>
       </c>
     </row>
@@ -37488,10 +38847,16 @@
       <c r="BC226" t="n">
         <v>1105</v>
       </c>
-      <c r="BD226" t="n">
+      <c r="BD226" s="3" t="n">
+        <v>44075</v>
+      </c>
+      <c r="BE226" t="n">
+        <v>1447.030039824213</v>
+      </c>
+      <c r="BF226" t="n">
         <v>1705</v>
       </c>
-      <c r="BE226" t="n">
+      <c r="BG226" t="n">
         <v>1220.9</v>
       </c>
     </row>
@@ -37661,10 +39026,16 @@
       <c r="BC227" t="n">
         <v>1105</v>
       </c>
-      <c r="BD227" t="n">
+      <c r="BD227" s="3" t="n">
+        <v>44105</v>
+      </c>
+      <c r="BE227" t="n">
+        <v>1447.030039824213</v>
+      </c>
+      <c r="BF227" t="n">
         <v>1705</v>
       </c>
-      <c r="BE227" t="n">
+      <c r="BG227" t="n">
         <v>1220.9</v>
       </c>
     </row>
@@ -37834,10 +39205,16 @@
       <c r="BC228" t="n">
         <v>1105</v>
       </c>
-      <c r="BD228" t="n">
+      <c r="BD228" s="3" t="n">
+        <v>44136</v>
+      </c>
+      <c r="BE228" t="n">
+        <v>1447.030039824213</v>
+      </c>
+      <c r="BF228" t="n">
         <v>1705</v>
       </c>
-      <c r="BE228" t="n">
+      <c r="BG228" t="n">
         <v>1220.9</v>
       </c>
     </row>
@@ -38007,10 +39384,16 @@
       <c r="BC229" t="n">
         <v>1105</v>
       </c>
-      <c r="BD229" t="n">
+      <c r="BD229" s="3" t="n">
+        <v>44166</v>
+      </c>
+      <c r="BE229" t="n">
+        <v>1447.030039824213</v>
+      </c>
+      <c r="BF229" t="n">
         <v>1705</v>
       </c>
-      <c r="BE229" t="n">
+      <c r="BG229" t="n">
         <v>1220.9</v>
       </c>
     </row>
@@ -38180,10 +39563,16 @@
       <c r="BC230" t="n">
         <v>1105</v>
       </c>
-      <c r="BD230" t="n">
+      <c r="BD230" s="3" t="n">
+        <v>44197</v>
+      </c>
+      <c r="BE230" t="n">
+        <v>1447.030039824213</v>
+      </c>
+      <c r="BF230" t="n">
         <v>1705</v>
       </c>
-      <c r="BE230" t="n">
+      <c r="BG230" t="n">
         <v>1220.9</v>
       </c>
     </row>
@@ -38353,10 +39742,16 @@
       <c r="BC231" t="n">
         <v>1105</v>
       </c>
-      <c r="BD231" t="n">
+      <c r="BD231" s="3" t="n">
+        <v>44228</v>
+      </c>
+      <c r="BE231" t="n">
+        <v>1447.030039824213</v>
+      </c>
+      <c r="BF231" t="n">
         <v>1705</v>
       </c>
-      <c r="BE231" t="n">
+      <c r="BG231" t="n">
         <v>1220.9</v>
       </c>
     </row>
@@ -38526,11 +39921,17 @@
       <c r="BC232" t="n">
         <v>1336.9</v>
       </c>
-      <c r="BD232" t="n">
+      <c r="BD232" s="3" t="n">
+        <v>44256</v>
+      </c>
+      <c r="BE232" t="n">
+        <v>1336.9</v>
+      </c>
+      <c r="BF232" t="n">
+        <v>1105</v>
+      </c>
+      <c r="BG232" t="n">
         <v>1705</v>
-      </c>
-      <c r="BE232" t="n">
-        <v>1220.9</v>
       </c>
     </row>
     <row r="233">
@@ -38699,11 +40100,17 @@
       <c r="BC233" t="n">
         <v>1336.9</v>
       </c>
-      <c r="BD233" t="n">
+      <c r="BD233" s="3" t="n">
+        <v>44287</v>
+      </c>
+      <c r="BE233" t="n">
+        <v>1336.9</v>
+      </c>
+      <c r="BF233" t="n">
+        <v>1105</v>
+      </c>
+      <c r="BG233" t="n">
         <v>1705</v>
-      </c>
-      <c r="BE233" t="n">
-        <v>1220.9</v>
       </c>
     </row>
     <row r="234">
@@ -38872,10 +40279,16 @@
       <c r="BC234" t="n">
         <v>1336.9</v>
       </c>
-      <c r="BD234" t="n">
+      <c r="BD234" s="3" t="n">
+        <v>44317</v>
+      </c>
+      <c r="BE234" t="n">
+        <v>1336.9</v>
+      </c>
+      <c r="BF234" t="n">
         <v>1105</v>
       </c>
-      <c r="BE234" t="n">
+      <c r="BG234" t="n">
         <v>1705</v>
       </c>
     </row>
@@ -39045,10 +40458,16 @@
       <c r="BC235" t="n">
         <v>1336.9</v>
       </c>
-      <c r="BD235" t="n">
+      <c r="BD235" s="3" t="n">
+        <v>44348</v>
+      </c>
+      <c r="BE235" t="n">
+        <v>1336.9</v>
+      </c>
+      <c r="BF235" t="n">
         <v>1105</v>
       </c>
-      <c r="BE235" t="n">
+      <c r="BG235" t="n">
         <v>1705</v>
       </c>
     </row>
@@ -39218,10 +40637,16 @@
       <c r="BC236" t="n">
         <v>1336.9</v>
       </c>
-      <c r="BD236" t="n">
+      <c r="BD236" s="3" t="n">
+        <v>44378</v>
+      </c>
+      <c r="BE236" t="n">
+        <v>1213.638097917082</v>
+      </c>
+      <c r="BF236" t="n">
         <v>1105</v>
       </c>
-      <c r="BE236" t="n">
+      <c r="BG236" t="n">
         <v>1705</v>
       </c>
     </row>
@@ -39391,10 +40816,16 @@
       <c r="BC237" t="n">
         <v>1336.9</v>
       </c>
-      <c r="BD237" t="n">
+      <c r="BD237" s="3" t="n">
+        <v>44409</v>
+      </c>
+      <c r="BE237" t="n">
+        <v>1213.638097917082</v>
+      </c>
+      <c r="BF237" t="n">
         <v>1105</v>
       </c>
-      <c r="BE237" t="n">
+      <c r="BG237" t="n">
         <v>1705</v>
       </c>
     </row>
@@ -39564,10 +40995,16 @@
       <c r="BC238" t="n">
         <v>1336.9</v>
       </c>
-      <c r="BD238" t="n">
+      <c r="BD238" s="3" t="n">
+        <v>44440</v>
+      </c>
+      <c r="BE238" t="n">
+        <v>1213.638097917082</v>
+      </c>
+      <c r="BF238" t="n">
         <v>1105</v>
       </c>
-      <c r="BE238" t="n">
+      <c r="BG238" t="n">
         <v>1705</v>
       </c>
     </row>
@@ -39737,10 +41174,16 @@
       <c r="BC239" t="n">
         <v>1336.9</v>
       </c>
-      <c r="BD239" t="n">
+      <c r="BD239" s="3" t="n">
+        <v>44470</v>
+      </c>
+      <c r="BE239" t="n">
+        <v>1213.638097917082</v>
+      </c>
+      <c r="BF239" t="n">
         <v>1105</v>
       </c>
-      <c r="BE239" t="n">
+      <c r="BG239" t="n">
         <v>1705</v>
       </c>
     </row>
@@ -39910,10 +41353,16 @@
       <c r="BC240" t="n">
         <v>1336.9</v>
       </c>
-      <c r="BD240" t="n">
+      <c r="BD240" s="3" t="n">
+        <v>44501</v>
+      </c>
+      <c r="BE240" t="n">
+        <v>1213.638097917082</v>
+      </c>
+      <c r="BF240" t="n">
         <v>1105</v>
       </c>
-      <c r="BE240" t="n">
+      <c r="BG240" t="n">
         <v>1705</v>
       </c>
     </row>
@@ -40083,10 +41532,16 @@
       <c r="BC241" t="n">
         <v>1336.9</v>
       </c>
-      <c r="BD241" t="n">
+      <c r="BD241" s="3" t="n">
+        <v>44531</v>
+      </c>
+      <c r="BE241" t="n">
+        <v>1213.638097917082</v>
+      </c>
+      <c r="BF241" t="n">
         <v>1105</v>
       </c>
-      <c r="BE241" t="n">
+      <c r="BG241" t="n">
         <v>1705</v>
       </c>
     </row>
@@ -40256,10 +41711,16 @@
       <c r="BC242" t="n">
         <v>1336.9</v>
       </c>
-      <c r="BD242" t="n">
+      <c r="BD242" s="3" t="n">
+        <v>44562</v>
+      </c>
+      <c r="BE242" t="n">
+        <v>1213.638097917082</v>
+      </c>
+      <c r="BF242" t="n">
         <v>1105</v>
       </c>
-      <c r="BE242" t="n">
+      <c r="BG242" t="n">
         <v>1705</v>
       </c>
     </row>
@@ -40429,10 +41890,16 @@
       <c r="BC243" t="n">
         <v>1336.9</v>
       </c>
-      <c r="BD243" t="n">
+      <c r="BD243" s="3" t="n">
+        <v>44593</v>
+      </c>
+      <c r="BE243" t="n">
+        <v>1213.638097917082</v>
+      </c>
+      <c r="BF243" t="n">
         <v>1105</v>
       </c>
-      <c r="BE243" t="n">
+      <c r="BG243" t="n">
         <v>1705</v>
       </c>
     </row>
@@ -40602,11 +42069,17 @@
       <c r="BC244" t="n">
         <v>1462.2</v>
       </c>
-      <c r="BD244" t="n">
+      <c r="BD244" s="3" t="n">
+        <v>44621</v>
+      </c>
+      <c r="BE244" t="n">
+        <v>1462.2</v>
+      </c>
+      <c r="BF244" t="n">
+        <v>1336.9</v>
+      </c>
+      <c r="BG244" t="n">
         <v>1105</v>
-      </c>
-      <c r="BE244" t="n">
-        <v>1705</v>
       </c>
     </row>
     <row r="245">
@@ -40775,11 +42248,17 @@
       <c r="BC245" t="n">
         <v>1462.2</v>
       </c>
-      <c r="BD245" t="n">
+      <c r="BD245" s="3" t="n">
+        <v>44652</v>
+      </c>
+      <c r="BE245" t="n">
+        <v>1462.2</v>
+      </c>
+      <c r="BF245" t="n">
+        <v>1336.9</v>
+      </c>
+      <c r="BG245" t="n">
         <v>1105</v>
-      </c>
-      <c r="BE245" t="n">
-        <v>1705</v>
       </c>
     </row>
     <row r="246">
@@ -40948,10 +42427,16 @@
       <c r="BC246" t="n">
         <v>1462.2</v>
       </c>
-      <c r="BD246" t="n">
+      <c r="BD246" s="3" t="n">
+        <v>44682</v>
+      </c>
+      <c r="BE246" t="n">
+        <v>1462.2</v>
+      </c>
+      <c r="BF246" t="n">
         <v>1336.9</v>
       </c>
-      <c r="BE246" t="n">
+      <c r="BG246" t="n">
         <v>1105</v>
       </c>
     </row>
@@ -41121,10 +42606,16 @@
       <c r="BC247" t="n">
         <v>1462.2</v>
       </c>
-      <c r="BD247" t="n">
+      <c r="BD247" s="3" t="n">
+        <v>44713</v>
+      </c>
+      <c r="BE247" t="n">
+        <v>1462.2</v>
+      </c>
+      <c r="BF247" t="n">
         <v>1336.9</v>
       </c>
-      <c r="BE247" t="n">
+      <c r="BG247" t="n">
         <v>1105</v>
       </c>
     </row>
@@ -41294,10 +42785,16 @@
       <c r="BC248" t="n">
         <v>1462.2</v>
       </c>
-      <c r="BD248" t="n">
+      <c r="BD248" s="3" t="n">
+        <v>44743</v>
+      </c>
+      <c r="BE248" t="n">
+        <v>728.1828587502494</v>
+      </c>
+      <c r="BF248" t="n">
         <v>1336.9</v>
       </c>
-      <c r="BE248" t="n">
+      <c r="BG248" t="n">
         <v>1105</v>
       </c>
     </row>
@@ -41467,10 +42964,16 @@
       <c r="BC249" t="n">
         <v>1462.2</v>
       </c>
-      <c r="BD249" t="n">
+      <c r="BD249" s="3" t="n">
+        <v>44774</v>
+      </c>
+      <c r="BE249" t="n">
+        <v>728.1828587502494</v>
+      </c>
+      <c r="BF249" t="n">
         <v>1336.9</v>
       </c>
-      <c r="BE249" t="n">
+      <c r="BG249" t="n">
         <v>1105</v>
       </c>
     </row>
@@ -41640,10 +43143,16 @@
       <c r="BC250" t="n">
         <v>1462.2</v>
       </c>
-      <c r="BD250" t="n">
+      <c r="BD250" s="3" t="n">
+        <v>44805</v>
+      </c>
+      <c r="BE250" t="n">
+        <v>728.1828587502494</v>
+      </c>
+      <c r="BF250" t="n">
         <v>1336.9</v>
       </c>
-      <c r="BE250" t="n">
+      <c r="BG250" t="n">
         <v>1105</v>
       </c>
     </row>
@@ -41813,10 +43322,16 @@
       <c r="BC251" t="n">
         <v>1462.2</v>
       </c>
-      <c r="BD251" t="n">
+      <c r="BD251" s="3" t="n">
+        <v>44835</v>
+      </c>
+      <c r="BE251" t="n">
+        <v>728.1828587502494</v>
+      </c>
+      <c r="BF251" t="n">
         <v>1336.9</v>
       </c>
-      <c r="BE251" t="n">
+      <c r="BG251" t="n">
         <v>1105</v>
       </c>
     </row>
@@ -41986,10 +43501,16 @@
       <c r="BC252" t="n">
         <v>1462.2</v>
       </c>
-      <c r="BD252" t="n">
+      <c r="BD252" s="3" t="n">
+        <v>44866</v>
+      </c>
+      <c r="BE252" t="n">
+        <v>728.1828587502494</v>
+      </c>
+      <c r="BF252" t="n">
         <v>1336.9</v>
       </c>
-      <c r="BE252" t="n">
+      <c r="BG252" t="n">
         <v>1105</v>
       </c>
     </row>
@@ -42159,10 +43680,16 @@
       <c r="BC253" t="n">
         <v>1462.2</v>
       </c>
-      <c r="BD253" t="n">
+      <c r="BD253" s="3" t="n">
+        <v>44896</v>
+      </c>
+      <c r="BE253" t="n">
+        <v>728.1828587502494</v>
+      </c>
+      <c r="BF253" t="n">
         <v>1336.9</v>
       </c>
-      <c r="BE253" t="n">
+      <c r="BG253" t="n">
         <v>1105</v>
       </c>
     </row>
@@ -42332,10 +43859,16 @@
       <c r="BC254" t="n">
         <v>1462.2</v>
       </c>
-      <c r="BD254" t="n">
+      <c r="BD254" s="3" t="n">
+        <v>44927</v>
+      </c>
+      <c r="BE254" t="n">
+        <v>728.1828587502494</v>
+      </c>
+      <c r="BF254" t="n">
         <v>1336.9</v>
       </c>
-      <c r="BE254" t="n">
+      <c r="BG254" t="n">
         <v>1105</v>
       </c>
     </row>
@@ -42463,10 +43996,16 @@
       <c r="BC255" t="n">
         <v>1462.2</v>
       </c>
-      <c r="BD255" t="n">
+      <c r="BD255" s="3" t="n">
+        <v>44958</v>
+      </c>
+      <c r="BE255" t="n">
+        <v>728.1828587502494</v>
+      </c>
+      <c r="BF255" t="n">
         <v>1336.9</v>
       </c>
-      <c r="BE255" t="n">
+      <c r="BG255" t="n">
         <v>1105</v>
       </c>
     </row>
@@ -42594,11 +44133,17 @@
       <c r="BC256" t="n">
         <v>653.4</v>
       </c>
-      <c r="BD256" t="n">
+      <c r="BD256" s="3" t="n">
+        <v>44986</v>
+      </c>
+      <c r="BE256" t="n">
+        <v>653.4</v>
+      </c>
+      <c r="BF256" t="n">
+        <v>1462.2</v>
+      </c>
+      <c r="BG256" t="n">
         <v>1336.9</v>
-      </c>
-      <c r="BE256" t="n">
-        <v>1105</v>
       </c>
     </row>
     <row r="257">
@@ -42723,11 +44268,17 @@
         <v>2023</v>
       </c>
       <c r="BC257" t="inlineStr"/>
-      <c r="BD257" t="n">
+      <c r="BD257" s="3" t="n">
+        <v>45017</v>
+      </c>
+      <c r="BE257" t="n">
+        <v>653.4</v>
+      </c>
+      <c r="BF257" t="n">
+        <v>1462.2</v>
+      </c>
+      <c r="BG257" t="n">
         <v>1336.9</v>
-      </c>
-      <c r="BE257" t="n">
-        <v>1105</v>
       </c>
     </row>
     <row r="258">
@@ -42852,10 +44403,16 @@
         <v>2023</v>
       </c>
       <c r="BC258" t="inlineStr"/>
-      <c r="BD258" t="n">
+      <c r="BD258" s="3" t="n">
+        <v>45047</v>
+      </c>
+      <c r="BE258" t="n">
+        <v>653.4</v>
+      </c>
+      <c r="BF258" t="n">
         <v>1462.2</v>
       </c>
-      <c r="BE258" t="n">
+      <c r="BG258" t="n">
         <v>1336.9</v>
       </c>
     </row>
@@ -42981,10 +44538,16 @@
         <v>2023</v>
       </c>
       <c r="BC259" t="inlineStr"/>
-      <c r="BD259" t="n">
+      <c r="BD259" s="3" t="n">
+        <v>45078</v>
+      </c>
+      <c r="BE259" t="n">
+        <v>653.4</v>
+      </c>
+      <c r="BF259" t="n">
         <v>1462.2</v>
       </c>
-      <c r="BE259" t="n">
+      <c r="BG259" t="n">
         <v>1336.9</v>
       </c>
     </row>
@@ -43098,10 +44661,16 @@
         <v>2023</v>
       </c>
       <c r="BC260" t="inlineStr"/>
-      <c r="BD260" t="n">
+      <c r="BD260" s="3" t="n">
+        <v>45108</v>
+      </c>
+      <c r="BE260" t="n">
+        <v>714.1793422358214</v>
+      </c>
+      <c r="BF260" t="n">
         <v>1462.2</v>
       </c>
-      <c r="BE260" t="n">
+      <c r="BG260" t="n">
         <v>1336.9</v>
       </c>
     </row>
@@ -43207,10 +44776,16 @@
         <v>2023</v>
       </c>
       <c r="BC261" t="inlineStr"/>
-      <c r="BD261" t="n">
+      <c r="BD261" s="3" t="n">
+        <v>45139</v>
+      </c>
+      <c r="BE261" t="n">
+        <v>714.1793422358214</v>
+      </c>
+      <c r="BF261" t="n">
         <v>1462.2</v>
       </c>
-      <c r="BE261" t="n">
+      <c r="BG261" t="n">
         <v>1336.9</v>
       </c>
     </row>
@@ -43304,10 +44879,16 @@
         <v>2023</v>
       </c>
       <c r="BC262" t="inlineStr"/>
-      <c r="BD262" t="n">
+      <c r="BD262" s="3" t="n">
+        <v>45170</v>
+      </c>
+      <c r="BE262" t="n">
+        <v>714.1793422358214</v>
+      </c>
+      <c r="BF262" t="n">
         <v>1462.2</v>
       </c>
-      <c r="BE262" t="n">
+      <c r="BG262" t="n">
         <v>1336.9</v>
       </c>
     </row>

--- a/Output/Excel/df_month.xlsx
+++ b/Output/Excel/df_month.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BG262"/>
+  <dimension ref="A1:BI262"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -718,22 +718,32 @@
       </c>
       <c r="BD1" s="1" t="inlineStr">
         <is>
+          <t>PRODUCTION_HARVEST_ORIGINAL</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
           <t>DATE</t>
         </is>
       </c>
-      <c r="BE1" s="1" t="inlineStr">
+      <c r="BF1" s="1" t="inlineStr">
         <is>
           <t>PRODUCTION_HARVEST_REAL_EST</t>
         </is>
       </c>
-      <c r="BF1" s="1" t="inlineStr">
+      <c r="BG1" s="1" t="inlineStr">
         <is>
           <t>PRODUCTION_HARVEST_LAST_YEAR</t>
         </is>
       </c>
-      <c r="BG1" s="1" t="inlineStr">
+      <c r="BH1" s="1" t="inlineStr">
         <is>
           <t>PRODUCTION_HARVEST_2_YEARS</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>Estimación España (Junta Andalucia)</t>
         </is>
       </c>
     </row>
@@ -883,12 +893,16 @@
         <v>2002</v>
       </c>
       <c r="BC2" t="inlineStr"/>
-      <c r="BD2" s="3" t="n">
+      <c r="BD2" t="n">
+        <v>830.3</v>
+      </c>
+      <c r="BE2" s="3" t="n">
         <v>37257</v>
       </c>
-      <c r="BE2" t="inlineStr"/>
       <c r="BF2" t="inlineStr"/>
       <c r="BG2" t="inlineStr"/>
+      <c r="BH2" t="inlineStr"/>
+      <c r="BI2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -1038,12 +1052,16 @@
         <v>2002</v>
       </c>
       <c r="BC3" t="inlineStr"/>
-      <c r="BD3" s="3" t="n">
+      <c r="BD3" t="n">
+        <v>830.3</v>
+      </c>
+      <c r="BE3" s="3" t="n">
         <v>37288</v>
       </c>
-      <c r="BE3" t="inlineStr"/>
       <c r="BF3" t="inlineStr"/>
       <c r="BG3" t="inlineStr"/>
+      <c r="BH3" t="inlineStr"/>
+      <c r="BI3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -1195,14 +1213,18 @@
       <c r="BC4" t="n">
         <v>830.3</v>
       </c>
-      <c r="BD4" s="3" t="n">
+      <c r="BD4" t="n">
+        <v>830.3</v>
+      </c>
+      <c r="BE4" s="3" t="n">
         <v>37316</v>
       </c>
-      <c r="BE4" t="n">
+      <c r="BF4" t="n">
         <v>830.3</v>
       </c>
-      <c r="BF4" t="inlineStr"/>
       <c r="BG4" t="inlineStr"/>
+      <c r="BH4" t="inlineStr"/>
+      <c r="BI4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -1354,14 +1376,18 @@
       <c r="BC5" t="n">
         <v>830.3</v>
       </c>
-      <c r="BD5" s="3" t="n">
+      <c r="BD5" t="n">
+        <v>830.3</v>
+      </c>
+      <c r="BE5" s="3" t="n">
         <v>37347</v>
       </c>
-      <c r="BE5" t="n">
+      <c r="BF5" t="n">
         <v>830.3</v>
       </c>
-      <c r="BF5" t="inlineStr"/>
       <c r="BG5" t="inlineStr"/>
+      <c r="BH5" t="inlineStr"/>
+      <c r="BI5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -1513,14 +1539,18 @@
       <c r="BC6" t="n">
         <v>830.3</v>
       </c>
-      <c r="BD6" s="3" t="n">
+      <c r="BD6" t="n">
+        <v>830.3</v>
+      </c>
+      <c r="BE6" s="3" t="n">
         <v>37377</v>
       </c>
-      <c r="BE6" t="n">
+      <c r="BF6" t="n">
         <v>830.3</v>
       </c>
-      <c r="BF6" t="inlineStr"/>
       <c r="BG6" t="inlineStr"/>
+      <c r="BH6" t="inlineStr"/>
+      <c r="BI6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -1672,14 +1702,18 @@
       <c r="BC7" t="n">
         <v>830.3</v>
       </c>
-      <c r="BD7" s="3" t="n">
+      <c r="BD7" t="n">
+        <v>830.3</v>
+      </c>
+      <c r="BE7" s="3" t="n">
         <v>37408</v>
       </c>
-      <c r="BE7" t="n">
+      <c r="BF7" t="n">
         <v>830.3</v>
       </c>
-      <c r="BF7" t="inlineStr"/>
       <c r="BG7" t="inlineStr"/>
+      <c r="BH7" t="inlineStr"/>
+      <c r="BI7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -1831,14 +1865,18 @@
       <c r="BC8" t="n">
         <v>830.3</v>
       </c>
-      <c r="BD8" s="3" t="n">
+      <c r="BD8" t="n">
+        <v>830.3</v>
+      </c>
+      <c r="BE8" s="3" t="n">
         <v>37438</v>
       </c>
-      <c r="BE8" t="n">
+      <c r="BF8" t="n">
         <v>830.3</v>
       </c>
-      <c r="BF8" t="inlineStr"/>
       <c r="BG8" t="inlineStr"/>
+      <c r="BH8" t="inlineStr"/>
+      <c r="BI8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -1990,14 +2028,18 @@
       <c r="BC9" t="n">
         <v>830.3</v>
       </c>
-      <c r="BD9" s="3" t="n">
+      <c r="BD9" t="n">
+        <v>830.3</v>
+      </c>
+      <c r="BE9" s="3" t="n">
         <v>37469</v>
       </c>
-      <c r="BE9" t="n">
+      <c r="BF9" t="n">
         <v>830.3</v>
       </c>
-      <c r="BF9" t="inlineStr"/>
       <c r="BG9" t="inlineStr"/>
+      <c r="BH9" t="inlineStr"/>
+      <c r="BI9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -2149,14 +2191,18 @@
       <c r="BC10" t="n">
         <v>830.3</v>
       </c>
-      <c r="BD10" s="3" t="n">
+      <c r="BD10" t="n">
+        <v>830.3</v>
+      </c>
+      <c r="BE10" s="3" t="n">
         <v>37500</v>
       </c>
-      <c r="BE10" t="n">
+      <c r="BF10" t="n">
         <v>830.3</v>
       </c>
-      <c r="BF10" t="inlineStr"/>
       <c r="BG10" t="inlineStr"/>
+      <c r="BH10" t="inlineStr"/>
+      <c r="BI10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -2308,14 +2354,18 @@
       <c r="BC11" t="n">
         <v>830.3</v>
       </c>
-      <c r="BD11" s="3" t="n">
+      <c r="BD11" t="n">
+        <v>830.3</v>
+      </c>
+      <c r="BE11" s="3" t="n">
         <v>37530</v>
       </c>
-      <c r="BE11" t="n">
+      <c r="BF11" t="n">
         <v>830.3</v>
       </c>
-      <c r="BF11" t="inlineStr"/>
       <c r="BG11" t="inlineStr"/>
+      <c r="BH11" t="inlineStr"/>
+      <c r="BI11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -2467,14 +2517,18 @@
       <c r="BC12" t="n">
         <v>830.3</v>
       </c>
-      <c r="BD12" s="3" t="n">
+      <c r="BD12" t="n">
+        <v>830.3</v>
+      </c>
+      <c r="BE12" s="3" t="n">
         <v>37561</v>
       </c>
-      <c r="BE12" t="n">
+      <c r="BF12" t="n">
         <v>830.3</v>
       </c>
-      <c r="BF12" t="inlineStr"/>
       <c r="BG12" t="inlineStr"/>
+      <c r="BH12" t="inlineStr"/>
+      <c r="BI12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -2626,14 +2680,18 @@
       <c r="BC13" t="n">
         <v>830.3</v>
       </c>
-      <c r="BD13" s="3" t="n">
+      <c r="BD13" t="n">
+        <v>830.3</v>
+      </c>
+      <c r="BE13" s="3" t="n">
         <v>37591</v>
       </c>
-      <c r="BE13" t="n">
+      <c r="BF13" t="n">
         <v>830.3</v>
       </c>
-      <c r="BF13" t="inlineStr"/>
       <c r="BG13" t="inlineStr"/>
+      <c r="BH13" t="inlineStr"/>
+      <c r="BI13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -2785,14 +2843,18 @@
       <c r="BC14" t="n">
         <v>830.3</v>
       </c>
-      <c r="BD14" s="3" t="n">
+      <c r="BD14" t="n">
+        <v>804.5</v>
+      </c>
+      <c r="BE14" s="3" t="n">
         <v>37622</v>
       </c>
-      <c r="BE14" t="n">
+      <c r="BF14" t="n">
         <v>830.3</v>
       </c>
-      <c r="BF14" t="inlineStr"/>
       <c r="BG14" t="inlineStr"/>
+      <c r="BH14" t="inlineStr"/>
+      <c r="BI14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -2944,14 +3006,18 @@
       <c r="BC15" t="n">
         <v>830.3</v>
       </c>
-      <c r="BD15" s="3" t="n">
+      <c r="BD15" t="n">
+        <v>804.5</v>
+      </c>
+      <c r="BE15" s="3" t="n">
         <v>37653</v>
       </c>
-      <c r="BE15" t="n">
+      <c r="BF15" t="n">
         <v>830.3</v>
       </c>
-      <c r="BF15" t="inlineStr"/>
       <c r="BG15" t="inlineStr"/>
+      <c r="BH15" t="inlineStr"/>
+      <c r="BI15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -3103,16 +3169,20 @@
       <c r="BC16" t="n">
         <v>804.5</v>
       </c>
-      <c r="BD16" s="3" t="n">
+      <c r="BD16" t="n">
+        <v>804.5</v>
+      </c>
+      <c r="BE16" s="3" t="n">
         <v>37681</v>
       </c>
-      <c r="BE16" t="n">
+      <c r="BF16" t="n">
         <v>804.5</v>
       </c>
-      <c r="BF16" t="n">
+      <c r="BG16" t="n">
         <v>830.3</v>
       </c>
-      <c r="BG16" t="inlineStr"/>
+      <c r="BH16" t="inlineStr"/>
+      <c r="BI16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -3264,16 +3334,20 @@
       <c r="BC17" t="n">
         <v>804.5</v>
       </c>
-      <c r="BD17" s="3" t="n">
+      <c r="BD17" t="n">
+        <v>804.5</v>
+      </c>
+      <c r="BE17" s="3" t="n">
         <v>37712</v>
       </c>
-      <c r="BE17" t="n">
+      <c r="BF17" t="n">
         <v>804.5</v>
       </c>
-      <c r="BF17" t="n">
+      <c r="BG17" t="n">
         <v>830.3</v>
       </c>
-      <c r="BG17" t="inlineStr"/>
+      <c r="BH17" t="inlineStr"/>
+      <c r="BI17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -3425,16 +3499,20 @@
       <c r="BC18" t="n">
         <v>804.5</v>
       </c>
-      <c r="BD18" s="3" t="n">
+      <c r="BD18" t="n">
+        <v>804.5</v>
+      </c>
+      <c r="BE18" s="3" t="n">
         <v>37742</v>
       </c>
-      <c r="BE18" t="n">
+      <c r="BF18" t="n">
         <v>804.5</v>
       </c>
-      <c r="BF18" t="n">
+      <c r="BG18" t="n">
         <v>830.3</v>
       </c>
-      <c r="BG18" t="inlineStr"/>
+      <c r="BH18" t="inlineStr"/>
+      <c r="BI18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -3586,16 +3664,20 @@
       <c r="BC19" t="n">
         <v>804.5</v>
       </c>
-      <c r="BD19" s="3" t="n">
+      <c r="BD19" t="n">
+        <v>804.5</v>
+      </c>
+      <c r="BE19" s="3" t="n">
         <v>37773</v>
       </c>
-      <c r="BE19" t="n">
+      <c r="BF19" t="n">
         <v>804.5</v>
       </c>
-      <c r="BF19" t="n">
+      <c r="BG19" t="n">
         <v>830.3</v>
       </c>
-      <c r="BG19" t="inlineStr"/>
+      <c r="BH19" t="inlineStr"/>
+      <c r="BI19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -3747,16 +3829,20 @@
       <c r="BC20" t="n">
         <v>804.5</v>
       </c>
-      <c r="BD20" s="3" t="n">
+      <c r="BD20" t="n">
+        <v>804.5</v>
+      </c>
+      <c r="BE20" s="3" t="n">
         <v>37803</v>
       </c>
-      <c r="BE20" t="n">
+      <c r="BF20" t="n">
         <v>804.5</v>
       </c>
-      <c r="BF20" t="n">
+      <c r="BG20" t="n">
         <v>830.3</v>
       </c>
-      <c r="BG20" t="inlineStr"/>
+      <c r="BH20" t="inlineStr"/>
+      <c r="BI20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -3908,16 +3994,20 @@
       <c r="BC21" t="n">
         <v>804.5</v>
       </c>
-      <c r="BD21" s="3" t="n">
+      <c r="BD21" t="n">
+        <v>804.5</v>
+      </c>
+      <c r="BE21" s="3" t="n">
         <v>37834</v>
       </c>
-      <c r="BE21" t="n">
+      <c r="BF21" t="n">
         <v>804.5</v>
       </c>
-      <c r="BF21" t="n">
+      <c r="BG21" t="n">
         <v>830.3</v>
       </c>
-      <c r="BG21" t="inlineStr"/>
+      <c r="BH21" t="inlineStr"/>
+      <c r="BI21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -4069,16 +4159,20 @@
       <c r="BC22" t="n">
         <v>804.5</v>
       </c>
-      <c r="BD22" s="3" t="n">
+      <c r="BD22" t="n">
+        <v>804.5</v>
+      </c>
+      <c r="BE22" s="3" t="n">
         <v>37865</v>
       </c>
-      <c r="BE22" t="n">
+      <c r="BF22" t="n">
         <v>804.5</v>
       </c>
-      <c r="BF22" t="n">
+      <c r="BG22" t="n">
         <v>830.3</v>
       </c>
-      <c r="BG22" t="inlineStr"/>
+      <c r="BH22" t="inlineStr"/>
+      <c r="BI22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -4230,16 +4324,20 @@
       <c r="BC23" t="n">
         <v>804.5</v>
       </c>
-      <c r="BD23" s="3" t="n">
+      <c r="BD23" t="n">
+        <v>804.5</v>
+      </c>
+      <c r="BE23" s="3" t="n">
         <v>37895</v>
       </c>
-      <c r="BE23" t="n">
+      <c r="BF23" t="n">
         <v>804.5</v>
       </c>
-      <c r="BF23" t="n">
+      <c r="BG23" t="n">
         <v>830.3</v>
       </c>
-      <c r="BG23" t="inlineStr"/>
+      <c r="BH23" t="inlineStr"/>
+      <c r="BI23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -4391,16 +4489,20 @@
       <c r="BC24" t="n">
         <v>804.5</v>
       </c>
-      <c r="BD24" s="3" t="n">
+      <c r="BD24" t="n">
+        <v>804.5</v>
+      </c>
+      <c r="BE24" s="3" t="n">
         <v>37926</v>
       </c>
-      <c r="BE24" t="n">
+      <c r="BF24" t="n">
         <v>804.5</v>
       </c>
-      <c r="BF24" t="n">
+      <c r="BG24" t="n">
         <v>830.3</v>
       </c>
-      <c r="BG24" t="inlineStr"/>
+      <c r="BH24" t="inlineStr"/>
+      <c r="BI24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -4552,16 +4654,20 @@
       <c r="BC25" t="n">
         <v>804.5</v>
       </c>
-      <c r="BD25" s="3" t="n">
+      <c r="BD25" t="n">
+        <v>804.5</v>
+      </c>
+      <c r="BE25" s="3" t="n">
         <v>37956</v>
       </c>
-      <c r="BE25" t="n">
+      <c r="BF25" t="n">
         <v>804.5</v>
       </c>
-      <c r="BF25" t="n">
+      <c r="BG25" t="n">
         <v>830.3</v>
       </c>
-      <c r="BG25" t="inlineStr"/>
+      <c r="BH25" t="inlineStr"/>
+      <c r="BI25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -4713,16 +4819,20 @@
       <c r="BC26" t="n">
         <v>804.5</v>
       </c>
-      <c r="BD26" s="3" t="n">
+      <c r="BD26" t="n">
+        <v>1326.6</v>
+      </c>
+      <c r="BE26" s="3" t="n">
         <v>37987</v>
       </c>
-      <c r="BE26" t="n">
+      <c r="BF26" t="n">
         <v>804.5</v>
       </c>
-      <c r="BF26" t="n">
+      <c r="BG26" t="n">
         <v>830.3</v>
       </c>
-      <c r="BG26" t="inlineStr"/>
+      <c r="BH26" t="inlineStr"/>
+      <c r="BI26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -4874,16 +4984,20 @@
       <c r="BC27" t="n">
         <v>804.5</v>
       </c>
-      <c r="BD27" s="3" t="n">
+      <c r="BD27" t="n">
+        <v>1326.6</v>
+      </c>
+      <c r="BE27" s="3" t="n">
         <v>38018</v>
       </c>
-      <c r="BE27" t="n">
+      <c r="BF27" t="n">
         <v>804.5</v>
       </c>
-      <c r="BF27" t="n">
+      <c r="BG27" t="n">
         <v>830.3</v>
       </c>
-      <c r="BG27" t="inlineStr"/>
+      <c r="BH27" t="inlineStr"/>
+      <c r="BI27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -5035,18 +5149,22 @@
       <c r="BC28" t="n">
         <v>1326.6</v>
       </c>
-      <c r="BD28" s="3" t="n">
+      <c r="BD28" t="n">
+        <v>1326.6</v>
+      </c>
+      <c r="BE28" s="3" t="n">
         <v>38047</v>
       </c>
-      <c r="BE28" t="n">
+      <c r="BF28" t="n">
         <v>1326.6</v>
       </c>
-      <c r="BF28" t="n">
+      <c r="BG28" t="n">
         <v>804.5</v>
       </c>
-      <c r="BG28" t="n">
+      <c r="BH28" t="n">
         <v>830.3</v>
       </c>
+      <c r="BI28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -5198,18 +5316,22 @@
       <c r="BC29" t="n">
         <v>1326.6</v>
       </c>
-      <c r="BD29" s="3" t="n">
+      <c r="BD29" t="n">
+        <v>1326.6</v>
+      </c>
+      <c r="BE29" s="3" t="n">
         <v>38078</v>
       </c>
-      <c r="BE29" t="n">
+      <c r="BF29" t="n">
         <v>1326.6</v>
       </c>
-      <c r="BF29" t="n">
+      <c r="BG29" t="n">
         <v>804.5</v>
       </c>
-      <c r="BG29" t="n">
+      <c r="BH29" t="n">
         <v>830.3</v>
       </c>
+      <c r="BI29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -5361,18 +5483,22 @@
       <c r="BC30" t="n">
         <v>1326.6</v>
       </c>
-      <c r="BD30" s="3" t="n">
+      <c r="BD30" t="n">
+        <v>1326.6</v>
+      </c>
+      <c r="BE30" s="3" t="n">
         <v>38108</v>
       </c>
-      <c r="BE30" t="n">
+      <c r="BF30" t="n">
         <v>1326.6</v>
       </c>
-      <c r="BF30" t="n">
+      <c r="BG30" t="n">
         <v>804.5</v>
       </c>
-      <c r="BG30" t="n">
+      <c r="BH30" t="n">
         <v>830.3</v>
       </c>
+      <c r="BI30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -5524,18 +5650,22 @@
       <c r="BC31" t="n">
         <v>1326.6</v>
       </c>
-      <c r="BD31" s="3" t="n">
+      <c r="BD31" t="n">
+        <v>1326.6</v>
+      </c>
+      <c r="BE31" s="3" t="n">
         <v>38139</v>
       </c>
-      <c r="BE31" t="n">
+      <c r="BF31" t="n">
         <v>1326.6</v>
       </c>
-      <c r="BF31" t="n">
+      <c r="BG31" t="n">
         <v>804.5</v>
       </c>
-      <c r="BG31" t="n">
+      <c r="BH31" t="n">
         <v>830.3</v>
       </c>
+      <c r="BI31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -5687,18 +5817,22 @@
       <c r="BC32" t="n">
         <v>1326.6</v>
       </c>
-      <c r="BD32" s="3" t="n">
+      <c r="BD32" t="n">
+        <v>1326.6</v>
+      </c>
+      <c r="BE32" s="3" t="n">
         <v>38169</v>
       </c>
-      <c r="BE32" t="n">
+      <c r="BF32" t="n">
         <v>1326.6</v>
       </c>
-      <c r="BF32" t="n">
+      <c r="BG32" t="n">
         <v>804.5</v>
       </c>
-      <c r="BG32" t="n">
+      <c r="BH32" t="n">
         <v>830.3</v>
       </c>
+      <c r="BI32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -5850,18 +5984,22 @@
       <c r="BC33" t="n">
         <v>1326.6</v>
       </c>
-      <c r="BD33" s="3" t="n">
+      <c r="BD33" t="n">
+        <v>1326.6</v>
+      </c>
+      <c r="BE33" s="3" t="n">
         <v>38200</v>
       </c>
-      <c r="BE33" t="n">
+      <c r="BF33" t="n">
         <v>1326.6</v>
       </c>
-      <c r="BF33" t="n">
+      <c r="BG33" t="n">
         <v>804.5</v>
       </c>
-      <c r="BG33" t="n">
+      <c r="BH33" t="n">
         <v>830.3</v>
       </c>
+      <c r="BI33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -6013,18 +6151,22 @@
       <c r="BC34" t="n">
         <v>1326.6</v>
       </c>
-      <c r="BD34" s="3" t="n">
+      <c r="BD34" t="n">
+        <v>1326.6</v>
+      </c>
+      <c r="BE34" s="3" t="n">
         <v>38231</v>
       </c>
-      <c r="BE34" t="n">
+      <c r="BF34" t="n">
         <v>1326.6</v>
       </c>
-      <c r="BF34" t="n">
+      <c r="BG34" t="n">
         <v>804.5</v>
       </c>
-      <c r="BG34" t="n">
+      <c r="BH34" t="n">
         <v>830.3</v>
       </c>
+      <c r="BI34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -6176,18 +6318,22 @@
       <c r="BC35" t="n">
         <v>1326.6</v>
       </c>
-      <c r="BD35" s="3" t="n">
+      <c r="BD35" t="n">
+        <v>1326.6</v>
+      </c>
+      <c r="BE35" s="3" t="n">
         <v>38261</v>
       </c>
-      <c r="BE35" t="n">
+      <c r="BF35" t="n">
         <v>1326.6</v>
       </c>
-      <c r="BF35" t="n">
+      <c r="BG35" t="n">
         <v>804.5</v>
       </c>
-      <c r="BG35" t="n">
+      <c r="BH35" t="n">
         <v>830.3</v>
       </c>
+      <c r="BI35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -6339,18 +6485,22 @@
       <c r="BC36" t="n">
         <v>1326.6</v>
       </c>
-      <c r="BD36" s="3" t="n">
+      <c r="BD36" t="n">
+        <v>1326.6</v>
+      </c>
+      <c r="BE36" s="3" t="n">
         <v>38292</v>
       </c>
-      <c r="BE36" t="n">
+      <c r="BF36" t="n">
         <v>1326.6</v>
       </c>
-      <c r="BF36" t="n">
+      <c r="BG36" t="n">
         <v>804.5</v>
       </c>
-      <c r="BG36" t="n">
+      <c r="BH36" t="n">
         <v>830.3</v>
       </c>
+      <c r="BI36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -6502,18 +6652,22 @@
       <c r="BC37" t="n">
         <v>1326.6</v>
       </c>
-      <c r="BD37" s="3" t="n">
+      <c r="BD37" t="n">
+        <v>1326.6</v>
+      </c>
+      <c r="BE37" s="3" t="n">
         <v>38322</v>
       </c>
-      <c r="BE37" t="n">
+      <c r="BF37" t="n">
         <v>1326.6</v>
       </c>
-      <c r="BF37" t="n">
+      <c r="BG37" t="n">
         <v>804.5</v>
       </c>
-      <c r="BG37" t="n">
+      <c r="BH37" t="n">
         <v>830.3</v>
       </c>
+      <c r="BI37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -6665,18 +6819,22 @@
       <c r="BC38" t="n">
         <v>1326.6</v>
       </c>
-      <c r="BD38" s="3" t="n">
+      <c r="BD38" t="n">
+        <v>956.5</v>
+      </c>
+      <c r="BE38" s="3" t="n">
         <v>38353</v>
       </c>
-      <c r="BE38" t="n">
+      <c r="BF38" t="n">
         <v>1326.6</v>
       </c>
-      <c r="BF38" t="n">
+      <c r="BG38" t="n">
         <v>804.5</v>
       </c>
-      <c r="BG38" t="n">
+      <c r="BH38" t="n">
         <v>830.3</v>
       </c>
+      <c r="BI38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -6828,18 +6986,22 @@
       <c r="BC39" t="n">
         <v>1326.6</v>
       </c>
-      <c r="BD39" s="3" t="n">
+      <c r="BD39" t="n">
+        <v>956.5</v>
+      </c>
+      <c r="BE39" s="3" t="n">
         <v>38384</v>
       </c>
-      <c r="BE39" t="n">
+      <c r="BF39" t="n">
         <v>1326.6</v>
       </c>
-      <c r="BF39" t="n">
+      <c r="BG39" t="n">
         <v>804.5</v>
       </c>
-      <c r="BG39" t="n">
+      <c r="BH39" t="n">
         <v>830.3</v>
       </c>
+      <c r="BI39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -6991,18 +7153,22 @@
       <c r="BC40" t="n">
         <v>956.5</v>
       </c>
-      <c r="BD40" s="3" t="n">
+      <c r="BD40" t="n">
+        <v>956.5</v>
+      </c>
+      <c r="BE40" s="3" t="n">
         <v>38412</v>
       </c>
-      <c r="BE40" t="n">
+      <c r="BF40" t="n">
         <v>956.5</v>
       </c>
-      <c r="BF40" t="n">
+      <c r="BG40" t="n">
         <v>1326.6</v>
       </c>
-      <c r="BG40" t="n">
+      <c r="BH40" t="n">
         <v>804.5</v>
       </c>
+      <c r="BI40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -7154,18 +7320,22 @@
       <c r="BC41" t="n">
         <v>956.5</v>
       </c>
-      <c r="BD41" s="3" t="n">
+      <c r="BD41" t="n">
+        <v>956.5</v>
+      </c>
+      <c r="BE41" s="3" t="n">
         <v>38443</v>
       </c>
-      <c r="BE41" t="n">
+      <c r="BF41" t="n">
         <v>956.5</v>
       </c>
-      <c r="BF41" t="n">
+      <c r="BG41" t="n">
         <v>1326.6</v>
       </c>
-      <c r="BG41" t="n">
+      <c r="BH41" t="n">
         <v>804.5</v>
       </c>
+      <c r="BI41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -7317,18 +7487,22 @@
       <c r="BC42" t="n">
         <v>956.5</v>
       </c>
-      <c r="BD42" s="3" t="n">
+      <c r="BD42" t="n">
+        <v>956.5</v>
+      </c>
+      <c r="BE42" s="3" t="n">
         <v>38473</v>
       </c>
-      <c r="BE42" t="n">
+      <c r="BF42" t="n">
         <v>956.5</v>
       </c>
-      <c r="BF42" t="n">
+      <c r="BG42" t="n">
         <v>1326.6</v>
       </c>
-      <c r="BG42" t="n">
+      <c r="BH42" t="n">
         <v>804.5</v>
       </c>
+      <c r="BI42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -7480,18 +7654,22 @@
       <c r="BC43" t="n">
         <v>956.5</v>
       </c>
-      <c r="BD43" s="3" t="n">
+      <c r="BD43" t="n">
+        <v>956.5</v>
+      </c>
+      <c r="BE43" s="3" t="n">
         <v>38504</v>
       </c>
-      <c r="BE43" t="n">
+      <c r="BF43" t="n">
         <v>956.5</v>
       </c>
-      <c r="BF43" t="n">
+      <c r="BG43" t="n">
         <v>1326.6</v>
       </c>
-      <c r="BG43" t="n">
+      <c r="BH43" t="n">
         <v>804.5</v>
       </c>
+      <c r="BI43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -7643,18 +7821,22 @@
       <c r="BC44" t="n">
         <v>956.5</v>
       </c>
-      <c r="BD44" s="3" t="n">
+      <c r="BD44" t="n">
+        <v>956.5</v>
+      </c>
+      <c r="BE44" s="3" t="n">
         <v>38534</v>
       </c>
-      <c r="BE44" t="n">
+      <c r="BF44" t="n">
         <v>956.5</v>
       </c>
-      <c r="BF44" t="n">
+      <c r="BG44" t="n">
         <v>1326.6</v>
       </c>
-      <c r="BG44" t="n">
+      <c r="BH44" t="n">
         <v>804.5</v>
       </c>
+      <c r="BI44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -7806,18 +7988,22 @@
       <c r="BC45" t="n">
         <v>956.5</v>
       </c>
-      <c r="BD45" s="3" t="n">
+      <c r="BD45" t="n">
+        <v>956.5</v>
+      </c>
+      <c r="BE45" s="3" t="n">
         <v>38565</v>
       </c>
-      <c r="BE45" t="n">
+      <c r="BF45" t="n">
         <v>956.5</v>
       </c>
-      <c r="BF45" t="n">
+      <c r="BG45" t="n">
         <v>1326.6</v>
       </c>
-      <c r="BG45" t="n">
+      <c r="BH45" t="n">
         <v>804.5</v>
       </c>
+      <c r="BI45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -7969,18 +8155,22 @@
       <c r="BC46" t="n">
         <v>956.5</v>
       </c>
-      <c r="BD46" s="3" t="n">
+      <c r="BD46" t="n">
+        <v>956.5</v>
+      </c>
+      <c r="BE46" s="3" t="n">
         <v>38596</v>
       </c>
-      <c r="BE46" t="n">
+      <c r="BF46" t="n">
         <v>956.5</v>
       </c>
-      <c r="BF46" t="n">
+      <c r="BG46" t="n">
         <v>1326.6</v>
       </c>
-      <c r="BG46" t="n">
+      <c r="BH46" t="n">
         <v>804.5</v>
       </c>
+      <c r="BI46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -8132,18 +8322,22 @@
       <c r="BC47" t="n">
         <v>956.5</v>
       </c>
-      <c r="BD47" s="3" t="n">
+      <c r="BD47" t="n">
+        <v>956.5</v>
+      </c>
+      <c r="BE47" s="3" t="n">
         <v>38626</v>
       </c>
-      <c r="BE47" t="n">
+      <c r="BF47" t="n">
         <v>956.5</v>
       </c>
-      <c r="BF47" t="n">
+      <c r="BG47" t="n">
         <v>1326.6</v>
       </c>
-      <c r="BG47" t="n">
+      <c r="BH47" t="n">
         <v>804.5</v>
       </c>
+      <c r="BI47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -8295,18 +8489,22 @@
       <c r="BC48" t="n">
         <v>956.5</v>
       </c>
-      <c r="BD48" s="3" t="n">
+      <c r="BD48" t="n">
+        <v>956.5</v>
+      </c>
+      <c r="BE48" s="3" t="n">
         <v>38657</v>
       </c>
-      <c r="BE48" t="n">
+      <c r="BF48" t="n">
         <v>956.5</v>
       </c>
-      <c r="BF48" t="n">
+      <c r="BG48" t="n">
         <v>1326.6</v>
       </c>
-      <c r="BG48" t="n">
+      <c r="BH48" t="n">
         <v>804.5</v>
       </c>
+      <c r="BI48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -8458,18 +8656,22 @@
       <c r="BC49" t="n">
         <v>956.5</v>
       </c>
-      <c r="BD49" s="3" t="n">
+      <c r="BD49" t="n">
+        <v>956.5</v>
+      </c>
+      <c r="BE49" s="3" t="n">
         <v>38687</v>
       </c>
-      <c r="BE49" t="n">
+      <c r="BF49" t="n">
         <v>956.5</v>
       </c>
-      <c r="BF49" t="n">
+      <c r="BG49" t="n">
         <v>1326.6</v>
       </c>
-      <c r="BG49" t="n">
+      <c r="BH49" t="n">
         <v>804.5</v>
       </c>
+      <c r="BI49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -8621,18 +8823,22 @@
       <c r="BC50" t="n">
         <v>956.5</v>
       </c>
-      <c r="BD50" s="3" t="n">
+      <c r="BD50" t="n">
+        <v>771.5</v>
+      </c>
+      <c r="BE50" s="3" t="n">
         <v>38718</v>
       </c>
-      <c r="BE50" t="n">
+      <c r="BF50" t="n">
         <v>956.5</v>
       </c>
-      <c r="BF50" t="n">
+      <c r="BG50" t="n">
         <v>1326.6</v>
       </c>
-      <c r="BG50" t="n">
+      <c r="BH50" t="n">
         <v>804.5</v>
       </c>
+      <c r="BI50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -8784,18 +8990,22 @@
       <c r="BC51" t="n">
         <v>956.5</v>
       </c>
-      <c r="BD51" s="3" t="n">
+      <c r="BD51" t="n">
+        <v>771.5</v>
+      </c>
+      <c r="BE51" s="3" t="n">
         <v>38749</v>
       </c>
-      <c r="BE51" t="n">
+      <c r="BF51" t="n">
         <v>956.5</v>
       </c>
-      <c r="BF51" t="n">
+      <c r="BG51" t="n">
         <v>1326.6</v>
       </c>
-      <c r="BG51" t="n">
+      <c r="BH51" t="n">
         <v>804.5</v>
       </c>
+      <c r="BI51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -8947,18 +9157,22 @@
       <c r="BC52" t="n">
         <v>771.5</v>
       </c>
-      <c r="BD52" s="3" t="n">
+      <c r="BD52" t="n">
+        <v>771.5</v>
+      </c>
+      <c r="BE52" s="3" t="n">
         <v>38777</v>
       </c>
-      <c r="BE52" t="n">
+      <c r="BF52" t="n">
         <v>771.5</v>
       </c>
-      <c r="BF52" t="n">
+      <c r="BG52" t="n">
         <v>956.5</v>
       </c>
-      <c r="BG52" t="n">
+      <c r="BH52" t="n">
         <v>1326.6</v>
       </c>
+      <c r="BI52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -9110,18 +9324,22 @@
       <c r="BC53" t="n">
         <v>771.5</v>
       </c>
-      <c r="BD53" s="3" t="n">
+      <c r="BD53" t="n">
+        <v>771.5</v>
+      </c>
+      <c r="BE53" s="3" t="n">
         <v>38808</v>
       </c>
-      <c r="BE53" t="n">
+      <c r="BF53" t="n">
         <v>771.5</v>
       </c>
-      <c r="BF53" t="n">
+      <c r="BG53" t="n">
         <v>956.5</v>
       </c>
-      <c r="BG53" t="n">
+      <c r="BH53" t="n">
         <v>1326.6</v>
       </c>
+      <c r="BI53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -9273,18 +9491,22 @@
       <c r="BC54" t="n">
         <v>771.5</v>
       </c>
-      <c r="BD54" s="3" t="n">
+      <c r="BD54" t="n">
+        <v>771.5</v>
+      </c>
+      <c r="BE54" s="3" t="n">
         <v>38838</v>
       </c>
-      <c r="BE54" t="n">
+      <c r="BF54" t="n">
         <v>771.5</v>
       </c>
-      <c r="BF54" t="n">
+      <c r="BG54" t="n">
         <v>956.5</v>
       </c>
-      <c r="BG54" t="n">
+      <c r="BH54" t="n">
         <v>1326.6</v>
       </c>
+      <c r="BI54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -9436,18 +9658,22 @@
       <c r="BC55" t="n">
         <v>771.5</v>
       </c>
-      <c r="BD55" s="3" t="n">
+      <c r="BD55" t="n">
+        <v>771.5</v>
+      </c>
+      <c r="BE55" s="3" t="n">
         <v>38869</v>
       </c>
-      <c r="BE55" t="n">
+      <c r="BF55" t="n">
         <v>771.5</v>
       </c>
-      <c r="BF55" t="n">
+      <c r="BG55" t="n">
         <v>956.5</v>
       </c>
-      <c r="BG55" t="n">
+      <c r="BH55" t="n">
         <v>1326.6</v>
       </c>
+      <c r="BI55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
@@ -9599,18 +9825,22 @@
       <c r="BC56" t="n">
         <v>771.5</v>
       </c>
-      <c r="BD56" s="3" t="n">
+      <c r="BD56" t="n">
+        <v>771.5</v>
+      </c>
+      <c r="BE56" s="3" t="n">
         <v>38899</v>
       </c>
-      <c r="BE56" t="n">
+      <c r="BF56" t="n">
         <v>771.5</v>
       </c>
-      <c r="BF56" t="n">
+      <c r="BG56" t="n">
         <v>956.5</v>
       </c>
-      <c r="BG56" t="n">
+      <c r="BH56" t="n">
         <v>1326.6</v>
       </c>
+      <c r="BI56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
@@ -9762,18 +9992,22 @@
       <c r="BC57" t="n">
         <v>771.5</v>
       </c>
-      <c r="BD57" s="3" t="n">
+      <c r="BD57" t="n">
+        <v>771.5</v>
+      </c>
+      <c r="BE57" s="3" t="n">
         <v>38930</v>
       </c>
-      <c r="BE57" t="n">
+      <c r="BF57" t="n">
         <v>771.5</v>
       </c>
-      <c r="BF57" t="n">
+      <c r="BG57" t="n">
         <v>956.5</v>
       </c>
-      <c r="BG57" t="n">
+      <c r="BH57" t="n">
         <v>1326.6</v>
       </c>
+      <c r="BI57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
@@ -9925,18 +10159,22 @@
       <c r="BC58" t="n">
         <v>771.5</v>
       </c>
-      <c r="BD58" s="3" t="n">
+      <c r="BD58" t="n">
+        <v>771.5</v>
+      </c>
+      <c r="BE58" s="3" t="n">
         <v>38961</v>
       </c>
-      <c r="BE58" t="n">
+      <c r="BF58" t="n">
         <v>771.5</v>
       </c>
-      <c r="BF58" t="n">
+      <c r="BG58" t="n">
         <v>956.5</v>
       </c>
-      <c r="BG58" t="n">
+      <c r="BH58" t="n">
         <v>1326.6</v>
       </c>
+      <c r="BI58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
@@ -10088,18 +10326,22 @@
       <c r="BC59" t="n">
         <v>771.5</v>
       </c>
-      <c r="BD59" s="3" t="n">
+      <c r="BD59" t="n">
+        <v>771.5</v>
+      </c>
+      <c r="BE59" s="3" t="n">
         <v>38991</v>
       </c>
-      <c r="BE59" t="n">
+      <c r="BF59" t="n">
         <v>771.5</v>
       </c>
-      <c r="BF59" t="n">
+      <c r="BG59" t="n">
         <v>956.5</v>
       </c>
-      <c r="BG59" t="n">
+      <c r="BH59" t="n">
         <v>1326.6</v>
       </c>
+      <c r="BI59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
@@ -10251,18 +10493,22 @@
       <c r="BC60" t="n">
         <v>771.5</v>
       </c>
-      <c r="BD60" s="3" t="n">
+      <c r="BD60" t="n">
+        <v>771.5</v>
+      </c>
+      <c r="BE60" s="3" t="n">
         <v>39022</v>
       </c>
-      <c r="BE60" t="n">
+      <c r="BF60" t="n">
         <v>771.5</v>
       </c>
-      <c r="BF60" t="n">
+      <c r="BG60" t="n">
         <v>956.5</v>
       </c>
-      <c r="BG60" t="n">
+      <c r="BH60" t="n">
         <v>1326.6</v>
       </c>
+      <c r="BI60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
@@ -10414,18 +10660,22 @@
       <c r="BC61" t="n">
         <v>771.5</v>
       </c>
-      <c r="BD61" s="3" t="n">
+      <c r="BD61" t="n">
+        <v>771.5</v>
+      </c>
+      <c r="BE61" s="3" t="n">
         <v>39052</v>
       </c>
-      <c r="BE61" t="n">
+      <c r="BF61" t="n">
         <v>771.5</v>
       </c>
-      <c r="BF61" t="n">
+      <c r="BG61" t="n">
         <v>956.5</v>
       </c>
-      <c r="BG61" t="n">
+      <c r="BH61" t="n">
         <v>1326.6</v>
       </c>
+      <c r="BI61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
@@ -10577,18 +10827,22 @@
       <c r="BC62" t="n">
         <v>771.5</v>
       </c>
-      <c r="BD62" s="3" t="n">
+      <c r="BD62" t="n">
+        <v>1009.7</v>
+      </c>
+      <c r="BE62" s="3" t="n">
         <v>39083</v>
       </c>
-      <c r="BE62" t="n">
+      <c r="BF62" t="n">
         <v>771.5</v>
       </c>
-      <c r="BF62" t="n">
+      <c r="BG62" t="n">
         <v>956.5</v>
       </c>
-      <c r="BG62" t="n">
+      <c r="BH62" t="n">
         <v>1326.6</v>
       </c>
+      <c r="BI62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
@@ -10740,18 +10994,22 @@
       <c r="BC63" t="n">
         <v>771.5</v>
       </c>
-      <c r="BD63" s="3" t="n">
+      <c r="BD63" t="n">
+        <v>1009.7</v>
+      </c>
+      <c r="BE63" s="3" t="n">
         <v>39114</v>
       </c>
-      <c r="BE63" t="n">
+      <c r="BF63" t="n">
         <v>771.5</v>
       </c>
-      <c r="BF63" t="n">
+      <c r="BG63" t="n">
         <v>956.5</v>
       </c>
-      <c r="BG63" t="n">
+      <c r="BH63" t="n">
         <v>1326.6</v>
       </c>
+      <c r="BI63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
@@ -10903,18 +11161,22 @@
       <c r="BC64" t="n">
         <v>1009.7</v>
       </c>
-      <c r="BD64" s="3" t="n">
+      <c r="BD64" t="n">
+        <v>1009.7</v>
+      </c>
+      <c r="BE64" s="3" t="n">
         <v>39142</v>
       </c>
-      <c r="BE64" t="n">
+      <c r="BF64" t="n">
         <v>1009.7</v>
       </c>
-      <c r="BF64" t="n">
+      <c r="BG64" t="n">
         <v>771.5</v>
       </c>
-      <c r="BG64" t="n">
+      <c r="BH64" t="n">
         <v>956.5</v>
       </c>
+      <c r="BI64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
@@ -11066,18 +11328,22 @@
       <c r="BC65" t="n">
         <v>1009.7</v>
       </c>
-      <c r="BD65" s="3" t="n">
+      <c r="BD65" t="n">
+        <v>1009.7</v>
+      </c>
+      <c r="BE65" s="3" t="n">
         <v>39173</v>
       </c>
-      <c r="BE65" t="n">
+      <c r="BF65" t="n">
         <v>1009.7</v>
       </c>
-      <c r="BF65" t="n">
+      <c r="BG65" t="n">
         <v>771.5</v>
       </c>
-      <c r="BG65" t="n">
+      <c r="BH65" t="n">
         <v>956.5</v>
       </c>
+      <c r="BI65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
@@ -11229,18 +11495,22 @@
       <c r="BC66" t="n">
         <v>1009.7</v>
       </c>
-      <c r="BD66" s="3" t="n">
+      <c r="BD66" t="n">
+        <v>1009.7</v>
+      </c>
+      <c r="BE66" s="3" t="n">
         <v>39203</v>
       </c>
-      <c r="BE66" t="n">
+      <c r="BF66" t="n">
         <v>1009.7</v>
       </c>
-      <c r="BF66" t="n">
+      <c r="BG66" t="n">
         <v>771.5</v>
       </c>
-      <c r="BG66" t="n">
+      <c r="BH66" t="n">
         <v>956.5</v>
       </c>
+      <c r="BI66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
@@ -11392,18 +11662,22 @@
       <c r="BC67" t="n">
         <v>1009.7</v>
       </c>
-      <c r="BD67" s="3" t="n">
+      <c r="BD67" t="n">
+        <v>1009.7</v>
+      </c>
+      <c r="BE67" s="3" t="n">
         <v>39234</v>
       </c>
-      <c r="BE67" t="n">
+      <c r="BF67" t="n">
         <v>1009.7</v>
       </c>
-      <c r="BF67" t="n">
+      <c r="BG67" t="n">
         <v>771.5</v>
       </c>
-      <c r="BG67" t="n">
+      <c r="BH67" t="n">
         <v>956.5</v>
       </c>
+      <c r="BI67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
@@ -11555,18 +11829,22 @@
       <c r="BC68" t="n">
         <v>1009.7</v>
       </c>
-      <c r="BD68" s="3" t="n">
+      <c r="BD68" t="n">
+        <v>1009.7</v>
+      </c>
+      <c r="BE68" s="3" t="n">
         <v>39264</v>
       </c>
-      <c r="BE68" t="n">
+      <c r="BF68" t="n">
         <v>1009.7</v>
       </c>
-      <c r="BF68" t="n">
+      <c r="BG68" t="n">
         <v>771.5</v>
       </c>
-      <c r="BG68" t="n">
+      <c r="BH68" t="n">
         <v>956.5</v>
       </c>
+      <c r="BI68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
@@ -11718,18 +11996,22 @@
       <c r="BC69" t="n">
         <v>1009.7</v>
       </c>
-      <c r="BD69" s="3" t="n">
+      <c r="BD69" t="n">
+        <v>1009.7</v>
+      </c>
+      <c r="BE69" s="3" t="n">
         <v>39295</v>
       </c>
-      <c r="BE69" t="n">
+      <c r="BF69" t="n">
         <v>1009.7</v>
       </c>
-      <c r="BF69" t="n">
+      <c r="BG69" t="n">
         <v>771.5</v>
       </c>
-      <c r="BG69" t="n">
+      <c r="BH69" t="n">
         <v>956.5</v>
       </c>
+      <c r="BI69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
@@ -11881,18 +12163,22 @@
       <c r="BC70" t="n">
         <v>1009.7</v>
       </c>
-      <c r="BD70" s="3" t="n">
+      <c r="BD70" t="n">
+        <v>1009.7</v>
+      </c>
+      <c r="BE70" s="3" t="n">
         <v>39326</v>
       </c>
-      <c r="BE70" t="n">
+      <c r="BF70" t="n">
         <v>1009.7</v>
       </c>
-      <c r="BF70" t="n">
+      <c r="BG70" t="n">
         <v>771.5</v>
       </c>
-      <c r="BG70" t="n">
+      <c r="BH70" t="n">
         <v>956.5</v>
       </c>
+      <c r="BI70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
@@ -12044,18 +12330,22 @@
       <c r="BC71" t="n">
         <v>1009.7</v>
       </c>
-      <c r="BD71" s="3" t="n">
+      <c r="BD71" t="n">
+        <v>1009.7</v>
+      </c>
+      <c r="BE71" s="3" t="n">
         <v>39356</v>
       </c>
-      <c r="BE71" t="n">
+      <c r="BF71" t="n">
         <v>1009.7</v>
       </c>
-      <c r="BF71" t="n">
+      <c r="BG71" t="n">
         <v>771.5</v>
       </c>
-      <c r="BG71" t="n">
+      <c r="BH71" t="n">
         <v>956.5</v>
       </c>
+      <c r="BI71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
@@ -12207,18 +12497,22 @@
       <c r="BC72" t="n">
         <v>1009.7</v>
       </c>
-      <c r="BD72" s="3" t="n">
+      <c r="BD72" t="n">
+        <v>1009.7</v>
+      </c>
+      <c r="BE72" s="3" t="n">
         <v>39387</v>
       </c>
-      <c r="BE72" t="n">
+      <c r="BF72" t="n">
         <v>1009.7</v>
       </c>
-      <c r="BF72" t="n">
+      <c r="BG72" t="n">
         <v>771.5</v>
       </c>
-      <c r="BG72" t="n">
+      <c r="BH72" t="n">
         <v>956.5</v>
       </c>
+      <c r="BI72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
@@ -12370,18 +12664,22 @@
       <c r="BC73" t="n">
         <v>1009.7</v>
       </c>
-      <c r="BD73" s="3" t="n">
+      <c r="BD73" t="n">
+        <v>1009.7</v>
+      </c>
+      <c r="BE73" s="3" t="n">
         <v>39417</v>
       </c>
-      <c r="BE73" t="n">
+      <c r="BF73" t="n">
         <v>1009.7</v>
       </c>
-      <c r="BF73" t="n">
+      <c r="BG73" t="n">
         <v>771.5</v>
       </c>
-      <c r="BG73" t="n">
+      <c r="BH73" t="n">
         <v>956.5</v>
       </c>
+      <c r="BI73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
@@ -12533,18 +12831,22 @@
       <c r="BC74" t="n">
         <v>1009.7</v>
       </c>
-      <c r="BD74" s="3" t="n">
+      <c r="BD74" t="n">
+        <v>1170.3</v>
+      </c>
+      <c r="BE74" s="3" t="n">
         <v>39448</v>
       </c>
-      <c r="BE74" t="n">
+      <c r="BF74" t="n">
         <v>1009.7</v>
       </c>
-      <c r="BF74" t="n">
+      <c r="BG74" t="n">
         <v>771.5</v>
       </c>
-      <c r="BG74" t="n">
+      <c r="BH74" t="n">
         <v>956.5</v>
       </c>
+      <c r="BI74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
@@ -12696,18 +12998,22 @@
       <c r="BC75" t="n">
         <v>1009.7</v>
       </c>
-      <c r="BD75" s="3" t="n">
+      <c r="BD75" t="n">
+        <v>1170.3</v>
+      </c>
+      <c r="BE75" s="3" t="n">
         <v>39479</v>
       </c>
-      <c r="BE75" t="n">
+      <c r="BF75" t="n">
         <v>1009.7</v>
       </c>
-      <c r="BF75" t="n">
+      <c r="BG75" t="n">
         <v>771.5</v>
       </c>
-      <c r="BG75" t="n">
+      <c r="BH75" t="n">
         <v>956.5</v>
       </c>
+      <c r="BI75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
@@ -12859,18 +13165,22 @@
       <c r="BC76" t="n">
         <v>1170.3</v>
       </c>
-      <c r="BD76" s="3" t="n">
+      <c r="BD76" t="n">
+        <v>1170.3</v>
+      </c>
+      <c r="BE76" s="3" t="n">
         <v>39508</v>
       </c>
-      <c r="BE76" t="n">
+      <c r="BF76" t="n">
         <v>1170.3</v>
       </c>
-      <c r="BF76" t="n">
+      <c r="BG76" t="n">
         <v>1009.7</v>
       </c>
-      <c r="BG76" t="n">
+      <c r="BH76" t="n">
         <v>771.5</v>
       </c>
+      <c r="BI76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
@@ -13022,18 +13332,22 @@
       <c r="BC77" t="n">
         <v>1170.3</v>
       </c>
-      <c r="BD77" s="3" t="n">
+      <c r="BD77" t="n">
+        <v>1170.3</v>
+      </c>
+      <c r="BE77" s="3" t="n">
         <v>39539</v>
       </c>
-      <c r="BE77" t="n">
+      <c r="BF77" t="n">
         <v>1170.3</v>
       </c>
-      <c r="BF77" t="n">
+      <c r="BG77" t="n">
         <v>1009.7</v>
       </c>
-      <c r="BG77" t="n">
+      <c r="BH77" t="n">
         <v>771.5</v>
       </c>
+      <c r="BI77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
@@ -13185,18 +13499,22 @@
       <c r="BC78" t="n">
         <v>1170.3</v>
       </c>
-      <c r="BD78" s="3" t="n">
+      <c r="BD78" t="n">
+        <v>1170.3</v>
+      </c>
+      <c r="BE78" s="3" t="n">
         <v>39569</v>
       </c>
-      <c r="BE78" t="n">
+      <c r="BF78" t="n">
         <v>1170.3</v>
       </c>
-      <c r="BF78" t="n">
+      <c r="BG78" t="n">
         <v>1009.7</v>
       </c>
-      <c r="BG78" t="n">
+      <c r="BH78" t="n">
         <v>771.5</v>
       </c>
+      <c r="BI78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
@@ -13348,18 +13666,22 @@
       <c r="BC79" t="n">
         <v>1170.3</v>
       </c>
-      <c r="BD79" s="3" t="n">
+      <c r="BD79" t="n">
+        <v>1170.3</v>
+      </c>
+      <c r="BE79" s="3" t="n">
         <v>39600</v>
       </c>
-      <c r="BE79" t="n">
+      <c r="BF79" t="n">
         <v>1170.3</v>
       </c>
-      <c r="BF79" t="n">
+      <c r="BG79" t="n">
         <v>1009.7</v>
       </c>
-      <c r="BG79" t="n">
+      <c r="BH79" t="n">
         <v>771.5</v>
       </c>
+      <c r="BI79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
@@ -13511,18 +13833,22 @@
       <c r="BC80" t="n">
         <v>1170.3</v>
       </c>
-      <c r="BD80" s="3" t="n">
+      <c r="BD80" t="n">
+        <v>1170.3</v>
+      </c>
+      <c r="BE80" s="3" t="n">
         <v>39630</v>
       </c>
-      <c r="BE80" t="n">
+      <c r="BF80" t="n">
         <v>1170.3</v>
       </c>
-      <c r="BF80" t="n">
+      <c r="BG80" t="n">
         <v>1009.7</v>
       </c>
-      <c r="BG80" t="n">
+      <c r="BH80" t="n">
         <v>771.5</v>
       </c>
+      <c r="BI80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
@@ -13674,18 +14000,22 @@
       <c r="BC81" t="n">
         <v>1170.3</v>
       </c>
-      <c r="BD81" s="3" t="n">
+      <c r="BD81" t="n">
+        <v>1170.3</v>
+      </c>
+      <c r="BE81" s="3" t="n">
         <v>39661</v>
       </c>
-      <c r="BE81" t="n">
+      <c r="BF81" t="n">
         <v>1170.3</v>
       </c>
-      <c r="BF81" t="n">
+      <c r="BG81" t="n">
         <v>1009.7</v>
       </c>
-      <c r="BG81" t="n">
+      <c r="BH81" t="n">
         <v>771.5</v>
       </c>
+      <c r="BI81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
@@ -13837,18 +14167,22 @@
       <c r="BC82" t="n">
         <v>1170.3</v>
       </c>
-      <c r="BD82" s="3" t="n">
+      <c r="BD82" t="n">
+        <v>1170.3</v>
+      </c>
+      <c r="BE82" s="3" t="n">
         <v>39692</v>
       </c>
-      <c r="BE82" t="n">
+      <c r="BF82" t="n">
         <v>1170.3</v>
       </c>
-      <c r="BF82" t="n">
+      <c r="BG82" t="n">
         <v>1009.7</v>
       </c>
-      <c r="BG82" t="n">
+      <c r="BH82" t="n">
         <v>771.5</v>
       </c>
+      <c r="BI82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
@@ -14000,18 +14334,22 @@
       <c r="BC83" t="n">
         <v>1170.3</v>
       </c>
-      <c r="BD83" s="3" t="n">
+      <c r="BD83" t="n">
+        <v>1170.3</v>
+      </c>
+      <c r="BE83" s="3" t="n">
         <v>39722</v>
       </c>
-      <c r="BE83" t="n">
+      <c r="BF83" t="n">
         <v>1170.3</v>
       </c>
-      <c r="BF83" t="n">
+      <c r="BG83" t="n">
         <v>1009.7</v>
       </c>
-      <c r="BG83" t="n">
+      <c r="BH83" t="n">
         <v>771.5</v>
       </c>
+      <c r="BI83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
@@ -14163,18 +14501,22 @@
       <c r="BC84" t="n">
         <v>1170.3</v>
       </c>
-      <c r="BD84" s="3" t="n">
+      <c r="BD84" t="n">
+        <v>1170.3</v>
+      </c>
+      <c r="BE84" s="3" t="n">
         <v>39753</v>
       </c>
-      <c r="BE84" t="n">
+      <c r="BF84" t="n">
         <v>1170.3</v>
       </c>
-      <c r="BF84" t="n">
+      <c r="BG84" t="n">
         <v>1009.7</v>
       </c>
-      <c r="BG84" t="n">
+      <c r="BH84" t="n">
         <v>771.5</v>
       </c>
+      <c r="BI84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
@@ -14326,18 +14668,22 @@
       <c r="BC85" t="n">
         <v>1170.3</v>
       </c>
-      <c r="BD85" s="3" t="n">
+      <c r="BD85" t="n">
+        <v>1170.3</v>
+      </c>
+      <c r="BE85" s="3" t="n">
         <v>39783</v>
       </c>
-      <c r="BE85" t="n">
+      <c r="BF85" t="n">
         <v>1170.3</v>
       </c>
-      <c r="BF85" t="n">
+      <c r="BG85" t="n">
         <v>1009.7</v>
       </c>
-      <c r="BG85" t="n">
+      <c r="BH85" t="n">
         <v>771.5</v>
       </c>
+      <c r="BI85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
@@ -14489,18 +14835,22 @@
       <c r="BC86" t="n">
         <v>1170.3</v>
       </c>
-      <c r="BD86" s="3" t="n">
+      <c r="BD86" t="n">
+        <v>955.2</v>
+      </c>
+      <c r="BE86" s="3" t="n">
         <v>39814</v>
       </c>
-      <c r="BE86" t="n">
+      <c r="BF86" t="n">
         <v>1170.3</v>
       </c>
-      <c r="BF86" t="n">
+      <c r="BG86" t="n">
         <v>1009.7</v>
       </c>
-      <c r="BG86" t="n">
+      <c r="BH86" t="n">
         <v>771.5</v>
       </c>
+      <c r="BI86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
@@ -14652,18 +15002,22 @@
       <c r="BC87" t="n">
         <v>1170.3</v>
       </c>
-      <c r="BD87" s="3" t="n">
+      <c r="BD87" t="n">
+        <v>955.2</v>
+      </c>
+      <c r="BE87" s="3" t="n">
         <v>39845</v>
       </c>
-      <c r="BE87" t="n">
+      <c r="BF87" t="n">
         <v>1170.3</v>
       </c>
-      <c r="BF87" t="n">
+      <c r="BG87" t="n">
         <v>1009.7</v>
       </c>
-      <c r="BG87" t="n">
+      <c r="BH87" t="n">
         <v>771.5</v>
       </c>
+      <c r="BI87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
@@ -14815,18 +15169,22 @@
       <c r="BC88" t="n">
         <v>955.2</v>
       </c>
-      <c r="BD88" s="3" t="n">
+      <c r="BD88" t="n">
+        <v>955.2</v>
+      </c>
+      <c r="BE88" s="3" t="n">
         <v>39873</v>
       </c>
-      <c r="BE88" t="n">
+      <c r="BF88" t="n">
         <v>955.2</v>
       </c>
-      <c r="BF88" t="n">
+      <c r="BG88" t="n">
         <v>1170.3</v>
       </c>
-      <c r="BG88" t="n">
+      <c r="BH88" t="n">
         <v>1009.7</v>
       </c>
+      <c r="BI88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
@@ -14978,18 +15336,22 @@
       <c r="BC89" t="n">
         <v>955.2</v>
       </c>
-      <c r="BD89" s="3" t="n">
+      <c r="BD89" t="n">
+        <v>955.2</v>
+      </c>
+      <c r="BE89" s="3" t="n">
         <v>39904</v>
       </c>
-      <c r="BE89" t="n">
+      <c r="BF89" t="n">
         <v>955.2</v>
       </c>
-      <c r="BF89" t="n">
+      <c r="BG89" t="n">
         <v>1170.3</v>
       </c>
-      <c r="BG89" t="n">
+      <c r="BH89" t="n">
         <v>1009.7</v>
       </c>
+      <c r="BI89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
@@ -15141,18 +15503,22 @@
       <c r="BC90" t="n">
         <v>955.2</v>
       </c>
-      <c r="BD90" s="3" t="n">
+      <c r="BD90" t="n">
+        <v>955.2</v>
+      </c>
+      <c r="BE90" s="3" t="n">
         <v>39934</v>
       </c>
-      <c r="BE90" t="n">
+      <c r="BF90" t="n">
         <v>955.2</v>
       </c>
-      <c r="BF90" t="n">
+      <c r="BG90" t="n">
         <v>1170.3</v>
       </c>
-      <c r="BG90" t="n">
+      <c r="BH90" t="n">
         <v>1009.7</v>
       </c>
+      <c r="BI90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
@@ -15304,18 +15670,22 @@
       <c r="BC91" t="n">
         <v>955.2</v>
       </c>
-      <c r="BD91" s="3" t="n">
+      <c r="BD91" t="n">
+        <v>955.2</v>
+      </c>
+      <c r="BE91" s="3" t="n">
         <v>39965</v>
       </c>
-      <c r="BE91" t="n">
+      <c r="BF91" t="n">
         <v>955.2</v>
       </c>
-      <c r="BF91" t="n">
+      <c r="BG91" t="n">
         <v>1170.3</v>
       </c>
-      <c r="BG91" t="n">
+      <c r="BH91" t="n">
         <v>1009.7</v>
       </c>
+      <c r="BI91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
@@ -15467,18 +15837,22 @@
       <c r="BC92" t="n">
         <v>955.2</v>
       </c>
-      <c r="BD92" s="3" t="n">
+      <c r="BD92" t="n">
+        <v>955.2</v>
+      </c>
+      <c r="BE92" s="3" t="n">
         <v>39995</v>
       </c>
-      <c r="BE92" t="n">
+      <c r="BF92" t="n">
         <v>955.2</v>
       </c>
-      <c r="BF92" t="n">
+      <c r="BG92" t="n">
         <v>1170.3</v>
       </c>
-      <c r="BG92" t="n">
+      <c r="BH92" t="n">
         <v>1009.7</v>
       </c>
+      <c r="BI92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
@@ -15630,18 +16004,22 @@
       <c r="BC93" t="n">
         <v>955.2</v>
       </c>
-      <c r="BD93" s="3" t="n">
+      <c r="BD93" t="n">
+        <v>955.2</v>
+      </c>
+      <c r="BE93" s="3" t="n">
         <v>40026</v>
       </c>
-      <c r="BE93" t="n">
+      <c r="BF93" t="n">
         <v>955.2</v>
       </c>
-      <c r="BF93" t="n">
+      <c r="BG93" t="n">
         <v>1170.3</v>
       </c>
-      <c r="BG93" t="n">
+      <c r="BH93" t="n">
         <v>1009.7</v>
       </c>
+      <c r="BI93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
@@ -15793,18 +16171,22 @@
       <c r="BC94" t="n">
         <v>955.2</v>
       </c>
-      <c r="BD94" s="3" t="n">
+      <c r="BD94" t="n">
+        <v>955.2</v>
+      </c>
+      <c r="BE94" s="3" t="n">
         <v>40057</v>
       </c>
-      <c r="BE94" t="n">
+      <c r="BF94" t="n">
         <v>955.2</v>
       </c>
-      <c r="BF94" t="n">
+      <c r="BG94" t="n">
         <v>1170.3</v>
       </c>
-      <c r="BG94" t="n">
+      <c r="BH94" t="n">
         <v>1009.7</v>
       </c>
+      <c r="BI94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
@@ -15956,18 +16338,22 @@
       <c r="BC95" t="n">
         <v>955.2</v>
       </c>
-      <c r="BD95" s="3" t="n">
+      <c r="BD95" t="n">
+        <v>955.2</v>
+      </c>
+      <c r="BE95" s="3" t="n">
         <v>40087</v>
       </c>
-      <c r="BE95" t="n">
+      <c r="BF95" t="n">
         <v>955.2</v>
       </c>
-      <c r="BF95" t="n">
+      <c r="BG95" t="n">
         <v>1170.3</v>
       </c>
-      <c r="BG95" t="n">
+      <c r="BH95" t="n">
         <v>1009.7</v>
       </c>
+      <c r="BI95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
@@ -16119,18 +16505,22 @@
       <c r="BC96" t="n">
         <v>955.2</v>
       </c>
-      <c r="BD96" s="3" t="n">
+      <c r="BD96" t="n">
+        <v>955.2</v>
+      </c>
+      <c r="BE96" s="3" t="n">
         <v>40118</v>
       </c>
-      <c r="BE96" t="n">
+      <c r="BF96" t="n">
         <v>955.2</v>
       </c>
-      <c r="BF96" t="n">
+      <c r="BG96" t="n">
         <v>1170.3</v>
       </c>
-      <c r="BG96" t="n">
+      <c r="BH96" t="n">
         <v>1009.7</v>
       </c>
+      <c r="BI96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
@@ -16282,18 +16672,22 @@
       <c r="BC97" t="n">
         <v>955.2</v>
       </c>
-      <c r="BD97" s="3" t="n">
+      <c r="BD97" t="n">
+        <v>955.2</v>
+      </c>
+      <c r="BE97" s="3" t="n">
         <v>40148</v>
       </c>
-      <c r="BE97" t="n">
+      <c r="BF97" t="n">
         <v>955.2</v>
       </c>
-      <c r="BF97" t="n">
+      <c r="BG97" t="n">
         <v>1170.3</v>
       </c>
-      <c r="BG97" t="n">
+      <c r="BH97" t="n">
         <v>1009.7</v>
       </c>
+      <c r="BI97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
@@ -16455,17 +16849,23 @@
       <c r="BC98" t="n">
         <v>955.2</v>
       </c>
-      <c r="BD98" s="3" t="n">
+      <c r="BD98" t="n">
+        <v>1087.9</v>
+      </c>
+      <c r="BE98" s="3" t="n">
         <v>40179</v>
       </c>
-      <c r="BE98" t="n">
+      <c r="BF98" t="n">
         <v>955.2</v>
       </c>
-      <c r="BF98" t="n">
+      <c r="BG98" t="n">
         <v>1170.3</v>
       </c>
-      <c r="BG98" t="n">
+      <c r="BH98" t="n">
         <v>1009.7</v>
+      </c>
+      <c r="BI98" t="n">
+        <v>1260.316486298508</v>
       </c>
     </row>
     <row r="99">
@@ -16628,17 +17028,23 @@
       <c r="BC99" t="n">
         <v>955.2</v>
       </c>
-      <c r="BD99" s="3" t="n">
+      <c r="BD99" t="n">
+        <v>1087.9</v>
+      </c>
+      <c r="BE99" s="3" t="n">
         <v>40210</v>
       </c>
-      <c r="BE99" t="n">
+      <c r="BF99" t="n">
         <v>955.2</v>
       </c>
-      <c r="BF99" t="n">
+      <c r="BG99" t="n">
         <v>1170.3</v>
       </c>
-      <c r="BG99" t="n">
+      <c r="BH99" t="n">
         <v>1009.7</v>
+      </c>
+      <c r="BI99" t="n">
+        <v>1260.316486298508</v>
       </c>
     </row>
     <row r="100">
@@ -16801,17 +17207,23 @@
       <c r="BC100" t="n">
         <v>1087.9</v>
       </c>
-      <c r="BD100" s="3" t="n">
+      <c r="BD100" t="n">
+        <v>1087.9</v>
+      </c>
+      <c r="BE100" s="3" t="n">
         <v>40238</v>
       </c>
-      <c r="BE100" t="n">
+      <c r="BF100" t="n">
         <v>1087.9</v>
       </c>
-      <c r="BF100" t="n">
+      <c r="BG100" t="n">
         <v>955.2</v>
       </c>
-      <c r="BG100" t="n">
+      <c r="BH100" t="n">
         <v>1170.3</v>
+      </c>
+      <c r="BI100" t="n">
+        <v>1260.316486298508</v>
       </c>
     </row>
     <row r="101">
@@ -16974,17 +17386,23 @@
       <c r="BC101" t="n">
         <v>1087.9</v>
       </c>
-      <c r="BD101" s="3" t="n">
+      <c r="BD101" t="n">
+        <v>1087.9</v>
+      </c>
+      <c r="BE101" s="3" t="n">
         <v>40269</v>
       </c>
-      <c r="BE101" t="n">
+      <c r="BF101" t="n">
         <v>1087.9</v>
       </c>
-      <c r="BF101" t="n">
+      <c r="BG101" t="n">
         <v>955.2</v>
       </c>
-      <c r="BG101" t="n">
+      <c r="BH101" t="n">
         <v>1170.3</v>
+      </c>
+      <c r="BI101" t="n">
+        <v>1260.316486298508</v>
       </c>
     </row>
     <row r="102">
@@ -17147,17 +17565,23 @@
       <c r="BC102" t="n">
         <v>1087.9</v>
       </c>
-      <c r="BD102" s="3" t="n">
+      <c r="BD102" t="n">
+        <v>1087.9</v>
+      </c>
+      <c r="BE102" s="3" t="n">
         <v>40299</v>
       </c>
-      <c r="BE102" t="n">
+      <c r="BF102" t="n">
         <v>1087.9</v>
       </c>
-      <c r="BF102" t="n">
+      <c r="BG102" t="n">
         <v>955.2</v>
       </c>
-      <c r="BG102" t="n">
+      <c r="BH102" t="n">
         <v>1170.3</v>
+      </c>
+      <c r="BI102" t="n">
+        <v>1260.316486298508</v>
       </c>
     </row>
     <row r="103">
@@ -17320,17 +17744,23 @@
       <c r="BC103" t="n">
         <v>1087.9</v>
       </c>
-      <c r="BD103" s="3" t="n">
+      <c r="BD103" t="n">
+        <v>1087.9</v>
+      </c>
+      <c r="BE103" s="3" t="n">
         <v>40330</v>
       </c>
-      <c r="BE103" t="n">
+      <c r="BF103" t="n">
         <v>1087.9</v>
       </c>
-      <c r="BF103" t="n">
+      <c r="BG103" t="n">
         <v>955.2</v>
       </c>
-      <c r="BG103" t="n">
+      <c r="BH103" t="n">
         <v>1170.3</v>
+      </c>
+      <c r="BI103" t="n">
+        <v>1260.316486298508</v>
       </c>
     </row>
     <row r="104">
@@ -17493,17 +17923,23 @@
       <c r="BC104" t="n">
         <v>1087.9</v>
       </c>
-      <c r="BD104" s="3" t="n">
+      <c r="BD104" t="n">
+        <v>1087.9</v>
+      </c>
+      <c r="BE104" s="3" t="n">
         <v>40360</v>
       </c>
-      <c r="BE104" t="n">
+      <c r="BF104" t="n">
         <v>1260.316486298508</v>
       </c>
-      <c r="BF104" t="n">
+      <c r="BG104" t="n">
         <v>955.2</v>
       </c>
-      <c r="BG104" t="n">
+      <c r="BH104" t="n">
         <v>1170.3</v>
+      </c>
+      <c r="BI104" t="n">
+        <v>1260.316486298508</v>
       </c>
     </row>
     <row r="105">
@@ -17666,17 +18102,23 @@
       <c r="BC105" t="n">
         <v>1087.9</v>
       </c>
-      <c r="BD105" s="3" t="n">
+      <c r="BD105" t="n">
+        <v>1087.9</v>
+      </c>
+      <c r="BE105" s="3" t="n">
         <v>40391</v>
       </c>
-      <c r="BE105" t="n">
+      <c r="BF105" t="n">
         <v>1260.316486298508</v>
       </c>
-      <c r="BF105" t="n">
+      <c r="BG105" t="n">
         <v>955.2</v>
       </c>
-      <c r="BG105" t="n">
+      <c r="BH105" t="n">
         <v>1170.3</v>
+      </c>
+      <c r="BI105" t="n">
+        <v>1260.316486298508</v>
       </c>
     </row>
     <row r="106">
@@ -17839,17 +18281,23 @@
       <c r="BC106" t="n">
         <v>1087.9</v>
       </c>
-      <c r="BD106" s="3" t="n">
+      <c r="BD106" t="n">
+        <v>1087.9</v>
+      </c>
+      <c r="BE106" s="3" t="n">
         <v>40422</v>
       </c>
-      <c r="BE106" t="n">
+      <c r="BF106" t="n">
         <v>1260.316486298508</v>
       </c>
-      <c r="BF106" t="n">
+      <c r="BG106" t="n">
         <v>955.2</v>
       </c>
-      <c r="BG106" t="n">
+      <c r="BH106" t="n">
         <v>1170.3</v>
+      </c>
+      <c r="BI106" t="n">
+        <v>1260.316486298508</v>
       </c>
     </row>
     <row r="107">
@@ -18012,17 +18460,23 @@
       <c r="BC107" t="n">
         <v>1087.9</v>
       </c>
-      <c r="BD107" s="3" t="n">
+      <c r="BD107" t="n">
+        <v>1087.9</v>
+      </c>
+      <c r="BE107" s="3" t="n">
         <v>40452</v>
       </c>
-      <c r="BE107" t="n">
+      <c r="BF107" t="n">
         <v>1260.316486298508</v>
       </c>
-      <c r="BF107" t="n">
+      <c r="BG107" t="n">
         <v>955.2</v>
       </c>
-      <c r="BG107" t="n">
+      <c r="BH107" t="n">
         <v>1170.3</v>
+      </c>
+      <c r="BI107" t="n">
+        <v>1260.316486298508</v>
       </c>
     </row>
     <row r="108">
@@ -18185,17 +18639,23 @@
       <c r="BC108" t="n">
         <v>1087.9</v>
       </c>
-      <c r="BD108" s="3" t="n">
+      <c r="BD108" t="n">
+        <v>1087.9</v>
+      </c>
+      <c r="BE108" s="3" t="n">
         <v>40483</v>
       </c>
-      <c r="BE108" t="n">
+      <c r="BF108" t="n">
         <v>1260.316486298508</v>
       </c>
-      <c r="BF108" t="n">
+      <c r="BG108" t="n">
         <v>955.2</v>
       </c>
-      <c r="BG108" t="n">
+      <c r="BH108" t="n">
         <v>1170.3</v>
+      </c>
+      <c r="BI108" t="n">
+        <v>1260.316486298508</v>
       </c>
     </row>
     <row r="109">
@@ -18358,17 +18818,23 @@
       <c r="BC109" t="n">
         <v>1087.9</v>
       </c>
-      <c r="BD109" s="3" t="n">
+      <c r="BD109" t="n">
+        <v>1087.9</v>
+      </c>
+      <c r="BE109" s="3" t="n">
         <v>40513</v>
       </c>
-      <c r="BE109" t="n">
+      <c r="BF109" t="n">
         <v>1260.316486298508</v>
       </c>
-      <c r="BF109" t="n">
+      <c r="BG109" t="n">
         <v>955.2</v>
       </c>
-      <c r="BG109" t="n">
+      <c r="BH109" t="n">
         <v>1170.3</v>
+      </c>
+      <c r="BI109" t="n">
+        <v>1260.316486298508</v>
       </c>
     </row>
     <row r="110">
@@ -18531,17 +18997,23 @@
       <c r="BC110" t="n">
         <v>1087.9</v>
       </c>
-      <c r="BD110" s="3" t="n">
+      <c r="BD110" t="n">
+        <v>1339.6</v>
+      </c>
+      <c r="BE110" s="3" t="n">
         <v>40544</v>
       </c>
-      <c r="BE110" t="n">
+      <c r="BF110" t="n">
         <v>1260.316486298508</v>
       </c>
-      <c r="BF110" t="n">
+      <c r="BG110" t="n">
         <v>955.2</v>
       </c>
-      <c r="BG110" t="n">
+      <c r="BH110" t="n">
         <v>1170.3</v>
+      </c>
+      <c r="BI110" t="n">
+        <v>1306.994874679935</v>
       </c>
     </row>
     <row r="111">
@@ -18704,17 +19176,23 @@
       <c r="BC111" t="n">
         <v>1087.9</v>
       </c>
-      <c r="BD111" s="3" t="n">
+      <c r="BD111" t="n">
+        <v>1339.6</v>
+      </c>
+      <c r="BE111" s="3" t="n">
         <v>40575</v>
       </c>
-      <c r="BE111" t="n">
+      <c r="BF111" t="n">
         <v>1260.316486298508</v>
       </c>
-      <c r="BF111" t="n">
+      <c r="BG111" t="n">
         <v>955.2</v>
       </c>
-      <c r="BG111" t="n">
+      <c r="BH111" t="n">
         <v>1170.3</v>
+      </c>
+      <c r="BI111" t="n">
+        <v>1306.994874679935</v>
       </c>
     </row>
     <row r="112">
@@ -18877,17 +19355,23 @@
       <c r="BC112" t="n">
         <v>1339.6</v>
       </c>
-      <c r="BD112" s="3" t="n">
+      <c r="BD112" t="n">
+        <v>1339.6</v>
+      </c>
+      <c r="BE112" s="3" t="n">
         <v>40603</v>
       </c>
-      <c r="BE112" t="n">
+      <c r="BF112" t="n">
         <v>1339.6</v>
       </c>
-      <c r="BF112" t="n">
+      <c r="BG112" t="n">
         <v>1087.9</v>
       </c>
-      <c r="BG112" t="n">
+      <c r="BH112" t="n">
         <v>955.2</v>
+      </c>
+      <c r="BI112" t="n">
+        <v>1306.994874679935</v>
       </c>
     </row>
     <row r="113">
@@ -19050,17 +19534,23 @@
       <c r="BC113" t="n">
         <v>1339.6</v>
       </c>
-      <c r="BD113" s="3" t="n">
+      <c r="BD113" t="n">
+        <v>1339.6</v>
+      </c>
+      <c r="BE113" s="3" t="n">
         <v>40634</v>
       </c>
-      <c r="BE113" t="n">
+      <c r="BF113" t="n">
         <v>1339.6</v>
       </c>
-      <c r="BF113" t="n">
+      <c r="BG113" t="n">
         <v>1087.9</v>
       </c>
-      <c r="BG113" t="n">
+      <c r="BH113" t="n">
         <v>955.2</v>
+      </c>
+      <c r="BI113" t="n">
+        <v>1306.994874679935</v>
       </c>
     </row>
     <row r="114">
@@ -19223,17 +19713,23 @@
       <c r="BC114" t="n">
         <v>1339.6</v>
       </c>
-      <c r="BD114" s="3" t="n">
+      <c r="BD114" t="n">
+        <v>1339.6</v>
+      </c>
+      <c r="BE114" s="3" t="n">
         <v>40664</v>
       </c>
-      <c r="BE114" t="n">
+      <c r="BF114" t="n">
         <v>1339.6</v>
       </c>
-      <c r="BF114" t="n">
+      <c r="BG114" t="n">
         <v>1087.9</v>
       </c>
-      <c r="BG114" t="n">
+      <c r="BH114" t="n">
         <v>955.2</v>
+      </c>
+      <c r="BI114" t="n">
+        <v>1306.994874679935</v>
       </c>
     </row>
     <row r="115">
@@ -19396,17 +19892,23 @@
       <c r="BC115" t="n">
         <v>1339.6</v>
       </c>
-      <c r="BD115" s="3" t="n">
+      <c r="BD115" t="n">
+        <v>1339.6</v>
+      </c>
+      <c r="BE115" s="3" t="n">
         <v>40695</v>
       </c>
-      <c r="BE115" t="n">
+      <c r="BF115" t="n">
         <v>1339.6</v>
       </c>
-      <c r="BF115" t="n">
+      <c r="BG115" t="n">
         <v>1087.9</v>
       </c>
-      <c r="BG115" t="n">
+      <c r="BH115" t="n">
         <v>955.2</v>
+      </c>
+      <c r="BI115" t="n">
+        <v>1306.994874679935</v>
       </c>
     </row>
     <row r="116">
@@ -19569,17 +20071,23 @@
       <c r="BC116" t="n">
         <v>1339.6</v>
       </c>
-      <c r="BD116" s="3" t="n">
+      <c r="BD116" t="n">
+        <v>1339.6</v>
+      </c>
+      <c r="BE116" s="3" t="n">
         <v>40725</v>
       </c>
-      <c r="BE116" t="n">
+      <c r="BF116" t="n">
         <v>1306.994874679935</v>
       </c>
-      <c r="BF116" t="n">
+      <c r="BG116" t="n">
         <v>1087.9</v>
       </c>
-      <c r="BG116" t="n">
+      <c r="BH116" t="n">
         <v>955.2</v>
+      </c>
+      <c r="BI116" t="n">
+        <v>1306.994874679935</v>
       </c>
     </row>
     <row r="117">
@@ -19742,17 +20250,23 @@
       <c r="BC117" t="n">
         <v>1339.6</v>
       </c>
-      <c r="BD117" s="3" t="n">
+      <c r="BD117" t="n">
+        <v>1339.6</v>
+      </c>
+      <c r="BE117" s="3" t="n">
         <v>40756</v>
       </c>
-      <c r="BE117" t="n">
+      <c r="BF117" t="n">
         <v>1306.994874679935</v>
       </c>
-      <c r="BF117" t="n">
+      <c r="BG117" t="n">
         <v>1087.9</v>
       </c>
-      <c r="BG117" t="n">
+      <c r="BH117" t="n">
         <v>955.2</v>
+      </c>
+      <c r="BI117" t="n">
+        <v>1306.994874679935</v>
       </c>
     </row>
     <row r="118">
@@ -19915,17 +20429,23 @@
       <c r="BC118" t="n">
         <v>1339.6</v>
       </c>
-      <c r="BD118" s="3" t="n">
+      <c r="BD118" t="n">
+        <v>1339.6</v>
+      </c>
+      <c r="BE118" s="3" t="n">
         <v>40787</v>
       </c>
-      <c r="BE118" t="n">
+      <c r="BF118" t="n">
         <v>1306.994874679935</v>
       </c>
-      <c r="BF118" t="n">
+      <c r="BG118" t="n">
         <v>1087.9</v>
       </c>
-      <c r="BG118" t="n">
+      <c r="BH118" t="n">
         <v>955.2</v>
+      </c>
+      <c r="BI118" t="n">
+        <v>1306.994874679935</v>
       </c>
     </row>
     <row r="119">
@@ -20088,17 +20608,23 @@
       <c r="BC119" t="n">
         <v>1339.6</v>
       </c>
-      <c r="BD119" s="3" t="n">
+      <c r="BD119" t="n">
+        <v>1339.6</v>
+      </c>
+      <c r="BE119" s="3" t="n">
         <v>40817</v>
       </c>
-      <c r="BE119" t="n">
+      <c r="BF119" t="n">
         <v>1306.994874679935</v>
       </c>
-      <c r="BF119" t="n">
+      <c r="BG119" t="n">
         <v>1087.9</v>
       </c>
-      <c r="BG119" t="n">
+      <c r="BH119" t="n">
         <v>955.2</v>
+      </c>
+      <c r="BI119" t="n">
+        <v>1306.994874679935</v>
       </c>
     </row>
     <row r="120">
@@ -20261,17 +20787,23 @@
       <c r="BC120" t="n">
         <v>1339.6</v>
       </c>
-      <c r="BD120" s="3" t="n">
+      <c r="BD120" t="n">
+        <v>1339.6</v>
+      </c>
+      <c r="BE120" s="3" t="n">
         <v>40848</v>
       </c>
-      <c r="BE120" t="n">
+      <c r="BF120" t="n">
         <v>1306.994874679935</v>
       </c>
-      <c r="BF120" t="n">
+      <c r="BG120" t="n">
         <v>1087.9</v>
       </c>
-      <c r="BG120" t="n">
+      <c r="BH120" t="n">
         <v>955.2</v>
+      </c>
+      <c r="BI120" t="n">
+        <v>1306.994874679935</v>
       </c>
     </row>
     <row r="121">
@@ -20434,17 +20966,23 @@
       <c r="BC121" t="n">
         <v>1339.6</v>
       </c>
-      <c r="BD121" s="3" t="n">
+      <c r="BD121" t="n">
+        <v>1339.6</v>
+      </c>
+      <c r="BE121" s="3" t="n">
         <v>40878</v>
       </c>
-      <c r="BE121" t="n">
+      <c r="BF121" t="n">
         <v>1306.994874679935</v>
       </c>
-      <c r="BF121" t="n">
+      <c r="BG121" t="n">
         <v>1087.9</v>
       </c>
-      <c r="BG121" t="n">
+      <c r="BH121" t="n">
         <v>955.2</v>
+      </c>
+      <c r="BI121" t="n">
+        <v>1306.994874679935</v>
       </c>
     </row>
     <row r="122">
@@ -20607,17 +21145,23 @@
       <c r="BC122" t="n">
         <v>1339.6</v>
       </c>
-      <c r="BD122" s="3" t="n">
+      <c r="BD122" t="n">
+        <v>1571.4</v>
+      </c>
+      <c r="BE122" s="3" t="n">
         <v>40909</v>
       </c>
-      <c r="BE122" t="n">
+      <c r="BF122" t="n">
         <v>1306.994874679935</v>
       </c>
-      <c r="BF122" t="n">
+      <c r="BG122" t="n">
         <v>1087.9</v>
       </c>
-      <c r="BG122" t="n">
+      <c r="BH122" t="n">
         <v>955.2</v>
+      </c>
+      <c r="BI122" t="n">
+        <v>583.479854767828</v>
       </c>
     </row>
     <row r="123">
@@ -20780,17 +21324,23 @@
       <c r="BC123" t="n">
         <v>1339.6</v>
       </c>
-      <c r="BD123" s="3" t="n">
+      <c r="BD123" t="n">
+        <v>1571.4</v>
+      </c>
+      <c r="BE123" s="3" t="n">
         <v>40940</v>
       </c>
-      <c r="BE123" t="n">
+      <c r="BF123" t="n">
         <v>1306.994874679935</v>
       </c>
-      <c r="BF123" t="n">
+      <c r="BG123" t="n">
         <v>1087.9</v>
       </c>
-      <c r="BG123" t="n">
+      <c r="BH123" t="n">
         <v>955.2</v>
+      </c>
+      <c r="BI123" t="n">
+        <v>583.479854767828</v>
       </c>
     </row>
     <row r="124">
@@ -20953,17 +21503,23 @@
       <c r="BC124" t="n">
         <v>1571.4</v>
       </c>
-      <c r="BD124" s="3" t="n">
+      <c r="BD124" t="n">
+        <v>1571.4</v>
+      </c>
+      <c r="BE124" s="3" t="n">
         <v>40969</v>
       </c>
-      <c r="BE124" t="n">
+      <c r="BF124" t="n">
         <v>1571.4</v>
       </c>
-      <c r="BF124" t="n">
+      <c r="BG124" t="n">
         <v>1339.6</v>
       </c>
-      <c r="BG124" t="n">
+      <c r="BH124" t="n">
         <v>1087.9</v>
+      </c>
+      <c r="BI124" t="n">
+        <v>583.479854767828</v>
       </c>
     </row>
     <row r="125">
@@ -21126,17 +21682,23 @@
       <c r="BC125" t="n">
         <v>1571.4</v>
       </c>
-      <c r="BD125" s="3" t="n">
+      <c r="BD125" t="n">
+        <v>1571.4</v>
+      </c>
+      <c r="BE125" s="3" t="n">
         <v>41000</v>
       </c>
-      <c r="BE125" t="n">
+      <c r="BF125" t="n">
         <v>1571.4</v>
       </c>
-      <c r="BF125" t="n">
+      <c r="BG125" t="n">
         <v>1339.6</v>
       </c>
-      <c r="BG125" t="n">
+      <c r="BH125" t="n">
         <v>1087.9</v>
+      </c>
+      <c r="BI125" t="n">
+        <v>583.479854767828</v>
       </c>
     </row>
     <row r="126">
@@ -21299,17 +21861,23 @@
       <c r="BC126" t="n">
         <v>1571.4</v>
       </c>
-      <c r="BD126" s="3" t="n">
+      <c r="BD126" t="n">
+        <v>1571.4</v>
+      </c>
+      <c r="BE126" s="3" t="n">
         <v>41030</v>
       </c>
-      <c r="BE126" t="n">
+      <c r="BF126" t="n">
         <v>1571.4</v>
       </c>
-      <c r="BF126" t="n">
+      <c r="BG126" t="n">
         <v>1339.6</v>
       </c>
-      <c r="BG126" t="n">
+      <c r="BH126" t="n">
         <v>1087.9</v>
+      </c>
+      <c r="BI126" t="n">
+        <v>583.479854767828</v>
       </c>
     </row>
     <row r="127">
@@ -21472,17 +22040,23 @@
       <c r="BC127" t="n">
         <v>1571.4</v>
       </c>
-      <c r="BD127" s="3" t="n">
+      <c r="BD127" t="n">
+        <v>1571.4</v>
+      </c>
+      <c r="BE127" s="3" t="n">
         <v>41061</v>
       </c>
-      <c r="BE127" t="n">
+      <c r="BF127" t="n">
         <v>1571.4</v>
       </c>
-      <c r="BF127" t="n">
+      <c r="BG127" t="n">
         <v>1339.6</v>
       </c>
-      <c r="BG127" t="n">
+      <c r="BH127" t="n">
         <v>1087.9</v>
+      </c>
+      <c r="BI127" t="n">
+        <v>583.479854767828</v>
       </c>
     </row>
     <row r="128">
@@ -21645,17 +22219,23 @@
       <c r="BC128" t="n">
         <v>1571.4</v>
       </c>
-      <c r="BD128" s="3" t="n">
+      <c r="BD128" t="n">
+        <v>1571.4</v>
+      </c>
+      <c r="BE128" s="3" t="n">
         <v>41091</v>
       </c>
-      <c r="BE128" t="n">
+      <c r="BF128" t="n">
         <v>583.479854767828</v>
       </c>
-      <c r="BF128" t="n">
+      <c r="BG128" t="n">
         <v>1339.6</v>
       </c>
-      <c r="BG128" t="n">
+      <c r="BH128" t="n">
         <v>1087.9</v>
+      </c>
+      <c r="BI128" t="n">
+        <v>583.479854767828</v>
       </c>
     </row>
     <row r="129">
@@ -21818,17 +22398,23 @@
       <c r="BC129" t="n">
         <v>1571.4</v>
       </c>
-      <c r="BD129" s="3" t="n">
+      <c r="BD129" t="n">
+        <v>1571.4</v>
+      </c>
+      <c r="BE129" s="3" t="n">
         <v>41122</v>
       </c>
-      <c r="BE129" t="n">
+      <c r="BF129" t="n">
         <v>583.479854767828</v>
       </c>
-      <c r="BF129" t="n">
+      <c r="BG129" t="n">
         <v>1339.6</v>
       </c>
-      <c r="BG129" t="n">
+      <c r="BH129" t="n">
         <v>1087.9</v>
+      </c>
+      <c r="BI129" t="n">
+        <v>583.479854767828</v>
       </c>
     </row>
     <row r="130">
@@ -21991,17 +22577,23 @@
       <c r="BC130" t="n">
         <v>1571.4</v>
       </c>
-      <c r="BD130" s="3" t="n">
+      <c r="BD130" t="n">
+        <v>1571.4</v>
+      </c>
+      <c r="BE130" s="3" t="n">
         <v>41153</v>
       </c>
-      <c r="BE130" t="n">
+      <c r="BF130" t="n">
         <v>583.479854767828</v>
       </c>
-      <c r="BF130" t="n">
+      <c r="BG130" t="n">
         <v>1339.6</v>
       </c>
-      <c r="BG130" t="n">
+      <c r="BH130" t="n">
         <v>1087.9</v>
+      </c>
+      <c r="BI130" t="n">
+        <v>583.479854767828</v>
       </c>
     </row>
     <row r="131">
@@ -22164,17 +22756,23 @@
       <c r="BC131" t="n">
         <v>1571.4</v>
       </c>
-      <c r="BD131" s="3" t="n">
+      <c r="BD131" t="n">
+        <v>1571.4</v>
+      </c>
+      <c r="BE131" s="3" t="n">
         <v>41183</v>
       </c>
-      <c r="BE131" t="n">
+      <c r="BF131" t="n">
         <v>583.479854767828</v>
       </c>
-      <c r="BF131" t="n">
+      <c r="BG131" t="n">
         <v>1339.6</v>
       </c>
-      <c r="BG131" t="n">
+      <c r="BH131" t="n">
         <v>1087.9</v>
+      </c>
+      <c r="BI131" t="n">
+        <v>583.479854767828</v>
       </c>
     </row>
     <row r="132">
@@ -22337,17 +22935,23 @@
       <c r="BC132" t="n">
         <v>1571.4</v>
       </c>
-      <c r="BD132" s="3" t="n">
+      <c r="BD132" t="n">
+        <v>1571.4</v>
+      </c>
+      <c r="BE132" s="3" t="n">
         <v>41214</v>
       </c>
-      <c r="BE132" t="n">
+      <c r="BF132" t="n">
         <v>583.479854767828</v>
       </c>
-      <c r="BF132" t="n">
+      <c r="BG132" t="n">
         <v>1339.6</v>
       </c>
-      <c r="BG132" t="n">
+      <c r="BH132" t="n">
         <v>1087.9</v>
+      </c>
+      <c r="BI132" t="n">
+        <v>583.479854767828</v>
       </c>
     </row>
     <row r="133">
@@ -22510,17 +23114,23 @@
       <c r="BC133" t="n">
         <v>1571.4</v>
       </c>
-      <c r="BD133" s="3" t="n">
+      <c r="BD133" t="n">
+        <v>1571.4</v>
+      </c>
+      <c r="BE133" s="3" t="n">
         <v>41244</v>
       </c>
-      <c r="BE133" t="n">
+      <c r="BF133" t="n">
         <v>583.479854767828</v>
       </c>
-      <c r="BF133" t="n">
+      <c r="BG133" t="n">
         <v>1339.6</v>
       </c>
-      <c r="BG133" t="n">
+      <c r="BH133" t="n">
         <v>1087.9</v>
+      </c>
+      <c r="BI133" t="n">
+        <v>583.479854767828</v>
       </c>
     </row>
     <row r="134">
@@ -22683,17 +23293,23 @@
       <c r="BC134" t="n">
         <v>1571.4</v>
       </c>
-      <c r="BD134" s="3" t="n">
+      <c r="BD134" t="n">
+        <v>598.6</v>
+      </c>
+      <c r="BE134" s="3" t="n">
         <v>41275</v>
       </c>
-      <c r="BE134" t="n">
+      <c r="BF134" t="n">
         <v>583.479854767828</v>
       </c>
-      <c r="BF134" t="n">
+      <c r="BG134" t="n">
         <v>1339.6</v>
       </c>
-      <c r="BG134" t="n">
+      <c r="BH134" t="n">
         <v>1087.9</v>
+      </c>
+      <c r="BI134" t="n">
+        <v>1503.977673649553</v>
       </c>
     </row>
     <row r="135">
@@ -22856,17 +23472,23 @@
       <c r="BC135" t="n">
         <v>1571.4</v>
       </c>
-      <c r="BD135" s="3" t="n">
+      <c r="BD135" t="n">
+        <v>598.6</v>
+      </c>
+      <c r="BE135" s="3" t="n">
         <v>41306</v>
       </c>
-      <c r="BE135" t="n">
+      <c r="BF135" t="n">
         <v>583.479854767828</v>
       </c>
-      <c r="BF135" t="n">
+      <c r="BG135" t="n">
         <v>1339.6</v>
       </c>
-      <c r="BG135" t="n">
+      <c r="BH135" t="n">
         <v>1087.9</v>
+      </c>
+      <c r="BI135" t="n">
+        <v>1503.977673649553</v>
       </c>
     </row>
     <row r="136">
@@ -23029,17 +23651,23 @@
       <c r="BC136" t="n">
         <v>598.6</v>
       </c>
-      <c r="BD136" s="3" t="n">
+      <c r="BD136" t="n">
+        <v>598.6</v>
+      </c>
+      <c r="BE136" s="3" t="n">
         <v>41334</v>
       </c>
-      <c r="BE136" t="n">
+      <c r="BF136" t="n">
         <v>598.6</v>
       </c>
-      <c r="BF136" t="n">
+      <c r="BG136" t="n">
         <v>1571.4</v>
       </c>
-      <c r="BG136" t="n">
+      <c r="BH136" t="n">
         <v>1339.6</v>
+      </c>
+      <c r="BI136" t="n">
+        <v>1503.977673649553</v>
       </c>
     </row>
     <row r="137">
@@ -23202,17 +23830,23 @@
       <c r="BC137" t="n">
         <v>598.6</v>
       </c>
-      <c r="BD137" s="3" t="n">
+      <c r="BD137" t="n">
+        <v>598.6</v>
+      </c>
+      <c r="BE137" s="3" t="n">
         <v>41365</v>
       </c>
-      <c r="BE137" t="n">
+      <c r="BF137" t="n">
         <v>598.6</v>
       </c>
-      <c r="BF137" t="n">
+      <c r="BG137" t="n">
         <v>1571.4</v>
       </c>
-      <c r="BG137" t="n">
+      <c r="BH137" t="n">
         <v>1339.6</v>
+      </c>
+      <c r="BI137" t="n">
+        <v>1503.977673649553</v>
       </c>
     </row>
     <row r="138">
@@ -23375,17 +24009,23 @@
       <c r="BC138" t="n">
         <v>598.6</v>
       </c>
-      <c r="BD138" s="3" t="n">
+      <c r="BD138" t="n">
+        <v>598.6</v>
+      </c>
+      <c r="BE138" s="3" t="n">
         <v>41395</v>
       </c>
-      <c r="BE138" t="n">
+      <c r="BF138" t="n">
         <v>598.6</v>
       </c>
-      <c r="BF138" t="n">
+      <c r="BG138" t="n">
         <v>1571.4</v>
       </c>
-      <c r="BG138" t="n">
+      <c r="BH138" t="n">
         <v>1339.6</v>
+      </c>
+      <c r="BI138" t="n">
+        <v>1503.977673649553</v>
       </c>
     </row>
     <row r="139">
@@ -23548,17 +24188,23 @@
       <c r="BC139" t="n">
         <v>598.6</v>
       </c>
-      <c r="BD139" s="3" t="n">
+      <c r="BD139" t="n">
+        <v>598.6</v>
+      </c>
+      <c r="BE139" s="3" t="n">
         <v>41426</v>
       </c>
-      <c r="BE139" t="n">
+      <c r="BF139" t="n">
         <v>598.6</v>
       </c>
-      <c r="BF139" t="n">
+      <c r="BG139" t="n">
         <v>1571.4</v>
       </c>
-      <c r="BG139" t="n">
+      <c r="BH139" t="n">
         <v>1339.6</v>
+      </c>
+      <c r="BI139" t="n">
+        <v>1503.977673649553</v>
       </c>
     </row>
     <row r="140">
@@ -23721,17 +24367,23 @@
       <c r="BC140" t="n">
         <v>598.6</v>
       </c>
-      <c r="BD140" s="3" t="n">
+      <c r="BD140" t="n">
+        <v>598.6</v>
+      </c>
+      <c r="BE140" s="3" t="n">
         <v>41456</v>
       </c>
-      <c r="BE140" t="n">
+      <c r="BF140" t="n">
         <v>1503.977673649553</v>
       </c>
-      <c r="BF140" t="n">
+      <c r="BG140" t="n">
         <v>1571.4</v>
       </c>
-      <c r="BG140" t="n">
+      <c r="BH140" t="n">
         <v>1339.6</v>
+      </c>
+      <c r="BI140" t="n">
+        <v>1503.977673649553</v>
       </c>
     </row>
     <row r="141">
@@ -23894,17 +24546,23 @@
       <c r="BC141" t="n">
         <v>598.6</v>
       </c>
-      <c r="BD141" s="3" t="n">
+      <c r="BD141" t="n">
+        <v>598.6</v>
+      </c>
+      <c r="BE141" s="3" t="n">
         <v>41487</v>
       </c>
-      <c r="BE141" t="n">
+      <c r="BF141" t="n">
         <v>1503.977673649553</v>
       </c>
-      <c r="BF141" t="n">
+      <c r="BG141" t="n">
         <v>1571.4</v>
       </c>
-      <c r="BG141" t="n">
+      <c r="BH141" t="n">
         <v>1339.6</v>
+      </c>
+      <c r="BI141" t="n">
+        <v>1503.977673649553</v>
       </c>
     </row>
     <row r="142">
@@ -24067,17 +24725,23 @@
       <c r="BC142" t="n">
         <v>598.6</v>
       </c>
-      <c r="BD142" s="3" t="n">
+      <c r="BD142" t="n">
+        <v>598.6</v>
+      </c>
+      <c r="BE142" s="3" t="n">
         <v>41518</v>
       </c>
-      <c r="BE142" t="n">
+      <c r="BF142" t="n">
         <v>1503.977673649553</v>
       </c>
-      <c r="BF142" t="n">
+      <c r="BG142" t="n">
         <v>1571.4</v>
       </c>
-      <c r="BG142" t="n">
+      <c r="BH142" t="n">
         <v>1339.6</v>
+      </c>
+      <c r="BI142" t="n">
+        <v>1503.977673649553</v>
       </c>
     </row>
     <row r="143">
@@ -24240,17 +24904,23 @@
       <c r="BC143" t="n">
         <v>598.6</v>
       </c>
-      <c r="BD143" s="3" t="n">
+      <c r="BD143" t="n">
+        <v>598.6</v>
+      </c>
+      <c r="BE143" s="3" t="n">
         <v>41548</v>
       </c>
-      <c r="BE143" t="n">
+      <c r="BF143" t="n">
         <v>1503.977673649553</v>
       </c>
-      <c r="BF143" t="n">
+      <c r="BG143" t="n">
         <v>1571.4</v>
       </c>
-      <c r="BG143" t="n">
+      <c r="BH143" t="n">
         <v>1339.6</v>
+      </c>
+      <c r="BI143" t="n">
+        <v>1503.977673649553</v>
       </c>
     </row>
     <row r="144">
@@ -24413,17 +25083,23 @@
       <c r="BC144" t="n">
         <v>598.6</v>
       </c>
-      <c r="BD144" s="3" t="n">
+      <c r="BD144" t="n">
+        <v>598.6</v>
+      </c>
+      <c r="BE144" s="3" t="n">
         <v>41579</v>
       </c>
-      <c r="BE144" t="n">
+      <c r="BF144" t="n">
         <v>1503.977673649553</v>
       </c>
-      <c r="BF144" t="n">
+      <c r="BG144" t="n">
         <v>1571.4</v>
       </c>
-      <c r="BG144" t="n">
+      <c r="BH144" t="n">
         <v>1339.6</v>
+      </c>
+      <c r="BI144" t="n">
+        <v>1503.977673649553</v>
       </c>
     </row>
     <row r="145">
@@ -24586,17 +25262,23 @@
       <c r="BC145" t="n">
         <v>598.6</v>
       </c>
-      <c r="BD145" s="3" t="n">
+      <c r="BD145" t="n">
+        <v>598.6</v>
+      </c>
+      <c r="BE145" s="3" t="n">
         <v>41609</v>
       </c>
-      <c r="BE145" t="n">
+      <c r="BF145" t="n">
         <v>1503.977673649553</v>
       </c>
-      <c r="BF145" t="n">
+      <c r="BG145" t="n">
         <v>1571.4</v>
       </c>
-      <c r="BG145" t="n">
+      <c r="BH145" t="n">
         <v>1339.6</v>
+      </c>
+      <c r="BI145" t="n">
+        <v>1503.977673649553</v>
       </c>
     </row>
     <row r="146">
@@ -24759,17 +25441,23 @@
       <c r="BC146" t="n">
         <v>598.6</v>
       </c>
-      <c r="BD146" s="3" t="n">
+      <c r="BD146" t="n">
+        <v>1553.1</v>
+      </c>
+      <c r="BE146" s="3" t="n">
         <v>41640</v>
       </c>
-      <c r="BE146" t="n">
+      <c r="BF146" t="n">
         <v>1503.977673649553</v>
       </c>
-      <c r="BF146" t="n">
+      <c r="BG146" t="n">
         <v>1571.4</v>
       </c>
-      <c r="BG146" t="n">
+      <c r="BH146" t="n">
         <v>1339.6</v>
+      </c>
+      <c r="BI146" t="n">
+        <v>731.9171298207634</v>
       </c>
     </row>
     <row r="147">
@@ -24932,17 +25620,23 @@
       <c r="BC147" t="n">
         <v>598.6</v>
       </c>
-      <c r="BD147" s="3" t="n">
+      <c r="BD147" t="n">
+        <v>1553.1</v>
+      </c>
+      <c r="BE147" s="3" t="n">
         <v>41671</v>
       </c>
-      <c r="BE147" t="n">
+      <c r="BF147" t="n">
         <v>1503.977673649553</v>
       </c>
-      <c r="BF147" t="n">
+      <c r="BG147" t="n">
         <v>1571.4</v>
       </c>
-      <c r="BG147" t="n">
+      <c r="BH147" t="n">
         <v>1339.6</v>
+      </c>
+      <c r="BI147" t="n">
+        <v>731.9171298207634</v>
       </c>
     </row>
     <row r="148">
@@ -25105,17 +25799,23 @@
       <c r="BC148" t="n">
         <v>1553.1</v>
       </c>
-      <c r="BD148" s="3" t="n">
+      <c r="BD148" t="n">
+        <v>1553.1</v>
+      </c>
+      <c r="BE148" s="3" t="n">
         <v>41699</v>
       </c>
-      <c r="BE148" t="n">
+      <c r="BF148" t="n">
         <v>1553.1</v>
       </c>
-      <c r="BF148" t="n">
+      <c r="BG148" t="n">
         <v>598.6</v>
       </c>
-      <c r="BG148" t="n">
+      <c r="BH148" t="n">
         <v>1571.4</v>
+      </c>
+      <c r="BI148" t="n">
+        <v>731.9171298207634</v>
       </c>
     </row>
     <row r="149">
@@ -25278,17 +25978,23 @@
       <c r="BC149" t="n">
         <v>1553.1</v>
       </c>
-      <c r="BD149" s="3" t="n">
+      <c r="BD149" t="n">
+        <v>1553.1</v>
+      </c>
+      <c r="BE149" s="3" t="n">
         <v>41730</v>
       </c>
-      <c r="BE149" t="n">
+      <c r="BF149" t="n">
         <v>1553.1</v>
       </c>
-      <c r="BF149" t="n">
+      <c r="BG149" t="n">
         <v>598.6</v>
       </c>
-      <c r="BG149" t="n">
+      <c r="BH149" t="n">
         <v>1571.4</v>
+      </c>
+      <c r="BI149" t="n">
+        <v>731.9171298207634</v>
       </c>
     </row>
     <row r="150">
@@ -25451,17 +26157,23 @@
       <c r="BC150" t="n">
         <v>1553.1</v>
       </c>
-      <c r="BD150" s="3" t="n">
+      <c r="BD150" t="n">
+        <v>1553.1</v>
+      </c>
+      <c r="BE150" s="3" t="n">
         <v>41760</v>
       </c>
-      <c r="BE150" t="n">
+      <c r="BF150" t="n">
         <v>1553.1</v>
       </c>
-      <c r="BF150" t="n">
+      <c r="BG150" t="n">
         <v>598.6</v>
       </c>
-      <c r="BG150" t="n">
+      <c r="BH150" t="n">
         <v>1571.4</v>
+      </c>
+      <c r="BI150" t="n">
+        <v>731.9171298207634</v>
       </c>
     </row>
     <row r="151">
@@ -25624,17 +26336,23 @@
       <c r="BC151" t="n">
         <v>1553.1</v>
       </c>
-      <c r="BD151" s="3" t="n">
+      <c r="BD151" t="n">
+        <v>1553.1</v>
+      </c>
+      <c r="BE151" s="3" t="n">
         <v>41791</v>
       </c>
-      <c r="BE151" t="n">
+      <c r="BF151" t="n">
         <v>1553.1</v>
       </c>
-      <c r="BF151" t="n">
+      <c r="BG151" t="n">
         <v>598.6</v>
       </c>
-      <c r="BG151" t="n">
+      <c r="BH151" t="n">
         <v>1571.4</v>
+      </c>
+      <c r="BI151" t="n">
+        <v>731.9171298207634</v>
       </c>
     </row>
     <row r="152">
@@ -25797,17 +26515,23 @@
       <c r="BC152" t="n">
         <v>1553.1</v>
       </c>
-      <c r="BD152" s="3" t="n">
+      <c r="BD152" t="n">
+        <v>1553.1</v>
+      </c>
+      <c r="BE152" s="3" t="n">
         <v>41821</v>
       </c>
-      <c r="BE152" t="n">
+      <c r="BF152" t="n">
         <v>731.9171298207634</v>
       </c>
-      <c r="BF152" t="n">
+      <c r="BG152" t="n">
         <v>598.6</v>
       </c>
-      <c r="BG152" t="n">
+      <c r="BH152" t="n">
         <v>1571.4</v>
+      </c>
+      <c r="BI152" t="n">
+        <v>731.9171298207634</v>
       </c>
     </row>
     <row r="153">
@@ -25970,17 +26694,23 @@
       <c r="BC153" t="n">
         <v>1553.1</v>
       </c>
-      <c r="BD153" s="3" t="n">
+      <c r="BD153" t="n">
+        <v>1553.1</v>
+      </c>
+      <c r="BE153" s="3" t="n">
         <v>41852</v>
       </c>
-      <c r="BE153" t="n">
+      <c r="BF153" t="n">
         <v>731.9171298207634</v>
       </c>
-      <c r="BF153" t="n">
+      <c r="BG153" t="n">
         <v>598.6</v>
       </c>
-      <c r="BG153" t="n">
+      <c r="BH153" t="n">
         <v>1571.4</v>
+      </c>
+      <c r="BI153" t="n">
+        <v>731.9171298207634</v>
       </c>
     </row>
     <row r="154">
@@ -26143,17 +26873,23 @@
       <c r="BC154" t="n">
         <v>1553.1</v>
       </c>
-      <c r="BD154" s="3" t="n">
+      <c r="BD154" t="n">
+        <v>1553.1</v>
+      </c>
+      <c r="BE154" s="3" t="n">
         <v>41883</v>
       </c>
-      <c r="BE154" t="n">
+      <c r="BF154" t="n">
         <v>731.9171298207634</v>
       </c>
-      <c r="BF154" t="n">
+      <c r="BG154" t="n">
         <v>598.6</v>
       </c>
-      <c r="BG154" t="n">
+      <c r="BH154" t="n">
         <v>1571.4</v>
+      </c>
+      <c r="BI154" t="n">
+        <v>731.9171298207634</v>
       </c>
     </row>
     <row r="155">
@@ -26316,17 +27052,23 @@
       <c r="BC155" t="n">
         <v>1553.1</v>
       </c>
-      <c r="BD155" s="3" t="n">
+      <c r="BD155" t="n">
+        <v>1553.1</v>
+      </c>
+      <c r="BE155" s="3" t="n">
         <v>41913</v>
       </c>
-      <c r="BE155" t="n">
+      <c r="BF155" t="n">
         <v>731.9171298207634</v>
       </c>
-      <c r="BF155" t="n">
+      <c r="BG155" t="n">
         <v>598.6</v>
       </c>
-      <c r="BG155" t="n">
+      <c r="BH155" t="n">
         <v>1571.4</v>
+      </c>
+      <c r="BI155" t="n">
+        <v>731.9171298207634</v>
       </c>
     </row>
     <row r="156">
@@ -26489,17 +27231,23 @@
       <c r="BC156" t="n">
         <v>1553.1</v>
       </c>
-      <c r="BD156" s="3" t="n">
+      <c r="BD156" t="n">
+        <v>1553.1</v>
+      </c>
+      <c r="BE156" s="3" t="n">
         <v>41944</v>
       </c>
-      <c r="BE156" t="n">
+      <c r="BF156" t="n">
         <v>731.9171298207634</v>
       </c>
-      <c r="BF156" t="n">
+      <c r="BG156" t="n">
         <v>598.6</v>
       </c>
-      <c r="BG156" t="n">
+      <c r="BH156" t="n">
         <v>1571.4</v>
+      </c>
+      <c r="BI156" t="n">
+        <v>731.9171298207634</v>
       </c>
     </row>
     <row r="157">
@@ -26662,17 +27410,23 @@
       <c r="BC157" t="n">
         <v>1553.1</v>
       </c>
-      <c r="BD157" s="3" t="n">
+      <c r="BD157" t="n">
+        <v>1553.1</v>
+      </c>
+      <c r="BE157" s="3" t="n">
         <v>41974</v>
       </c>
-      <c r="BE157" t="n">
+      <c r="BF157" t="n">
         <v>731.9171298207634</v>
       </c>
-      <c r="BF157" t="n">
+      <c r="BG157" t="n">
         <v>598.6</v>
       </c>
-      <c r="BG157" t="n">
+      <c r="BH157" t="n">
         <v>1571.4</v>
+      </c>
+      <c r="BI157" t="n">
+        <v>731.9171298207634</v>
       </c>
     </row>
     <row r="158">
@@ -26835,17 +27589,23 @@
       <c r="BC158" t="n">
         <v>1553.1</v>
       </c>
-      <c r="BD158" s="3" t="n">
+      <c r="BD158" t="n">
+        <v>813.7</v>
+      </c>
+      <c r="BE158" s="3" t="n">
         <v>42005</v>
       </c>
-      <c r="BE158" t="n">
+      <c r="BF158" t="n">
         <v>731.9171298207634</v>
       </c>
-      <c r="BF158" t="n">
+      <c r="BG158" t="n">
         <v>598.6</v>
       </c>
-      <c r="BG158" t="n">
+      <c r="BH158" t="n">
         <v>1571.4</v>
+      </c>
+      <c r="BI158" t="n">
+        <v>1120.28132115423</v>
       </c>
     </row>
     <row r="159">
@@ -27008,17 +27768,23 @@
       <c r="BC159" t="n">
         <v>1553.1</v>
       </c>
-      <c r="BD159" s="3" t="n">
+      <c r="BD159" t="n">
+        <v>813.7</v>
+      </c>
+      <c r="BE159" s="3" t="n">
         <v>42036</v>
       </c>
-      <c r="BE159" t="n">
+      <c r="BF159" t="n">
         <v>731.9171298207634</v>
       </c>
-      <c r="BF159" t="n">
+      <c r="BG159" t="n">
         <v>598.6</v>
       </c>
-      <c r="BG159" t="n">
+      <c r="BH159" t="n">
         <v>1571.4</v>
+      </c>
+      <c r="BI159" t="n">
+        <v>1120.28132115423</v>
       </c>
     </row>
     <row r="160">
@@ -27181,17 +27947,23 @@
       <c r="BC160" t="n">
         <v>813.7</v>
       </c>
-      <c r="BD160" s="3" t="n">
+      <c r="BD160" t="n">
+        <v>813.7</v>
+      </c>
+      <c r="BE160" s="3" t="n">
         <v>42064</v>
       </c>
-      <c r="BE160" t="n">
+      <c r="BF160" t="n">
         <v>813.7</v>
       </c>
-      <c r="BF160" t="n">
+      <c r="BG160" t="n">
         <v>1553.1</v>
       </c>
-      <c r="BG160" t="n">
+      <c r="BH160" t="n">
         <v>598.6</v>
+      </c>
+      <c r="BI160" t="n">
+        <v>1120.28132115423</v>
       </c>
     </row>
     <row r="161">
@@ -27354,17 +28126,23 @@
       <c r="BC161" t="n">
         <v>813.7</v>
       </c>
-      <c r="BD161" s="3" t="n">
+      <c r="BD161" t="n">
+        <v>813.7</v>
+      </c>
+      <c r="BE161" s="3" t="n">
         <v>42095</v>
       </c>
-      <c r="BE161" t="n">
+      <c r="BF161" t="n">
         <v>813.7</v>
       </c>
-      <c r="BF161" t="n">
+      <c r="BG161" t="n">
         <v>1553.1</v>
       </c>
-      <c r="BG161" t="n">
+      <c r="BH161" t="n">
         <v>598.6</v>
+      </c>
+      <c r="BI161" t="n">
+        <v>1120.28132115423</v>
       </c>
     </row>
     <row r="162">
@@ -27527,17 +28305,23 @@
       <c r="BC162" t="n">
         <v>813.7</v>
       </c>
-      <c r="BD162" s="3" t="n">
+      <c r="BD162" t="n">
+        <v>813.7</v>
+      </c>
+      <c r="BE162" s="3" t="n">
         <v>42125</v>
       </c>
-      <c r="BE162" t="n">
+      <c r="BF162" t="n">
         <v>813.7</v>
       </c>
-      <c r="BF162" t="n">
+      <c r="BG162" t="n">
         <v>1553.1</v>
       </c>
-      <c r="BG162" t="n">
+      <c r="BH162" t="n">
         <v>598.6</v>
+      </c>
+      <c r="BI162" t="n">
+        <v>1120.28132115423</v>
       </c>
     </row>
     <row r="163">
@@ -27700,17 +28484,23 @@
       <c r="BC163" t="n">
         <v>813.7</v>
       </c>
-      <c r="BD163" s="3" t="n">
+      <c r="BD163" t="n">
+        <v>813.7</v>
+      </c>
+      <c r="BE163" s="3" t="n">
         <v>42156</v>
       </c>
-      <c r="BE163" t="n">
+      <c r="BF163" t="n">
         <v>813.7</v>
       </c>
-      <c r="BF163" t="n">
+      <c r="BG163" t="n">
         <v>1553.1</v>
       </c>
-      <c r="BG163" t="n">
+      <c r="BH163" t="n">
         <v>598.6</v>
+      </c>
+      <c r="BI163" t="n">
+        <v>1120.28132115423</v>
       </c>
     </row>
     <row r="164">
@@ -27873,17 +28663,23 @@
       <c r="BC164" t="n">
         <v>813.7</v>
       </c>
-      <c r="BD164" s="3" t="n">
+      <c r="BD164" t="n">
+        <v>813.7</v>
+      </c>
+      <c r="BE164" s="3" t="n">
         <v>42186</v>
       </c>
-      <c r="BE164" t="n">
+      <c r="BF164" t="n">
         <v>1120.28132115423</v>
       </c>
-      <c r="BF164" t="n">
+      <c r="BG164" t="n">
         <v>1553.1</v>
       </c>
-      <c r="BG164" t="n">
+      <c r="BH164" t="n">
         <v>598.6</v>
+      </c>
+      <c r="BI164" t="n">
+        <v>1120.28132115423</v>
       </c>
     </row>
     <row r="165">
@@ -28046,17 +28842,23 @@
       <c r="BC165" t="n">
         <v>813.7</v>
       </c>
-      <c r="BD165" s="3" t="n">
+      <c r="BD165" t="n">
+        <v>813.7</v>
+      </c>
+      <c r="BE165" s="3" t="n">
         <v>42217</v>
       </c>
-      <c r="BE165" t="n">
+      <c r="BF165" t="n">
         <v>1120.28132115423</v>
       </c>
-      <c r="BF165" t="n">
+      <c r="BG165" t="n">
         <v>1553.1</v>
       </c>
-      <c r="BG165" t="n">
+      <c r="BH165" t="n">
         <v>598.6</v>
+      </c>
+      <c r="BI165" t="n">
+        <v>1120.28132115423</v>
       </c>
     </row>
     <row r="166">
@@ -28219,17 +29021,23 @@
       <c r="BC166" t="n">
         <v>813.7</v>
       </c>
-      <c r="BD166" s="3" t="n">
+      <c r="BD166" t="n">
+        <v>813.7</v>
+      </c>
+      <c r="BE166" s="3" t="n">
         <v>42248</v>
       </c>
-      <c r="BE166" t="n">
+      <c r="BF166" t="n">
         <v>1120.28132115423</v>
       </c>
-      <c r="BF166" t="n">
+      <c r="BG166" t="n">
         <v>1553.1</v>
       </c>
-      <c r="BG166" t="n">
+      <c r="BH166" t="n">
         <v>598.6</v>
+      </c>
+      <c r="BI166" t="n">
+        <v>1120.28132115423</v>
       </c>
     </row>
     <row r="167">
@@ -28392,17 +29200,23 @@
       <c r="BC167" t="n">
         <v>813.7</v>
       </c>
-      <c r="BD167" s="3" t="n">
+      <c r="BD167" t="n">
+        <v>813.7</v>
+      </c>
+      <c r="BE167" s="3" t="n">
         <v>42278</v>
       </c>
-      <c r="BE167" t="n">
+      <c r="BF167" t="n">
         <v>1120.28132115423</v>
       </c>
-      <c r="BF167" t="n">
+      <c r="BG167" t="n">
         <v>1553.1</v>
       </c>
-      <c r="BG167" t="n">
+      <c r="BH167" t="n">
         <v>598.6</v>
+      </c>
+      <c r="BI167" t="n">
+        <v>1120.28132115423</v>
       </c>
     </row>
     <row r="168">
@@ -28565,17 +29379,23 @@
       <c r="BC168" t="n">
         <v>813.7</v>
       </c>
-      <c r="BD168" s="3" t="n">
+      <c r="BD168" t="n">
+        <v>813.7</v>
+      </c>
+      <c r="BE168" s="3" t="n">
         <v>42309</v>
       </c>
-      <c r="BE168" t="n">
+      <c r="BF168" t="n">
         <v>1120.28132115423</v>
       </c>
-      <c r="BF168" t="n">
+      <c r="BG168" t="n">
         <v>1553.1</v>
       </c>
-      <c r="BG168" t="n">
+      <c r="BH168" t="n">
         <v>598.6</v>
+      </c>
+      <c r="BI168" t="n">
+        <v>1120.28132115423</v>
       </c>
     </row>
     <row r="169">
@@ -28740,17 +29560,23 @@
       <c r="BC169" t="n">
         <v>813.7</v>
       </c>
-      <c r="BD169" s="3" t="n">
+      <c r="BD169" t="n">
+        <v>813.7</v>
+      </c>
+      <c r="BE169" s="3" t="n">
         <v>42339</v>
       </c>
-      <c r="BE169" t="n">
+      <c r="BF169" t="n">
         <v>1120.28132115423</v>
       </c>
-      <c r="BF169" t="n">
+      <c r="BG169" t="n">
         <v>1553.1</v>
       </c>
-      <c r="BG169" t="n">
+      <c r="BH169" t="n">
         <v>598.6</v>
+      </c>
+      <c r="BI169" t="n">
+        <v>1120.28132115423</v>
       </c>
     </row>
     <row r="170">
@@ -28915,17 +29741,23 @@
       <c r="BC170" t="n">
         <v>813.7</v>
       </c>
-      <c r="BD170" s="3" t="n">
+      <c r="BD170" t="n">
+        <v>1368.3</v>
+      </c>
+      <c r="BE170" s="3" t="n">
         <v>42370</v>
       </c>
-      <c r="BE170" t="n">
+      <c r="BF170" t="n">
         <v>1120.28132115423</v>
       </c>
-      <c r="BF170" t="n">
+      <c r="BG170" t="n">
         <v>1553.1</v>
       </c>
-      <c r="BG170" t="n">
+      <c r="BH170" t="n">
         <v>598.6</v>
+      </c>
+      <c r="BI170" t="n">
+        <v>1288.323519327364</v>
       </c>
     </row>
     <row r="171">
@@ -29090,17 +29922,23 @@
       <c r="BC171" t="n">
         <v>813.7</v>
       </c>
-      <c r="BD171" s="3" t="n">
+      <c r="BD171" t="n">
+        <v>1368.3</v>
+      </c>
+      <c r="BE171" s="3" t="n">
         <v>42401</v>
       </c>
-      <c r="BE171" t="n">
+      <c r="BF171" t="n">
         <v>1120.28132115423</v>
       </c>
-      <c r="BF171" t="n">
+      <c r="BG171" t="n">
         <v>1553.1</v>
       </c>
-      <c r="BG171" t="n">
+      <c r="BH171" t="n">
         <v>598.6</v>
+      </c>
+      <c r="BI171" t="n">
+        <v>1288.323519327364</v>
       </c>
     </row>
     <row r="172">
@@ -29265,17 +30103,23 @@
       <c r="BC172" t="n">
         <v>1368.3</v>
       </c>
-      <c r="BD172" s="3" t="n">
+      <c r="BD172" t="n">
+        <v>1368.3</v>
+      </c>
+      <c r="BE172" s="3" t="n">
         <v>42430</v>
       </c>
-      <c r="BE172" t="n">
+      <c r="BF172" t="n">
         <v>1368.3</v>
       </c>
-      <c r="BF172" t="n">
+      <c r="BG172" t="n">
         <v>813.7</v>
       </c>
-      <c r="BG172" t="n">
+      <c r="BH172" t="n">
         <v>1553.1</v>
+      </c>
+      <c r="BI172" t="n">
+        <v>1288.323519327364</v>
       </c>
     </row>
     <row r="173">
@@ -29440,17 +30284,23 @@
       <c r="BC173" t="n">
         <v>1368.3</v>
       </c>
-      <c r="BD173" s="3" t="n">
+      <c r="BD173" t="n">
+        <v>1368.3</v>
+      </c>
+      <c r="BE173" s="3" t="n">
         <v>42461</v>
       </c>
-      <c r="BE173" t="n">
+      <c r="BF173" t="n">
         <v>1368.3</v>
       </c>
-      <c r="BF173" t="n">
+      <c r="BG173" t="n">
         <v>813.7</v>
       </c>
-      <c r="BG173" t="n">
+      <c r="BH173" t="n">
         <v>1553.1</v>
+      </c>
+      <c r="BI173" t="n">
+        <v>1288.323519327364</v>
       </c>
     </row>
     <row r="174">
@@ -29615,17 +30465,23 @@
       <c r="BC174" t="n">
         <v>1368.3</v>
       </c>
-      <c r="BD174" s="3" t="n">
+      <c r="BD174" t="n">
+        <v>1368.3</v>
+      </c>
+      <c r="BE174" s="3" t="n">
         <v>42491</v>
       </c>
-      <c r="BE174" t="n">
+      <c r="BF174" t="n">
         <v>1368.3</v>
       </c>
-      <c r="BF174" t="n">
+      <c r="BG174" t="n">
         <v>813.7</v>
       </c>
-      <c r="BG174" t="n">
+      <c r="BH174" t="n">
         <v>1553.1</v>
+      </c>
+      <c r="BI174" t="n">
+        <v>1288.323519327364</v>
       </c>
     </row>
     <row r="175">
@@ -29790,17 +30646,23 @@
       <c r="BC175" t="n">
         <v>1368.3</v>
       </c>
-      <c r="BD175" s="3" t="n">
+      <c r="BD175" t="n">
+        <v>1368.3</v>
+      </c>
+      <c r="BE175" s="3" t="n">
         <v>42522</v>
       </c>
-      <c r="BE175" t="n">
+      <c r="BF175" t="n">
         <v>1368.3</v>
       </c>
-      <c r="BF175" t="n">
+      <c r="BG175" t="n">
         <v>813.7</v>
       </c>
-      <c r="BG175" t="n">
+      <c r="BH175" t="n">
         <v>1553.1</v>
+      </c>
+      <c r="BI175" t="n">
+        <v>1288.323519327364</v>
       </c>
     </row>
     <row r="176">
@@ -29965,17 +30827,23 @@
       <c r="BC176" t="n">
         <v>1368.3</v>
       </c>
-      <c r="BD176" s="3" t="n">
+      <c r="BD176" t="n">
+        <v>1368.3</v>
+      </c>
+      <c r="BE176" s="3" t="n">
         <v>42552</v>
       </c>
-      <c r="BE176" t="n">
+      <c r="BF176" t="n">
         <v>1288.323519327364</v>
       </c>
-      <c r="BF176" t="n">
+      <c r="BG176" t="n">
         <v>813.7</v>
       </c>
-      <c r="BG176" t="n">
+      <c r="BH176" t="n">
         <v>1553.1</v>
+      </c>
+      <c r="BI176" t="n">
+        <v>1288.323519327364</v>
       </c>
     </row>
     <row r="177">
@@ -30140,17 +31008,23 @@
       <c r="BC177" t="n">
         <v>1368.3</v>
       </c>
-      <c r="BD177" s="3" t="n">
+      <c r="BD177" t="n">
+        <v>1368.3</v>
+      </c>
+      <c r="BE177" s="3" t="n">
         <v>42583</v>
       </c>
-      <c r="BE177" t="n">
+      <c r="BF177" t="n">
         <v>1288.323519327364</v>
       </c>
-      <c r="BF177" t="n">
+      <c r="BG177" t="n">
         <v>813.7</v>
       </c>
-      <c r="BG177" t="n">
+      <c r="BH177" t="n">
         <v>1553.1</v>
+      </c>
+      <c r="BI177" t="n">
+        <v>1288.323519327364</v>
       </c>
     </row>
     <row r="178">
@@ -30315,17 +31189,23 @@
       <c r="BC178" t="n">
         <v>1368.3</v>
       </c>
-      <c r="BD178" s="3" t="n">
+      <c r="BD178" t="n">
+        <v>1368.3</v>
+      </c>
+      <c r="BE178" s="3" t="n">
         <v>42614</v>
       </c>
-      <c r="BE178" t="n">
+      <c r="BF178" t="n">
         <v>1288.323519327364</v>
       </c>
-      <c r="BF178" t="n">
+      <c r="BG178" t="n">
         <v>813.7</v>
       </c>
-      <c r="BG178" t="n">
+      <c r="BH178" t="n">
         <v>1553.1</v>
+      </c>
+      <c r="BI178" t="n">
+        <v>1288.323519327364</v>
       </c>
     </row>
     <row r="179">
@@ -30490,17 +31370,23 @@
       <c r="BC179" t="n">
         <v>1368.3</v>
       </c>
-      <c r="BD179" s="3" t="n">
+      <c r="BD179" t="n">
+        <v>1368.3</v>
+      </c>
+      <c r="BE179" s="3" t="n">
         <v>42644</v>
       </c>
-      <c r="BE179" t="n">
+      <c r="BF179" t="n">
         <v>1288.323519327364</v>
       </c>
-      <c r="BF179" t="n">
+      <c r="BG179" t="n">
         <v>813.7</v>
       </c>
-      <c r="BG179" t="n">
+      <c r="BH179" t="n">
         <v>1553.1</v>
+      </c>
+      <c r="BI179" t="n">
+        <v>1288.323519327364</v>
       </c>
     </row>
     <row r="180">
@@ -30665,17 +31551,23 @@
       <c r="BC180" t="n">
         <v>1368.3</v>
       </c>
-      <c r="BD180" s="3" t="n">
+      <c r="BD180" t="n">
+        <v>1368.3</v>
+      </c>
+      <c r="BE180" s="3" t="n">
         <v>42675</v>
       </c>
-      <c r="BE180" t="n">
+      <c r="BF180" t="n">
         <v>1288.323519327364</v>
       </c>
-      <c r="BF180" t="n">
+      <c r="BG180" t="n">
         <v>813.7</v>
       </c>
-      <c r="BG180" t="n">
+      <c r="BH180" t="n">
         <v>1553.1</v>
+      </c>
+      <c r="BI180" t="n">
+        <v>1288.323519327364</v>
       </c>
     </row>
     <row r="181">
@@ -30840,17 +31732,23 @@
       <c r="BC181" t="n">
         <v>1368.3</v>
       </c>
-      <c r="BD181" s="3" t="n">
+      <c r="BD181" t="n">
+        <v>1368.3</v>
+      </c>
+      <c r="BE181" s="3" t="n">
         <v>42705</v>
       </c>
-      <c r="BE181" t="n">
+      <c r="BF181" t="n">
         <v>1288.323519327364</v>
       </c>
-      <c r="BF181" t="n">
+      <c r="BG181" t="n">
         <v>813.7</v>
       </c>
-      <c r="BG181" t="n">
+      <c r="BH181" t="n">
         <v>1553.1</v>
+      </c>
+      <c r="BI181" t="n">
+        <v>1288.323519327364</v>
       </c>
     </row>
     <row r="182">
@@ -31015,17 +31913,23 @@
       <c r="BC182" t="n">
         <v>1368.3</v>
       </c>
-      <c r="BD182" s="3" t="n">
+      <c r="BD182" t="n">
+        <v>1243.5</v>
+      </c>
+      <c r="BE182" s="3" t="n">
         <v>42736</v>
       </c>
-      <c r="BE182" t="n">
+      <c r="BF182" t="n">
         <v>1288.323519327364</v>
       </c>
-      <c r="BF182" t="n">
+      <c r="BG182" t="n">
         <v>813.7</v>
       </c>
-      <c r="BG182" t="n">
+      <c r="BH182" t="n">
         <v>1553.1</v>
+      </c>
+      <c r="BI182" t="n">
+        <v>1055.865145187862</v>
       </c>
     </row>
     <row r="183">
@@ -31190,17 +32094,23 @@
       <c r="BC183" t="n">
         <v>1368.3</v>
       </c>
-      <c r="BD183" s="3" t="n">
+      <c r="BD183" t="n">
+        <v>1243.5</v>
+      </c>
+      <c r="BE183" s="3" t="n">
         <v>42767</v>
       </c>
-      <c r="BE183" t="n">
+      <c r="BF183" t="n">
         <v>1288.323519327364</v>
       </c>
-      <c r="BF183" t="n">
+      <c r="BG183" t="n">
         <v>813.7</v>
       </c>
-      <c r="BG183" t="n">
+      <c r="BH183" t="n">
         <v>1553.1</v>
+      </c>
+      <c r="BI183" t="n">
+        <v>1055.865145187862</v>
       </c>
     </row>
     <row r="184">
@@ -31365,17 +32275,23 @@
       <c r="BC184" t="n">
         <v>1243.5</v>
       </c>
-      <c r="BD184" s="3" t="n">
+      <c r="BD184" t="n">
+        <v>1243.5</v>
+      </c>
+      <c r="BE184" s="3" t="n">
         <v>42795</v>
       </c>
-      <c r="BE184" t="n">
+      <c r="BF184" t="n">
         <v>1243.5</v>
       </c>
-      <c r="BF184" t="n">
+      <c r="BG184" t="n">
         <v>1368.3</v>
       </c>
-      <c r="BG184" t="n">
+      <c r="BH184" t="n">
         <v>813.7</v>
+      </c>
+      <c r="BI184" t="n">
+        <v>1055.865145187862</v>
       </c>
     </row>
     <row r="185">
@@ -31540,17 +32456,23 @@
       <c r="BC185" t="n">
         <v>1243.5</v>
       </c>
-      <c r="BD185" s="3" t="n">
+      <c r="BD185" t="n">
+        <v>1243.5</v>
+      </c>
+      <c r="BE185" s="3" t="n">
         <v>42826</v>
       </c>
-      <c r="BE185" t="n">
+      <c r="BF185" t="n">
         <v>1243.5</v>
       </c>
-      <c r="BF185" t="n">
+      <c r="BG185" t="n">
         <v>1368.3</v>
       </c>
-      <c r="BG185" t="n">
+      <c r="BH185" t="n">
         <v>813.7</v>
+      </c>
+      <c r="BI185" t="n">
+        <v>1055.865145187862</v>
       </c>
     </row>
     <row r="186">
@@ -31715,17 +32637,23 @@
       <c r="BC186" t="n">
         <v>1243.5</v>
       </c>
-      <c r="BD186" s="3" t="n">
+      <c r="BD186" t="n">
+        <v>1243.5</v>
+      </c>
+      <c r="BE186" s="3" t="n">
         <v>42856</v>
       </c>
-      <c r="BE186" t="n">
+      <c r="BF186" t="n">
         <v>1243.5</v>
       </c>
-      <c r="BF186" t="n">
+      <c r="BG186" t="n">
         <v>1368.3</v>
       </c>
-      <c r="BG186" t="n">
+      <c r="BH186" t="n">
         <v>813.7</v>
+      </c>
+      <c r="BI186" t="n">
+        <v>1055.865145187862</v>
       </c>
     </row>
     <row r="187">
@@ -31890,17 +32818,23 @@
       <c r="BC187" t="n">
         <v>1243.5</v>
       </c>
-      <c r="BD187" s="3" t="n">
+      <c r="BD187" t="n">
+        <v>1243.5</v>
+      </c>
+      <c r="BE187" s="3" t="n">
         <v>42887</v>
       </c>
-      <c r="BE187" t="n">
+      <c r="BF187" t="n">
         <v>1243.5</v>
       </c>
-      <c r="BF187" t="n">
+      <c r="BG187" t="n">
         <v>1368.3</v>
       </c>
-      <c r="BG187" t="n">
+      <c r="BH187" t="n">
         <v>813.7</v>
+      </c>
+      <c r="BI187" t="n">
+        <v>1055.865145187862</v>
       </c>
     </row>
     <row r="188">
@@ -32065,17 +32999,23 @@
       <c r="BC188" t="n">
         <v>1243.5</v>
       </c>
-      <c r="BD188" s="3" t="n">
+      <c r="BD188" t="n">
+        <v>1243.5</v>
+      </c>
+      <c r="BE188" s="3" t="n">
         <v>42917</v>
       </c>
-      <c r="BE188" t="n">
+      <c r="BF188" t="n">
         <v>1055.865145187862</v>
       </c>
-      <c r="BF188" t="n">
+      <c r="BG188" t="n">
         <v>1368.3</v>
       </c>
-      <c r="BG188" t="n">
+      <c r="BH188" t="n">
         <v>813.7</v>
+      </c>
+      <c r="BI188" t="n">
+        <v>1055.865145187862</v>
       </c>
     </row>
     <row r="189">
@@ -32240,17 +33180,23 @@
       <c r="BC189" t="n">
         <v>1243.5</v>
       </c>
-      <c r="BD189" s="3" t="n">
+      <c r="BD189" t="n">
+        <v>1243.5</v>
+      </c>
+      <c r="BE189" s="3" t="n">
         <v>42948</v>
       </c>
-      <c r="BE189" t="n">
+      <c r="BF189" t="n">
         <v>1055.865145187862</v>
       </c>
-      <c r="BF189" t="n">
+      <c r="BG189" t="n">
         <v>1368.3</v>
       </c>
-      <c r="BG189" t="n">
+      <c r="BH189" t="n">
         <v>813.7</v>
+      </c>
+      <c r="BI189" t="n">
+        <v>1055.865145187862</v>
       </c>
     </row>
     <row r="190">
@@ -32415,17 +33361,23 @@
       <c r="BC190" t="n">
         <v>1243.5</v>
       </c>
-      <c r="BD190" s="3" t="n">
+      <c r="BD190" t="n">
+        <v>1243.5</v>
+      </c>
+      <c r="BE190" s="3" t="n">
         <v>42979</v>
       </c>
-      <c r="BE190" t="n">
+      <c r="BF190" t="n">
         <v>1055.865145187862</v>
       </c>
-      <c r="BF190" t="n">
+      <c r="BG190" t="n">
         <v>1368.3</v>
       </c>
-      <c r="BG190" t="n">
+      <c r="BH190" t="n">
         <v>813.7</v>
+      </c>
+      <c r="BI190" t="n">
+        <v>1055.865145187862</v>
       </c>
     </row>
     <row r="191">
@@ -32590,17 +33542,23 @@
       <c r="BC191" t="n">
         <v>1243.5</v>
       </c>
-      <c r="BD191" s="3" t="n">
+      <c r="BD191" t="n">
+        <v>1243.5</v>
+      </c>
+      <c r="BE191" s="3" t="n">
         <v>43009</v>
       </c>
-      <c r="BE191" t="n">
+      <c r="BF191" t="n">
         <v>1055.865145187862</v>
       </c>
-      <c r="BF191" t="n">
+      <c r="BG191" t="n">
         <v>1368.3</v>
       </c>
-      <c r="BG191" t="n">
+      <c r="BH191" t="n">
         <v>813.7</v>
+      </c>
+      <c r="BI191" t="n">
+        <v>1055.865145187862</v>
       </c>
     </row>
     <row r="192">
@@ -32765,17 +33723,23 @@
       <c r="BC192" t="n">
         <v>1243.5</v>
       </c>
-      <c r="BD192" s="3" t="n">
+      <c r="BD192" t="n">
+        <v>1243.5</v>
+      </c>
+      <c r="BE192" s="3" t="n">
         <v>43040</v>
       </c>
-      <c r="BE192" t="n">
+      <c r="BF192" t="n">
         <v>1055.865145187862</v>
       </c>
-      <c r="BF192" t="n">
+      <c r="BG192" t="n">
         <v>1368.3</v>
       </c>
-      <c r="BG192" t="n">
+      <c r="BH192" t="n">
         <v>813.7</v>
+      </c>
+      <c r="BI192" t="n">
+        <v>1055.865145187862</v>
       </c>
     </row>
     <row r="193">
@@ -32940,17 +33904,23 @@
       <c r="BC193" t="n">
         <v>1243.5</v>
       </c>
-      <c r="BD193" s="3" t="n">
+      <c r="BD193" t="n">
+        <v>1243.5</v>
+      </c>
+      <c r="BE193" s="3" t="n">
         <v>43070</v>
       </c>
-      <c r="BE193" t="n">
+      <c r="BF193" t="n">
         <v>1055.865145187862</v>
       </c>
-      <c r="BF193" t="n">
+      <c r="BG193" t="n">
         <v>1368.3</v>
       </c>
-      <c r="BG193" t="n">
+      <c r="BH193" t="n">
         <v>813.7</v>
+      </c>
+      <c r="BI193" t="n">
+        <v>1055.865145187862</v>
       </c>
     </row>
     <row r="194">
@@ -33119,17 +34089,23 @@
       <c r="BC194" t="n">
         <v>1243.5</v>
       </c>
-      <c r="BD194" s="3" t="n">
+      <c r="BD194" t="n">
+        <v>1220.9</v>
+      </c>
+      <c r="BE194" s="3" t="n">
         <v>43101</v>
       </c>
-      <c r="BE194" t="n">
+      <c r="BF194" t="n">
         <v>1055.865145187862</v>
       </c>
-      <c r="BF194" t="n">
+      <c r="BG194" t="n">
         <v>1368.3</v>
       </c>
-      <c r="BG194" t="n">
+      <c r="BH194" t="n">
         <v>813.7</v>
+      </c>
+      <c r="BI194" t="n">
+        <v>1447.030039824213</v>
       </c>
     </row>
     <row r="195">
@@ -33298,17 +34274,23 @@
       <c r="BC195" t="n">
         <v>1243.5</v>
       </c>
-      <c r="BD195" s="3" t="n">
+      <c r="BD195" t="n">
+        <v>1220.9</v>
+      </c>
+      <c r="BE195" s="3" t="n">
         <v>43132</v>
       </c>
-      <c r="BE195" t="n">
+      <c r="BF195" t="n">
         <v>1055.865145187862</v>
       </c>
-      <c r="BF195" t="n">
+      <c r="BG195" t="n">
         <v>1368.3</v>
       </c>
-      <c r="BG195" t="n">
+      <c r="BH195" t="n">
         <v>813.7</v>
+      </c>
+      <c r="BI195" t="n">
+        <v>1447.030039824213</v>
       </c>
     </row>
     <row r="196">
@@ -33477,17 +34459,23 @@
       <c r="BC196" t="n">
         <v>1220.9</v>
       </c>
-      <c r="BD196" s="3" t="n">
+      <c r="BD196" t="n">
+        <v>1220.9</v>
+      </c>
+      <c r="BE196" s="3" t="n">
         <v>43160</v>
       </c>
-      <c r="BE196" t="n">
+      <c r="BF196" t="n">
         <v>1220.9</v>
       </c>
-      <c r="BF196" t="n">
+      <c r="BG196" t="n">
         <v>1243.5</v>
       </c>
-      <c r="BG196" t="n">
+      <c r="BH196" t="n">
         <v>1368.3</v>
+      </c>
+      <c r="BI196" t="n">
+        <v>1447.030039824213</v>
       </c>
     </row>
     <row r="197">
@@ -33656,17 +34644,23 @@
       <c r="BC197" t="n">
         <v>1220.9</v>
       </c>
-      <c r="BD197" s="3" t="n">
+      <c r="BD197" t="n">
+        <v>1220.9</v>
+      </c>
+      <c r="BE197" s="3" t="n">
         <v>43191</v>
       </c>
-      <c r="BE197" t="n">
+      <c r="BF197" t="n">
         <v>1220.9</v>
       </c>
-      <c r="BF197" t="n">
+      <c r="BG197" t="n">
         <v>1243.5</v>
       </c>
-      <c r="BG197" t="n">
+      <c r="BH197" t="n">
         <v>1368.3</v>
+      </c>
+      <c r="BI197" t="n">
+        <v>1447.030039824213</v>
       </c>
     </row>
     <row r="198">
@@ -33835,17 +34829,23 @@
       <c r="BC198" t="n">
         <v>1220.9</v>
       </c>
-      <c r="BD198" s="3" t="n">
+      <c r="BD198" t="n">
+        <v>1220.9</v>
+      </c>
+      <c r="BE198" s="3" t="n">
         <v>43221</v>
       </c>
-      <c r="BE198" t="n">
+      <c r="BF198" t="n">
         <v>1220.9</v>
       </c>
-      <c r="BF198" t="n">
+      <c r="BG198" t="n">
         <v>1243.5</v>
       </c>
-      <c r="BG198" t="n">
+      <c r="BH198" t="n">
         <v>1368.3</v>
+      </c>
+      <c r="BI198" t="n">
+        <v>1447.030039824213</v>
       </c>
     </row>
     <row r="199">
@@ -34014,17 +35014,23 @@
       <c r="BC199" t="n">
         <v>1220.9</v>
       </c>
-      <c r="BD199" s="3" t="n">
+      <c r="BD199" t="n">
+        <v>1220.9</v>
+      </c>
+      <c r="BE199" s="3" t="n">
         <v>43252</v>
       </c>
-      <c r="BE199" t="n">
+      <c r="BF199" t="n">
         <v>1220.9</v>
       </c>
-      <c r="BF199" t="n">
+      <c r="BG199" t="n">
         <v>1243.5</v>
       </c>
-      <c r="BG199" t="n">
+      <c r="BH199" t="n">
         <v>1368.3</v>
+      </c>
+      <c r="BI199" t="n">
+        <v>1447.030039824213</v>
       </c>
     </row>
     <row r="200">
@@ -34193,17 +35199,23 @@
       <c r="BC200" t="n">
         <v>1220.9</v>
       </c>
-      <c r="BD200" s="3" t="n">
+      <c r="BD200" t="n">
+        <v>1220.9</v>
+      </c>
+      <c r="BE200" s="3" t="n">
         <v>43282</v>
       </c>
-      <c r="BE200" t="n">
+      <c r="BF200" t="n">
         <v>1447.030039824213</v>
       </c>
-      <c r="BF200" t="n">
+      <c r="BG200" t="n">
         <v>1243.5</v>
       </c>
-      <c r="BG200" t="n">
+      <c r="BH200" t="n">
         <v>1368.3</v>
+      </c>
+      <c r="BI200" t="n">
+        <v>1447.030039824213</v>
       </c>
     </row>
     <row r="201">
@@ -34372,17 +35384,23 @@
       <c r="BC201" t="n">
         <v>1220.9</v>
       </c>
-      <c r="BD201" s="3" t="n">
+      <c r="BD201" t="n">
+        <v>1220.9</v>
+      </c>
+      <c r="BE201" s="3" t="n">
         <v>43313</v>
       </c>
-      <c r="BE201" t="n">
+      <c r="BF201" t="n">
         <v>1447.030039824213</v>
       </c>
-      <c r="BF201" t="n">
+      <c r="BG201" t="n">
         <v>1243.5</v>
       </c>
-      <c r="BG201" t="n">
+      <c r="BH201" t="n">
         <v>1368.3</v>
+      </c>
+      <c r="BI201" t="n">
+        <v>1447.030039824213</v>
       </c>
     </row>
     <row r="202">
@@ -34551,17 +35569,23 @@
       <c r="BC202" t="n">
         <v>1220.9</v>
       </c>
-      <c r="BD202" s="3" t="n">
+      <c r="BD202" t="n">
+        <v>1220.9</v>
+      </c>
+      <c r="BE202" s="3" t="n">
         <v>43344</v>
       </c>
-      <c r="BE202" t="n">
+      <c r="BF202" t="n">
         <v>1447.030039824213</v>
       </c>
-      <c r="BF202" t="n">
+      <c r="BG202" t="n">
         <v>1243.5</v>
       </c>
-      <c r="BG202" t="n">
+      <c r="BH202" t="n">
         <v>1368.3</v>
+      </c>
+      <c r="BI202" t="n">
+        <v>1447.030039824213</v>
       </c>
     </row>
     <row r="203">
@@ -34730,17 +35754,23 @@
       <c r="BC203" t="n">
         <v>1220.9</v>
       </c>
-      <c r="BD203" s="3" t="n">
+      <c r="BD203" t="n">
+        <v>1220.9</v>
+      </c>
+      <c r="BE203" s="3" t="n">
         <v>43374</v>
       </c>
-      <c r="BE203" t="n">
+      <c r="BF203" t="n">
         <v>1447.030039824213</v>
       </c>
-      <c r="BF203" t="n">
+      <c r="BG203" t="n">
         <v>1243.5</v>
       </c>
-      <c r="BG203" t="n">
+      <c r="BH203" t="n">
         <v>1368.3</v>
+      </c>
+      <c r="BI203" t="n">
+        <v>1447.030039824213</v>
       </c>
     </row>
     <row r="204">
@@ -34909,17 +35939,23 @@
       <c r="BC204" t="n">
         <v>1220.9</v>
       </c>
-      <c r="BD204" s="3" t="n">
+      <c r="BD204" t="n">
+        <v>1220.9</v>
+      </c>
+      <c r="BE204" s="3" t="n">
         <v>43405</v>
       </c>
-      <c r="BE204" t="n">
+      <c r="BF204" t="n">
         <v>1447.030039824213</v>
       </c>
-      <c r="BF204" t="n">
+      <c r="BG204" t="n">
         <v>1243.5</v>
       </c>
-      <c r="BG204" t="n">
+      <c r="BH204" t="n">
         <v>1368.3</v>
+      </c>
+      <c r="BI204" t="n">
+        <v>1447.030039824213</v>
       </c>
     </row>
     <row r="205">
@@ -35088,17 +36124,23 @@
       <c r="BC205" t="n">
         <v>1220.9</v>
       </c>
-      <c r="BD205" s="3" t="n">
+      <c r="BD205" t="n">
+        <v>1220.9</v>
+      </c>
+      <c r="BE205" s="3" t="n">
         <v>43435</v>
       </c>
-      <c r="BE205" t="n">
+      <c r="BF205" t="n">
         <v>1447.030039824213</v>
       </c>
-      <c r="BF205" t="n">
+      <c r="BG205" t="n">
         <v>1243.5</v>
       </c>
-      <c r="BG205" t="n">
+      <c r="BH205" t="n">
         <v>1368.3</v>
+      </c>
+      <c r="BI205" t="n">
+        <v>1447.030039824213</v>
       </c>
     </row>
     <row r="206">
@@ -35267,17 +36309,23 @@
       <c r="BC206" t="n">
         <v>1220.9</v>
       </c>
-      <c r="BD206" s="3" t="n">
+      <c r="BD206" t="n">
+        <v>1705</v>
+      </c>
+      <c r="BE206" s="3" t="n">
         <v>43466</v>
       </c>
-      <c r="BE206" t="n">
+      <c r="BF206" t="n">
         <v>1447.030039824213</v>
       </c>
-      <c r="BF206" t="n">
+      <c r="BG206" t="n">
         <v>1243.5</v>
       </c>
-      <c r="BG206" t="n">
+      <c r="BH206" t="n">
         <v>1368.3</v>
+      </c>
+      <c r="BI206" t="n">
+        <v>1166.959709535656</v>
       </c>
     </row>
     <row r="207">
@@ -35446,17 +36494,23 @@
       <c r="BC207" t="n">
         <v>1220.9</v>
       </c>
-      <c r="BD207" s="3" t="n">
+      <c r="BD207" t="n">
+        <v>1705</v>
+      </c>
+      <c r="BE207" s="3" t="n">
         <v>43497</v>
       </c>
-      <c r="BE207" t="n">
+      <c r="BF207" t="n">
         <v>1447.030039824213</v>
       </c>
-      <c r="BF207" t="n">
+      <c r="BG207" t="n">
         <v>1243.5</v>
       </c>
-      <c r="BG207" t="n">
+      <c r="BH207" t="n">
         <v>1368.3</v>
+      </c>
+      <c r="BI207" t="n">
+        <v>1166.959709535656</v>
       </c>
     </row>
     <row r="208">
@@ -35625,17 +36679,23 @@
       <c r="BC208" t="n">
         <v>1705</v>
       </c>
-      <c r="BD208" s="3" t="n">
+      <c r="BD208" t="n">
+        <v>1705</v>
+      </c>
+      <c r="BE208" s="3" t="n">
         <v>43525</v>
       </c>
-      <c r="BE208" t="n">
+      <c r="BF208" t="n">
         <v>1705</v>
       </c>
-      <c r="BF208" t="n">
+      <c r="BG208" t="n">
         <v>1220.9</v>
       </c>
-      <c r="BG208" t="n">
+      <c r="BH208" t="n">
         <v>1243.5</v>
+      </c>
+      <c r="BI208" t="n">
+        <v>1166.959709535656</v>
       </c>
     </row>
     <row r="209">
@@ -35804,17 +36864,23 @@
       <c r="BC209" t="n">
         <v>1705</v>
       </c>
-      <c r="BD209" s="3" t="n">
+      <c r="BD209" t="n">
+        <v>1705</v>
+      </c>
+      <c r="BE209" s="3" t="n">
         <v>43556</v>
       </c>
-      <c r="BE209" t="n">
+      <c r="BF209" t="n">
         <v>1705</v>
       </c>
-      <c r="BF209" t="n">
+      <c r="BG209" t="n">
         <v>1220.9</v>
       </c>
-      <c r="BG209" t="n">
+      <c r="BH209" t="n">
         <v>1243.5</v>
+      </c>
+      <c r="BI209" t="n">
+        <v>1166.959709535656</v>
       </c>
     </row>
     <row r="210">
@@ -35983,17 +37049,23 @@
       <c r="BC210" t="n">
         <v>1705</v>
       </c>
-      <c r="BD210" s="3" t="n">
+      <c r="BD210" t="n">
+        <v>1705</v>
+      </c>
+      <c r="BE210" s="3" t="n">
         <v>43586</v>
       </c>
-      <c r="BE210" t="n">
+      <c r="BF210" t="n">
         <v>1705</v>
       </c>
-      <c r="BF210" t="n">
+      <c r="BG210" t="n">
         <v>1220.9</v>
       </c>
-      <c r="BG210" t="n">
+      <c r="BH210" t="n">
         <v>1243.5</v>
+      </c>
+      <c r="BI210" t="n">
+        <v>1166.959709535656</v>
       </c>
     </row>
     <row r="211">
@@ -36162,17 +37234,23 @@
       <c r="BC211" t="n">
         <v>1705</v>
       </c>
-      <c r="BD211" s="3" t="n">
+      <c r="BD211" t="n">
+        <v>1705</v>
+      </c>
+      <c r="BE211" s="3" t="n">
         <v>43617</v>
       </c>
-      <c r="BE211" t="n">
+      <c r="BF211" t="n">
         <v>1705</v>
       </c>
-      <c r="BF211" t="n">
+      <c r="BG211" t="n">
         <v>1220.9</v>
       </c>
-      <c r="BG211" t="n">
+      <c r="BH211" t="n">
         <v>1243.5</v>
+      </c>
+      <c r="BI211" t="n">
+        <v>1166.959709535656</v>
       </c>
     </row>
     <row r="212">
@@ -36341,17 +37419,23 @@
       <c r="BC212" t="n">
         <v>1705</v>
       </c>
-      <c r="BD212" s="3" t="n">
+      <c r="BD212" t="n">
+        <v>1705</v>
+      </c>
+      <c r="BE212" s="3" t="n">
         <v>43647</v>
       </c>
-      <c r="BE212" t="n">
+      <c r="BF212" t="n">
         <v>1166.959709535656</v>
       </c>
-      <c r="BF212" t="n">
+      <c r="BG212" t="n">
         <v>1220.9</v>
       </c>
-      <c r="BG212" t="n">
+      <c r="BH212" t="n">
         <v>1243.5</v>
+      </c>
+      <c r="BI212" t="n">
+        <v>1166.959709535656</v>
       </c>
     </row>
     <row r="213">
@@ -36520,17 +37604,23 @@
       <c r="BC213" t="n">
         <v>1705</v>
       </c>
-      <c r="BD213" s="3" t="n">
+      <c r="BD213" t="n">
+        <v>1705</v>
+      </c>
+      <c r="BE213" s="3" t="n">
         <v>43678</v>
       </c>
-      <c r="BE213" t="n">
+      <c r="BF213" t="n">
         <v>1166.959709535656</v>
       </c>
-      <c r="BF213" t="n">
+      <c r="BG213" t="n">
         <v>1220.9</v>
       </c>
-      <c r="BG213" t="n">
+      <c r="BH213" t="n">
         <v>1243.5</v>
+      </c>
+      <c r="BI213" t="n">
+        <v>1166.959709535656</v>
       </c>
     </row>
     <row r="214">
@@ -36699,17 +37789,23 @@
       <c r="BC214" t="n">
         <v>1705</v>
       </c>
-      <c r="BD214" s="3" t="n">
+      <c r="BD214" t="n">
+        <v>1705</v>
+      </c>
+      <c r="BE214" s="3" t="n">
         <v>43709</v>
       </c>
-      <c r="BE214" t="n">
+      <c r="BF214" t="n">
         <v>1166.959709535656</v>
       </c>
-      <c r="BF214" t="n">
+      <c r="BG214" t="n">
         <v>1220.9</v>
       </c>
-      <c r="BG214" t="n">
+      <c r="BH214" t="n">
         <v>1243.5</v>
+      </c>
+      <c r="BI214" t="n">
+        <v>1166.959709535656</v>
       </c>
     </row>
     <row r="215">
@@ -36878,17 +37974,23 @@
       <c r="BC215" t="n">
         <v>1705</v>
       </c>
-      <c r="BD215" s="3" t="n">
+      <c r="BD215" t="n">
+        <v>1705</v>
+      </c>
+      <c r="BE215" s="3" t="n">
         <v>43739</v>
       </c>
-      <c r="BE215" t="n">
+      <c r="BF215" t="n">
         <v>1166.959709535656</v>
       </c>
-      <c r="BF215" t="n">
+      <c r="BG215" t="n">
         <v>1220.9</v>
       </c>
-      <c r="BG215" t="n">
+      <c r="BH215" t="n">
         <v>1243.5</v>
+      </c>
+      <c r="BI215" t="n">
+        <v>1166.959709535656</v>
       </c>
     </row>
     <row r="216">
@@ -37057,17 +38159,23 @@
       <c r="BC216" t="n">
         <v>1705</v>
       </c>
-      <c r="BD216" s="3" t="n">
+      <c r="BD216" t="n">
+        <v>1705</v>
+      </c>
+      <c r="BE216" s="3" t="n">
         <v>43770</v>
       </c>
-      <c r="BE216" t="n">
+      <c r="BF216" t="n">
         <v>1166.959709535656</v>
       </c>
-      <c r="BF216" t="n">
+      <c r="BG216" t="n">
         <v>1220.9</v>
       </c>
-      <c r="BG216" t="n">
+      <c r="BH216" t="n">
         <v>1243.5</v>
+      </c>
+      <c r="BI216" t="n">
+        <v>1166.959709535656</v>
       </c>
     </row>
     <row r="217">
@@ -37236,17 +38344,23 @@
       <c r="BC217" t="n">
         <v>1705</v>
       </c>
-      <c r="BD217" s="3" t="n">
+      <c r="BD217" t="n">
+        <v>1705</v>
+      </c>
+      <c r="BE217" s="3" t="n">
         <v>43800</v>
       </c>
-      <c r="BE217" t="n">
+      <c r="BF217" t="n">
         <v>1166.959709535656</v>
       </c>
-      <c r="BF217" t="n">
+      <c r="BG217" t="n">
         <v>1220.9</v>
       </c>
-      <c r="BG217" t="n">
+      <c r="BH217" t="n">
         <v>1243.5</v>
+      </c>
+      <c r="BI217" t="n">
+        <v>1166.959709535656</v>
       </c>
     </row>
     <row r="218">
@@ -37415,17 +38529,23 @@
       <c r="BC218" t="n">
         <v>1705</v>
       </c>
-      <c r="BD218" s="3" t="n">
+      <c r="BD218" t="n">
+        <v>1105</v>
+      </c>
+      <c r="BE218" s="3" t="n">
         <v>43831</v>
       </c>
-      <c r="BE218" t="n">
+      <c r="BF218" t="n">
         <v>1166.959709535656</v>
       </c>
-      <c r="BF218" t="n">
+      <c r="BG218" t="n">
         <v>1220.9</v>
       </c>
-      <c r="BG218" t="n">
+      <c r="BH218" t="n">
         <v>1243.5</v>
+      </c>
+      <c r="BI218" t="n">
+        <v>1447.030039824213</v>
       </c>
     </row>
     <row r="219">
@@ -37594,17 +38714,23 @@
       <c r="BC219" t="n">
         <v>1705</v>
       </c>
-      <c r="BD219" s="3" t="n">
+      <c r="BD219" t="n">
+        <v>1105</v>
+      </c>
+      <c r="BE219" s="3" t="n">
         <v>43862</v>
       </c>
-      <c r="BE219" t="n">
+      <c r="BF219" t="n">
         <v>1166.959709535656</v>
       </c>
-      <c r="BF219" t="n">
+      <c r="BG219" t="n">
         <v>1220.9</v>
       </c>
-      <c r="BG219" t="n">
+      <c r="BH219" t="n">
         <v>1243.5</v>
+      </c>
+      <c r="BI219" t="n">
+        <v>1447.030039824213</v>
       </c>
     </row>
     <row r="220">
@@ -37773,17 +38899,23 @@
       <c r="BC220" t="n">
         <v>1105</v>
       </c>
-      <c r="BD220" s="3" t="n">
+      <c r="BD220" t="n">
+        <v>1105</v>
+      </c>
+      <c r="BE220" s="3" t="n">
         <v>43891</v>
       </c>
-      <c r="BE220" t="n">
+      <c r="BF220" t="n">
         <v>1105</v>
       </c>
-      <c r="BF220" t="n">
+      <c r="BG220" t="n">
         <v>1705</v>
       </c>
-      <c r="BG220" t="n">
+      <c r="BH220" t="n">
         <v>1220.9</v>
+      </c>
+      <c r="BI220" t="n">
+        <v>1447.030039824213</v>
       </c>
     </row>
     <row r="221">
@@ -37952,17 +39084,23 @@
       <c r="BC221" t="n">
         <v>1105</v>
       </c>
-      <c r="BD221" s="3" t="n">
+      <c r="BD221" t="n">
+        <v>1105</v>
+      </c>
+      <c r="BE221" s="3" t="n">
         <v>43922</v>
       </c>
-      <c r="BE221" t="n">
+      <c r="BF221" t="n">
         <v>1105</v>
       </c>
-      <c r="BF221" t="n">
+      <c r="BG221" t="n">
         <v>1705</v>
       </c>
-      <c r="BG221" t="n">
+      <c r="BH221" t="n">
         <v>1220.9</v>
+      </c>
+      <c r="BI221" t="n">
+        <v>1447.030039824213</v>
       </c>
     </row>
     <row r="222">
@@ -38131,17 +39269,23 @@
       <c r="BC222" t="n">
         <v>1105</v>
       </c>
-      <c r="BD222" s="3" t="n">
+      <c r="BD222" t="n">
+        <v>1105</v>
+      </c>
+      <c r="BE222" s="3" t="n">
         <v>43952</v>
       </c>
-      <c r="BE222" t="n">
+      <c r="BF222" t="n">
         <v>1105</v>
       </c>
-      <c r="BF222" t="n">
+      <c r="BG222" t="n">
         <v>1705</v>
       </c>
-      <c r="BG222" t="n">
+      <c r="BH222" t="n">
         <v>1220.9</v>
+      </c>
+      <c r="BI222" t="n">
+        <v>1447.030039824213</v>
       </c>
     </row>
     <row r="223">
@@ -38310,17 +39454,23 @@
       <c r="BC223" t="n">
         <v>1105</v>
       </c>
-      <c r="BD223" s="3" t="n">
+      <c r="BD223" t="n">
+        <v>1105</v>
+      </c>
+      <c r="BE223" s="3" t="n">
         <v>43983</v>
       </c>
-      <c r="BE223" t="n">
+      <c r="BF223" t="n">
         <v>1105</v>
       </c>
-      <c r="BF223" t="n">
+      <c r="BG223" t="n">
         <v>1705</v>
       </c>
-      <c r="BG223" t="n">
+      <c r="BH223" t="n">
         <v>1220.9</v>
+      </c>
+      <c r="BI223" t="n">
+        <v>1447.030039824213</v>
       </c>
     </row>
     <row r="224">
@@ -38489,17 +39639,23 @@
       <c r="BC224" t="n">
         <v>1105</v>
       </c>
-      <c r="BD224" s="3" t="n">
+      <c r="BD224" t="n">
+        <v>1105</v>
+      </c>
+      <c r="BE224" s="3" t="n">
         <v>44013</v>
       </c>
-      <c r="BE224" t="n">
+      <c r="BF224" t="n">
         <v>1447.030039824213</v>
       </c>
-      <c r="BF224" t="n">
+      <c r="BG224" t="n">
         <v>1705</v>
       </c>
-      <c r="BG224" t="n">
+      <c r="BH224" t="n">
         <v>1220.9</v>
+      </c>
+      <c r="BI224" t="n">
+        <v>1447.030039824213</v>
       </c>
     </row>
     <row r="225">
@@ -38668,17 +39824,23 @@
       <c r="BC225" t="n">
         <v>1105</v>
       </c>
-      <c r="BD225" s="3" t="n">
+      <c r="BD225" t="n">
+        <v>1105</v>
+      </c>
+      <c r="BE225" s="3" t="n">
         <v>44044</v>
       </c>
-      <c r="BE225" t="n">
+      <c r="BF225" t="n">
         <v>1447.030039824213</v>
       </c>
-      <c r="BF225" t="n">
+      <c r="BG225" t="n">
         <v>1705</v>
       </c>
-      <c r="BG225" t="n">
+      <c r="BH225" t="n">
         <v>1220.9</v>
+      </c>
+      <c r="BI225" t="n">
+        <v>1447.030039824213</v>
       </c>
     </row>
     <row r="226">
@@ -38847,17 +40009,23 @@
       <c r="BC226" t="n">
         <v>1105</v>
       </c>
-      <c r="BD226" s="3" t="n">
+      <c r="BD226" t="n">
+        <v>1105</v>
+      </c>
+      <c r="BE226" s="3" t="n">
         <v>44075</v>
       </c>
-      <c r="BE226" t="n">
+      <c r="BF226" t="n">
         <v>1447.030039824213</v>
       </c>
-      <c r="BF226" t="n">
+      <c r="BG226" t="n">
         <v>1705</v>
       </c>
-      <c r="BG226" t="n">
+      <c r="BH226" t="n">
         <v>1220.9</v>
+      </c>
+      <c r="BI226" t="n">
+        <v>1447.030039824213</v>
       </c>
     </row>
     <row r="227">
@@ -39026,17 +40194,23 @@
       <c r="BC227" t="n">
         <v>1105</v>
       </c>
-      <c r="BD227" s="3" t="n">
+      <c r="BD227" t="n">
+        <v>1105</v>
+      </c>
+      <c r="BE227" s="3" t="n">
         <v>44105</v>
       </c>
-      <c r="BE227" t="n">
+      <c r="BF227" t="n">
         <v>1447.030039824213</v>
       </c>
-      <c r="BF227" t="n">
+      <c r="BG227" t="n">
         <v>1705</v>
       </c>
-      <c r="BG227" t="n">
+      <c r="BH227" t="n">
         <v>1220.9</v>
+      </c>
+      <c r="BI227" t="n">
+        <v>1447.030039824213</v>
       </c>
     </row>
     <row r="228">
@@ -39205,17 +40379,23 @@
       <c r="BC228" t="n">
         <v>1105</v>
       </c>
-      <c r="BD228" s="3" t="n">
+      <c r="BD228" t="n">
+        <v>1105</v>
+      </c>
+      <c r="BE228" s="3" t="n">
         <v>44136</v>
       </c>
-      <c r="BE228" t="n">
+      <c r="BF228" t="n">
         <v>1447.030039824213</v>
       </c>
-      <c r="BF228" t="n">
+      <c r="BG228" t="n">
         <v>1705</v>
       </c>
-      <c r="BG228" t="n">
+      <c r="BH228" t="n">
         <v>1220.9</v>
+      </c>
+      <c r="BI228" t="n">
+        <v>1447.030039824213</v>
       </c>
     </row>
     <row r="229">
@@ -39384,17 +40564,23 @@
       <c r="BC229" t="n">
         <v>1105</v>
       </c>
-      <c r="BD229" s="3" t="n">
+      <c r="BD229" t="n">
+        <v>1105</v>
+      </c>
+      <c r="BE229" s="3" t="n">
         <v>44166</v>
       </c>
-      <c r="BE229" t="n">
+      <c r="BF229" t="n">
         <v>1447.030039824213</v>
       </c>
-      <c r="BF229" t="n">
+      <c r="BG229" t="n">
         <v>1705</v>
       </c>
-      <c r="BG229" t="n">
+      <c r="BH229" t="n">
         <v>1220.9</v>
+      </c>
+      <c r="BI229" t="n">
+        <v>1447.030039824213</v>
       </c>
     </row>
     <row r="230">
@@ -39563,17 +40749,23 @@
       <c r="BC230" t="n">
         <v>1105</v>
       </c>
-      <c r="BD230" s="3" t="n">
+      <c r="BD230" t="n">
+        <v>1336.9</v>
+      </c>
+      <c r="BE230" s="3" t="n">
         <v>44197</v>
       </c>
-      <c r="BE230" t="n">
+      <c r="BF230" t="n">
         <v>1447.030039824213</v>
       </c>
-      <c r="BF230" t="n">
+      <c r="BG230" t="n">
         <v>1705</v>
       </c>
-      <c r="BG230" t="n">
+      <c r="BH230" t="n">
         <v>1220.9</v>
+      </c>
+      <c r="BI230" t="n">
+        <v>1213.638097917082</v>
       </c>
     </row>
     <row r="231">
@@ -39742,17 +40934,23 @@
       <c r="BC231" t="n">
         <v>1105</v>
       </c>
-      <c r="BD231" s="3" t="n">
+      <c r="BD231" t="n">
+        <v>1336.9</v>
+      </c>
+      <c r="BE231" s="3" t="n">
         <v>44228</v>
       </c>
-      <c r="BE231" t="n">
+      <c r="BF231" t="n">
         <v>1447.030039824213</v>
       </c>
-      <c r="BF231" t="n">
+      <c r="BG231" t="n">
         <v>1705</v>
       </c>
-      <c r="BG231" t="n">
+      <c r="BH231" t="n">
         <v>1220.9</v>
+      </c>
+      <c r="BI231" t="n">
+        <v>1213.638097917082</v>
       </c>
     </row>
     <row r="232">
@@ -39921,17 +41119,23 @@
       <c r="BC232" t="n">
         <v>1336.9</v>
       </c>
-      <c r="BD232" s="3" t="n">
+      <c r="BD232" t="n">
+        <v>1336.9</v>
+      </c>
+      <c r="BE232" s="3" t="n">
         <v>44256</v>
       </c>
-      <c r="BE232" t="n">
+      <c r="BF232" t="n">
         <v>1336.9</v>
       </c>
-      <c r="BF232" t="n">
+      <c r="BG232" t="n">
         <v>1105</v>
       </c>
-      <c r="BG232" t="n">
+      <c r="BH232" t="n">
         <v>1705</v>
+      </c>
+      <c r="BI232" t="n">
+        <v>1213.638097917082</v>
       </c>
     </row>
     <row r="233">
@@ -40100,17 +41304,23 @@
       <c r="BC233" t="n">
         <v>1336.9</v>
       </c>
-      <c r="BD233" s="3" t="n">
+      <c r="BD233" t="n">
+        <v>1336.9</v>
+      </c>
+      <c r="BE233" s="3" t="n">
         <v>44287</v>
       </c>
-      <c r="BE233" t="n">
+      <c r="BF233" t="n">
         <v>1336.9</v>
       </c>
-      <c r="BF233" t="n">
+      <c r="BG233" t="n">
         <v>1105</v>
       </c>
-      <c r="BG233" t="n">
+      <c r="BH233" t="n">
         <v>1705</v>
+      </c>
+      <c r="BI233" t="n">
+        <v>1213.638097917082</v>
       </c>
     </row>
     <row r="234">
@@ -40279,17 +41489,23 @@
       <c r="BC234" t="n">
         <v>1336.9</v>
       </c>
-      <c r="BD234" s="3" t="n">
+      <c r="BD234" t="n">
+        <v>1336.9</v>
+      </c>
+      <c r="BE234" s="3" t="n">
         <v>44317</v>
       </c>
-      <c r="BE234" t="n">
+      <c r="BF234" t="n">
         <v>1336.9</v>
       </c>
-      <c r="BF234" t="n">
+      <c r="BG234" t="n">
         <v>1105</v>
       </c>
-      <c r="BG234" t="n">
+      <c r="BH234" t="n">
         <v>1705</v>
+      </c>
+      <c r="BI234" t="n">
+        <v>1213.638097917082</v>
       </c>
     </row>
     <row r="235">
@@ -40458,17 +41674,23 @@
       <c r="BC235" t="n">
         <v>1336.9</v>
       </c>
-      <c r="BD235" s="3" t="n">
+      <c r="BD235" t="n">
+        <v>1336.9</v>
+      </c>
+      <c r="BE235" s="3" t="n">
         <v>44348</v>
       </c>
-      <c r="BE235" t="n">
+      <c r="BF235" t="n">
         <v>1336.9</v>
       </c>
-      <c r="BF235" t="n">
+      <c r="BG235" t="n">
         <v>1105</v>
       </c>
-      <c r="BG235" t="n">
+      <c r="BH235" t="n">
         <v>1705</v>
+      </c>
+      <c r="BI235" t="n">
+        <v>1213.638097917082</v>
       </c>
     </row>
     <row r="236">
@@ -40637,17 +41859,23 @@
       <c r="BC236" t="n">
         <v>1336.9</v>
       </c>
-      <c r="BD236" s="3" t="n">
+      <c r="BD236" t="n">
+        <v>1336.9</v>
+      </c>
+      <c r="BE236" s="3" t="n">
         <v>44378</v>
       </c>
-      <c r="BE236" t="n">
+      <c r="BF236" t="n">
         <v>1213.638097917082</v>
       </c>
-      <c r="BF236" t="n">
+      <c r="BG236" t="n">
         <v>1105</v>
       </c>
-      <c r="BG236" t="n">
+      <c r="BH236" t="n">
         <v>1705</v>
+      </c>
+      <c r="BI236" t="n">
+        <v>1213.638097917082</v>
       </c>
     </row>
     <row r="237">
@@ -40816,17 +42044,23 @@
       <c r="BC237" t="n">
         <v>1336.9</v>
       </c>
-      <c r="BD237" s="3" t="n">
+      <c r="BD237" t="n">
+        <v>1336.9</v>
+      </c>
+      <c r="BE237" s="3" t="n">
         <v>44409</v>
       </c>
-      <c r="BE237" t="n">
+      <c r="BF237" t="n">
         <v>1213.638097917082</v>
       </c>
-      <c r="BF237" t="n">
+      <c r="BG237" t="n">
         <v>1105</v>
       </c>
-      <c r="BG237" t="n">
+      <c r="BH237" t="n">
         <v>1705</v>
+      </c>
+      <c r="BI237" t="n">
+        <v>1213.638097917082</v>
       </c>
     </row>
     <row r="238">
@@ -40995,17 +42229,23 @@
       <c r="BC238" t="n">
         <v>1336.9</v>
       </c>
-      <c r="BD238" s="3" t="n">
+      <c r="BD238" t="n">
+        <v>1336.9</v>
+      </c>
+      <c r="BE238" s="3" t="n">
         <v>44440</v>
       </c>
-      <c r="BE238" t="n">
+      <c r="BF238" t="n">
         <v>1213.638097917082</v>
       </c>
-      <c r="BF238" t="n">
+      <c r="BG238" t="n">
         <v>1105</v>
       </c>
-      <c r="BG238" t="n">
+      <c r="BH238" t="n">
         <v>1705</v>
+      </c>
+      <c r="BI238" t="n">
+        <v>1213.638097917082</v>
       </c>
     </row>
     <row r="239">
@@ -41174,17 +42414,23 @@
       <c r="BC239" t="n">
         <v>1336.9</v>
       </c>
-      <c r="BD239" s="3" t="n">
+      <c r="BD239" t="n">
+        <v>1336.9</v>
+      </c>
+      <c r="BE239" s="3" t="n">
         <v>44470</v>
       </c>
-      <c r="BE239" t="n">
+      <c r="BF239" t="n">
         <v>1213.638097917082</v>
       </c>
-      <c r="BF239" t="n">
+      <c r="BG239" t="n">
         <v>1105</v>
       </c>
-      <c r="BG239" t="n">
+      <c r="BH239" t="n">
         <v>1705</v>
+      </c>
+      <c r="BI239" t="n">
+        <v>1213.638097917082</v>
       </c>
     </row>
     <row r="240">
@@ -41353,17 +42599,23 @@
       <c r="BC240" t="n">
         <v>1336.9</v>
       </c>
-      <c r="BD240" s="3" t="n">
+      <c r="BD240" t="n">
+        <v>1336.9</v>
+      </c>
+      <c r="BE240" s="3" t="n">
         <v>44501</v>
       </c>
-      <c r="BE240" t="n">
+      <c r="BF240" t="n">
         <v>1213.638097917082</v>
       </c>
-      <c r="BF240" t="n">
+      <c r="BG240" t="n">
         <v>1105</v>
       </c>
-      <c r="BG240" t="n">
+      <c r="BH240" t="n">
         <v>1705</v>
+      </c>
+      <c r="BI240" t="n">
+        <v>1213.638097917082</v>
       </c>
     </row>
     <row r="241">
@@ -41532,17 +42784,23 @@
       <c r="BC241" t="n">
         <v>1336.9</v>
       </c>
-      <c r="BD241" s="3" t="n">
+      <c r="BD241" t="n">
+        <v>1336.9</v>
+      </c>
+      <c r="BE241" s="3" t="n">
         <v>44531</v>
       </c>
-      <c r="BE241" t="n">
+      <c r="BF241" t="n">
         <v>1213.638097917082</v>
       </c>
-      <c r="BF241" t="n">
+      <c r="BG241" t="n">
         <v>1105</v>
       </c>
-      <c r="BG241" t="n">
+      <c r="BH241" t="n">
         <v>1705</v>
+      </c>
+      <c r="BI241" t="n">
+        <v>1213.638097917082</v>
       </c>
     </row>
     <row r="242">
@@ -41711,17 +42969,23 @@
       <c r="BC242" t="n">
         <v>1336.9</v>
       </c>
-      <c r="BD242" s="3" t="n">
+      <c r="BD242" t="n">
+        <v>1462.2</v>
+      </c>
+      <c r="BE242" s="3" t="n">
         <v>44562</v>
       </c>
-      <c r="BE242" t="n">
+      <c r="BF242" t="n">
         <v>1213.638097917082</v>
       </c>
-      <c r="BF242" t="n">
+      <c r="BG242" t="n">
         <v>1105</v>
       </c>
-      <c r="BG242" t="n">
+      <c r="BH242" t="n">
         <v>1705</v>
+      </c>
+      <c r="BI242" t="n">
+        <v>728.1828587502494</v>
       </c>
     </row>
     <row r="243">
@@ -41890,17 +43154,23 @@
       <c r="BC243" t="n">
         <v>1336.9</v>
       </c>
-      <c r="BD243" s="3" t="n">
+      <c r="BD243" t="n">
+        <v>1462.2</v>
+      </c>
+      <c r="BE243" s="3" t="n">
         <v>44593</v>
       </c>
-      <c r="BE243" t="n">
+      <c r="BF243" t="n">
         <v>1213.638097917082</v>
       </c>
-      <c r="BF243" t="n">
+      <c r="BG243" t="n">
         <v>1105</v>
       </c>
-      <c r="BG243" t="n">
+      <c r="BH243" t="n">
         <v>1705</v>
+      </c>
+      <c r="BI243" t="n">
+        <v>728.1828587502494</v>
       </c>
     </row>
     <row r="244">
@@ -42069,17 +43339,23 @@
       <c r="BC244" t="n">
         <v>1462.2</v>
       </c>
-      <c r="BD244" s="3" t="n">
+      <c r="BD244" t="n">
+        <v>1462.2</v>
+      </c>
+      <c r="BE244" s="3" t="n">
         <v>44621</v>
       </c>
-      <c r="BE244" t="n">
+      <c r="BF244" t="n">
         <v>1462.2</v>
       </c>
-      <c r="BF244" t="n">
+      <c r="BG244" t="n">
         <v>1336.9</v>
       </c>
-      <c r="BG244" t="n">
+      <c r="BH244" t="n">
         <v>1105</v>
+      </c>
+      <c r="BI244" t="n">
+        <v>728.1828587502494</v>
       </c>
     </row>
     <row r="245">
@@ -42248,17 +43524,23 @@
       <c r="BC245" t="n">
         <v>1462.2</v>
       </c>
-      <c r="BD245" s="3" t="n">
+      <c r="BD245" t="n">
+        <v>1462.2</v>
+      </c>
+      <c r="BE245" s="3" t="n">
         <v>44652</v>
       </c>
-      <c r="BE245" t="n">
+      <c r="BF245" t="n">
         <v>1462.2</v>
       </c>
-      <c r="BF245" t="n">
+      <c r="BG245" t="n">
         <v>1336.9</v>
       </c>
-      <c r="BG245" t="n">
+      <c r="BH245" t="n">
         <v>1105</v>
+      </c>
+      <c r="BI245" t="n">
+        <v>728.1828587502494</v>
       </c>
     </row>
     <row r="246">
@@ -42427,17 +43709,23 @@
       <c r="BC246" t="n">
         <v>1462.2</v>
       </c>
-      <c r="BD246" s="3" t="n">
+      <c r="BD246" t="n">
+        <v>1462.2</v>
+      </c>
+      <c r="BE246" s="3" t="n">
         <v>44682</v>
       </c>
-      <c r="BE246" t="n">
+      <c r="BF246" t="n">
         <v>1462.2</v>
       </c>
-      <c r="BF246" t="n">
+      <c r="BG246" t="n">
         <v>1336.9</v>
       </c>
-      <c r="BG246" t="n">
+      <c r="BH246" t="n">
         <v>1105</v>
+      </c>
+      <c r="BI246" t="n">
+        <v>728.1828587502494</v>
       </c>
     </row>
     <row r="247">
@@ -42606,17 +43894,23 @@
       <c r="BC247" t="n">
         <v>1462.2</v>
       </c>
-      <c r="BD247" s="3" t="n">
+      <c r="BD247" t="n">
+        <v>1462.2</v>
+      </c>
+      <c r="BE247" s="3" t="n">
         <v>44713</v>
       </c>
-      <c r="BE247" t="n">
+      <c r="BF247" t="n">
         <v>1462.2</v>
       </c>
-      <c r="BF247" t="n">
+      <c r="BG247" t="n">
         <v>1336.9</v>
       </c>
-      <c r="BG247" t="n">
+      <c r="BH247" t="n">
         <v>1105</v>
+      </c>
+      <c r="BI247" t="n">
+        <v>728.1828587502494</v>
       </c>
     </row>
     <row r="248">
@@ -42785,17 +44079,23 @@
       <c r="BC248" t="n">
         <v>1462.2</v>
       </c>
-      <c r="BD248" s="3" t="n">
+      <c r="BD248" t="n">
+        <v>1462.2</v>
+      </c>
+      <c r="BE248" s="3" t="n">
         <v>44743</v>
       </c>
-      <c r="BE248" t="n">
+      <c r="BF248" t="n">
         <v>728.1828587502494</v>
       </c>
-      <c r="BF248" t="n">
+      <c r="BG248" t="n">
         <v>1336.9</v>
       </c>
-      <c r="BG248" t="n">
+      <c r="BH248" t="n">
         <v>1105</v>
+      </c>
+      <c r="BI248" t="n">
+        <v>728.1828587502494</v>
       </c>
     </row>
     <row r="249">
@@ -42964,17 +44264,23 @@
       <c r="BC249" t="n">
         <v>1462.2</v>
       </c>
-      <c r="BD249" s="3" t="n">
+      <c r="BD249" t="n">
+        <v>1462.2</v>
+      </c>
+      <c r="BE249" s="3" t="n">
         <v>44774</v>
       </c>
-      <c r="BE249" t="n">
+      <c r="BF249" t="n">
         <v>728.1828587502494</v>
       </c>
-      <c r="BF249" t="n">
+      <c r="BG249" t="n">
         <v>1336.9</v>
       </c>
-      <c r="BG249" t="n">
+      <c r="BH249" t="n">
         <v>1105</v>
+      </c>
+      <c r="BI249" t="n">
+        <v>728.1828587502494</v>
       </c>
     </row>
     <row r="250">
@@ -43143,17 +44449,23 @@
       <c r="BC250" t="n">
         <v>1462.2</v>
       </c>
-      <c r="BD250" s="3" t="n">
+      <c r="BD250" t="n">
+        <v>1462.2</v>
+      </c>
+      <c r="BE250" s="3" t="n">
         <v>44805</v>
       </c>
-      <c r="BE250" t="n">
+      <c r="BF250" t="n">
         <v>728.1828587502494</v>
       </c>
-      <c r="BF250" t="n">
+      <c r="BG250" t="n">
         <v>1336.9</v>
       </c>
-      <c r="BG250" t="n">
+      <c r="BH250" t="n">
         <v>1105</v>
+      </c>
+      <c r="BI250" t="n">
+        <v>728.1828587502494</v>
       </c>
     </row>
     <row r="251">
@@ -43322,17 +44634,23 @@
       <c r="BC251" t="n">
         <v>1462.2</v>
       </c>
-      <c r="BD251" s="3" t="n">
+      <c r="BD251" t="n">
+        <v>1462.2</v>
+      </c>
+      <c r="BE251" s="3" t="n">
         <v>44835</v>
       </c>
-      <c r="BE251" t="n">
+      <c r="BF251" t="n">
         <v>728.1828587502494</v>
       </c>
-      <c r="BF251" t="n">
+      <c r="BG251" t="n">
         <v>1336.9</v>
       </c>
-      <c r="BG251" t="n">
+      <c r="BH251" t="n">
         <v>1105</v>
+      </c>
+      <c r="BI251" t="n">
+        <v>728.1828587502494</v>
       </c>
     </row>
     <row r="252">
@@ -43501,17 +44819,23 @@
       <c r="BC252" t="n">
         <v>1462.2</v>
       </c>
-      <c r="BD252" s="3" t="n">
+      <c r="BD252" t="n">
+        <v>1462.2</v>
+      </c>
+      <c r="BE252" s="3" t="n">
         <v>44866</v>
       </c>
-      <c r="BE252" t="n">
+      <c r="BF252" t="n">
         <v>728.1828587502494</v>
       </c>
-      <c r="BF252" t="n">
+      <c r="BG252" t="n">
         <v>1336.9</v>
       </c>
-      <c r="BG252" t="n">
+      <c r="BH252" t="n">
         <v>1105</v>
+      </c>
+      <c r="BI252" t="n">
+        <v>728.1828587502494</v>
       </c>
     </row>
     <row r="253">
@@ -43680,17 +45004,23 @@
       <c r="BC253" t="n">
         <v>1462.2</v>
       </c>
-      <c r="BD253" s="3" t="n">
+      <c r="BD253" t="n">
+        <v>1462.2</v>
+      </c>
+      <c r="BE253" s="3" t="n">
         <v>44896</v>
       </c>
-      <c r="BE253" t="n">
+      <c r="BF253" t="n">
         <v>728.1828587502494</v>
       </c>
-      <c r="BF253" t="n">
+      <c r="BG253" t="n">
         <v>1336.9</v>
       </c>
-      <c r="BG253" t="n">
+      <c r="BH253" t="n">
         <v>1105</v>
+      </c>
+      <c r="BI253" t="n">
+        <v>728.1828587502494</v>
       </c>
     </row>
     <row r="254">
@@ -43859,17 +45189,23 @@
       <c r="BC254" t="n">
         <v>1462.2</v>
       </c>
-      <c r="BD254" s="3" t="n">
+      <c r="BD254" t="n">
+        <v>653.4</v>
+      </c>
+      <c r="BE254" s="3" t="n">
         <v>44927</v>
       </c>
-      <c r="BE254" t="n">
+      <c r="BF254" t="n">
         <v>728.1828587502494</v>
       </c>
-      <c r="BF254" t="n">
+      <c r="BG254" t="n">
         <v>1336.9</v>
       </c>
-      <c r="BG254" t="n">
+      <c r="BH254" t="n">
         <v>1105</v>
+      </c>
+      <c r="BI254" t="n">
+        <v>714.1793422358214</v>
       </c>
     </row>
     <row r="255">
@@ -43996,17 +45332,23 @@
       <c r="BC255" t="n">
         <v>1462.2</v>
       </c>
-      <c r="BD255" s="3" t="n">
+      <c r="BD255" t="n">
+        <v>653.4</v>
+      </c>
+      <c r="BE255" s="3" t="n">
         <v>44958</v>
       </c>
-      <c r="BE255" t="n">
+      <c r="BF255" t="n">
         <v>728.1828587502494</v>
       </c>
-      <c r="BF255" t="n">
+      <c r="BG255" t="n">
         <v>1336.9</v>
       </c>
-      <c r="BG255" t="n">
+      <c r="BH255" t="n">
         <v>1105</v>
+      </c>
+      <c r="BI255" t="n">
+        <v>714.1793422358214</v>
       </c>
     </row>
     <row r="256">
@@ -44133,17 +45475,23 @@
       <c r="BC256" t="n">
         <v>653.4</v>
       </c>
-      <c r="BD256" s="3" t="n">
+      <c r="BD256" t="n">
+        <v>653.4</v>
+      </c>
+      <c r="BE256" s="3" t="n">
         <v>44986</v>
       </c>
-      <c r="BE256" t="n">
+      <c r="BF256" t="n">
         <v>653.4</v>
       </c>
-      <c r="BF256" t="n">
+      <c r="BG256" t="n">
         <v>1462.2</v>
       </c>
-      <c r="BG256" t="n">
+      <c r="BH256" t="n">
         <v>1336.9</v>
+      </c>
+      <c r="BI256" t="n">
+        <v>714.1793422358214</v>
       </c>
     </row>
     <row r="257">
@@ -44268,17 +45616,23 @@
         <v>2023</v>
       </c>
       <c r="BC257" t="inlineStr"/>
-      <c r="BD257" s="3" t="n">
+      <c r="BD257" t="n">
+        <v>653.4</v>
+      </c>
+      <c r="BE257" s="3" t="n">
         <v>45017</v>
       </c>
-      <c r="BE257" t="n">
+      <c r="BF257" t="n">
         <v>653.4</v>
       </c>
-      <c r="BF257" t="n">
+      <c r="BG257" t="n">
         <v>1462.2</v>
       </c>
-      <c r="BG257" t="n">
+      <c r="BH257" t="n">
         <v>1336.9</v>
+      </c>
+      <c r="BI257" t="n">
+        <v>714.1793422358214</v>
       </c>
     </row>
     <row r="258">
@@ -44403,17 +45757,23 @@
         <v>2023</v>
       </c>
       <c r="BC258" t="inlineStr"/>
-      <c r="BD258" s="3" t="n">
+      <c r="BD258" t="n">
+        <v>653.4</v>
+      </c>
+      <c r="BE258" s="3" t="n">
         <v>45047</v>
       </c>
-      <c r="BE258" t="n">
+      <c r="BF258" t="n">
         <v>653.4</v>
       </c>
-      <c r="BF258" t="n">
+      <c r="BG258" t="n">
         <v>1462.2</v>
       </c>
-      <c r="BG258" t="n">
+      <c r="BH258" t="n">
         <v>1336.9</v>
+      </c>
+      <c r="BI258" t="n">
+        <v>714.1793422358214</v>
       </c>
     </row>
     <row r="259">
@@ -44538,17 +45898,23 @@
         <v>2023</v>
       </c>
       <c r="BC259" t="inlineStr"/>
-      <c r="BD259" s="3" t="n">
+      <c r="BD259" t="n">
+        <v>653.4</v>
+      </c>
+      <c r="BE259" s="3" t="n">
         <v>45078</v>
       </c>
-      <c r="BE259" t="n">
+      <c r="BF259" t="n">
         <v>653.4</v>
       </c>
-      <c r="BF259" t="n">
+      <c r="BG259" t="n">
         <v>1462.2</v>
       </c>
-      <c r="BG259" t="n">
+      <c r="BH259" t="n">
         <v>1336.9</v>
+      </c>
+      <c r="BI259" t="n">
+        <v>714.1793422358214</v>
       </c>
     </row>
     <row r="260">
@@ -44661,17 +46027,23 @@
         <v>2023</v>
       </c>
       <c r="BC260" t="inlineStr"/>
-      <c r="BD260" s="3" t="n">
+      <c r="BD260" t="n">
+        <v>653.4</v>
+      </c>
+      <c r="BE260" s="3" t="n">
         <v>45108</v>
       </c>
-      <c r="BE260" t="n">
+      <c r="BF260" t="n">
         <v>714.1793422358214</v>
       </c>
-      <c r="BF260" t="n">
+      <c r="BG260" t="n">
         <v>1462.2</v>
       </c>
-      <c r="BG260" t="n">
+      <c r="BH260" t="n">
         <v>1336.9</v>
+      </c>
+      <c r="BI260" t="n">
+        <v>714.1793422358214</v>
       </c>
     </row>
     <row r="261">
@@ -44776,17 +46148,23 @@
         <v>2023</v>
       </c>
       <c r="BC261" t="inlineStr"/>
-      <c r="BD261" s="3" t="n">
+      <c r="BD261" t="n">
+        <v>653.4</v>
+      </c>
+      <c r="BE261" s="3" t="n">
         <v>45139</v>
       </c>
-      <c r="BE261" t="n">
+      <c r="BF261" t="n">
         <v>714.1793422358214</v>
       </c>
-      <c r="BF261" t="n">
+      <c r="BG261" t="n">
         <v>1462.2</v>
       </c>
-      <c r="BG261" t="n">
+      <c r="BH261" t="n">
         <v>1336.9</v>
+      </c>
+      <c r="BI261" t="n">
+        <v>714.1793422358214</v>
       </c>
     </row>
     <row r="262">
@@ -44879,17 +46257,23 @@
         <v>2023</v>
       </c>
       <c r="BC262" t="inlineStr"/>
-      <c r="BD262" s="3" t="n">
+      <c r="BD262" t="n">
+        <v>653.4</v>
+      </c>
+      <c r="BE262" s="3" t="n">
         <v>45170</v>
       </c>
-      <c r="BE262" t="n">
+      <c r="BF262" t="n">
         <v>714.1793422358214</v>
       </c>
-      <c r="BF262" t="n">
+      <c r="BG262" t="n">
         <v>1462.2</v>
       </c>
-      <c r="BG262" t="n">
+      <c r="BH262" t="n">
         <v>1336.9</v>
+      </c>
+      <c r="BI262" t="n">
+        <v>714.1793422358214</v>
       </c>
     </row>
   </sheetData>

--- a/Output/Excel/df_month.xlsx
+++ b/Output/Excel/df_month.xlsx
@@ -16864,9 +16864,7 @@
       <c r="BH98" t="n">
         <v>1009.7</v>
       </c>
-      <c r="BI98" t="n">
-        <v>1260.316486298508</v>
-      </c>
+      <c r="BI98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
@@ -17043,9 +17041,7 @@
       <c r="BH99" t="n">
         <v>1009.7</v>
       </c>
-      <c r="BI99" t="n">
-        <v>1260.316486298508</v>
-      </c>
+      <c r="BI99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
@@ -17222,9 +17218,7 @@
       <c r="BH100" t="n">
         <v>1170.3</v>
       </c>
-      <c r="BI100" t="n">
-        <v>1260.316486298508</v>
-      </c>
+      <c r="BI100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
@@ -17401,9 +17395,7 @@
       <c r="BH101" t="n">
         <v>1170.3</v>
       </c>
-      <c r="BI101" t="n">
-        <v>1260.316486298508</v>
-      </c>
+      <c r="BI101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
@@ -17580,9 +17572,7 @@
       <c r="BH102" t="n">
         <v>1170.3</v>
       </c>
-      <c r="BI102" t="n">
-        <v>1260.316486298508</v>
-      </c>
+      <c r="BI102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
@@ -17759,9 +17749,7 @@
       <c r="BH103" t="n">
         <v>1170.3</v>
       </c>
-      <c r="BI103" t="n">
-        <v>1260.316486298508</v>
-      </c>
+      <c r="BI103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
@@ -17930,7 +17918,7 @@
         <v>40360</v>
       </c>
       <c r="BF104" t="n">
-        <v>1260.316486298508</v>
+        <v>1087.9</v>
       </c>
       <c r="BG104" t="n">
         <v>955.2</v>
@@ -19013,7 +19001,7 @@
         <v>1170.3</v>
       </c>
       <c r="BI110" t="n">
-        <v>1306.994874679935</v>
+        <v>1260.316486298508</v>
       </c>
     </row>
     <row r="111">
@@ -19192,7 +19180,7 @@
         <v>1170.3</v>
       </c>
       <c r="BI111" t="n">
-        <v>1306.994874679935</v>
+        <v>1260.316486298508</v>
       </c>
     </row>
     <row r="112">
@@ -19371,7 +19359,7 @@
         <v>955.2</v>
       </c>
       <c r="BI112" t="n">
-        <v>1306.994874679935</v>
+        <v>1260.316486298508</v>
       </c>
     </row>
     <row r="113">
@@ -19550,7 +19538,7 @@
         <v>955.2</v>
       </c>
       <c r="BI113" t="n">
-        <v>1306.994874679935</v>
+        <v>1260.316486298508</v>
       </c>
     </row>
     <row r="114">
@@ -19729,7 +19717,7 @@
         <v>955.2</v>
       </c>
       <c r="BI114" t="n">
-        <v>1306.994874679935</v>
+        <v>1260.316486298508</v>
       </c>
     </row>
     <row r="115">
@@ -19908,7 +19896,7 @@
         <v>955.2</v>
       </c>
       <c r="BI115" t="n">
-        <v>1306.994874679935</v>
+        <v>1260.316486298508</v>
       </c>
     </row>
     <row r="116">
@@ -20078,7 +20066,7 @@
         <v>40725</v>
       </c>
       <c r="BF116" t="n">
-        <v>1306.994874679935</v>
+        <v>1339.6</v>
       </c>
       <c r="BG116" t="n">
         <v>1087.9</v>
@@ -21161,7 +21149,7 @@
         <v>955.2</v>
       </c>
       <c r="BI122" t="n">
-        <v>583.479854767828</v>
+        <v>1306.994874679935</v>
       </c>
     </row>
     <row r="123">
@@ -21340,7 +21328,7 @@
         <v>955.2</v>
       </c>
       <c r="BI123" t="n">
-        <v>583.479854767828</v>
+        <v>1306.994874679935</v>
       </c>
     </row>
     <row r="124">
@@ -21519,7 +21507,7 @@
         <v>1087.9</v>
       </c>
       <c r="BI124" t="n">
-        <v>583.479854767828</v>
+        <v>1306.994874679935</v>
       </c>
     </row>
     <row r="125">
@@ -21698,7 +21686,7 @@
         <v>1087.9</v>
       </c>
       <c r="BI125" t="n">
-        <v>583.479854767828</v>
+        <v>1306.994874679935</v>
       </c>
     </row>
     <row r="126">
@@ -21877,7 +21865,7 @@
         <v>1087.9</v>
       </c>
       <c r="BI126" t="n">
-        <v>583.479854767828</v>
+        <v>1306.994874679935</v>
       </c>
     </row>
     <row r="127">
@@ -22056,7 +22044,7 @@
         <v>1087.9</v>
       </c>
       <c r="BI127" t="n">
-        <v>583.479854767828</v>
+        <v>1306.994874679935</v>
       </c>
     </row>
     <row r="128">
@@ -22226,7 +22214,7 @@
         <v>41091</v>
       </c>
       <c r="BF128" t="n">
-        <v>583.479854767828</v>
+        <v>1571.4</v>
       </c>
       <c r="BG128" t="n">
         <v>1339.6</v>
@@ -23309,7 +23297,7 @@
         <v>1087.9</v>
       </c>
       <c r="BI134" t="n">
-        <v>1503.977673649553</v>
+        <v>583.479854767828</v>
       </c>
     </row>
     <row r="135">
@@ -23488,7 +23476,7 @@
         <v>1087.9</v>
       </c>
       <c r="BI135" t="n">
-        <v>1503.977673649553</v>
+        <v>583.479854767828</v>
       </c>
     </row>
     <row r="136">
@@ -23667,7 +23655,7 @@
         <v>1339.6</v>
       </c>
       <c r="BI136" t="n">
-        <v>1503.977673649553</v>
+        <v>583.479854767828</v>
       </c>
     </row>
     <row r="137">
@@ -23846,7 +23834,7 @@
         <v>1339.6</v>
       </c>
       <c r="BI137" t="n">
-        <v>1503.977673649553</v>
+        <v>583.479854767828</v>
       </c>
     </row>
     <row r="138">
@@ -24025,7 +24013,7 @@
         <v>1339.6</v>
       </c>
       <c r="BI138" t="n">
-        <v>1503.977673649553</v>
+        <v>583.479854767828</v>
       </c>
     </row>
     <row r="139">
@@ -24204,7 +24192,7 @@
         <v>1339.6</v>
       </c>
       <c r="BI139" t="n">
-        <v>1503.977673649553</v>
+        <v>583.479854767828</v>
       </c>
     </row>
     <row r="140">
@@ -24374,7 +24362,7 @@
         <v>41456</v>
       </c>
       <c r="BF140" t="n">
-        <v>1503.977673649553</v>
+        <v>598.6</v>
       </c>
       <c r="BG140" t="n">
         <v>1571.4</v>
@@ -25457,7 +25445,7 @@
         <v>1339.6</v>
       </c>
       <c r="BI146" t="n">
-        <v>731.9171298207634</v>
+        <v>1503.977673649553</v>
       </c>
     </row>
     <row r="147">
@@ -25636,7 +25624,7 @@
         <v>1339.6</v>
       </c>
       <c r="BI147" t="n">
-        <v>731.9171298207634</v>
+        <v>1503.977673649553</v>
       </c>
     </row>
     <row r="148">
@@ -25815,7 +25803,7 @@
         <v>1571.4</v>
       </c>
       <c r="BI148" t="n">
-        <v>731.9171298207634</v>
+        <v>1503.977673649553</v>
       </c>
     </row>
     <row r="149">
@@ -25994,7 +25982,7 @@
         <v>1571.4</v>
       </c>
       <c r="BI149" t="n">
-        <v>731.9171298207634</v>
+        <v>1503.977673649553</v>
       </c>
     </row>
     <row r="150">
@@ -26173,7 +26161,7 @@
         <v>1571.4</v>
       </c>
       <c r="BI150" t="n">
-        <v>731.9171298207634</v>
+        <v>1503.977673649553</v>
       </c>
     </row>
     <row r="151">
@@ -26352,7 +26340,7 @@
         <v>1571.4</v>
       </c>
       <c r="BI151" t="n">
-        <v>731.9171298207634</v>
+        <v>1503.977673649553</v>
       </c>
     </row>
     <row r="152">
@@ -26522,7 +26510,7 @@
         <v>41821</v>
       </c>
       <c r="BF152" t="n">
-        <v>731.9171298207634</v>
+        <v>1553.1</v>
       </c>
       <c r="BG152" t="n">
         <v>598.6</v>
@@ -27605,7 +27593,7 @@
         <v>1571.4</v>
       </c>
       <c r="BI158" t="n">
-        <v>1120.28132115423</v>
+        <v>731.9171298207634</v>
       </c>
     </row>
     <row r="159">
@@ -27784,7 +27772,7 @@
         <v>1571.4</v>
       </c>
       <c r="BI159" t="n">
-        <v>1120.28132115423</v>
+        <v>731.9171298207634</v>
       </c>
     </row>
     <row r="160">
@@ -27963,7 +27951,7 @@
         <v>598.6</v>
       </c>
       <c r="BI160" t="n">
-        <v>1120.28132115423</v>
+        <v>731.9171298207634</v>
       </c>
     </row>
     <row r="161">
@@ -28142,7 +28130,7 @@
         <v>598.6</v>
       </c>
       <c r="BI161" t="n">
-        <v>1120.28132115423</v>
+        <v>731.9171298207634</v>
       </c>
     </row>
     <row r="162">
@@ -28321,7 +28309,7 @@
         <v>598.6</v>
       </c>
       <c r="BI162" t="n">
-        <v>1120.28132115423</v>
+        <v>731.9171298207634</v>
       </c>
     </row>
     <row r="163">
@@ -28500,7 +28488,7 @@
         <v>598.6</v>
       </c>
       <c r="BI163" t="n">
-        <v>1120.28132115423</v>
+        <v>731.9171298207634</v>
       </c>
     </row>
     <row r="164">
@@ -28670,7 +28658,7 @@
         <v>42186</v>
       </c>
       <c r="BF164" t="n">
-        <v>1120.28132115423</v>
+        <v>813.7</v>
       </c>
       <c r="BG164" t="n">
         <v>1553.1</v>
@@ -29757,7 +29745,7 @@
         <v>598.6</v>
       </c>
       <c r="BI170" t="n">
-        <v>1288.323519327364</v>
+        <v>1120.28132115423</v>
       </c>
     </row>
     <row r="171">
@@ -29938,7 +29926,7 @@
         <v>598.6</v>
       </c>
       <c r="BI171" t="n">
-        <v>1288.323519327364</v>
+        <v>1120.28132115423</v>
       </c>
     </row>
     <row r="172">
@@ -30119,7 +30107,7 @@
         <v>1553.1</v>
       </c>
       <c r="BI172" t="n">
-        <v>1288.323519327364</v>
+        <v>1120.28132115423</v>
       </c>
     </row>
     <row r="173">
@@ -30300,7 +30288,7 @@
         <v>1553.1</v>
       </c>
       <c r="BI173" t="n">
-        <v>1288.323519327364</v>
+        <v>1120.28132115423</v>
       </c>
     </row>
     <row r="174">
@@ -30481,7 +30469,7 @@
         <v>1553.1</v>
       </c>
       <c r="BI174" t="n">
-        <v>1288.323519327364</v>
+        <v>1120.28132115423</v>
       </c>
     </row>
     <row r="175">
@@ -30662,7 +30650,7 @@
         <v>1553.1</v>
       </c>
       <c r="BI175" t="n">
-        <v>1288.323519327364</v>
+        <v>1120.28132115423</v>
       </c>
     </row>
     <row r="176">
@@ -30834,7 +30822,7 @@
         <v>42552</v>
       </c>
       <c r="BF176" t="n">
-        <v>1288.323519327364</v>
+        <v>1368.3</v>
       </c>
       <c r="BG176" t="n">
         <v>813.7</v>
@@ -31929,7 +31917,7 @@
         <v>1553.1</v>
       </c>
       <c r="BI182" t="n">
-        <v>1055.865145187862</v>
+        <v>1288.323519327364</v>
       </c>
     </row>
     <row r="183">
@@ -32110,7 +32098,7 @@
         <v>1553.1</v>
       </c>
       <c r="BI183" t="n">
-        <v>1055.865145187862</v>
+        <v>1288.323519327364</v>
       </c>
     </row>
     <row r="184">
@@ -32291,7 +32279,7 @@
         <v>813.7</v>
       </c>
       <c r="BI184" t="n">
-        <v>1055.865145187862</v>
+        <v>1288.323519327364</v>
       </c>
     </row>
     <row r="185">
@@ -32472,7 +32460,7 @@
         <v>813.7</v>
       </c>
       <c r="BI185" t="n">
-        <v>1055.865145187862</v>
+        <v>1288.323519327364</v>
       </c>
     </row>
     <row r="186">
@@ -32653,7 +32641,7 @@
         <v>813.7</v>
       </c>
       <c r="BI186" t="n">
-        <v>1055.865145187862</v>
+        <v>1288.323519327364</v>
       </c>
     </row>
     <row r="187">
@@ -32834,7 +32822,7 @@
         <v>813.7</v>
       </c>
       <c r="BI187" t="n">
-        <v>1055.865145187862</v>
+        <v>1288.323519327364</v>
       </c>
     </row>
     <row r="188">
@@ -33006,7 +32994,7 @@
         <v>42917</v>
       </c>
       <c r="BF188" t="n">
-        <v>1055.865145187862</v>
+        <v>1243.5</v>
       </c>
       <c r="BG188" t="n">
         <v>1368.3</v>
@@ -34105,7 +34093,7 @@
         <v>813.7</v>
       </c>
       <c r="BI194" t="n">
-        <v>1447.030039824213</v>
+        <v>1055.865145187862</v>
       </c>
     </row>
     <row r="195">
@@ -34290,7 +34278,7 @@
         <v>813.7</v>
       </c>
       <c r="BI195" t="n">
-        <v>1447.030039824213</v>
+        <v>1055.865145187862</v>
       </c>
     </row>
     <row r="196">
@@ -34475,7 +34463,7 @@
         <v>1368.3</v>
       </c>
       <c r="BI196" t="n">
-        <v>1447.030039824213</v>
+        <v>1055.865145187862</v>
       </c>
     </row>
     <row r="197">
@@ -34660,7 +34648,7 @@
         <v>1368.3</v>
       </c>
       <c r="BI197" t="n">
-        <v>1447.030039824213</v>
+        <v>1055.865145187862</v>
       </c>
     </row>
     <row r="198">
@@ -34845,7 +34833,7 @@
         <v>1368.3</v>
       </c>
       <c r="BI198" t="n">
-        <v>1447.030039824213</v>
+        <v>1055.865145187862</v>
       </c>
     </row>
     <row r="199">
@@ -35030,7 +35018,7 @@
         <v>1368.3</v>
       </c>
       <c r="BI199" t="n">
-        <v>1447.030039824213</v>
+        <v>1055.865145187862</v>
       </c>
     </row>
     <row r="200">
@@ -35206,7 +35194,7 @@
         <v>43282</v>
       </c>
       <c r="BF200" t="n">
-        <v>1447.030039824213</v>
+        <v>1220.9</v>
       </c>
       <c r="BG200" t="n">
         <v>1243.5</v>
@@ -36325,7 +36313,7 @@
         <v>1368.3</v>
       </c>
       <c r="BI206" t="n">
-        <v>1166.959709535656</v>
+        <v>1447.030039824213</v>
       </c>
     </row>
     <row r="207">
@@ -36510,7 +36498,7 @@
         <v>1368.3</v>
       </c>
       <c r="BI207" t="n">
-        <v>1166.959709535656</v>
+        <v>1447.030039824213</v>
       </c>
     </row>
     <row r="208">
@@ -36695,7 +36683,7 @@
         <v>1243.5</v>
       </c>
       <c r="BI208" t="n">
-        <v>1166.959709535656</v>
+        <v>1447.030039824213</v>
       </c>
     </row>
     <row r="209">
@@ -36880,7 +36868,7 @@
         <v>1243.5</v>
       </c>
       <c r="BI209" t="n">
-        <v>1166.959709535656</v>
+        <v>1447.030039824213</v>
       </c>
     </row>
     <row r="210">
@@ -37065,7 +37053,7 @@
         <v>1243.5</v>
       </c>
       <c r="BI210" t="n">
-        <v>1166.959709535656</v>
+        <v>1447.030039824213</v>
       </c>
     </row>
     <row r="211">
@@ -37250,7 +37238,7 @@
         <v>1243.5</v>
       </c>
       <c r="BI211" t="n">
-        <v>1166.959709535656</v>
+        <v>1447.030039824213</v>
       </c>
     </row>
     <row r="212">
@@ -37426,7 +37414,7 @@
         <v>43647</v>
       </c>
       <c r="BF212" t="n">
-        <v>1166.959709535656</v>
+        <v>1705</v>
       </c>
       <c r="BG212" t="n">
         <v>1220.9</v>
@@ -38545,7 +38533,7 @@
         <v>1243.5</v>
       </c>
       <c r="BI218" t="n">
-        <v>1447.030039824213</v>
+        <v>1166.959709535656</v>
       </c>
     </row>
     <row r="219">
@@ -38730,7 +38718,7 @@
         <v>1243.5</v>
       </c>
       <c r="BI219" t="n">
-        <v>1447.030039824213</v>
+        <v>1166.959709535656</v>
       </c>
     </row>
     <row r="220">
@@ -38915,7 +38903,7 @@
         <v>1220.9</v>
       </c>
       <c r="BI220" t="n">
-        <v>1447.030039824213</v>
+        <v>1166.959709535656</v>
       </c>
     </row>
     <row r="221">
@@ -39100,7 +39088,7 @@
         <v>1220.9</v>
       </c>
       <c r="BI221" t="n">
-        <v>1447.030039824213</v>
+        <v>1166.959709535656</v>
       </c>
     </row>
     <row r="222">
@@ -39285,7 +39273,7 @@
         <v>1220.9</v>
       </c>
       <c r="BI222" t="n">
-        <v>1447.030039824213</v>
+        <v>1166.959709535656</v>
       </c>
     </row>
     <row r="223">
@@ -39470,7 +39458,7 @@
         <v>1220.9</v>
       </c>
       <c r="BI223" t="n">
-        <v>1447.030039824213</v>
+        <v>1166.959709535656</v>
       </c>
     </row>
     <row r="224">
@@ -39646,7 +39634,7 @@
         <v>44013</v>
       </c>
       <c r="BF224" t="n">
-        <v>1447.030039824213</v>
+        <v>1105</v>
       </c>
       <c r="BG224" t="n">
         <v>1705</v>
@@ -40765,7 +40753,7 @@
         <v>1220.9</v>
       </c>
       <c r="BI230" t="n">
-        <v>1213.638097917082</v>
+        <v>1447.030039824213</v>
       </c>
     </row>
     <row r="231">
@@ -40950,7 +40938,7 @@
         <v>1220.9</v>
       </c>
       <c r="BI231" t="n">
-        <v>1213.638097917082</v>
+        <v>1447.030039824213</v>
       </c>
     </row>
     <row r="232">
@@ -41135,7 +41123,7 @@
         <v>1705</v>
       </c>
       <c r="BI232" t="n">
-        <v>1213.638097917082</v>
+        <v>1447.030039824213</v>
       </c>
     </row>
     <row r="233">
@@ -41320,7 +41308,7 @@
         <v>1705</v>
       </c>
       <c r="BI233" t="n">
-        <v>1213.638097917082</v>
+        <v>1447.030039824213</v>
       </c>
     </row>
     <row r="234">
@@ -41505,7 +41493,7 @@
         <v>1705</v>
       </c>
       <c r="BI234" t="n">
-        <v>1213.638097917082</v>
+        <v>1447.030039824213</v>
       </c>
     </row>
     <row r="235">
@@ -41690,7 +41678,7 @@
         <v>1705</v>
       </c>
       <c r="BI235" t="n">
-        <v>1213.638097917082</v>
+        <v>1447.030039824213</v>
       </c>
     </row>
     <row r="236">
@@ -41866,7 +41854,7 @@
         <v>44378</v>
       </c>
       <c r="BF236" t="n">
-        <v>1213.638097917082</v>
+        <v>1336.9</v>
       </c>
       <c r="BG236" t="n">
         <v>1105</v>
@@ -42985,7 +42973,7 @@
         <v>1705</v>
       </c>
       <c r="BI242" t="n">
-        <v>728.1828587502494</v>
+        <v>1213.638097917082</v>
       </c>
     </row>
     <row r="243">
@@ -43170,7 +43158,7 @@
         <v>1705</v>
       </c>
       <c r="BI243" t="n">
-        <v>728.1828587502494</v>
+        <v>1213.638097917082</v>
       </c>
     </row>
     <row r="244">
@@ -43355,7 +43343,7 @@
         <v>1105</v>
       </c>
       <c r="BI244" t="n">
-        <v>728.1828587502494</v>
+        <v>1213.638097917082</v>
       </c>
     </row>
     <row r="245">
@@ -43540,7 +43528,7 @@
         <v>1105</v>
       </c>
       <c r="BI245" t="n">
-        <v>728.1828587502494</v>
+        <v>1213.638097917082</v>
       </c>
     </row>
     <row r="246">
@@ -43725,7 +43713,7 @@
         <v>1105</v>
       </c>
       <c r="BI246" t="n">
-        <v>728.1828587502494</v>
+        <v>1213.638097917082</v>
       </c>
     </row>
     <row r="247">
@@ -43910,7 +43898,7 @@
         <v>1105</v>
       </c>
       <c r="BI247" t="n">
-        <v>728.1828587502494</v>
+        <v>1213.638097917082</v>
       </c>
     </row>
     <row r="248">
@@ -44086,7 +44074,7 @@
         <v>44743</v>
       </c>
       <c r="BF248" t="n">
-        <v>728.1828587502494</v>
+        <v>1462.2</v>
       </c>
       <c r="BG248" t="n">
         <v>1336.9</v>
@@ -45205,7 +45193,7 @@
         <v>1105</v>
       </c>
       <c r="BI254" t="n">
-        <v>714.1793422358214</v>
+        <v>728.1828587502494</v>
       </c>
     </row>
     <row r="255">
@@ -45348,7 +45336,7 @@
         <v>1105</v>
       </c>
       <c r="BI255" t="n">
-        <v>714.1793422358214</v>
+        <v>728.1828587502494</v>
       </c>
     </row>
     <row r="256">
@@ -45491,7 +45479,7 @@
         <v>1336.9</v>
       </c>
       <c r="BI256" t="n">
-        <v>714.1793422358214</v>
+        <v>728.1828587502494</v>
       </c>
     </row>
     <row r="257">
@@ -45632,7 +45620,7 @@
         <v>1336.9</v>
       </c>
       <c r="BI257" t="n">
-        <v>714.1793422358214</v>
+        <v>728.1828587502494</v>
       </c>
     </row>
     <row r="258">
@@ -45773,7 +45761,7 @@
         <v>1336.9</v>
       </c>
       <c r="BI258" t="n">
-        <v>714.1793422358214</v>
+        <v>728.1828587502494</v>
       </c>
     </row>
     <row r="259">
@@ -45914,7 +45902,7 @@
         <v>1336.9</v>
       </c>
       <c r="BI259" t="n">
-        <v>714.1793422358214</v>
+        <v>728.1828587502494</v>
       </c>
     </row>
     <row r="260">
@@ -46034,7 +46022,7 @@
         <v>45108</v>
       </c>
       <c r="BF260" t="n">
-        <v>714.1793422358214</v>
+        <v>653.4</v>
       </c>
       <c r="BG260" t="n">
         <v>1462.2</v>

--- a/Output/Excel/df_month.xlsx
+++ b/Output/Excel/df_month.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BI262"/>
+  <dimension ref="A1:BK262"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -746,6 +746,16 @@
           <t>Estimación España (Junta Andalucia)</t>
         </is>
       </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>HARVEST_FORECAST_JUNTA_ANDALUCIA</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>MONTHLY_INFLATION_PERC</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -903,6 +913,10 @@
       <c r="BG2" t="inlineStr"/>
       <c r="BH2" t="inlineStr"/>
       <c r="BI2" t="inlineStr"/>
+      <c r="BJ2" t="inlineStr"/>
+      <c r="BK2" t="n">
+        <v>-0.1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -1062,6 +1076,10 @@
       <c r="BG3" t="inlineStr"/>
       <c r="BH3" t="inlineStr"/>
       <c r="BI3" t="inlineStr"/>
+      <c r="BJ3" t="inlineStr"/>
+      <c r="BK3" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -1225,6 +1243,10 @@
       <c r="BG4" t="inlineStr"/>
       <c r="BH4" t="inlineStr"/>
       <c r="BI4" t="inlineStr"/>
+      <c r="BJ4" t="inlineStr"/>
+      <c r="BK4" t="n">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -1388,6 +1410,10 @@
       <c r="BG5" t="inlineStr"/>
       <c r="BH5" t="inlineStr"/>
       <c r="BI5" t="inlineStr"/>
+      <c r="BJ5" t="inlineStr"/>
+      <c r="BK5" t="n">
+        <v>1.4</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -1551,6 +1577,10 @@
       <c r="BG6" t="inlineStr"/>
       <c r="BH6" t="inlineStr"/>
       <c r="BI6" t="inlineStr"/>
+      <c r="BJ6" t="inlineStr"/>
+      <c r="BK6" t="n">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -1714,6 +1744,10 @@
       <c r="BG7" t="inlineStr"/>
       <c r="BH7" t="inlineStr"/>
       <c r="BI7" t="inlineStr"/>
+      <c r="BJ7" t="inlineStr"/>
+      <c r="BK7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -1877,6 +1911,10 @@
       <c r="BG8" t="inlineStr"/>
       <c r="BH8" t="inlineStr"/>
       <c r="BI8" t="inlineStr"/>
+      <c r="BJ8" t="inlineStr"/>
+      <c r="BK8" t="n">
+        <v>-0.7</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -2040,6 +2078,10 @@
       <c r="BG9" t="inlineStr"/>
       <c r="BH9" t="inlineStr"/>
       <c r="BI9" t="inlineStr"/>
+      <c r="BJ9" t="inlineStr"/>
+      <c r="BK9" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -2203,6 +2245,10 @@
       <c r="BG10" t="inlineStr"/>
       <c r="BH10" t="inlineStr"/>
       <c r="BI10" t="inlineStr"/>
+      <c r="BJ10" t="inlineStr"/>
+      <c r="BK10" t="n">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -2366,6 +2412,10 @@
       <c r="BG11" t="inlineStr"/>
       <c r="BH11" t="inlineStr"/>
       <c r="BI11" t="inlineStr"/>
+      <c r="BJ11" t="inlineStr"/>
+      <c r="BK11" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -2529,6 +2579,10 @@
       <c r="BG12" t="inlineStr"/>
       <c r="BH12" t="inlineStr"/>
       <c r="BI12" t="inlineStr"/>
+      <c r="BJ12" t="inlineStr"/>
+      <c r="BK12" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -2692,6 +2746,10 @@
       <c r="BG13" t="inlineStr"/>
       <c r="BH13" t="inlineStr"/>
       <c r="BI13" t="inlineStr"/>
+      <c r="BJ13" t="inlineStr"/>
+      <c r="BK13" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -2855,6 +2913,10 @@
       <c r="BG14" t="inlineStr"/>
       <c r="BH14" t="inlineStr"/>
       <c r="BI14" t="inlineStr"/>
+      <c r="BJ14" t="inlineStr"/>
+      <c r="BK14" t="n">
+        <v>-0.4</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -3018,6 +3080,10 @@
       <c r="BG15" t="inlineStr"/>
       <c r="BH15" t="inlineStr"/>
       <c r="BI15" t="inlineStr"/>
+      <c r="BJ15" t="inlineStr"/>
+      <c r="BK15" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -3183,6 +3249,10 @@
       </c>
       <c r="BH16" t="inlineStr"/>
       <c r="BI16" t="inlineStr"/>
+      <c r="BJ16" t="inlineStr"/>
+      <c r="BK16" t="n">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -3348,6 +3418,10 @@
       </c>
       <c r="BH17" t="inlineStr"/>
       <c r="BI17" t="inlineStr"/>
+      <c r="BJ17" t="inlineStr"/>
+      <c r="BK17" t="n">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -3513,6 +3587,10 @@
       </c>
       <c r="BH18" t="inlineStr"/>
       <c r="BI18" t="inlineStr"/>
+      <c r="BJ18" t="inlineStr"/>
+      <c r="BK18" t="n">
+        <v>-0.1</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -3678,6 +3756,10 @@
       </c>
       <c r="BH19" t="inlineStr"/>
       <c r="BI19" t="inlineStr"/>
+      <c r="BJ19" t="inlineStr"/>
+      <c r="BK19" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -3843,6 +3925,10 @@
       </c>
       <c r="BH20" t="inlineStr"/>
       <c r="BI20" t="inlineStr"/>
+      <c r="BJ20" t="inlineStr"/>
+      <c r="BK20" t="n">
+        <v>-0.6</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -4008,6 +4094,10 @@
       </c>
       <c r="BH21" t="inlineStr"/>
       <c r="BI21" t="inlineStr"/>
+      <c r="BJ21" t="inlineStr"/>
+      <c r="BK21" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -4173,6 +4263,10 @@
       </c>
       <c r="BH22" t="inlineStr"/>
       <c r="BI22" t="inlineStr"/>
+      <c r="BJ22" t="inlineStr"/>
+      <c r="BK22" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -4338,6 +4432,10 @@
       </c>
       <c r="BH23" t="inlineStr"/>
       <c r="BI23" t="inlineStr"/>
+      <c r="BJ23" t="inlineStr"/>
+      <c r="BK23" t="n">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -4503,6 +4601,10 @@
       </c>
       <c r="BH24" t="inlineStr"/>
       <c r="BI24" t="inlineStr"/>
+      <c r="BJ24" t="inlineStr"/>
+      <c r="BK24" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -4668,6 +4770,10 @@
       </c>
       <c r="BH25" t="inlineStr"/>
       <c r="BI25" t="inlineStr"/>
+      <c r="BJ25" t="inlineStr"/>
+      <c r="BK25" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -4833,6 +4939,10 @@
       </c>
       <c r="BH26" t="inlineStr"/>
       <c r="BI26" t="inlineStr"/>
+      <c r="BJ26" t="inlineStr"/>
+      <c r="BK26" t="n">
+        <v>-0.7</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -4998,6 +5108,10 @@
       </c>
       <c r="BH27" t="inlineStr"/>
       <c r="BI27" t="inlineStr"/>
+      <c r="BJ27" t="inlineStr"/>
+      <c r="BK27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -5165,6 +5279,10 @@
         <v>830.3</v>
       </c>
       <c r="BI28" t="inlineStr"/>
+      <c r="BJ28" t="inlineStr"/>
+      <c r="BK28" t="n">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -5332,6 +5450,10 @@
         <v>830.3</v>
       </c>
       <c r="BI29" t="inlineStr"/>
+      <c r="BJ29" t="inlineStr"/>
+      <c r="BK29" t="n">
+        <v>1.4</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -5499,6 +5621,10 @@
         <v>830.3</v>
       </c>
       <c r="BI30" t="inlineStr"/>
+      <c r="BJ30" t="inlineStr"/>
+      <c r="BK30" t="n">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -5666,6 +5792,10 @@
         <v>830.3</v>
       </c>
       <c r="BI31" t="inlineStr"/>
+      <c r="BJ31" t="inlineStr"/>
+      <c r="BK31" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -5833,6 +5963,10 @@
         <v>830.3</v>
       </c>
       <c r="BI32" t="inlineStr"/>
+      <c r="BJ32" t="inlineStr"/>
+      <c r="BK32" t="n">
+        <v>-0.8</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -6000,6 +6134,10 @@
         <v>830.3</v>
       </c>
       <c r="BI33" t="inlineStr"/>
+      <c r="BJ33" t="inlineStr"/>
+      <c r="BK33" t="n">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -6167,6 +6305,10 @@
         <v>830.3</v>
       </c>
       <c r="BI34" t="inlineStr"/>
+      <c r="BJ34" t="inlineStr"/>
+      <c r="BK34" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -6334,6 +6476,10 @@
         <v>830.3</v>
       </c>
       <c r="BI35" t="inlineStr"/>
+      <c r="BJ35" t="inlineStr"/>
+      <c r="BK35" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -6501,6 +6647,10 @@
         <v>830.3</v>
       </c>
       <c r="BI36" t="inlineStr"/>
+      <c r="BJ36" t="inlineStr"/>
+      <c r="BK36" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -6668,6 +6818,10 @@
         <v>830.3</v>
       </c>
       <c r="BI37" t="inlineStr"/>
+      <c r="BJ37" t="inlineStr"/>
+      <c r="BK37" t="n">
+        <v>-0.1</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -6835,6 +6989,10 @@
         <v>830.3</v>
       </c>
       <c r="BI38" t="inlineStr"/>
+      <c r="BJ38" t="inlineStr"/>
+      <c r="BK38" t="n">
+        <v>-0.8</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -7002,6 +7160,10 @@
         <v>830.3</v>
       </c>
       <c r="BI39" t="inlineStr"/>
+      <c r="BJ39" t="inlineStr"/>
+      <c r="BK39" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -7169,6 +7331,10 @@
         <v>804.5</v>
       </c>
       <c r="BI40" t="inlineStr"/>
+      <c r="BJ40" t="inlineStr"/>
+      <c r="BK40" t="n">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -7336,6 +7502,10 @@
         <v>804.5</v>
       </c>
       <c r="BI41" t="inlineStr"/>
+      <c r="BJ41" t="inlineStr"/>
+      <c r="BK41" t="n">
+        <v>1.4</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -7503,6 +7673,10 @@
         <v>804.5</v>
       </c>
       <c r="BI42" t="inlineStr"/>
+      <c r="BJ42" t="inlineStr"/>
+      <c r="BK42" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -7670,6 +7844,10 @@
         <v>804.5</v>
       </c>
       <c r="BI43" t="inlineStr"/>
+      <c r="BJ43" t="inlineStr"/>
+      <c r="BK43" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -7837,6 +8015,10 @@
         <v>804.5</v>
       </c>
       <c r="BI44" t="inlineStr"/>
+      <c r="BJ44" t="inlineStr"/>
+      <c r="BK44" t="n">
+        <v>-0.6</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -8004,6 +8186,10 @@
         <v>804.5</v>
       </c>
       <c r="BI45" t="inlineStr"/>
+      <c r="BJ45" t="inlineStr"/>
+      <c r="BK45" t="n">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -8171,6 +8357,10 @@
         <v>804.5</v>
       </c>
       <c r="BI46" t="inlineStr"/>
+      <c r="BJ46" t="inlineStr"/>
+      <c r="BK46" t="n">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -8338,6 +8528,10 @@
         <v>804.5</v>
       </c>
       <c r="BI47" t="inlineStr"/>
+      <c r="BJ47" t="inlineStr"/>
+      <c r="BK47" t="n">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -8505,6 +8699,10 @@
         <v>804.5</v>
       </c>
       <c r="BI48" t="inlineStr"/>
+      <c r="BJ48" t="inlineStr"/>
+      <c r="BK48" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -8672,6 +8870,10 @@
         <v>804.5</v>
       </c>
       <c r="BI49" t="inlineStr"/>
+      <c r="BJ49" t="inlineStr"/>
+      <c r="BK49" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -8839,6 +9041,10 @@
         <v>804.5</v>
       </c>
       <c r="BI50" t="inlineStr"/>
+      <c r="BJ50" t="inlineStr"/>
+      <c r="BK50" t="n">
+        <v>-0.4</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -9006,6 +9212,10 @@
         <v>804.5</v>
       </c>
       <c r="BI51" t="inlineStr"/>
+      <c r="BJ51" t="inlineStr"/>
+      <c r="BK51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -9173,6 +9383,10 @@
         <v>1326.6</v>
       </c>
       <c r="BI52" t="inlineStr"/>
+      <c r="BJ52" t="inlineStr"/>
+      <c r="BK52" t="n">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -9340,6 +9554,10 @@
         <v>1326.6</v>
       </c>
       <c r="BI53" t="inlineStr"/>
+      <c r="BJ53" t="inlineStr"/>
+      <c r="BK53" t="n">
+        <v>1.4</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -9507,6 +9725,10 @@
         <v>1326.6</v>
       </c>
       <c r="BI54" t="inlineStr"/>
+      <c r="BJ54" t="inlineStr"/>
+      <c r="BK54" t="n">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -9674,6 +9896,10 @@
         <v>1326.6</v>
       </c>
       <c r="BI55" t="inlineStr"/>
+      <c r="BJ55" t="inlineStr"/>
+      <c r="BK55" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
@@ -9841,6 +10067,10 @@
         <v>1326.6</v>
       </c>
       <c r="BI56" t="inlineStr"/>
+      <c r="BJ56" t="inlineStr"/>
+      <c r="BK56" t="n">
+        <v>-0.6</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
@@ -10008,6 +10238,10 @@
         <v>1326.6</v>
       </c>
       <c r="BI57" t="inlineStr"/>
+      <c r="BJ57" t="inlineStr"/>
+      <c r="BK57" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
@@ -10175,6 +10409,10 @@
         <v>1326.6</v>
       </c>
       <c r="BI58" t="inlineStr"/>
+      <c r="BJ58" t="inlineStr"/>
+      <c r="BK58" t="n">
+        <v>-0.2</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
@@ -10342,6 +10580,10 @@
         <v>1326.6</v>
       </c>
       <c r="BI59" t="inlineStr"/>
+      <c r="BJ59" t="inlineStr"/>
+      <c r="BK59" t="n">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
@@ -10509,6 +10751,10 @@
         <v>1326.6</v>
       </c>
       <c r="BI60" t="inlineStr"/>
+      <c r="BJ60" t="inlineStr"/>
+      <c r="BK60" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
@@ -10676,6 +10922,10 @@
         <v>1326.6</v>
       </c>
       <c r="BI61" t="inlineStr"/>
+      <c r="BJ61" t="inlineStr"/>
+      <c r="BK61" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
@@ -10843,6 +11093,10 @@
         <v>1326.6</v>
       </c>
       <c r="BI62" t="inlineStr"/>
+      <c r="BJ62" t="inlineStr"/>
+      <c r="BK62" t="n">
+        <v>-0.7</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
@@ -11010,6 +11264,10 @@
         <v>1326.6</v>
       </c>
       <c r="BI63" t="inlineStr"/>
+      <c r="BJ63" t="inlineStr"/>
+      <c r="BK63" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
@@ -11177,6 +11435,10 @@
         <v>956.5</v>
       </c>
       <c r="BI64" t="inlineStr"/>
+      <c r="BJ64" t="inlineStr"/>
+      <c r="BK64" t="n">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
@@ -11344,6 +11606,10 @@
         <v>956.5</v>
       </c>
       <c r="BI65" t="inlineStr"/>
+      <c r="BJ65" t="inlineStr"/>
+      <c r="BK65" t="n">
+        <v>1.4</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
@@ -11511,6 +11777,10 @@
         <v>956.5</v>
       </c>
       <c r="BI66" t="inlineStr"/>
+      <c r="BJ66" t="inlineStr"/>
+      <c r="BK66" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
@@ -11678,6 +11948,10 @@
         <v>956.5</v>
       </c>
       <c r="BI67" t="inlineStr"/>
+      <c r="BJ67" t="inlineStr"/>
+      <c r="BK67" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
@@ -11845,6 +12119,10 @@
         <v>956.5</v>
       </c>
       <c r="BI68" t="inlineStr"/>
+      <c r="BJ68" t="inlineStr"/>
+      <c r="BK68" t="n">
+        <v>-0.7</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
@@ -12012,6 +12290,10 @@
         <v>956.5</v>
       </c>
       <c r="BI69" t="inlineStr"/>
+      <c r="BJ69" t="inlineStr"/>
+      <c r="BK69" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
@@ -12179,6 +12461,10 @@
         <v>956.5</v>
       </c>
       <c r="BI70" t="inlineStr"/>
+      <c r="BJ70" t="inlineStr"/>
+      <c r="BK70" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
@@ -12346,6 +12632,10 @@
         <v>956.5</v>
       </c>
       <c r="BI71" t="inlineStr"/>
+      <c r="BJ71" t="inlineStr"/>
+      <c r="BK71" t="n">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
@@ -12513,6 +12803,10 @@
         <v>956.5</v>
       </c>
       <c r="BI72" t="inlineStr"/>
+      <c r="BJ72" t="inlineStr"/>
+      <c r="BK72" t="n">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
@@ -12680,6 +12974,10 @@
         <v>956.5</v>
       </c>
       <c r="BI73" t="inlineStr"/>
+      <c r="BJ73" t="inlineStr"/>
+      <c r="BK73" t="n">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
@@ -12847,6 +13145,10 @@
         <v>956.5</v>
       </c>
       <c r="BI74" t="inlineStr"/>
+      <c r="BJ74" t="inlineStr"/>
+      <c r="BK74" t="n">
+        <v>-0.6</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
@@ -13014,6 +13316,10 @@
         <v>956.5</v>
       </c>
       <c r="BI75" t="inlineStr"/>
+      <c r="BJ75" t="inlineStr"/>
+      <c r="BK75" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
@@ -13181,6 +13487,10 @@
         <v>771.5</v>
       </c>
       <c r="BI76" t="inlineStr"/>
+      <c r="BJ76" t="inlineStr"/>
+      <c r="BK76" t="n">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
@@ -13348,6 +13658,10 @@
         <v>771.5</v>
       </c>
       <c r="BI77" t="inlineStr"/>
+      <c r="BJ77" t="inlineStr"/>
+      <c r="BK77" t="n">
+        <v>1.1</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
@@ -13515,6 +13829,10 @@
         <v>771.5</v>
       </c>
       <c r="BI78" t="inlineStr"/>
+      <c r="BJ78" t="inlineStr"/>
+      <c r="BK78" t="n">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
@@ -13682,6 +14000,10 @@
         <v>771.5</v>
       </c>
       <c r="BI79" t="inlineStr"/>
+      <c r="BJ79" t="inlineStr"/>
+      <c r="BK79" t="n">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
@@ -13849,6 +14171,10 @@
         <v>771.5</v>
       </c>
       <c r="BI80" t="inlineStr"/>
+      <c r="BJ80" t="inlineStr"/>
+      <c r="BK80" t="n">
+        <v>-0.5</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
@@ -14016,6 +14342,10 @@
         <v>771.5</v>
       </c>
       <c r="BI81" t="inlineStr"/>
+      <c r="BJ81" t="inlineStr"/>
+      <c r="BK81" t="n">
+        <v>-0.2</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
@@ -14183,6 +14513,10 @@
         <v>771.5</v>
       </c>
       <c r="BI82" t="inlineStr"/>
+      <c r="BJ82" t="inlineStr"/>
+      <c r="BK82" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
@@ -14350,6 +14684,10 @@
         <v>771.5</v>
       </c>
       <c r="BI83" t="inlineStr"/>
+      <c r="BJ83" t="inlineStr"/>
+      <c r="BK83" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
@@ -14517,6 +14855,10 @@
         <v>771.5</v>
       </c>
       <c r="BI84" t="inlineStr"/>
+      <c r="BJ84" t="inlineStr"/>
+      <c r="BK84" t="n">
+        <v>-0.4</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
@@ -14684,6 +15026,10 @@
         <v>771.5</v>
       </c>
       <c r="BI85" t="inlineStr"/>
+      <c r="BJ85" t="inlineStr"/>
+      <c r="BK85" t="n">
+        <v>-0.5</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
@@ -14851,6 +15197,10 @@
         <v>771.5</v>
       </c>
       <c r="BI86" t="inlineStr"/>
+      <c r="BJ86" t="inlineStr"/>
+      <c r="BK86" t="n">
+        <v>-1.2</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
@@ -15018,6 +15368,10 @@
         <v>771.5</v>
       </c>
       <c r="BI87" t="inlineStr"/>
+      <c r="BJ87" t="inlineStr"/>
+      <c r="BK87" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
@@ -15185,6 +15539,10 @@
         <v>1009.7</v>
       </c>
       <c r="BI88" t="inlineStr"/>
+      <c r="BJ88" t="inlineStr"/>
+      <c r="BK88" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
@@ -15352,6 +15710,10 @@
         <v>1009.7</v>
       </c>
       <c r="BI89" t="inlineStr"/>
+      <c r="BJ89" t="inlineStr"/>
+      <c r="BK89" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
@@ -15519,6 +15881,10 @@
         <v>1009.7</v>
       </c>
       <c r="BI90" t="inlineStr"/>
+      <c r="BJ90" t="inlineStr"/>
+      <c r="BK90" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
@@ -15686,6 +16052,10 @@
         <v>1009.7</v>
       </c>
       <c r="BI91" t="inlineStr"/>
+      <c r="BJ91" t="inlineStr"/>
+      <c r="BK91" t="n">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
@@ -15853,6 +16223,10 @@
         <v>1009.7</v>
       </c>
       <c r="BI92" t="inlineStr"/>
+      <c r="BJ92" t="inlineStr"/>
+      <c r="BK92" t="n">
+        <v>-0.9</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
@@ -16020,6 +16394,10 @@
         <v>1009.7</v>
       </c>
       <c r="BI93" t="inlineStr"/>
+      <c r="BJ93" t="inlineStr"/>
+      <c r="BK93" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
@@ -16187,6 +16565,10 @@
         <v>1009.7</v>
       </c>
       <c r="BI94" t="inlineStr"/>
+      <c r="BJ94" t="inlineStr"/>
+      <c r="BK94" t="n">
+        <v>-0.2</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
@@ -16354,6 +16736,10 @@
         <v>1009.7</v>
       </c>
       <c r="BI95" t="inlineStr"/>
+      <c r="BJ95" t="inlineStr"/>
+      <c r="BK95" t="n">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
@@ -16521,6 +16907,10 @@
         <v>1009.7</v>
       </c>
       <c r="BI96" t="inlineStr"/>
+      <c r="BJ96" t="inlineStr"/>
+      <c r="BK96" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
@@ -16688,6 +17078,10 @@
         <v>1009.7</v>
       </c>
       <c r="BI97" t="inlineStr"/>
+      <c r="BJ97" t="inlineStr"/>
+      <c r="BK97" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
@@ -16865,6 +17259,12 @@
         <v>1009.7</v>
       </c>
       <c r="BI98" t="inlineStr"/>
+      <c r="BJ98" t="n">
+        <v>1350</v>
+      </c>
+      <c r="BK98" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
@@ -17042,6 +17442,12 @@
         <v>1009.7</v>
       </c>
       <c r="BI99" t="inlineStr"/>
+      <c r="BJ99" t="n">
+        <v>1350</v>
+      </c>
+      <c r="BK99" t="n">
+        <v>-0.2</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
@@ -17219,6 +17625,12 @@
         <v>1170.3</v>
       </c>
       <c r="BI100" t="inlineStr"/>
+      <c r="BJ100" t="n">
+        <v>1350</v>
+      </c>
+      <c r="BK100" t="n">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
@@ -17396,6 +17808,12 @@
         <v>1170.3</v>
       </c>
       <c r="BI101" t="inlineStr"/>
+      <c r="BJ101" t="n">
+        <v>1350</v>
+      </c>
+      <c r="BK101" t="n">
+        <v>1.1</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
@@ -17573,6 +17991,12 @@
         <v>1170.3</v>
       </c>
       <c r="BI102" t="inlineStr"/>
+      <c r="BJ102" t="n">
+        <v>1350</v>
+      </c>
+      <c r="BK102" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
@@ -17750,6 +18174,12 @@
         <v>1170.3</v>
       </c>
       <c r="BI103" t="inlineStr"/>
+      <c r="BJ103" t="n">
+        <v>1350</v>
+      </c>
+      <c r="BK103" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
@@ -17929,6 +18359,12 @@
       <c r="BI104" t="n">
         <v>1260.316486298508</v>
       </c>
+      <c r="BJ104" t="n">
+        <v>1350</v>
+      </c>
+      <c r="BK104" t="n">
+        <v>-0.4</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
@@ -18108,6 +18544,12 @@
       <c r="BI105" t="n">
         <v>1260.316486298508</v>
       </c>
+      <c r="BJ105" t="n">
+        <v>1350</v>
+      </c>
+      <c r="BK105" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
@@ -18287,6 +18729,12 @@
       <c r="BI106" t="n">
         <v>1260.316486298508</v>
       </c>
+      <c r="BJ106" t="n">
+        <v>1350</v>
+      </c>
+      <c r="BK106" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
@@ -18466,6 +18914,12 @@
       <c r="BI107" t="n">
         <v>1260.316486298508</v>
       </c>
+      <c r="BJ107" t="n">
+        <v>1350</v>
+      </c>
+      <c r="BK107" t="n">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
@@ -18645,6 +19099,12 @@
       <c r="BI108" t="n">
         <v>1260.316486298508</v>
       </c>
+      <c r="BJ108" t="n">
+        <v>1350</v>
+      </c>
+      <c r="BK108" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
@@ -18824,6 +19284,12 @@
       <c r="BI109" t="n">
         <v>1260.316486298508</v>
       </c>
+      <c r="BJ109" t="n">
+        <v>1350</v>
+      </c>
+      <c r="BK109" t="n">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
@@ -19003,6 +19469,12 @@
       <c r="BI110" t="n">
         <v>1260.316486298508</v>
       </c>
+      <c r="BJ110" t="n">
+        <v>1400</v>
+      </c>
+      <c r="BK110" t="n">
+        <v>-0.7</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
@@ -19182,6 +19654,12 @@
       <c r="BI111" t="n">
         <v>1260.316486298508</v>
       </c>
+      <c r="BJ111" t="n">
+        <v>1400</v>
+      </c>
+      <c r="BK111" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
@@ -19361,6 +19839,12 @@
       <c r="BI112" t="n">
         <v>1260.316486298508</v>
       </c>
+      <c r="BJ112" t="n">
+        <v>1400</v>
+      </c>
+      <c r="BK112" t="n">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
@@ -19540,6 +20024,12 @@
       <c r="BI113" t="n">
         <v>1260.316486298508</v>
       </c>
+      <c r="BJ113" t="n">
+        <v>1400</v>
+      </c>
+      <c r="BK113" t="n">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
@@ -19719,6 +20209,12 @@
       <c r="BI114" t="n">
         <v>1260.316486298508</v>
       </c>
+      <c r="BJ114" t="n">
+        <v>1400</v>
+      </c>
+      <c r="BK114" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
@@ -19898,6 +20394,12 @@
       <c r="BI115" t="n">
         <v>1260.316486298508</v>
       </c>
+      <c r="BJ115" t="n">
+        <v>1400</v>
+      </c>
+      <c r="BK115" t="n">
+        <v>-0.1</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
@@ -20077,6 +20579,12 @@
       <c r="BI116" t="n">
         <v>1306.994874679935</v>
       </c>
+      <c r="BJ116" t="n">
+        <v>1400</v>
+      </c>
+      <c r="BK116" t="n">
+        <v>-0.5</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
@@ -20256,6 +20764,12 @@
       <c r="BI117" t="n">
         <v>1306.994874679935</v>
       </c>
+      <c r="BJ117" t="n">
+        <v>1400</v>
+      </c>
+      <c r="BK117" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
@@ -20435,6 +20949,12 @@
       <c r="BI118" t="n">
         <v>1306.994874679935</v>
       </c>
+      <c r="BJ118" t="n">
+        <v>1400</v>
+      </c>
+      <c r="BK118" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
@@ -20614,6 +21134,12 @@
       <c r="BI119" t="n">
         <v>1306.994874679935</v>
       </c>
+      <c r="BJ119" t="n">
+        <v>1400</v>
+      </c>
+      <c r="BK119" t="n">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
@@ -20793,6 +21319,12 @@
       <c r="BI120" t="n">
         <v>1306.994874679935</v>
       </c>
+      <c r="BJ120" t="n">
+        <v>1400</v>
+      </c>
+      <c r="BK120" t="n">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
@@ -20972,6 +21504,12 @@
       <c r="BI121" t="n">
         <v>1306.994874679935</v>
       </c>
+      <c r="BJ121" t="n">
+        <v>1400</v>
+      </c>
+      <c r="BK121" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
@@ -21151,6 +21689,12 @@
       <c r="BI122" t="n">
         <v>1306.994874679935</v>
       </c>
+      <c r="BJ122" t="n">
+        <v>625</v>
+      </c>
+      <c r="BK122" t="n">
+        <v>-1.1</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
@@ -21330,6 +21874,12 @@
       <c r="BI123" t="n">
         <v>1306.994874679935</v>
       </c>
+      <c r="BJ123" t="n">
+        <v>625</v>
+      </c>
+      <c r="BK123" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
@@ -21509,6 +22059,12 @@
       <c r="BI124" t="n">
         <v>1306.994874679935</v>
       </c>
+      <c r="BJ124" t="n">
+        <v>625</v>
+      </c>
+      <c r="BK124" t="n">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
@@ -21688,6 +22244,12 @@
       <c r="BI125" t="n">
         <v>1306.994874679935</v>
       </c>
+      <c r="BJ125" t="n">
+        <v>625</v>
+      </c>
+      <c r="BK125" t="n">
+        <v>1.4</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
@@ -21867,6 +22429,12 @@
       <c r="BI126" t="n">
         <v>1306.994874679935</v>
       </c>
+      <c r="BJ126" t="n">
+        <v>625</v>
+      </c>
+      <c r="BK126" t="n">
+        <v>-0.1</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
@@ -22046,6 +22614,12 @@
       <c r="BI127" t="n">
         <v>1306.994874679935</v>
       </c>
+      <c r="BJ127" t="n">
+        <v>625</v>
+      </c>
+      <c r="BK127" t="n">
+        <v>-0.2</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
@@ -22225,6 +22799,12 @@
       <c r="BI128" t="n">
         <v>583.479854767828</v>
       </c>
+      <c r="BJ128" t="n">
+        <v>625</v>
+      </c>
+      <c r="BK128" t="n">
+        <v>-0.2</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
@@ -22404,6 +22984,12 @@
       <c r="BI129" t="n">
         <v>583.479854767828</v>
       </c>
+      <c r="BJ129" t="n">
+        <v>625</v>
+      </c>
+      <c r="BK129" t="n">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
@@ -22583,6 +23169,12 @@
       <c r="BI130" t="n">
         <v>583.479854767828</v>
       </c>
+      <c r="BJ130" t="n">
+        <v>625</v>
+      </c>
+      <c r="BK130" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
@@ -22762,6 +23354,12 @@
       <c r="BI131" t="n">
         <v>583.479854767828</v>
       </c>
+      <c r="BJ131" t="n">
+        <v>625</v>
+      </c>
+      <c r="BK131" t="n">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
@@ -22941,6 +23539,12 @@
       <c r="BI132" t="n">
         <v>583.479854767828</v>
       </c>
+      <c r="BJ132" t="n">
+        <v>625</v>
+      </c>
+      <c r="BK132" t="n">
+        <v>-0.1</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
@@ -23120,6 +23724,12 @@
       <c r="BI133" t="n">
         <v>583.479854767828</v>
       </c>
+      <c r="BJ133" t="n">
+        <v>625</v>
+      </c>
+      <c r="BK133" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
@@ -23299,6 +23909,12 @@
       <c r="BI134" t="n">
         <v>583.479854767828</v>
       </c>
+      <c r="BJ134" t="n">
+        <v>1611</v>
+      </c>
+      <c r="BK134" t="n">
+        <v>-1.3</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
@@ -23478,6 +24094,12 @@
       <c r="BI135" t="n">
         <v>583.479854767828</v>
       </c>
+      <c r="BJ135" t="n">
+        <v>1611</v>
+      </c>
+      <c r="BK135" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
@@ -23657,6 +24279,12 @@
       <c r="BI136" t="n">
         <v>583.479854767828</v>
       </c>
+      <c r="BJ136" t="n">
+        <v>1611</v>
+      </c>
+      <c r="BK136" t="n">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
@@ -23836,6 +24464,12 @@
       <c r="BI137" t="n">
         <v>583.479854767828</v>
       </c>
+      <c r="BJ137" t="n">
+        <v>1611</v>
+      </c>
+      <c r="BK137" t="n">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
@@ -24015,6 +24649,12 @@
       <c r="BI138" t="n">
         <v>583.479854767828</v>
       </c>
+      <c r="BJ138" t="n">
+        <v>1611</v>
+      </c>
+      <c r="BK138" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
@@ -24194,6 +24834,12 @@
       <c r="BI139" t="n">
         <v>583.479854767828</v>
       </c>
+      <c r="BJ139" t="n">
+        <v>1611</v>
+      </c>
+      <c r="BK139" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
@@ -24373,6 +25019,12 @@
       <c r="BI140" t="n">
         <v>1503.977673649553</v>
       </c>
+      <c r="BJ140" t="n">
+        <v>1611</v>
+      </c>
+      <c r="BK140" t="n">
+        <v>-0.5</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
@@ -24552,6 +25204,12 @@
       <c r="BI141" t="n">
         <v>1503.977673649553</v>
       </c>
+      <c r="BJ141" t="n">
+        <v>1611</v>
+      </c>
+      <c r="BK141" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
@@ -24731,6 +25389,12 @@
       <c r="BI142" t="n">
         <v>1503.977673649553</v>
       </c>
+      <c r="BJ142" t="n">
+        <v>1611</v>
+      </c>
+      <c r="BK142" t="n">
+        <v>-0.2</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
@@ -24910,6 +25574,12 @@
       <c r="BI143" t="n">
         <v>1503.977673649553</v>
       </c>
+      <c r="BJ143" t="n">
+        <v>1611</v>
+      </c>
+      <c r="BK143" t="n">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
@@ -25089,6 +25759,12 @@
       <c r="BI144" t="n">
         <v>1503.977673649553</v>
       </c>
+      <c r="BJ144" t="n">
+        <v>1611</v>
+      </c>
+      <c r="BK144" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
@@ -25268,6 +25944,12 @@
       <c r="BI145" t="n">
         <v>1503.977673649553</v>
       </c>
+      <c r="BJ145" t="n">
+        <v>1611</v>
+      </c>
+      <c r="BK145" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
@@ -25447,6 +26129,12 @@
       <c r="BI146" t="n">
         <v>1503.977673649553</v>
       </c>
+      <c r="BJ146" t="n">
+        <v>784</v>
+      </c>
+      <c r="BK146" t="n">
+        <v>-1.3</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
@@ -25626,6 +26314,12 @@
       <c r="BI147" t="n">
         <v>1503.977673649553</v>
       </c>
+      <c r="BJ147" t="n">
+        <v>784</v>
+      </c>
+      <c r="BK147" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
@@ -25805,6 +26499,12 @@
       <c r="BI148" t="n">
         <v>1503.977673649553</v>
       </c>
+      <c r="BJ148" t="n">
+        <v>784</v>
+      </c>
+      <c r="BK148" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
@@ -25984,6 +26684,12 @@
       <c r="BI149" t="n">
         <v>1503.977673649553</v>
       </c>
+      <c r="BJ149" t="n">
+        <v>784</v>
+      </c>
+      <c r="BK149" t="n">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
@@ -26163,6 +26869,12 @@
       <c r="BI150" t="n">
         <v>1503.977673649553</v>
       </c>
+      <c r="BJ150" t="n">
+        <v>784</v>
+      </c>
+      <c r="BK150" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
@@ -26342,6 +27054,12 @@
       <c r="BI151" t="n">
         <v>1503.977673649553</v>
       </c>
+      <c r="BJ151" t="n">
+        <v>784</v>
+      </c>
+      <c r="BK151" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
@@ -26521,6 +27239,12 @@
       <c r="BI152" t="n">
         <v>731.9171298207634</v>
       </c>
+      <c r="BJ152" t="n">
+        <v>784</v>
+      </c>
+      <c r="BK152" t="n">
+        <v>-0.9</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
@@ -26700,6 +27424,12 @@
       <c r="BI153" t="n">
         <v>731.9171298207634</v>
       </c>
+      <c r="BJ153" t="n">
+        <v>784</v>
+      </c>
+      <c r="BK153" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
@@ -26879,6 +27609,12 @@
       <c r="BI154" t="n">
         <v>731.9171298207634</v>
       </c>
+      <c r="BJ154" t="n">
+        <v>784</v>
+      </c>
+      <c r="BK154" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
@@ -27058,6 +27794,12 @@
       <c r="BI155" t="n">
         <v>731.9171298207634</v>
       </c>
+      <c r="BJ155" t="n">
+        <v>784</v>
+      </c>
+      <c r="BK155" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
@@ -27237,6 +27979,12 @@
       <c r="BI156" t="n">
         <v>731.9171298207634</v>
       </c>
+      <c r="BJ156" t="n">
+        <v>784</v>
+      </c>
+      <c r="BK156" t="n">
+        <v>-0.1</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
@@ -27416,6 +28164,12 @@
       <c r="BI157" t="n">
         <v>731.9171298207634</v>
       </c>
+      <c r="BJ157" t="n">
+        <v>784</v>
+      </c>
+      <c r="BK157" t="n">
+        <v>-0.6</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
@@ -27595,6 +28349,12 @@
       <c r="BI158" t="n">
         <v>731.9171298207634</v>
       </c>
+      <c r="BJ158" t="n">
+        <v>1200</v>
+      </c>
+      <c r="BK158" t="n">
+        <v>-1.6</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
@@ -27774,6 +28534,12 @@
       <c r="BI159" t="n">
         <v>731.9171298207634</v>
       </c>
+      <c r="BJ159" t="n">
+        <v>1200</v>
+      </c>
+      <c r="BK159" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
@@ -27953,6 +28719,12 @@
       <c r="BI160" t="n">
         <v>731.9171298207634</v>
       </c>
+      <c r="BJ160" t="n">
+        <v>1200</v>
+      </c>
+      <c r="BK160" t="n">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
@@ -28132,6 +28904,12 @@
       <c r="BI161" t="n">
         <v>731.9171298207634</v>
       </c>
+      <c r="BJ161" t="n">
+        <v>1200</v>
+      </c>
+      <c r="BK161" t="n">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
@@ -28311,6 +29089,12 @@
       <c r="BI162" t="n">
         <v>731.9171298207634</v>
       </c>
+      <c r="BJ162" t="n">
+        <v>1200</v>
+      </c>
+      <c r="BK162" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
@@ -28490,6 +29274,12 @@
       <c r="BI163" t="n">
         <v>731.9171298207634</v>
       </c>
+      <c r="BJ163" t="n">
+        <v>1200</v>
+      </c>
+      <c r="BK163" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
@@ -28669,6 +29459,12 @@
       <c r="BI164" t="n">
         <v>1120.28132115423</v>
       </c>
+      <c r="BJ164" t="n">
+        <v>1200</v>
+      </c>
+      <c r="BK164" t="n">
+        <v>-0.9</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
@@ -28848,6 +29644,12 @@
       <c r="BI165" t="n">
         <v>1120.28132115423</v>
       </c>
+      <c r="BJ165" t="n">
+        <v>1200</v>
+      </c>
+      <c r="BK165" t="n">
+        <v>-0.3</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
@@ -29027,6 +29829,12 @@
       <c r="BI166" t="n">
         <v>1120.28132115423</v>
       </c>
+      <c r="BJ166" t="n">
+        <v>1200</v>
+      </c>
+      <c r="BK166" t="n">
+        <v>-0.3</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
@@ -29206,6 +30014,12 @@
       <c r="BI167" t="n">
         <v>1120.28132115423</v>
       </c>
+      <c r="BJ167" t="n">
+        <v>1200</v>
+      </c>
+      <c r="BK167" t="n">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
@@ -29385,6 +30199,12 @@
       <c r="BI168" t="n">
         <v>1120.28132115423</v>
       </c>
+      <c r="BJ168" t="n">
+        <v>1200</v>
+      </c>
+      <c r="BK168" t="n">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
@@ -29566,6 +30386,12 @@
       <c r="BI169" t="n">
         <v>1120.28132115423</v>
       </c>
+      <c r="BJ169" t="n">
+        <v>1200</v>
+      </c>
+      <c r="BK169" t="n">
+        <v>-0.3</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
@@ -29747,6 +30573,12 @@
       <c r="BI170" t="n">
         <v>1120.28132115423</v>
       </c>
+      <c r="BJ170" t="n">
+        <v>1380</v>
+      </c>
+      <c r="BK170" t="n">
+        <v>-1.9</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
@@ -29928,6 +30760,12 @@
       <c r="BI171" t="n">
         <v>1120.28132115423</v>
       </c>
+      <c r="BJ171" t="n">
+        <v>1380</v>
+      </c>
+      <c r="BK171" t="n">
+        <v>-0.4</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
@@ -30109,6 +30947,12 @@
       <c r="BI172" t="n">
         <v>1120.28132115423</v>
       </c>
+      <c r="BJ172" t="n">
+        <v>1380</v>
+      </c>
+      <c r="BK172" t="n">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
@@ -30290,6 +31134,12 @@
       <c r="BI173" t="n">
         <v>1120.28132115423</v>
       </c>
+      <c r="BJ173" t="n">
+        <v>1380</v>
+      </c>
+      <c r="BK173" t="n">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
@@ -30471,6 +31321,12 @@
       <c r="BI174" t="n">
         <v>1120.28132115423</v>
       </c>
+      <c r="BJ174" t="n">
+        <v>1380</v>
+      </c>
+      <c r="BK174" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
@@ -30652,6 +31508,12 @@
       <c r="BI175" t="n">
         <v>1120.28132115423</v>
       </c>
+      <c r="BJ175" t="n">
+        <v>1380</v>
+      </c>
+      <c r="BK175" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
@@ -30833,6 +31695,12 @@
       <c r="BI176" t="n">
         <v>1288.323519327364</v>
       </c>
+      <c r="BJ176" t="n">
+        <v>1380</v>
+      </c>
+      <c r="BK176" t="n">
+        <v>-0.7</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
@@ -31014,6 +31882,12 @@
       <c r="BI177" t="n">
         <v>1288.323519327364</v>
       </c>
+      <c r="BJ177" t="n">
+        <v>1380</v>
+      </c>
+      <c r="BK177" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
@@ -31195,6 +32069,12 @@
       <c r="BI178" t="n">
         <v>1288.323519327364</v>
       </c>
+      <c r="BJ178" t="n">
+        <v>1380</v>
+      </c>
+      <c r="BK178" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
@@ -31376,6 +32256,12 @@
       <c r="BI179" t="n">
         <v>1288.323519327364</v>
       </c>
+      <c r="BJ179" t="n">
+        <v>1380</v>
+      </c>
+      <c r="BK179" t="n">
+        <v>1.1</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
@@ -31557,6 +32443,12 @@
       <c r="BI180" t="n">
         <v>1288.323519327364</v>
       </c>
+      <c r="BJ180" t="n">
+        <v>1380</v>
+      </c>
+      <c r="BK180" t="n">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
@@ -31738,6 +32630,12 @@
       <c r="BI181" t="n">
         <v>1288.323519327364</v>
       </c>
+      <c r="BJ181" t="n">
+        <v>1380</v>
+      </c>
+      <c r="BK181" t="n">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
@@ -31919,6 +32817,12 @@
       <c r="BI182" t="n">
         <v>1288.323519327364</v>
       </c>
+      <c r="BJ182" t="n">
+        <v>1131</v>
+      </c>
+      <c r="BK182" t="n">
+        <v>-0.5</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
@@ -32100,6 +33004,12 @@
       <c r="BI183" t="n">
         <v>1288.323519327364</v>
       </c>
+      <c r="BJ183" t="n">
+        <v>1131</v>
+      </c>
+      <c r="BK183" t="n">
+        <v>-0.4</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
@@ -32281,6 +33191,12 @@
       <c r="BI184" t="n">
         <v>1288.323519327364</v>
       </c>
+      <c r="BJ184" t="n">
+        <v>1131</v>
+      </c>
+      <c r="BK184" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
@@ -32462,6 +33378,12 @@
       <c r="BI185" t="n">
         <v>1288.323519327364</v>
       </c>
+      <c r="BJ185" t="n">
+        <v>1131</v>
+      </c>
+      <c r="BK185" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
@@ -32643,6 +33565,12 @@
       <c r="BI186" t="n">
         <v>1288.323519327364</v>
       </c>
+      <c r="BJ186" t="n">
+        <v>1131</v>
+      </c>
+      <c r="BK186" t="n">
+        <v>-0.1</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
@@ -32824,6 +33752,12 @@
       <c r="BI187" t="n">
         <v>1288.323519327364</v>
       </c>
+      <c r="BJ187" t="n">
+        <v>1131</v>
+      </c>
+      <c r="BK187" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
@@ -33005,6 +33939,12 @@
       <c r="BI188" t="n">
         <v>1055.865145187862</v>
       </c>
+      <c r="BJ188" t="n">
+        <v>1131</v>
+      </c>
+      <c r="BK188" t="n">
+        <v>-0.7</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
@@ -33186,6 +34126,12 @@
       <c r="BI189" t="n">
         <v>1055.865145187862</v>
       </c>
+      <c r="BJ189" t="n">
+        <v>1131</v>
+      </c>
+      <c r="BK189" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
@@ -33367,6 +34313,12 @@
       <c r="BI190" t="n">
         <v>1055.865145187862</v>
       </c>
+      <c r="BJ190" t="n">
+        <v>1131</v>
+      </c>
+      <c r="BK190" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
@@ -33548,6 +34500,12 @@
       <c r="BI191" t="n">
         <v>1055.865145187862</v>
       </c>
+      <c r="BJ191" t="n">
+        <v>1131</v>
+      </c>
+      <c r="BK191" t="n">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
@@ -33729,6 +34687,12 @@
       <c r="BI192" t="n">
         <v>1055.865145187862</v>
       </c>
+      <c r="BJ192" t="n">
+        <v>1131</v>
+      </c>
+      <c r="BK192" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
@@ -33910,6 +34874,12 @@
       <c r="BI193" t="n">
         <v>1055.865145187862</v>
       </c>
+      <c r="BJ193" t="n">
+        <v>1131</v>
+      </c>
+      <c r="BK193" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
@@ -34095,6 +35065,12 @@
       <c r="BI194" t="n">
         <v>1055.865145187862</v>
       </c>
+      <c r="BJ194" t="n">
+        <v>1550</v>
+      </c>
+      <c r="BK194" t="n">
+        <v>-1.1</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
@@ -34280,6 +35256,12 @@
       <c r="BI195" t="n">
         <v>1055.865145187862</v>
       </c>
+      <c r="BJ195" t="n">
+        <v>1550</v>
+      </c>
+      <c r="BK195" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
@@ -34465,6 +35447,12 @@
       <c r="BI196" t="n">
         <v>1055.865145187862</v>
       </c>
+      <c r="BJ196" t="n">
+        <v>1550</v>
+      </c>
+      <c r="BK196" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
@@ -34650,6 +35638,12 @@
       <c r="BI197" t="n">
         <v>1055.865145187862</v>
       </c>
+      <c r="BJ197" t="n">
+        <v>1550</v>
+      </c>
+      <c r="BK197" t="n">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
@@ -34835,6 +35829,12 @@
       <c r="BI198" t="n">
         <v>1055.865145187862</v>
       </c>
+      <c r="BJ198" t="n">
+        <v>1550</v>
+      </c>
+      <c r="BK198" t="n">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
@@ -35020,6 +36020,12 @@
       <c r="BI199" t="n">
         <v>1055.865145187862</v>
       </c>
+      <c r="BJ199" t="n">
+        <v>1550</v>
+      </c>
+      <c r="BK199" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
@@ -35205,6 +36211,12 @@
       <c r="BI200" t="n">
         <v>1447.030039824213</v>
       </c>
+      <c r="BJ200" t="n">
+        <v>1550</v>
+      </c>
+      <c r="BK200" t="n">
+        <v>-0.7</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
@@ -35390,6 +36402,12 @@
       <c r="BI201" t="n">
         <v>1447.030039824213</v>
       </c>
+      <c r="BJ201" t="n">
+        <v>1550</v>
+      </c>
+      <c r="BK201" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
@@ -35575,6 +36593,12 @@
       <c r="BI202" t="n">
         <v>1447.030039824213</v>
       </c>
+      <c r="BJ202" t="n">
+        <v>1550</v>
+      </c>
+      <c r="BK202" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
@@ -35760,6 +36784,12 @@
       <c r="BI203" t="n">
         <v>1447.030039824213</v>
       </c>
+      <c r="BJ203" t="n">
+        <v>1550</v>
+      </c>
+      <c r="BK203" t="n">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
@@ -35945,6 +36975,12 @@
       <c r="BI204" t="n">
         <v>1447.030039824213</v>
       </c>
+      <c r="BJ204" t="n">
+        <v>1550</v>
+      </c>
+      <c r="BK204" t="n">
+        <v>-0.1</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
@@ -36130,6 +37166,12 @@
       <c r="BI205" t="n">
         <v>1447.030039824213</v>
       </c>
+      <c r="BJ205" t="n">
+        <v>1550</v>
+      </c>
+      <c r="BK205" t="n">
+        <v>-0.4</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
@@ -36315,6 +37357,12 @@
       <c r="BI206" t="n">
         <v>1447.030039824213</v>
       </c>
+      <c r="BJ206" t="n">
+        <v>1250</v>
+      </c>
+      <c r="BK206" t="n">
+        <v>-1.3</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
@@ -36500,6 +37548,12 @@
       <c r="BI207" t="n">
         <v>1447.030039824213</v>
       </c>
+      <c r="BJ207" t="n">
+        <v>1250</v>
+      </c>
+      <c r="BK207" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
@@ -36685,6 +37739,12 @@
       <c r="BI208" t="n">
         <v>1447.030039824213</v>
       </c>
+      <c r="BJ208" t="n">
+        <v>1250</v>
+      </c>
+      <c r="BK208" t="n">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
@@ -36870,6 +37930,12 @@
       <c r="BI209" t="n">
         <v>1447.030039824213</v>
       </c>
+      <c r="BJ209" t="n">
+        <v>1250</v>
+      </c>
+      <c r="BK209" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
@@ -37055,6 +38121,12 @@
       <c r="BI210" t="n">
         <v>1447.030039824213</v>
       </c>
+      <c r="BJ210" t="n">
+        <v>1250</v>
+      </c>
+      <c r="BK210" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
@@ -37240,6 +38312,12 @@
       <c r="BI211" t="n">
         <v>1447.030039824213</v>
       </c>
+      <c r="BJ211" t="n">
+        <v>1250</v>
+      </c>
+      <c r="BK211" t="n">
+        <v>-0.1</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
@@ -37425,6 +38503,12 @@
       <c r="BI212" t="n">
         <v>1166.959709535656</v>
       </c>
+      <c r="BJ212" t="n">
+        <v>1250</v>
+      </c>
+      <c r="BK212" t="n">
+        <v>-0.6</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
@@ -37610,6 +38694,12 @@
       <c r="BI213" t="n">
         <v>1166.959709535656</v>
       </c>
+      <c r="BJ213" t="n">
+        <v>1250</v>
+      </c>
+      <c r="BK213" t="n">
+        <v>-0.1</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
@@ -37795,6 +38885,12 @@
       <c r="BI214" t="n">
         <v>1166.959709535656</v>
       </c>
+      <c r="BJ214" t="n">
+        <v>1250</v>
+      </c>
+      <c r="BK214" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
@@ -37980,6 +39076,12 @@
       <c r="BI215" t="n">
         <v>1166.959709535656</v>
       </c>
+      <c r="BJ215" t="n">
+        <v>1250</v>
+      </c>
+      <c r="BK215" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
@@ -38165,6 +39267,12 @@
       <c r="BI216" t="n">
         <v>1166.959709535656</v>
       </c>
+      <c r="BJ216" t="n">
+        <v>1250</v>
+      </c>
+      <c r="BK216" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
@@ -38350,6 +39458,12 @@
       <c r="BI217" t="n">
         <v>1166.959709535656</v>
       </c>
+      <c r="BJ217" t="n">
+        <v>1250</v>
+      </c>
+      <c r="BK217" t="n">
+        <v>-0.1</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
@@ -38535,6 +39649,12 @@
       <c r="BI218" t="n">
         <v>1166.959709535656</v>
       </c>
+      <c r="BJ218" t="n">
+        <v>1550</v>
+      </c>
+      <c r="BK218" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
@@ -38720,6 +39840,12 @@
       <c r="BI219" t="n">
         <v>1166.959709535656</v>
       </c>
+      <c r="BJ219" t="n">
+        <v>1550</v>
+      </c>
+      <c r="BK219" t="n">
+        <v>-0.1</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
@@ -38905,6 +40031,12 @@
       <c r="BI220" t="n">
         <v>1166.959709535656</v>
       </c>
+      <c r="BJ220" t="n">
+        <v>1550</v>
+      </c>
+      <c r="BK220" t="n">
+        <v>-0.4</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
@@ -39090,6 +40222,12 @@
       <c r="BI221" t="n">
         <v>1166.959709535656</v>
       </c>
+      <c r="BJ221" t="n">
+        <v>1550</v>
+      </c>
+      <c r="BK221" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
@@ -39275,6 +40413,12 @@
       <c r="BI222" t="n">
         <v>1166.959709535656</v>
       </c>
+      <c r="BJ222" t="n">
+        <v>1550</v>
+      </c>
+      <c r="BK222" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
@@ -39460,6 +40604,12 @@
       <c r="BI223" t="n">
         <v>1166.959709535656</v>
       </c>
+      <c r="BJ223" t="n">
+        <v>1550</v>
+      </c>
+      <c r="BK223" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
@@ -39645,6 +40795,12 @@
       <c r="BI224" t="n">
         <v>1447.030039824213</v>
       </c>
+      <c r="BJ224" t="n">
+        <v>1550</v>
+      </c>
+      <c r="BK224" t="n">
+        <v>-0.9</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
@@ -39830,6 +40986,12 @@
       <c r="BI225" t="n">
         <v>1447.030039824213</v>
       </c>
+      <c r="BJ225" t="n">
+        <v>1550</v>
+      </c>
+      <c r="BK225" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
@@ -40015,6 +41177,12 @@
       <c r="BI226" t="n">
         <v>1447.030039824213</v>
       </c>
+      <c r="BJ226" t="n">
+        <v>1550</v>
+      </c>
+      <c r="BK226" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
@@ -40200,6 +41368,12 @@
       <c r="BI227" t="n">
         <v>1447.030039824213</v>
       </c>
+      <c r="BJ227" t="n">
+        <v>1550</v>
+      </c>
+      <c r="BK227" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
@@ -40385,6 +41559,12 @@
       <c r="BI228" t="n">
         <v>1447.030039824213</v>
       </c>
+      <c r="BJ228" t="n">
+        <v>1550</v>
+      </c>
+      <c r="BK228" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
@@ -40570,6 +41750,12 @@
       <c r="BI229" t="n">
         <v>1447.030039824213</v>
       </c>
+      <c r="BJ229" t="n">
+        <v>1550</v>
+      </c>
+      <c r="BK229" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
@@ -40755,6 +41941,12 @@
       <c r="BI230" t="n">
         <v>1447.030039824213</v>
       </c>
+      <c r="BJ230" t="n">
+        <v>1300</v>
+      </c>
+      <c r="BK230" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
@@ -40940,6 +42132,12 @@
       <c r="BI231" t="n">
         <v>1447.030039824213</v>
       </c>
+      <c r="BJ231" t="n">
+        <v>1300</v>
+      </c>
+      <c r="BK231" t="n">
+        <v>-0.6</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
@@ -41125,6 +42323,12 @@
       <c r="BI232" t="n">
         <v>1447.030039824213</v>
       </c>
+      <c r="BJ232" t="n">
+        <v>1300</v>
+      </c>
+      <c r="BK232" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
@@ -41310,6 +42514,12 @@
       <c r="BI233" t="n">
         <v>1447.030039824213</v>
       </c>
+      <c r="BJ233" t="n">
+        <v>1300</v>
+      </c>
+      <c r="BK233" t="n">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
@@ -41495,6 +42705,12 @@
       <c r="BI234" t="n">
         <v>1447.030039824213</v>
       </c>
+      <c r="BJ234" t="n">
+        <v>1300</v>
+      </c>
+      <c r="BK234" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
@@ -41680,6 +42896,12 @@
       <c r="BI235" t="n">
         <v>1447.030039824213</v>
       </c>
+      <c r="BJ235" t="n">
+        <v>1300</v>
+      </c>
+      <c r="BK235" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
@@ -41865,6 +43087,12 @@
       <c r="BI236" t="n">
         <v>1213.638097917082</v>
       </c>
+      <c r="BJ236" t="n">
+        <v>1300</v>
+      </c>
+      <c r="BK236" t="n">
+        <v>-0.8</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
@@ -42050,6 +43278,12 @@
       <c r="BI237" t="n">
         <v>1213.638097917082</v>
       </c>
+      <c r="BJ237" t="n">
+        <v>1300</v>
+      </c>
+      <c r="BK237" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
@@ -42235,6 +43469,12 @@
       <c r="BI238" t="n">
         <v>1213.638097917082</v>
       </c>
+      <c r="BJ238" t="n">
+        <v>1300</v>
+      </c>
+      <c r="BK238" t="n">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
@@ -42420,6 +43660,12 @@
       <c r="BI239" t="n">
         <v>1213.638097917082</v>
       </c>
+      <c r="BJ239" t="n">
+        <v>1300</v>
+      </c>
+      <c r="BK239" t="n">
+        <v>1.8</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
@@ -42605,6 +43851,12 @@
       <c r="BI240" t="n">
         <v>1213.638097917082</v>
       </c>
+      <c r="BJ240" t="n">
+        <v>1300</v>
+      </c>
+      <c r="BK240" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
@@ -42790,6 +44042,12 @@
       <c r="BI241" t="n">
         <v>1213.638097917082</v>
       </c>
+      <c r="BJ241" t="n">
+        <v>1300</v>
+      </c>
+      <c r="BK241" t="n">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
@@ -42975,6 +44233,12 @@
       <c r="BI242" t="n">
         <v>1213.638097917082</v>
       </c>
+      <c r="BJ242" t="n">
+        <v>780</v>
+      </c>
+      <c r="BK242" t="n">
+        <v>-0.4</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
@@ -43160,6 +44424,12 @@
       <c r="BI243" t="n">
         <v>1213.638097917082</v>
       </c>
+      <c r="BJ243" t="n">
+        <v>780</v>
+      </c>
+      <c r="BK243" t="n">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
@@ -43345,6 +44615,12 @@
       <c r="BI244" t="n">
         <v>1213.638097917082</v>
       </c>
+      <c r="BJ244" t="n">
+        <v>780</v>
+      </c>
+      <c r="BK244" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
@@ -43530,6 +44806,12 @@
       <c r="BI245" t="n">
         <v>1213.638097917082</v>
       </c>
+      <c r="BJ245" t="n">
+        <v>780</v>
+      </c>
+      <c r="BK245" t="n">
+        <v>-0.2</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
@@ -43715,6 +44997,12 @@
       <c r="BI246" t="n">
         <v>1213.638097917082</v>
       </c>
+      <c r="BJ246" t="n">
+        <v>780</v>
+      </c>
+      <c r="BK246" t="n">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
@@ -43900,6 +45188,12 @@
       <c r="BI247" t="n">
         <v>1213.638097917082</v>
       </c>
+      <c r="BJ247" t="n">
+        <v>780</v>
+      </c>
+      <c r="BK247" t="n">
+        <v>1.9</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
@@ -44085,6 +45379,12 @@
       <c r="BI248" t="n">
         <v>728.1828587502494</v>
       </c>
+      <c r="BJ248" t="n">
+        <v>780</v>
+      </c>
+      <c r="BK248" t="n">
+        <v>-0.3</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
@@ -44270,6 +45570,12 @@
       <c r="BI249" t="n">
         <v>728.1828587502494</v>
       </c>
+      <c r="BJ249" t="n">
+        <v>780</v>
+      </c>
+      <c r="BK249" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
@@ -44455,6 +45761,12 @@
       <c r="BI250" t="n">
         <v>728.1828587502494</v>
       </c>
+      <c r="BJ250" t="n">
+        <v>780</v>
+      </c>
+      <c r="BK250" t="n">
+        <v>-0.7</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
@@ -44640,6 +45952,12 @@
       <c r="BI251" t="n">
         <v>728.1828587502494</v>
       </c>
+      <c r="BJ251" t="n">
+        <v>780</v>
+      </c>
+      <c r="BK251" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
@@ -44825,6 +46143,12 @@
       <c r="BI252" t="n">
         <v>728.1828587502494</v>
       </c>
+      <c r="BJ252" t="n">
+        <v>780</v>
+      </c>
+      <c r="BK252" t="n">
+        <v>-0.1</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
@@ -45010,6 +46334,12 @@
       <c r="BI253" t="n">
         <v>728.1828587502494</v>
       </c>
+      <c r="BJ253" t="n">
+        <v>780</v>
+      </c>
+      <c r="BK253" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
@@ -45194,6 +46524,12 @@
       </c>
       <c r="BI254" t="n">
         <v>728.1828587502494</v>
+      </c>
+      <c r="BJ254" t="n">
+        <v>765</v>
+      </c>
+      <c r="BK254" t="n">
+        <v>-0.2</v>
       </c>
     </row>
     <row r="255">
@@ -45338,6 +46674,12 @@
       <c r="BI255" t="n">
         <v>728.1828587502494</v>
       </c>
+      <c r="BJ255" t="n">
+        <v>765</v>
+      </c>
+      <c r="BK255" t="n">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
@@ -45481,6 +46823,12 @@
       <c r="BI256" t="n">
         <v>728.1828587502494</v>
       </c>
+      <c r="BJ256" t="n">
+        <v>765</v>
+      </c>
+      <c r="BK256" t="n">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
@@ -45622,6 +46970,12 @@
       <c r="BI257" t="n">
         <v>728.1828587502494</v>
       </c>
+      <c r="BJ257" t="n">
+        <v>765</v>
+      </c>
+      <c r="BK257" t="n">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="n">
@@ -45763,6 +47117,12 @@
       <c r="BI258" t="n">
         <v>728.1828587502494</v>
       </c>
+      <c r="BJ258" t="n">
+        <v>765</v>
+      </c>
+      <c r="BK258" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="n">
@@ -45904,6 +47264,12 @@
       <c r="BI259" t="n">
         <v>728.1828587502494</v>
       </c>
+      <c r="BJ259" t="n">
+        <v>765</v>
+      </c>
+      <c r="BK259" t="n">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
@@ -46033,6 +47399,12 @@
       <c r="BI260" t="n">
         <v>714.1793422358214</v>
       </c>
+      <c r="BJ260" t="n">
+        <v>765</v>
+      </c>
+      <c r="BK260" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="n">
@@ -46153,6 +47525,12 @@
       </c>
       <c r="BI261" t="n">
         <v>714.1793422358214</v>
+      </c>
+      <c r="BJ261" t="n">
+        <v>765</v>
+      </c>
+      <c r="BK261" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="262">
@@ -46263,6 +47641,12 @@
       <c r="BI262" t="n">
         <v>714.1793422358214</v>
       </c>
+      <c r="BJ262" t="n">
+        <v>765</v>
+      </c>
+      <c r="BK262" t="n">
+        <v>0.2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
